--- a/Quality reports shared/training_analysis.xlsx
+++ b/Quality reports shared/training_analysis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F365"/>
+  <dimension ref="A1:F370"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7714,7 +7714,7 @@
         </is>
       </c>
       <c r="F260" t="n">
-        <v>142</v>
+        <v>133</v>
       </c>
     </row>
     <row r="261">
@@ -8074,11 +8074,11 @@
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>HHT 1 - Day 2 - VSLAs</t>
+          <t>Agriculture Perennial Crops</t>
         </is>
       </c>
       <c r="F273" t="n">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="274">
@@ -8102,11 +8102,11 @@
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>HHT 1 - Mindset and behavioral change</t>
+          <t>HHT 1 - Day 2 - VSLAs</t>
         </is>
       </c>
       <c r="F274" t="n">
-        <v>111</v>
+        <v>117</v>
       </c>
     </row>
     <row r="275">
@@ -8130,11 +8130,11 @@
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>VSLA Leadership Training</t>
+          <t>HHT 1 - Mindset and behavioral change</t>
         </is>
       </c>
       <c r="F275" t="n">
-        <v>14</v>
+        <v>111</v>
       </c>
     </row>
     <row r="276">
@@ -8158,11 +8158,11 @@
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>WASH - Training 1</t>
+          <t>VSLA Leadership Training</t>
         </is>
       </c>
       <c r="F276" t="n">
-        <v>110</v>
+        <v>14</v>
       </c>
     </row>
     <row r="277">
@@ -8173,7 +8173,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Kitonezi</t>
+          <t>Kisimbanyiriri</t>
         </is>
       </c>
       <c r="C277" t="n">
@@ -8186,11 +8186,11 @@
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>Agriculture 1 - Organics Farming &amp; Keyhole gardening</t>
+          <t>WASH - Training 1</t>
         </is>
       </c>
       <c r="F277" t="n">
-        <v>183</v>
+        <v>110</v>
       </c>
     </row>
     <row r="278">
@@ -8214,11 +8214,11 @@
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 1)</t>
+          <t>Agriculture 1 - Organics Farming &amp; Keyhole gardening</t>
         </is>
       </c>
       <c r="F278" t="n">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="279">
@@ -8242,11 +8242,11 @@
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 2)</t>
+          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 1)</t>
         </is>
       </c>
       <c r="F279" t="n">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="280">
@@ -8270,11 +8270,11 @@
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>HHT 1 - Day 2 - VSLAs</t>
+          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 2)</t>
         </is>
       </c>
       <c r="F280" t="n">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="281">
@@ -8298,11 +8298,11 @@
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>HHT 1 - Mindset and behavioral change</t>
+          <t>HHT 1 - Day 2 - VSLAs</t>
         </is>
       </c>
       <c r="F281" t="n">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="282">
@@ -8326,11 +8326,11 @@
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>VSLA Leadership Training</t>
+          <t>HHT 1 - Mindset and behavioral change</t>
         </is>
       </c>
       <c r="F282" t="n">
-        <v>28</v>
+        <v>181</v>
       </c>
     </row>
     <row r="283">
@@ -8354,11 +8354,11 @@
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>WASH - Training 1</t>
+          <t>VSLA Leadership Training</t>
         </is>
       </c>
       <c r="F283" t="n">
-        <v>185</v>
+        <v>28</v>
       </c>
     </row>
     <row r="284">
@@ -8369,7 +8369,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Kiwaguzi_A</t>
+          <t>Kitonezi</t>
         </is>
       </c>
       <c r="C284" t="n">
@@ -8382,11 +8382,11 @@
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>Agriculture 1 - Organics Farming &amp; Keyhole gardening</t>
+          <t>WASH - Training 1</t>
         </is>
       </c>
       <c r="F284" t="n">
-        <v>116</v>
+        <v>185</v>
       </c>
     </row>
     <row r="285">
@@ -8410,11 +8410,11 @@
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 1)</t>
+          <t>Agriculture 1 - Organics Farming &amp; Keyhole gardening</t>
         </is>
       </c>
       <c r="F285" t="n">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="286">
@@ -8438,11 +8438,11 @@
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 2)</t>
+          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 1)</t>
         </is>
       </c>
       <c r="F286" t="n">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="287">
@@ -8466,11 +8466,11 @@
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>HHT 1 - Day 2 - VSLAs</t>
+          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 2)</t>
         </is>
       </c>
       <c r="F287" t="n">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="288">
@@ -8494,11 +8494,11 @@
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>HHT 1 - Mindset and behavioral change</t>
+          <t>HHT 1 - Day 2 - VSLAs</t>
         </is>
       </c>
       <c r="F288" t="n">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="289">
@@ -8522,11 +8522,11 @@
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>VSLA Leadership Training</t>
+          <t>HHT 1 - Mindset and behavioral change</t>
         </is>
       </c>
       <c r="F289" t="n">
-        <v>14</v>
+        <v>110</v>
       </c>
     </row>
     <row r="290">
@@ -8550,11 +8550,11 @@
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>WASH - Training 1</t>
+          <t>VSLA Leadership Training</t>
         </is>
       </c>
       <c r="F290" t="n">
-        <v>115</v>
+        <v>14</v>
       </c>
     </row>
     <row r="291">
@@ -8565,7 +8565,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>Kiwaguzi_B</t>
+          <t>Kiwaguzi_A</t>
         </is>
       </c>
       <c r="C291" t="n">
@@ -8578,11 +8578,11 @@
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>Agriculture 1 - Organics Farming &amp; Keyhole gardening</t>
+          <t>WASH - Training 1</t>
         </is>
       </c>
       <c r="F291" t="n">
-        <v>101</v>
+        <v>115</v>
       </c>
     </row>
     <row r="292">
@@ -8606,11 +8606,11 @@
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 1)</t>
+          <t>Agriculture 1 - Organics Farming &amp; Keyhole gardening</t>
         </is>
       </c>
       <c r="F292" t="n">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="293">
@@ -8634,11 +8634,11 @@
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 2)</t>
+          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 1)</t>
         </is>
       </c>
       <c r="F293" t="n">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="294">
@@ -8662,11 +8662,11 @@
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>HHT 1 - Day 2 - VSLAs</t>
+          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 2)</t>
         </is>
       </c>
       <c r="F294" t="n">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="295">
@@ -8690,11 +8690,11 @@
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>HHT 1 - Mindset and behavioral change</t>
+          <t>HHT 1 - Day 2 - VSLAs</t>
         </is>
       </c>
       <c r="F295" t="n">
-        <v>103</v>
+        <v>110</v>
       </c>
     </row>
     <row r="296">
@@ -8718,11 +8718,11 @@
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>VSLA Leadership Training</t>
+          <t>HHT 1 - Mindset and behavioral change</t>
         </is>
       </c>
       <c r="F296" t="n">
-        <v>21</v>
+        <v>103</v>
       </c>
     </row>
     <row r="297">
@@ -8746,11 +8746,11 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>WASH - Training 1</t>
+          <t>VSLA Leadership Training</t>
         </is>
       </c>
       <c r="F297" t="n">
-        <v>102</v>
+        <v>21</v>
       </c>
     </row>
     <row r="298">
@@ -8761,7 +8761,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Kyaluwakula</t>
+          <t>Kiwaguzi_B</t>
         </is>
       </c>
       <c r="C298" t="n">
@@ -8774,11 +8774,11 @@
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>Agriculture 1 - Organics Farming &amp; Keyhole gardening</t>
+          <t>WASH - Training 1</t>
         </is>
       </c>
       <c r="F298" t="n">
-        <v>78</v>
+        <v>102</v>
       </c>
     </row>
     <row r="299">
@@ -8802,11 +8802,11 @@
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 1)</t>
+          <t>Agriculture 1 - Organics Farming &amp; Keyhole gardening</t>
         </is>
       </c>
       <c r="F299" t="n">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="300">
@@ -8830,11 +8830,11 @@
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 2)</t>
+          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 1)</t>
         </is>
       </c>
       <c r="F300" t="n">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="301">
@@ -8858,7 +8858,7 @@
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>HHT 1 - Day 2 - VSLAs</t>
+          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 2)</t>
         </is>
       </c>
       <c r="F301" t="n">
@@ -8886,11 +8886,11 @@
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>HHT 1 - Mindset and behavioral change</t>
+          <t>HHT 1 - Day 2 - VSLAs</t>
         </is>
       </c>
       <c r="F302" t="n">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="303">
@@ -8914,11 +8914,11 @@
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>VSLA Leadership Training</t>
+          <t>HHT 1 - Mindset and behavioral change</t>
         </is>
       </c>
       <c r="F303" t="n">
-        <v>14</v>
+        <v>79</v>
       </c>
     </row>
     <row r="304">
@@ -8942,11 +8942,11 @@
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>WASH - Training 1</t>
+          <t>VSLA Leadership Training</t>
         </is>
       </c>
       <c r="F304" t="n">
-        <v>79</v>
+        <v>14</v>
       </c>
     </row>
     <row r="305">
@@ -8957,7 +8957,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Kyamakanaga_A</t>
+          <t>Kyaluwakula</t>
         </is>
       </c>
       <c r="C305" t="n">
@@ -8970,11 +8970,11 @@
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>Agriculture 1 - Organics Farming &amp; Keyhole gardening</t>
+          <t>WASH - Training 1</t>
         </is>
       </c>
       <c r="F305" t="n">
-        <v>136</v>
+        <v>79</v>
       </c>
     </row>
     <row r="306">
@@ -8998,11 +8998,11 @@
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 1)</t>
+          <t>Agriculture 1 - Organics Farming &amp; Keyhole gardening</t>
         </is>
       </c>
       <c r="F306" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="307">
@@ -9026,11 +9026,11 @@
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 2)</t>
+          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 1)</t>
         </is>
       </c>
       <c r="F307" t="n">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="308">
@@ -9054,11 +9054,11 @@
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>CATs / Agriculture Champions</t>
+          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 2)</t>
         </is>
       </c>
       <c r="F308" t="n">
-        <v>8</v>
+        <v>132</v>
       </c>
     </row>
     <row r="309">
@@ -9082,11 +9082,11 @@
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>HHT 1 - Day 2 - VSLAs</t>
+          <t>Agriculture Perennial Crops</t>
         </is>
       </c>
       <c r="F309" t="n">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="310">
@@ -9110,11 +9110,11 @@
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>HHT 1 - Mindset and behavioral change</t>
+          <t>CATs / Agriculture Champions</t>
         </is>
       </c>
       <c r="F310" t="n">
-        <v>133</v>
+        <v>8</v>
       </c>
     </row>
     <row r="311">
@@ -9138,11 +9138,11 @@
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>VSLA Leadership Training</t>
+          <t>HHT 1 - Day 2 - VSLAs</t>
         </is>
       </c>
       <c r="F311" t="n">
-        <v>28</v>
+        <v>134</v>
       </c>
     </row>
     <row r="312">
@@ -9166,7 +9166,7 @@
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>WASH - Training 1</t>
+          <t>HHT 1 - Mindset and behavioral change</t>
         </is>
       </c>
       <c r="F312" t="n">
@@ -9194,11 +9194,11 @@
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>WASH Champions Training</t>
+          <t>VSLA Leadership Training</t>
         </is>
       </c>
       <c r="F313" t="n">
-        <v>8</v>
+        <v>28</v>
       </c>
     </row>
     <row r="314">
@@ -9209,7 +9209,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Kyamakanaga_B</t>
+          <t>Kyamakanaga_A</t>
         </is>
       </c>
       <c r="C314" t="n">
@@ -9222,11 +9222,11 @@
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>Agriculture 1 - Organics Farming &amp; Keyhole gardening</t>
+          <t>WASH - Training 1</t>
         </is>
       </c>
       <c r="F314" t="n">
-        <v>64</v>
+        <v>133</v>
       </c>
     </row>
     <row r="315">
@@ -9237,7 +9237,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Kyamakanaga_B</t>
+          <t>Kyamakanaga_A</t>
         </is>
       </c>
       <c r="C315" t="n">
@@ -9250,11 +9250,11 @@
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 1)</t>
+          <t>WASH Champions Training</t>
         </is>
       </c>
       <c r="F315" t="n">
-        <v>64</v>
+        <v>8</v>
       </c>
     </row>
     <row r="316">
@@ -9278,11 +9278,11 @@
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 2)</t>
+          <t>Agriculture 1 - Organics Farming &amp; Keyhole gardening</t>
         </is>
       </c>
       <c r="F316" t="n">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="317">
@@ -9306,11 +9306,11 @@
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>CATs / Agriculture Champions</t>
+          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 1)</t>
         </is>
       </c>
       <c r="F317" t="n">
-        <v>5</v>
+        <v>64</v>
       </c>
     </row>
     <row r="318">
@@ -9334,11 +9334,11 @@
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>HHT 1 - Day 2 - VSLAs</t>
+          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 2)</t>
         </is>
       </c>
       <c r="F318" t="n">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="319">
@@ -9362,11 +9362,11 @@
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>HHT 1 - Mindset and behavioral change</t>
+          <t>Agriculture Perennial Crops</t>
         </is>
       </c>
       <c r="F319" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="320">
@@ -9390,11 +9390,11 @@
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>VSLA Leadership Training</t>
+          <t>CATs / Agriculture Champions</t>
         </is>
       </c>
       <c r="F320" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="321">
@@ -9418,11 +9418,11 @@
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>WASH - Training 1</t>
+          <t>HHT 1 - Day 2 - VSLAs</t>
         </is>
       </c>
       <c r="F321" t="n">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="322">
@@ -9446,11 +9446,11 @@
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>WASH Champions Training</t>
+          <t>HHT 1 - Mindset and behavioral change</t>
         </is>
       </c>
       <c r="F322" t="n">
-        <v>5</v>
+        <v>63</v>
       </c>
     </row>
     <row r="323">
@@ -9461,7 +9461,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Kyengeza_Rakai</t>
+          <t>Kyamakanaga_B</t>
         </is>
       </c>
       <c r="C323" t="n">
@@ -9474,11 +9474,11 @@
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>Agriculture 1 - Organics Farming &amp; Keyhole gardening</t>
+          <t>VSLA Leadership Training</t>
         </is>
       </c>
       <c r="F323" t="n">
-        <v>222</v>
+        <v>14</v>
       </c>
     </row>
     <row r="324">
@@ -9489,7 +9489,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Kyengeza_Rakai</t>
+          <t>Kyamakanaga_B</t>
         </is>
       </c>
       <c r="C324" t="n">
@@ -9502,11 +9502,11 @@
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 1)</t>
+          <t>WASH - Training 1</t>
         </is>
       </c>
       <c r="F324" t="n">
-        <v>224</v>
+        <v>63</v>
       </c>
     </row>
     <row r="325">
@@ -9517,7 +9517,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Kyengeza_Rakai</t>
+          <t>Kyamakanaga_B</t>
         </is>
       </c>
       <c r="C325" t="n">
@@ -9530,11 +9530,11 @@
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 2)</t>
+          <t>WASH Champions Training</t>
         </is>
       </c>
       <c r="F325" t="n">
-        <v>224</v>
+        <v>5</v>
       </c>
     </row>
     <row r="326">
@@ -9558,11 +9558,11 @@
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>HHT 1 - Day 2 - VSLAs</t>
+          <t>Agriculture 1 - Organics Farming &amp; Keyhole gardening</t>
         </is>
       </c>
       <c r="F326" t="n">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="327">
@@ -9586,11 +9586,11 @@
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>HHT 1 - Mindset and behavioral change</t>
+          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 1)</t>
         </is>
       </c>
       <c r="F327" t="n">
-        <v>216</v>
+        <v>224</v>
       </c>
     </row>
     <row r="328">
@@ -9614,11 +9614,11 @@
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>VSLA Leadership Training</t>
+          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 2)</t>
         </is>
       </c>
       <c r="F328" t="n">
-        <v>28</v>
+        <v>224</v>
       </c>
     </row>
     <row r="329">
@@ -9642,11 +9642,11 @@
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>WASH - Training 1</t>
+          <t>HHT 1 - Day 2 - VSLAs</t>
         </is>
       </c>
       <c r="F329" t="n">
-        <v>219</v>
+        <v>225</v>
       </c>
     </row>
     <row r="330">
@@ -9657,7 +9657,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Mikunyu</t>
+          <t>Kyengeza_Rakai</t>
         </is>
       </c>
       <c r="C330" t="n">
@@ -9670,11 +9670,11 @@
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>Agriculture 1 - Organics Farming &amp; Keyhole gardening</t>
+          <t>HHT 1 - Mindset and behavioral change</t>
         </is>
       </c>
       <c r="F330" t="n">
-        <v>123</v>
+        <v>216</v>
       </c>
     </row>
     <row r="331">
@@ -9685,7 +9685,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Mikunyu</t>
+          <t>Kyengeza_Rakai</t>
         </is>
       </c>
       <c r="C331" t="n">
@@ -9698,11 +9698,11 @@
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 1)</t>
+          <t>VSLA Leadership Training</t>
         </is>
       </c>
       <c r="F331" t="n">
-        <v>127</v>
+        <v>28</v>
       </c>
     </row>
     <row r="332">
@@ -9713,7 +9713,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Mikunyu</t>
+          <t>Kyengeza_Rakai</t>
         </is>
       </c>
       <c r="C332" t="n">
@@ -9726,11 +9726,11 @@
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 2)</t>
+          <t>WASH - Training 1</t>
         </is>
       </c>
       <c r="F332" t="n">
-        <v>116</v>
+        <v>219</v>
       </c>
     </row>
     <row r="333">
@@ -9754,11 +9754,11 @@
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>HHT 1 - Day 2 - VSLAs</t>
+          <t>Agriculture 1 - Organics Farming &amp; Keyhole gardening</t>
         </is>
       </c>
       <c r="F333" t="n">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="334">
@@ -9782,11 +9782,11 @@
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>HHT 1 - Mindset and behavioral change</t>
+          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 1)</t>
         </is>
       </c>
       <c r="F334" t="n">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="335">
@@ -9810,11 +9810,11 @@
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>VSLA Leadership Training</t>
+          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 2)</t>
         </is>
       </c>
       <c r="F335" t="n">
-        <v>14</v>
+        <v>115</v>
       </c>
     </row>
     <row r="336">
@@ -9838,11 +9838,11 @@
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>WASH - Training 1</t>
+          <t>HHT 1 - Day 2 - VSLAs</t>
         </is>
       </c>
       <c r="F336" t="n">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="337">
@@ -9853,7 +9853,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Mpaama</t>
+          <t>Mikunyu</t>
         </is>
       </c>
       <c r="C337" t="n">
@@ -9866,11 +9866,11 @@
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>Agriculture 1 - Organics Farming &amp; Keyhole gardening</t>
+          <t>HHT 1 - Mindset and behavioral change</t>
         </is>
       </c>
       <c r="F337" t="n">
-        <v>78</v>
+        <v>123</v>
       </c>
     </row>
     <row r="338">
@@ -9881,7 +9881,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>Mpaama</t>
+          <t>Mikunyu</t>
         </is>
       </c>
       <c r="C338" t="n">
@@ -9894,11 +9894,11 @@
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 1)</t>
+          <t>VSLA Leadership Training</t>
         </is>
       </c>
       <c r="F338" t="n">
-        <v>74</v>
+        <v>14</v>
       </c>
     </row>
     <row r="339">
@@ -9909,7 +9909,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Mpaama</t>
+          <t>Mikunyu</t>
         </is>
       </c>
       <c r="C339" t="n">
@@ -9922,11 +9922,11 @@
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 2)</t>
+          <t>WASH - Training 1</t>
         </is>
       </c>
       <c r="F339" t="n">
-        <v>76</v>
+        <v>118</v>
       </c>
     </row>
     <row r="340">
@@ -9950,11 +9950,11 @@
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>HHT 1 - Day 2 - VSLAs</t>
+          <t>Agriculture 1 - Organics Farming &amp; Keyhole gardening</t>
         </is>
       </c>
       <c r="F340" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="341">
@@ -9978,11 +9978,11 @@
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>HHT 1 - Mindset and behavioral change</t>
+          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 1)</t>
         </is>
       </c>
       <c r="F341" t="n">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="342">
@@ -10006,11 +10006,11 @@
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>VSLA Leadership Training</t>
+          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 2)</t>
         </is>
       </c>
       <c r="F342" t="n">
-        <v>14</v>
+        <v>76</v>
       </c>
     </row>
     <row r="343">
@@ -10034,11 +10034,11 @@
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>WASH - Training 1</t>
+          <t>HHT 1 - Day 2 - VSLAs</t>
         </is>
       </c>
       <c r="F343" t="n">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="344">
@@ -10049,7 +10049,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Nabyala</t>
+          <t>Mpaama</t>
         </is>
       </c>
       <c r="C344" t="n">
@@ -10062,11 +10062,11 @@
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>Agriculture 1 - Organics Farming &amp; Keyhole gardening</t>
+          <t>HHT 1 - Mindset and behavioral change</t>
         </is>
       </c>
       <c r="F344" t="n">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="345">
@@ -10077,7 +10077,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Nabyala</t>
+          <t>Mpaama</t>
         </is>
       </c>
       <c r="C345" t="n">
@@ -10090,11 +10090,11 @@
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 1)</t>
+          <t>VSLA Leadership Training</t>
         </is>
       </c>
       <c r="F345" t="n">
-        <v>65</v>
+        <v>14</v>
       </c>
     </row>
     <row r="346">
@@ -10105,7 +10105,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Nabyala</t>
+          <t>Mpaama</t>
         </is>
       </c>
       <c r="C346" t="n">
@@ -10118,11 +10118,11 @@
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 2)</t>
+          <t>WASH - Training 1</t>
         </is>
       </c>
       <c r="F346" t="n">
-        <v>64</v>
+        <v>74</v>
       </c>
     </row>
     <row r="347">
@@ -10146,11 +10146,11 @@
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>HHT 1 - Day 2 - VSLAs</t>
+          <t>Agriculture 1 - Organics Farming &amp; Keyhole gardening</t>
         </is>
       </c>
       <c r="F347" t="n">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="348">
@@ -10174,11 +10174,11 @@
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>HHT 1 - Mindset and behavioral change</t>
+          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 1)</t>
         </is>
       </c>
       <c r="F348" t="n">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="349">
@@ -10202,11 +10202,11 @@
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>VSLA Leadership Training</t>
+          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 2)</t>
         </is>
       </c>
       <c r="F349" t="n">
-        <v>7</v>
+        <v>64</v>
       </c>
     </row>
     <row r="350">
@@ -10230,11 +10230,11 @@
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>WASH - Training 1</t>
+          <t>HHT 1 - Day 2 - VSLAs</t>
         </is>
       </c>
       <c r="F350" t="n">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="351">
@@ -10245,7 +10245,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Nakitokolo</t>
+          <t>Nabyala</t>
         </is>
       </c>
       <c r="C351" t="n">
@@ -10258,11 +10258,11 @@
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>Agriculture 1 - Organics Farming &amp; Keyhole gardening</t>
+          <t>HHT 1 - Mindset and behavioral change</t>
         </is>
       </c>
       <c r="F351" t="n">
-        <v>106</v>
+        <v>68</v>
       </c>
     </row>
     <row r="352">
@@ -10273,7 +10273,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>Nakitokolo</t>
+          <t>Nabyala</t>
         </is>
       </c>
       <c r="C352" t="n">
@@ -10286,11 +10286,11 @@
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 1)</t>
+          <t>VSLA Leadership Training</t>
         </is>
       </c>
       <c r="F352" t="n">
-        <v>105</v>
+        <v>7</v>
       </c>
     </row>
     <row r="353">
@@ -10301,7 +10301,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Nakitokolo</t>
+          <t>Nabyala</t>
         </is>
       </c>
       <c r="C353" t="n">
@@ -10314,11 +10314,11 @@
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>HHT 1 - Day 2 - VSLAs</t>
+          <t>WASH - Training 1</t>
         </is>
       </c>
       <c r="F353" t="n">
-        <v>105</v>
+        <v>68</v>
       </c>
     </row>
     <row r="354">
@@ -10342,11 +10342,11 @@
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>HHT 1 - Mindset and behavioral change</t>
+          <t>Agriculture 1 - Organics Farming &amp; Keyhole gardening</t>
         </is>
       </c>
       <c r="F354" t="n">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="355">
@@ -10370,11 +10370,11 @@
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>VSLA Leadership Training</t>
+          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 1)</t>
         </is>
       </c>
       <c r="F355" t="n">
-        <v>14</v>
+        <v>105</v>
       </c>
     </row>
     <row r="356">
@@ -10398,7 +10398,7 @@
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>WASH - Training 1</t>
+          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 2)</t>
         </is>
       </c>
       <c r="F356" t="n">
@@ -10413,7 +10413,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Nnongo_A</t>
+          <t>Nakitokolo</t>
         </is>
       </c>
       <c r="C357" t="n">
@@ -10426,11 +10426,11 @@
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>Agriculture 1 - Organics Farming &amp; Keyhole gardening</t>
+          <t>HHT 1 - Day 2 - VSLAs</t>
         </is>
       </c>
       <c r="F357" t="n">
-        <v>168</v>
+        <v>105</v>
       </c>
     </row>
     <row r="358">
@@ -10441,7 +10441,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Nnongo_A</t>
+          <t>Nakitokolo</t>
         </is>
       </c>
       <c r="C358" t="n">
@@ -10454,11 +10454,11 @@
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 1)</t>
+          <t>HHT 1 - Mindset and behavioral change</t>
         </is>
       </c>
       <c r="F358" t="n">
-        <v>168</v>
+        <v>109</v>
       </c>
     </row>
     <row r="359">
@@ -10469,7 +10469,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Nnongo_A</t>
+          <t>Nakitokolo</t>
         </is>
       </c>
       <c r="C359" t="n">
@@ -10482,11 +10482,11 @@
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 2)</t>
+          <t>VSLA Leadership Training</t>
         </is>
       </c>
       <c r="F359" t="n">
-        <v>167</v>
+        <v>14</v>
       </c>
     </row>
     <row r="360">
@@ -10497,7 +10497,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Nnongo_A</t>
+          <t>Nakitokolo</t>
         </is>
       </c>
       <c r="C360" t="n">
@@ -10510,11 +10510,11 @@
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>CATs / Agriculture Champions</t>
+          <t>WASH - Training 1</t>
         </is>
       </c>
       <c r="F360" t="n">
-        <v>9</v>
+        <v>105</v>
       </c>
     </row>
     <row r="361">
@@ -10538,11 +10538,11 @@
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>HHT 1 - Day 2 - VSLAs</t>
+          <t>Agriculture 1 - Organics Farming &amp; Keyhole gardening</t>
         </is>
       </c>
       <c r="F361" t="n">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="362">
@@ -10566,7 +10566,7 @@
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>HHT 1 - Mindset and behavioral change</t>
+          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 1)</t>
         </is>
       </c>
       <c r="F362" t="n">
@@ -10594,11 +10594,11 @@
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>VSLA Leadership Training</t>
+          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 2)</t>
         </is>
       </c>
       <c r="F363" t="n">
-        <v>31</v>
+        <v>167</v>
       </c>
     </row>
     <row r="364">
@@ -10622,11 +10622,11 @@
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>WASH - Training 1</t>
+          <t>Agriculture Perennial Crops</t>
         </is>
       </c>
       <c r="F364" t="n">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="365">
@@ -10650,10 +10650,150 @@
       </c>
       <c r="E365" t="inlineStr">
         <is>
+          <t>CATs / Agriculture Champions</t>
+        </is>
+      </c>
+      <c r="F365" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>Rakai</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>Nnongo_A</t>
+        </is>
+      </c>
+      <c r="C366" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E366" t="inlineStr">
+        <is>
+          <t>HHT 1 - Day 2 - VSLAs</t>
+        </is>
+      </c>
+      <c r="F366" t="n">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>Rakai</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>Nnongo_A</t>
+        </is>
+      </c>
+      <c r="C367" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E367" t="inlineStr">
+        <is>
+          <t>HHT 1 - Mindset and behavioral change</t>
+        </is>
+      </c>
+      <c r="F367" t="n">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>Rakai</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>Nnongo_A</t>
+        </is>
+      </c>
+      <c r="C368" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E368" t="inlineStr">
+        <is>
+          <t>VSLA Leadership Training</t>
+        </is>
+      </c>
+      <c r="F368" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>Rakai</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>Nnongo_A</t>
+        </is>
+      </c>
+      <c r="C369" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E369" t="inlineStr">
+        <is>
+          <t>WASH - Training 1</t>
+        </is>
+      </c>
+      <c r="F369" t="n">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>Rakai</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>Nnongo_A</t>
+        </is>
+      </c>
+      <c r="C370" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E370" t="inlineStr">
+        <is>
           <t>WASH Champions Training</t>
         </is>
       </c>
-      <c r="F365" t="n">
+      <c r="F370" t="n">
         <v>9</v>
       </c>
     </row>

--- a/Quality reports shared/training_analysis.xlsx
+++ b/Quality reports shared/training_analysis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F370"/>
+  <dimension ref="A1:F384"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1998,11 +1998,11 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Village Champions</t>
+          <t>HHT 2 - Financial Literacy and VSLA and and Business Enterprise Selection</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>1</v>
+        <v>129</v>
       </c>
     </row>
     <row r="57">
@@ -2026,11 +2026,11 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>WASH - Training 1</t>
+          <t>Village Champions</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>130</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -2054,11 +2054,11 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>WASH Champions Training</t>
+          <t>WASH - Training 1</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>7</v>
+        <v>130</v>
       </c>
     </row>
     <row r="59">
@@ -2069,7 +2069,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Kapapari</t>
+          <t>Kanyamburara</t>
         </is>
       </c>
       <c r="C59" t="n">
@@ -2082,11 +2082,11 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Agriculture 1 - Organics Farming &amp; Keyhole gardening</t>
+          <t>WASH Champions Training</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>90</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60">
@@ -2110,11 +2110,11 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 1)</t>
+          <t>Agriculture 1 - Organics Farming &amp; Keyhole gardening</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="61">
@@ -2138,11 +2138,11 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 2)</t>
+          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 1)</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="62">
@@ -2166,11 +2166,11 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>CATs / Agriculture Champions</t>
+          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 2)</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>5</v>
+        <v>90</v>
       </c>
     </row>
     <row r="63">
@@ -2194,11 +2194,11 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>HHT 1 - Day 2 - VSLAs</t>
+          <t>CATs / Agriculture Champions</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>91</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64">
@@ -2222,11 +2222,11 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>HHT 1 - Mindset and behavioral change</t>
+          <t>HHT 1 - Day 2 - VSLAs</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="65">
@@ -2250,11 +2250,11 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Village Champions</t>
+          <t>HHT 1 - Mindset and behavioral change</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>1</v>
+        <v>90</v>
       </c>
     </row>
     <row r="66">
@@ -2278,11 +2278,11 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>WASH - Training 1</t>
+          <t>Village Champions</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>90</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2306,11 +2306,11 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>WASH Champions Training</t>
+          <t>WASH - Training 1</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>5</v>
+        <v>90</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Karere_Nyakacwamba</t>
+          <t>Kapapari</t>
         </is>
       </c>
       <c r="C68" t="n">
@@ -2334,11 +2334,11 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Agriculture 1 - Organics Farming &amp; Keyhole gardening</t>
+          <t>WASH Champions Training</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>99</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69">
@@ -2362,11 +2362,11 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 1)</t>
+          <t>Agriculture 1 - Organics Farming &amp; Keyhole gardening</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="70">
@@ -2390,11 +2390,11 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 2)</t>
+          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 1)</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="71">
@@ -2418,11 +2418,11 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>CATs / Agriculture Champions</t>
+          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 2)</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>5</v>
+        <v>98</v>
       </c>
     </row>
     <row r="72">
@@ -2446,11 +2446,11 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>HHT 1 - Day 2 - VSLAs</t>
+          <t>CATs / Agriculture Champions</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>97</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73">
@@ -2474,11 +2474,11 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>HHT 1 - Mindset and behavioral change</t>
+          <t>HHT 1 - Day 2 - VSLAs</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="74">
@@ -2502,11 +2502,11 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Village Champions</t>
+          <t>HHT 1 - Mindset and behavioral change</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>1</v>
+        <v>99</v>
       </c>
     </row>
     <row r="75">
@@ -2530,11 +2530,11 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>WASH - Training 1</t>
+          <t>HHT 2 - Financial Literacy and VSLA and and Business Enterprise Selection</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="76">
@@ -2558,11 +2558,11 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>WASH Champions Training</t>
+          <t>Village Champions</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2573,7 +2573,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Karubuguma_1</t>
+          <t>Karere_Nyakacwamba</t>
         </is>
       </c>
       <c r="C77" t="n">
@@ -2586,11 +2586,11 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Agriculture 1 - Organics Farming &amp; Keyhole gardening</t>
+          <t>WASH - Training 1</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="78">
@@ -2601,7 +2601,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Karubuguma_1</t>
+          <t>Karere_Nyakacwamba</t>
         </is>
       </c>
       <c r="C78" t="n">
@@ -2614,11 +2614,11 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 1)</t>
+          <t>WASH Champions Training</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>81</v>
+        <v>5</v>
       </c>
     </row>
     <row r="79">
@@ -2642,11 +2642,11 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 2)</t>
+          <t>Agriculture 1 - Organics Farming &amp; Keyhole gardening</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="80">
@@ -2670,11 +2670,11 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>CATs / Agriculture Champions</t>
+          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 1)</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>4</v>
+        <v>81</v>
       </c>
     </row>
     <row r="81">
@@ -2698,11 +2698,11 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>HHT 1 - Day 2 - VSLAs</t>
+          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 2)</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="82">
@@ -2726,11 +2726,11 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>HHT 1 - Mindset and behavioral change</t>
+          <t>CATs / Agriculture Champions</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>81</v>
+        <v>4</v>
       </c>
     </row>
     <row r="83">
@@ -2754,11 +2754,11 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Village Champions</t>
+          <t>HHT 1 - Day 2 - VSLAs</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>1</v>
+        <v>84</v>
       </c>
     </row>
     <row r="84">
@@ -2782,7 +2782,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>WASH - Training 1</t>
+          <t>HHT 1 - Mindset and behavioral change</t>
         </is>
       </c>
       <c r="F84" t="n">
@@ -2810,11 +2810,11 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>WASH Champions Training</t>
+          <t>HHT 2 - Financial Literacy and VSLA and and Business Enterprise Selection</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>4</v>
+        <v>80</v>
       </c>
     </row>
     <row r="86">
@@ -2825,7 +2825,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Karubuguma_2</t>
+          <t>Karubuguma_1</t>
         </is>
       </c>
       <c r="C86" t="n">
@@ -2838,11 +2838,11 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Agriculture 1 - Organics Farming &amp; Keyhole gardening</t>
+          <t>Village Champions</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>168</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -2853,7 +2853,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Karubuguma_2</t>
+          <t>Karubuguma_1</t>
         </is>
       </c>
       <c r="C87" t="n">
@@ -2866,11 +2866,11 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 1)</t>
+          <t>WASH - Training 1</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>173</v>
+        <v>81</v>
       </c>
     </row>
     <row r="88">
@@ -2881,7 +2881,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Karubuguma_2</t>
+          <t>Karubuguma_1</t>
         </is>
       </c>
       <c r="C88" t="n">
@@ -2894,11 +2894,11 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 2)</t>
+          <t>WASH Champions Training</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>165</v>
+        <v>4</v>
       </c>
     </row>
     <row r="89">
@@ -2922,11 +2922,11 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>CATs / Agriculture Champions</t>
+          <t>Agriculture 1 - Organics Farming &amp; Keyhole gardening</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>9</v>
+        <v>168</v>
       </c>
     </row>
     <row r="90">
@@ -2950,11 +2950,11 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>HHT 1 - Day 2 - VSLAs</t>
+          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 1)</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="91">
@@ -2978,11 +2978,11 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>HHT 1 - Mindset and behavioral change</t>
+          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 2)</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="92">
@@ -3006,11 +3006,11 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Village Champions</t>
+          <t>CATs / Agriculture Champions</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="93">
@@ -3034,11 +3034,11 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>WASH - Training 1</t>
+          <t>HHT 1 - Day 2 - VSLAs</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="94">
@@ -3062,11 +3062,11 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>WASH Champions Training</t>
+          <t>HHT 1 - Mindset and behavioral change</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>8</v>
+        <v>171</v>
       </c>
     </row>
     <row r="95">
@@ -3077,7 +3077,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Kemihoko_A</t>
+          <t>Karubuguma_2</t>
         </is>
       </c>
       <c r="C95" t="n">
@@ -3090,11 +3090,11 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Agriculture 1 - Organics Farming &amp; Keyhole gardening</t>
+          <t>HHT 2 - Financial Literacy and VSLA and and Business Enterprise Selection</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>57</v>
+        <v>171</v>
       </c>
     </row>
     <row r="96">
@@ -3105,7 +3105,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Kemihoko_A</t>
+          <t>Karubuguma_2</t>
         </is>
       </c>
       <c r="C96" t="n">
@@ -3118,11 +3118,11 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 1)</t>
+          <t>Village Champions</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>58</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -3133,7 +3133,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Kemihoko_A</t>
+          <t>Karubuguma_2</t>
         </is>
       </c>
       <c r="C97" t="n">
@@ -3146,11 +3146,11 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 2)</t>
+          <t>WASH - Training 1</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>57</v>
+        <v>172</v>
       </c>
     </row>
     <row r="98">
@@ -3161,7 +3161,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Kemihoko_A</t>
+          <t>Karubuguma_2</t>
         </is>
       </c>
       <c r="C98" t="n">
@@ -3174,11 +3174,11 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>CATs / Agriculture Champions</t>
+          <t>WASH Champions Training</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="99">
@@ -3202,11 +3202,11 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Coffee Champions - ToT 1</t>
+          <t>Agriculture 1 - Organics Farming &amp; Keyhole gardening</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>3</v>
+        <v>57</v>
       </c>
     </row>
     <row r="100">
@@ -3230,11 +3230,11 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>HHT 1 - Day 2 - VSLAs</t>
+          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 1)</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="101">
@@ -3258,7 +3258,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>HHT 1 - Mindset and behavioral change</t>
+          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 2)</t>
         </is>
       </c>
       <c r="F101" t="n">
@@ -3286,11 +3286,11 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Village Champions</t>
+          <t>CATs / Agriculture Champions</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="103">
@@ -3314,11 +3314,11 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>WASH - Training 1</t>
+          <t>Coffee Champions - ToT 1</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>57</v>
+        <v>3</v>
       </c>
     </row>
     <row r="104">
@@ -3342,11 +3342,11 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>WASH Champions Training</t>
+          <t>HHT 1 - Day 2 - VSLAs</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>1</v>
+        <v>57</v>
       </c>
     </row>
     <row r="105">
@@ -3357,7 +3357,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Kemihoko_B</t>
+          <t>Kemihoko_A</t>
         </is>
       </c>
       <c r="C105" t="n">
@@ -3370,11 +3370,11 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Agriculture 1 - Organics Farming &amp; Keyhole gardening</t>
+          <t>HHT 1 - Mindset and behavioral change</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>38</v>
+        <v>57</v>
       </c>
     </row>
     <row r="106">
@@ -3385,7 +3385,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Kemihoko_B</t>
+          <t>Kemihoko_A</t>
         </is>
       </c>
       <c r="C106" t="n">
@@ -3398,11 +3398,11 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 1)</t>
+          <t>Village Champions</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>39</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
@@ -3413,7 +3413,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Kemihoko_B</t>
+          <t>Kemihoko_A</t>
         </is>
       </c>
       <c r="C107" t="n">
@@ -3426,11 +3426,11 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 2)</t>
+          <t>WASH - Training 1</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>38</v>
+        <v>57</v>
       </c>
     </row>
     <row r="108">
@@ -3441,7 +3441,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Kemihoko_B</t>
+          <t>Kemihoko_A</t>
         </is>
       </c>
       <c r="C108" t="n">
@@ -3454,11 +3454,11 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>CATs / Agriculture Champions</t>
+          <t>WASH Champions Training</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109">
@@ -3482,11 +3482,11 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Coffee Champions - ToT 1</t>
+          <t>Agriculture 1 - Organics Farming &amp; Keyhole gardening</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>2</v>
+        <v>38</v>
       </c>
     </row>
     <row r="110">
@@ -3510,7 +3510,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>HHT 1 - Day 2 - VSLAs</t>
+          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 1)</t>
         </is>
       </c>
       <c r="F110" t="n">
@@ -3538,11 +3538,11 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>HHT 1 - Mindset and behavioral change</t>
+          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 2)</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="112">
@@ -3566,11 +3566,11 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Village Champions</t>
+          <t>CATs / Agriculture Champions</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113">
@@ -3594,11 +3594,11 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>WASH - Training 1</t>
+          <t>Coffee Champions - ToT 1</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>39</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114">
@@ -3622,11 +3622,11 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>WASH Champions Training</t>
+          <t>HHT 1 - Day 2 - VSLAs</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>2</v>
+        <v>39</v>
       </c>
     </row>
     <row r="115">
@@ -3637,7 +3637,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Kyarubingo</t>
+          <t>Kemihoko_B</t>
         </is>
       </c>
       <c r="C115" t="n">
@@ -3650,11 +3650,11 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Agriculture 1 - Organics Farming &amp; Keyhole gardening</t>
+          <t>HHT 1 - Mindset and behavioral change</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>95</v>
+        <v>39</v>
       </c>
     </row>
     <row r="116">
@@ -3665,7 +3665,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Kyarubingo</t>
+          <t>Kemihoko_B</t>
         </is>
       </c>
       <c r="C116" t="n">
@@ -3678,11 +3678,11 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 1)</t>
+          <t>Village Champions</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117">
@@ -3693,7 +3693,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Kyarubingo</t>
+          <t>Kemihoko_B</t>
         </is>
       </c>
       <c r="C117" t="n">
@@ -3706,11 +3706,11 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 2)</t>
+          <t>WASH - Training 1</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>95</v>
+        <v>39</v>
       </c>
     </row>
     <row r="118">
@@ -3721,7 +3721,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Kyarubingo</t>
+          <t>Kemihoko_B</t>
         </is>
       </c>
       <c r="C118" t="n">
@@ -3734,11 +3734,11 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>CATs / Agriculture Champions</t>
+          <t>WASH Champions Training</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119">
@@ -3762,7 +3762,7 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>HHT 1 - Day 2 - VSLAs</t>
+          <t>Agriculture 1 - Organics Farming &amp; Keyhole gardening</t>
         </is>
       </c>
       <c r="F119" t="n">
@@ -3790,11 +3790,11 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>HHT 1 - Mindset and behavioral change</t>
+          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 1)</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="121">
@@ -3818,11 +3818,11 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Village Champions</t>
+          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 2)</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>1</v>
+        <v>95</v>
       </c>
     </row>
     <row r="122">
@@ -3846,11 +3846,11 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>WASH - Training 1</t>
+          <t>CATs / Agriculture Champions</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>95</v>
+        <v>11</v>
       </c>
     </row>
     <row r="123">
@@ -3874,11 +3874,11 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>WASH Champions Training</t>
+          <t>HHT 1 - Day 2 - VSLAs</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>5</v>
+        <v>95</v>
       </c>
     </row>
     <row r="124">
@@ -3889,7 +3889,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Mpanga_Nyakacwamba</t>
+          <t>Kyarubingo</t>
         </is>
       </c>
       <c r="C124" t="n">
@@ -3902,11 +3902,11 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Agriculture 1 - Organics Farming &amp; Keyhole gardening</t>
+          <t>HHT 1 - Mindset and behavioral change</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>72</v>
+        <v>89</v>
       </c>
     </row>
     <row r="125">
@@ -3917,7 +3917,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Mpanga_Nyakacwamba</t>
+          <t>Kyarubingo</t>
         </is>
       </c>
       <c r="C125" t="n">
@@ -3930,11 +3930,11 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 1)</t>
+          <t>HHT 2 - Financial Literacy and VSLA and and Business Enterprise Selection</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>73</v>
+        <v>93</v>
       </c>
     </row>
     <row r="126">
@@ -3945,7 +3945,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Mpanga_Nyakacwamba</t>
+          <t>Kyarubingo</t>
         </is>
       </c>
       <c r="C126" t="n">
@@ -3958,11 +3958,11 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 2)</t>
+          <t>Village Champions</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>72</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
@@ -3973,7 +3973,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Mpanga_Nyakacwamba</t>
+          <t>Kyarubingo</t>
         </is>
       </c>
       <c r="C127" t="n">
@@ -3986,11 +3986,11 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>CATs / Agriculture Champions</t>
+          <t>WASH - Training 1</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>4</v>
+        <v>95</v>
       </c>
     </row>
     <row r="128">
@@ -4001,7 +4001,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Mpanga_Nyakacwamba</t>
+          <t>Kyarubingo</t>
         </is>
       </c>
       <c r="C128" t="n">
@@ -4014,11 +4014,11 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>HHT 1 - Day 2 - VSLAs</t>
+          <t>WASH Champions Training</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>72</v>
+        <v>5</v>
       </c>
     </row>
     <row r="129">
@@ -4042,11 +4042,11 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>HHT 1 - Mindset and behavioral change</t>
+          <t>Agriculture 1 - Organics Farming &amp; Keyhole gardening</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="130">
@@ -4070,11 +4070,11 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Village Champions</t>
+          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 1)</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>1</v>
+        <v>73</v>
       </c>
     </row>
     <row r="131">
@@ -4098,11 +4098,11 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>WASH - Training 1</t>
+          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 2)</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="132">
@@ -4126,7 +4126,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>WASH Champions Training</t>
+          <t>CATs / Agriculture Champions</t>
         </is>
       </c>
       <c r="F132" t="n">
@@ -4141,7 +4141,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Muyenga_Central</t>
+          <t>Mpanga_Nyakacwamba</t>
         </is>
       </c>
       <c r="C133" t="n">
@@ -4154,11 +4154,11 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Agriculture 1 - Organics Farming &amp; Keyhole gardening</t>
+          <t>HHT 1 - Day 2 - VSLAs</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>41</v>
+        <v>72</v>
       </c>
     </row>
     <row r="134">
@@ -4169,7 +4169,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Muyenga_Central</t>
+          <t>Mpanga_Nyakacwamba</t>
         </is>
       </c>
       <c r="C134" t="n">
@@ -4182,11 +4182,11 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 1)</t>
+          <t>HHT 1 - Mindset and behavioral change</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>39</v>
+        <v>73</v>
       </c>
     </row>
     <row r="135">
@@ -4197,7 +4197,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Muyenga_Central</t>
+          <t>Mpanga_Nyakacwamba</t>
         </is>
       </c>
       <c r="C135" t="n">
@@ -4210,11 +4210,11 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 2)</t>
+          <t>HHT 2 - Financial Literacy and VSLA and and Business Enterprise Selection</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>39</v>
+        <v>72</v>
       </c>
     </row>
     <row r="136">
@@ -4225,7 +4225,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Muyenga_Central</t>
+          <t>Mpanga_Nyakacwamba</t>
         </is>
       </c>
       <c r="C136" t="n">
@@ -4238,7 +4238,7 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>CATs / Agriculture Champions</t>
+          <t>Village Champions</t>
         </is>
       </c>
       <c r="F136" t="n">
@@ -4253,7 +4253,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Muyenga_Central</t>
+          <t>Mpanga_Nyakacwamba</t>
         </is>
       </c>
       <c r="C137" t="n">
@@ -4266,11 +4266,11 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>HHT 1 - Day 2 - VSLAs</t>
+          <t>WASH - Training 1</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>39</v>
+        <v>71</v>
       </c>
     </row>
     <row r="138">
@@ -4281,7 +4281,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Muyenga_Central</t>
+          <t>Mpanga_Nyakacwamba</t>
         </is>
       </c>
       <c r="C138" t="n">
@@ -4294,11 +4294,11 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>HHT 1 - Mindset and behavioral change</t>
+          <t>WASH Champions Training</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
     </row>
     <row r="139">
@@ -4322,11 +4322,11 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Village Champions</t>
+          <t>Agriculture 1 - Organics Farming &amp; Keyhole gardening</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>1</v>
+        <v>41</v>
       </c>
     </row>
     <row r="140">
@@ -4350,7 +4350,7 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>WASH - Training 1</t>
+          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 1)</t>
         </is>
       </c>
       <c r="F140" t="n">
@@ -4378,11 +4378,11 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>WASH Champions Training</t>
+          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 2)</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>2</v>
+        <v>39</v>
       </c>
     </row>
     <row r="142">
@@ -4393,7 +4393,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Muyenga_TC</t>
+          <t>Muyenga_Central</t>
         </is>
       </c>
       <c r="C142" t="n">
@@ -4406,11 +4406,11 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Agriculture 1 - Organics Farming &amp; Keyhole gardening</t>
+          <t>CATs / Agriculture Champions</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>55</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143">
@@ -4421,7 +4421,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Muyenga_TC</t>
+          <t>Muyenga_Central</t>
         </is>
       </c>
       <c r="C143" t="n">
@@ -4434,11 +4434,11 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 1)</t>
+          <t>HHT 1 - Day 2 - VSLAs</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>51</v>
+        <v>39</v>
       </c>
     </row>
     <row r="144">
@@ -4449,7 +4449,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Muyenga_TC</t>
+          <t>Muyenga_Central</t>
         </is>
       </c>
       <c r="C144" t="n">
@@ -4462,11 +4462,11 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 2)</t>
+          <t>HHT 1 - Mindset and behavioral change</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="145">
@@ -4477,7 +4477,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Muyenga_TC</t>
+          <t>Muyenga_Central</t>
         </is>
       </c>
       <c r="C145" t="n">
@@ -4490,11 +4490,11 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>CATs / Agriculture Champions</t>
+          <t>Village Champions</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146">
@@ -4505,7 +4505,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Muyenga_TC</t>
+          <t>Muyenga_Central</t>
         </is>
       </c>
       <c r="C146" t="n">
@@ -4518,11 +4518,11 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>HHT 1 - Day 2 - VSLAs</t>
+          <t>WASH - Training 1</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>51</v>
+        <v>39</v>
       </c>
     </row>
     <row r="147">
@@ -4533,7 +4533,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Muyenga_TC</t>
+          <t>Muyenga_Central</t>
         </is>
       </c>
       <c r="C147" t="n">
@@ -4546,11 +4546,11 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>HHT 1 - Mindset and behavioral change</t>
+          <t>WASH Champions Training</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>52</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148">
@@ -4574,11 +4574,11 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Village Champions</t>
+          <t>Agriculture 1 - Organics Farming &amp; Keyhole gardening</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>1</v>
+        <v>55</v>
       </c>
     </row>
     <row r="149">
@@ -4602,11 +4602,11 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>WASH - Training 1</t>
+          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 1)</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="150">
@@ -4630,11 +4630,11 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>WASH Champions Training</t>
+          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 2)</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>2</v>
+        <v>50</v>
       </c>
     </row>
     <row r="151">
@@ -4645,7 +4645,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Nganiko_1</t>
+          <t>Muyenga_TC</t>
         </is>
       </c>
       <c r="C151" t="n">
@@ -4658,11 +4658,11 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Agriculture 1 - Organics Farming &amp; Keyhole gardening</t>
+          <t>CATs / Agriculture Champions</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>59</v>
+        <v>3</v>
       </c>
     </row>
     <row r="152">
@@ -4673,7 +4673,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Nganiko_1</t>
+          <t>Muyenga_TC</t>
         </is>
       </c>
       <c r="C152" t="n">
@@ -4686,11 +4686,11 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 1)</t>
+          <t>HHT 1 - Day 2 - VSLAs</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="153">
@@ -4701,7 +4701,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Nganiko_1</t>
+          <t>Muyenga_TC</t>
         </is>
       </c>
       <c r="C153" t="n">
@@ -4714,11 +4714,11 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 2)</t>
+          <t>HHT 1 - Mindset and behavioral change</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="154">
@@ -4729,7 +4729,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Nganiko_1</t>
+          <t>Muyenga_TC</t>
         </is>
       </c>
       <c r="C154" t="n">
@@ -4742,11 +4742,11 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>CATs / Agriculture Champions</t>
+          <t>Village Champions</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155">
@@ -4757,7 +4757,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Nganiko_1</t>
+          <t>Muyenga_TC</t>
         </is>
       </c>
       <c r="C155" t="n">
@@ -4770,11 +4770,11 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Coffee Champions - ToT 1</t>
+          <t>WASH - Training 1</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>3</v>
+        <v>53</v>
       </c>
     </row>
     <row r="156">
@@ -4785,7 +4785,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Nganiko_1</t>
+          <t>Muyenga_TC</t>
         </is>
       </c>
       <c r="C156" t="n">
@@ -4798,11 +4798,11 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>HHT 1 - Day 2 - VSLAs</t>
+          <t>WASH Champions Training</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>60</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157">
@@ -4826,11 +4826,11 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>HHT 1 - Mindset and behavioral change</t>
+          <t>Agriculture 1 - Organics Farming &amp; Keyhole gardening</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="158">
@@ -4854,11 +4854,11 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Village Champions</t>
+          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 1)</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>1</v>
+        <v>61</v>
       </c>
     </row>
     <row r="159">
@@ -4882,11 +4882,11 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>WASH - Training 1</t>
+          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 2)</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="160">
@@ -4910,7 +4910,7 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>WASH Champions Training</t>
+          <t>CATs / Agriculture Champions</t>
         </is>
       </c>
       <c r="F160" t="n">
@@ -4925,7 +4925,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Nganiko_2</t>
+          <t>Nganiko_1</t>
         </is>
       </c>
       <c r="C161" t="n">
@@ -4938,11 +4938,11 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Agriculture 1 - Organics Farming &amp; Keyhole gardening</t>
+          <t>Coffee Champions - ToT 1</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>63</v>
+        <v>3</v>
       </c>
     </row>
     <row r="162">
@@ -4953,7 +4953,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Nganiko_2</t>
+          <t>Nganiko_1</t>
         </is>
       </c>
       <c r="C162" t="n">
@@ -4966,11 +4966,11 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 1)</t>
+          <t>HHT 1 - Day 2 - VSLAs</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="163">
@@ -4981,7 +4981,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Nganiko_2</t>
+          <t>Nganiko_1</t>
         </is>
       </c>
       <c r="C163" t="n">
@@ -4994,11 +4994,11 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 2)</t>
+          <t>HHT 1 - Mindset and behavioral change</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="164">
@@ -5009,7 +5009,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Nganiko_2</t>
+          <t>Nganiko_1</t>
         </is>
       </c>
       <c r="C164" t="n">
@@ -5022,11 +5022,11 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>CATs / Agriculture Champions</t>
+          <t>Village Champions</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165">
@@ -5037,7 +5037,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Nganiko_2</t>
+          <t>Nganiko_1</t>
         </is>
       </c>
       <c r="C165" t="n">
@@ -5050,11 +5050,11 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>HHT 1 - Day 2 - VSLAs</t>
+          <t>WASH - Training 1</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="166">
@@ -5065,7 +5065,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Nganiko_2</t>
+          <t>Nganiko_1</t>
         </is>
       </c>
       <c r="C166" t="n">
@@ -5078,11 +5078,11 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>HHT 1 - Mindset and behavioral change</t>
+          <t>WASH Champions Training</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>63</v>
+        <v>3</v>
       </c>
     </row>
     <row r="167">
@@ -5106,11 +5106,11 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Village Champions</t>
+          <t>Agriculture 1 - Organics Farming &amp; Keyhole gardening</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>1</v>
+        <v>63</v>
       </c>
     </row>
     <row r="168">
@@ -5134,11 +5134,11 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>WASH - Training 1</t>
+          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 1)</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="169">
@@ -5162,11 +5162,11 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>WASH Champions Training</t>
+          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 2)</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>3</v>
+        <v>61</v>
       </c>
     </row>
     <row r="170">
@@ -5177,7 +5177,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Nganiko_3</t>
+          <t>Nganiko_2</t>
         </is>
       </c>
       <c r="C170" t="n">
@@ -5190,11 +5190,11 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Agriculture 1 - Organics Farming &amp; Keyhole gardening</t>
+          <t>CATs / Agriculture Champions</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>59</v>
+        <v>3</v>
       </c>
     </row>
     <row r="171">
@@ -5205,7 +5205,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Nganiko_3</t>
+          <t>Nganiko_2</t>
         </is>
       </c>
       <c r="C171" t="n">
@@ -5218,11 +5218,11 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 1)</t>
+          <t>HHT 1 - Day 2 - VSLAs</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="172">
@@ -5233,7 +5233,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Nganiko_3</t>
+          <t>Nganiko_2</t>
         </is>
       </c>
       <c r="C172" t="n">
@@ -5246,11 +5246,11 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 2)</t>
+          <t>HHT 1 - Mindset and behavioral change</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="173">
@@ -5261,7 +5261,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Nganiko_3</t>
+          <t>Nganiko_2</t>
         </is>
       </c>
       <c r="C173" t="n">
@@ -5274,11 +5274,11 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>CATs / Agriculture Champions</t>
+          <t>Village Champions</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174">
@@ -5289,7 +5289,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Nganiko_3</t>
+          <t>Nganiko_2</t>
         </is>
       </c>
       <c r="C174" t="n">
@@ -5302,11 +5302,11 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>HHT 1 - Day 2 - VSLAs</t>
+          <t>WASH - Training 1</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="175">
@@ -5317,7 +5317,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Nganiko_3</t>
+          <t>Nganiko_2</t>
         </is>
       </c>
       <c r="C175" t="n">
@@ -5330,11 +5330,11 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>HHT 1 - Mindset and behavioral change</t>
+          <t>WASH Champions Training</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>59</v>
+        <v>3</v>
       </c>
     </row>
     <row r="176">
@@ -5358,11 +5358,11 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Village Champions</t>
+          <t>Agriculture 1 - Organics Farming &amp; Keyhole gardening</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
     </row>
     <row r="177">
@@ -5386,11 +5386,11 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>WASH - Training 1</t>
+          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 1)</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="178">
@@ -5414,11 +5414,11 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>WASH Champions Training</t>
+          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 2)</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>3</v>
+        <v>55</v>
       </c>
     </row>
     <row r="179">
@@ -5429,7 +5429,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Nganiko_Central</t>
+          <t>Nganiko_3</t>
         </is>
       </c>
       <c r="C179" t="n">
@@ -5442,11 +5442,11 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Agriculture 1 - Organics Farming &amp; Keyhole gardening</t>
+          <t>CATs / Agriculture Champions</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>49</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180">
@@ -5457,7 +5457,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Nganiko_Central</t>
+          <t>Nganiko_3</t>
         </is>
       </c>
       <c r="C180" t="n">
@@ -5470,11 +5470,11 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 1)</t>
+          <t>HHT 1 - Day 2 - VSLAs</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="181">
@@ -5485,7 +5485,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Nganiko_Central</t>
+          <t>Nganiko_3</t>
         </is>
       </c>
       <c r="C181" t="n">
@@ -5498,11 +5498,11 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 2)</t>
+          <t>HHT 1 - Mindset and behavioral change</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>49</v>
+        <v>59</v>
       </c>
     </row>
     <row r="182">
@@ -5513,7 +5513,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Nganiko_Central</t>
+          <t>Nganiko_3</t>
         </is>
       </c>
       <c r="C182" t="n">
@@ -5526,11 +5526,11 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>CATs / Agriculture Champions</t>
+          <t>Village Champions</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183">
@@ -5541,7 +5541,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Nganiko_Central</t>
+          <t>Nganiko_3</t>
         </is>
       </c>
       <c r="C183" t="n">
@@ -5554,11 +5554,11 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Coffee Champions - ToT 1</t>
+          <t>WASH - Training 1</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>3</v>
+        <v>58</v>
       </c>
     </row>
     <row r="184">
@@ -5569,7 +5569,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Nganiko_Central</t>
+          <t>Nganiko_3</t>
         </is>
       </c>
       <c r="C184" t="n">
@@ -5582,11 +5582,11 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>HHT 1 - Day 2 - VSLAs</t>
+          <t>WASH Champions Training</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>48</v>
+        <v>3</v>
       </c>
     </row>
     <row r="185">
@@ -5610,7 +5610,7 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>HHT 1 - Mindset and behavioral change</t>
+          <t>Agriculture 1 - Organics Farming &amp; Keyhole gardening</t>
         </is>
       </c>
       <c r="F185" t="n">
@@ -5638,11 +5638,11 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Village Champions</t>
+          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 1)</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>1</v>
+        <v>49</v>
       </c>
     </row>
     <row r="187">
@@ -5666,11 +5666,11 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>WASH - Training 1</t>
+          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 2)</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="188">
@@ -5694,7 +5694,7 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>WASH Champions Training</t>
+          <t>CATs / Agriculture Champions</t>
         </is>
       </c>
       <c r="F188" t="n">
@@ -5709,7 +5709,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Nganiko_TC</t>
+          <t>Nganiko_Central</t>
         </is>
       </c>
       <c r="C189" t="n">
@@ -5722,11 +5722,11 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Agriculture 1 - Organics Farming &amp; Keyhole gardening</t>
+          <t>Coffee Champions - ToT 1</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>61</v>
+        <v>3</v>
       </c>
     </row>
     <row r="190">
@@ -5737,7 +5737,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Nganiko_TC</t>
+          <t>Nganiko_Central</t>
         </is>
       </c>
       <c r="C190" t="n">
@@ -5750,11 +5750,11 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 1)</t>
+          <t>HHT 1 - Day 2 - VSLAs</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>61</v>
+        <v>48</v>
       </c>
     </row>
     <row r="191">
@@ -5765,7 +5765,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Nganiko_TC</t>
+          <t>Nganiko_Central</t>
         </is>
       </c>
       <c r="C191" t="n">
@@ -5778,11 +5778,11 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 2)</t>
+          <t>HHT 1 - Mindset and behavioral change</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="192">
@@ -5793,7 +5793,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Nganiko_TC</t>
+          <t>Nganiko_Central</t>
         </is>
       </c>
       <c r="C192" t="n">
@@ -5806,11 +5806,11 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>CATs / Agriculture Champions</t>
+          <t>Village Champions</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193">
@@ -5821,7 +5821,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Nganiko_TC</t>
+          <t>Nganiko_Central</t>
         </is>
       </c>
       <c r="C193" t="n">
@@ -5834,11 +5834,11 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Coffee Champions - ToT 1</t>
+          <t>WASH - Training 1</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>3</v>
+        <v>50</v>
       </c>
     </row>
     <row r="194">
@@ -5849,7 +5849,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Nganiko_TC</t>
+          <t>Nganiko_Central</t>
         </is>
       </c>
       <c r="C194" t="n">
@@ -5862,11 +5862,11 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>HHT 1 - Day 2 - VSLAs</t>
+          <t>WASH Champions Training</t>
         </is>
       </c>
       <c r="F194" t="n">
-        <v>61</v>
+        <v>3</v>
       </c>
     </row>
     <row r="195">
@@ -5890,7 +5890,7 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>HHT 1 - Mindset and behavioral change</t>
+          <t>Agriculture 1 - Organics Farming &amp; Keyhole gardening</t>
         </is>
       </c>
       <c r="F195" t="n">
@@ -5918,11 +5918,11 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Village Champions</t>
+          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 1)</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>1</v>
+        <v>61</v>
       </c>
     </row>
     <row r="197">
@@ -5946,11 +5946,11 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>WASH - Training 1</t>
+          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 2)</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="198">
@@ -5974,7 +5974,7 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>WASH Champions Training</t>
+          <t>CATs / Agriculture Champions</t>
         </is>
       </c>
       <c r="F198" t="n">
@@ -5989,7 +5989,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Nyabwina_Buhanda</t>
+          <t>Nganiko_TC</t>
         </is>
       </c>
       <c r="C199" t="n">
@@ -6002,11 +6002,11 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Agriculture 1 - Organics Farming &amp; Keyhole gardening</t>
+          <t>Coffee Champions - ToT 1</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>56</v>
+        <v>3</v>
       </c>
     </row>
     <row r="200">
@@ -6017,7 +6017,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Nyabwina_Buhanda</t>
+          <t>Nganiko_TC</t>
         </is>
       </c>
       <c r="C200" t="n">
@@ -6030,11 +6030,11 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 1)</t>
+          <t>HHT 1 - Day 2 - VSLAs</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="201">
@@ -6045,7 +6045,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Nyabwina_Buhanda</t>
+          <t>Nganiko_TC</t>
         </is>
       </c>
       <c r="C201" t="n">
@@ -6058,11 +6058,11 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 2)</t>
+          <t>HHT 1 - Mindset and behavioral change</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="202">
@@ -6073,7 +6073,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Nyabwina_Buhanda</t>
+          <t>Nganiko_TC</t>
         </is>
       </c>
       <c r="C202" t="n">
@@ -6086,11 +6086,11 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>CATs / Agriculture Champions</t>
+          <t>Village Champions</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203">
@@ -6101,7 +6101,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Nyabwina_Buhanda</t>
+          <t>Nganiko_TC</t>
         </is>
       </c>
       <c r="C203" t="n">
@@ -6114,11 +6114,11 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>HHT 1 - Day 2 - VSLAs</t>
+          <t>WASH - Training 1</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="204">
@@ -6129,7 +6129,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Nyabwina_Buhanda</t>
+          <t>Nganiko_TC</t>
         </is>
       </c>
       <c r="C204" t="n">
@@ -6142,11 +6142,11 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>HHT 1 - Mindset and behavioral change</t>
+          <t>WASH Champions Training</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>55</v>
+        <v>3</v>
       </c>
     </row>
     <row r="205">
@@ -6170,11 +6170,11 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Village Champions</t>
+          <t>Agriculture 1 - Organics Farming &amp; Keyhole gardening</t>
         </is>
       </c>
       <c r="F205" t="n">
-        <v>1</v>
+        <v>56</v>
       </c>
     </row>
     <row r="206">
@@ -6198,7 +6198,7 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>WASH - Training 1</t>
+          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 1)</t>
         </is>
       </c>
       <c r="F206" t="n">
@@ -6226,11 +6226,11 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>WASH Champions Training</t>
+          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 2)</t>
         </is>
       </c>
       <c r="F207" t="n">
-        <v>3</v>
+        <v>55</v>
       </c>
     </row>
     <row r="208">
@@ -6241,7 +6241,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Nyakacwamba_1</t>
+          <t>Nyabwina_Buhanda</t>
         </is>
       </c>
       <c r="C208" t="n">
@@ -6254,11 +6254,11 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Agriculture 1 - Organics Farming &amp; Keyhole gardening</t>
+          <t>CATs / Agriculture Champions</t>
         </is>
       </c>
       <c r="F208" t="n">
-        <v>105</v>
+        <v>7</v>
       </c>
     </row>
     <row r="209">
@@ -6269,7 +6269,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Nyakacwamba_1</t>
+          <t>Nyabwina_Buhanda</t>
         </is>
       </c>
       <c r="C209" t="n">
@@ -6282,11 +6282,11 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 1)</t>
+          <t>HHT 1 - Day 2 - VSLAs</t>
         </is>
       </c>
       <c r="F209" t="n">
-        <v>107</v>
+        <v>56</v>
       </c>
     </row>
     <row r="210">
@@ -6297,7 +6297,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Nyakacwamba_1</t>
+          <t>Nyabwina_Buhanda</t>
         </is>
       </c>
       <c r="C210" t="n">
@@ -6310,11 +6310,11 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 2)</t>
+          <t>HHT 1 - Mindset and behavioral change</t>
         </is>
       </c>
       <c r="F210" t="n">
-        <v>106</v>
+        <v>55</v>
       </c>
     </row>
     <row r="211">
@@ -6325,7 +6325,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Nyakacwamba_1</t>
+          <t>Nyabwina_Buhanda</t>
         </is>
       </c>
       <c r="C211" t="n">
@@ -6338,7 +6338,7 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>CATs / Agriculture Champions</t>
+          <t>Village Champions</t>
         </is>
       </c>
       <c r="F211" t="n">
@@ -6353,7 +6353,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Nyakacwamba_1</t>
+          <t>Nyabwina_Buhanda</t>
         </is>
       </c>
       <c r="C212" t="n">
@@ -6366,11 +6366,11 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>HHT 1 - Day 2 - VSLAs</t>
+          <t>WASH - Training 1</t>
         </is>
       </c>
       <c r="F212" t="n">
-        <v>107</v>
+        <v>56</v>
       </c>
     </row>
     <row r="213">
@@ -6381,7 +6381,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Nyakacwamba_1</t>
+          <t>Nyabwina_Buhanda</t>
         </is>
       </c>
       <c r="C213" t="n">
@@ -6394,11 +6394,11 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>HHT 1 - Mindset and behavioral change</t>
+          <t>WASH Champions Training</t>
         </is>
       </c>
       <c r="F213" t="n">
-        <v>107</v>
+        <v>3</v>
       </c>
     </row>
     <row r="214">
@@ -6422,11 +6422,11 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Village Champions</t>
+          <t>Agriculture 1 - Organics Farming &amp; Keyhole gardening</t>
         </is>
       </c>
       <c r="F214" t="n">
-        <v>1</v>
+        <v>105</v>
       </c>
     </row>
     <row r="215">
@@ -6450,11 +6450,11 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>WASH - Training 1</t>
+          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 1)</t>
         </is>
       </c>
       <c r="F215" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="216">
@@ -6478,11 +6478,11 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>WASH Champions Training</t>
+          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 2)</t>
         </is>
       </c>
       <c r="F216" t="n">
-        <v>5</v>
+        <v>106</v>
       </c>
     </row>
     <row r="217">
@@ -6493,7 +6493,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Nyakacwamba_2</t>
+          <t>Nyakacwamba_1</t>
         </is>
       </c>
       <c r="C217" t="n">
@@ -6506,11 +6506,11 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Agriculture 1 - Organics Farming &amp; Keyhole gardening</t>
+          <t>CATs / Agriculture Champions</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>68</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218">
@@ -6521,7 +6521,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Nyakacwamba_2</t>
+          <t>Nyakacwamba_1</t>
         </is>
       </c>
       <c r="C218" t="n">
@@ -6534,11 +6534,11 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 1)</t>
+          <t>HHT 1 - Day 2 - VSLAs</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>69</v>
+        <v>107</v>
       </c>
     </row>
     <row r="219">
@@ -6549,7 +6549,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Nyakacwamba_2</t>
+          <t>Nyakacwamba_1</t>
         </is>
       </c>
       <c r="C219" t="n">
@@ -6562,11 +6562,11 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 2)</t>
+          <t>HHT 1 - Mindset and behavioral change</t>
         </is>
       </c>
       <c r="F219" t="n">
-        <v>69</v>
+        <v>107</v>
       </c>
     </row>
     <row r="220">
@@ -6577,7 +6577,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Nyakacwamba_2</t>
+          <t>Nyakacwamba_1</t>
         </is>
       </c>
       <c r="C220" t="n">
@@ -6590,11 +6590,11 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>CATs / Agriculture Champions</t>
+          <t>HHT 2 - Financial Literacy and VSLA and and Business Enterprise Selection</t>
         </is>
       </c>
       <c r="F220" t="n">
-        <v>4</v>
+        <v>106</v>
       </c>
     </row>
     <row r="221">
@@ -6605,7 +6605,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Nyakacwamba_2</t>
+          <t>Nyakacwamba_1</t>
         </is>
       </c>
       <c r="C221" t="n">
@@ -6618,11 +6618,11 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>HHT 1 - Day 2 - VSLAs</t>
+          <t>Village Champions</t>
         </is>
       </c>
       <c r="F221" t="n">
-        <v>69</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222">
@@ -6633,7 +6633,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Nyakacwamba_2</t>
+          <t>Nyakacwamba_1</t>
         </is>
       </c>
       <c r="C222" t="n">
@@ -6646,11 +6646,11 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>HHT 1 - Mindset and behavioral change</t>
+          <t>WASH - Training 1</t>
         </is>
       </c>
       <c r="F222" t="n">
-        <v>68</v>
+        <v>106</v>
       </c>
     </row>
     <row r="223">
@@ -6661,7 +6661,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Nyakacwamba_2</t>
+          <t>Nyakacwamba_1</t>
         </is>
       </c>
       <c r="C223" t="n">
@@ -6674,11 +6674,11 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Village Champions</t>
+          <t>WASH Champions Training</t>
         </is>
       </c>
       <c r="F223" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="224">
@@ -6702,11 +6702,11 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>WASH - Training 1</t>
+          <t>Agriculture 1 - Organics Farming &amp; Keyhole gardening</t>
         </is>
       </c>
       <c r="F224" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="225">
@@ -6730,11 +6730,11 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>WASH Champions Training</t>
+          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 1)</t>
         </is>
       </c>
       <c r="F225" t="n">
-        <v>4</v>
+        <v>69</v>
       </c>
     </row>
     <row r="226">
@@ -6745,7 +6745,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Rwengwe_Nyakacwamba</t>
+          <t>Nyakacwamba_2</t>
         </is>
       </c>
       <c r="C226" t="n">
@@ -6758,11 +6758,11 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Agriculture 1 - Organics Farming &amp; Keyhole gardening</t>
+          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 2)</t>
         </is>
       </c>
       <c r="F226" t="n">
-        <v>117</v>
+        <v>69</v>
       </c>
     </row>
     <row r="227">
@@ -6773,7 +6773,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Rwengwe_Nyakacwamba</t>
+          <t>Nyakacwamba_2</t>
         </is>
       </c>
       <c r="C227" t="n">
@@ -6786,11 +6786,11 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 1)</t>
+          <t>CATs / Agriculture Champions</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>119</v>
+        <v>4</v>
       </c>
     </row>
     <row r="228">
@@ -6801,7 +6801,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Rwengwe_Nyakacwamba</t>
+          <t>Nyakacwamba_2</t>
         </is>
       </c>
       <c r="C228" t="n">
@@ -6814,11 +6814,11 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 2)</t>
+          <t>HHT 1 - Day 2 - VSLAs</t>
         </is>
       </c>
       <c r="F228" t="n">
-        <v>119</v>
+        <v>69</v>
       </c>
     </row>
     <row r="229">
@@ -6829,7 +6829,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Rwengwe_Nyakacwamba</t>
+          <t>Nyakacwamba_2</t>
         </is>
       </c>
       <c r="C229" t="n">
@@ -6842,11 +6842,11 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>CATs / Agriculture Champions</t>
+          <t>HHT 1 - Mindset and behavioral change</t>
         </is>
       </c>
       <c r="F229" t="n">
-        <v>6</v>
+        <v>68</v>
       </c>
     </row>
     <row r="230">
@@ -6857,7 +6857,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Rwengwe_Nyakacwamba</t>
+          <t>Nyakacwamba_2</t>
         </is>
       </c>
       <c r="C230" t="n">
@@ -6870,11 +6870,11 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>HHT 1 - Day 2 - VSLAs</t>
+          <t>Village Champions</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>118</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231">
@@ -6885,7 +6885,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Rwengwe_Nyakacwamba</t>
+          <t>Nyakacwamba_2</t>
         </is>
       </c>
       <c r="C231" t="n">
@@ -6898,11 +6898,11 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>HHT 1 - Mindset and behavioral change</t>
+          <t>WASH - Training 1</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>118</v>
+        <v>67</v>
       </c>
     </row>
     <row r="232">
@@ -6913,7 +6913,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Rwengwe_Nyakacwamba</t>
+          <t>Nyakacwamba_2</t>
         </is>
       </c>
       <c r="C232" t="n">
@@ -6926,11 +6926,11 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Village Champions</t>
+          <t>WASH Champions Training</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="233">
@@ -6954,11 +6954,11 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>WASH - Training 1</t>
+          <t>Agriculture 1 - Organics Farming &amp; Keyhole gardening</t>
         </is>
       </c>
       <c r="F233" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="234">
@@ -6982,11 +6982,11 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>WASH Champions Training</t>
+          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 1)</t>
         </is>
       </c>
       <c r="F234" t="n">
-        <v>6</v>
+        <v>119</v>
       </c>
     </row>
     <row r="235">
@@ -6997,7 +6997,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Zanzibar</t>
+          <t>Rwengwe_Nyakacwamba</t>
         </is>
       </c>
       <c r="C235" t="n">
@@ -7010,11 +7010,11 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>Agriculture 1 - Organics Farming &amp; Keyhole gardening</t>
+          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 2)</t>
         </is>
       </c>
       <c r="F235" t="n">
-        <v>56</v>
+        <v>119</v>
       </c>
     </row>
     <row r="236">
@@ -7025,7 +7025,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Zanzibar</t>
+          <t>Rwengwe_Nyakacwamba</t>
         </is>
       </c>
       <c r="C236" t="n">
@@ -7038,11 +7038,11 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 1)</t>
+          <t>CATs / Agriculture Champions</t>
         </is>
       </c>
       <c r="F236" t="n">
-        <v>53</v>
+        <v>6</v>
       </c>
     </row>
     <row r="237">
@@ -7053,7 +7053,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Zanzibar</t>
+          <t>Rwengwe_Nyakacwamba</t>
         </is>
       </c>
       <c r="C237" t="n">
@@ -7066,11 +7066,11 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 2)</t>
+          <t>HHT 1 - Day 2 - VSLAs</t>
         </is>
       </c>
       <c r="F237" t="n">
-        <v>54</v>
+        <v>118</v>
       </c>
     </row>
     <row r="238">
@@ -7081,7 +7081,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Zanzibar</t>
+          <t>Rwengwe_Nyakacwamba</t>
         </is>
       </c>
       <c r="C238" t="n">
@@ -7094,11 +7094,11 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>CATs / Agriculture Champions</t>
+          <t>HHT 1 - Mindset and behavioral change</t>
         </is>
       </c>
       <c r="F238" t="n">
-        <v>2</v>
+        <v>118</v>
       </c>
     </row>
     <row r="239">
@@ -7109,7 +7109,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Zanzibar</t>
+          <t>Rwengwe_Nyakacwamba</t>
         </is>
       </c>
       <c r="C239" t="n">
@@ -7122,11 +7122,11 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>HHT 1 - Day 2 - VSLAs</t>
+          <t>HHT 2 - Financial Literacy and VSLA and and Business Enterprise Selection</t>
         </is>
       </c>
       <c r="F239" t="n">
-        <v>53</v>
+        <v>119</v>
       </c>
     </row>
     <row r="240">
@@ -7137,7 +7137,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Zanzibar</t>
+          <t>Rwengwe_Nyakacwamba</t>
         </is>
       </c>
       <c r="C240" t="n">
@@ -7150,11 +7150,11 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>HHT 1 - Mindset and behavioral change</t>
+          <t>Village Champions</t>
         </is>
       </c>
       <c r="F240" t="n">
-        <v>55</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241">
@@ -7165,7 +7165,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Zanzibar</t>
+          <t>Rwengwe_Nyakacwamba</t>
         </is>
       </c>
       <c r="C241" t="n">
@@ -7178,11 +7178,11 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>Village Champions</t>
+          <t>WASH - Training 1</t>
         </is>
       </c>
       <c r="F241" t="n">
-        <v>1</v>
+        <v>118</v>
       </c>
     </row>
     <row r="242">
@@ -7193,7 +7193,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Zanzibar</t>
+          <t>Rwengwe_Nyakacwamba</t>
         </is>
       </c>
       <c r="C242" t="n">
@@ -7206,11 +7206,11 @@
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>WASH - Training 1</t>
+          <t>WASH Champions Training</t>
         </is>
       </c>
       <c r="F242" t="n">
-        <v>53</v>
+        <v>6</v>
       </c>
     </row>
     <row r="243">
@@ -7234,22 +7234,22 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>WASH Champions Training</t>
+          <t>Agriculture 1 - Organics Farming &amp; Keyhole gardening</t>
         </is>
       </c>
       <c r="F243" t="n">
-        <v>3</v>
+        <v>56</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Rakai</t>
+          <t>Kitagwenda</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Kammengo</t>
+          <t>Zanzibar</t>
         </is>
       </c>
       <c r="C244" t="n">
@@ -7262,22 +7262,22 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>Agriculture 1 - Organics Farming &amp; Keyhole gardening</t>
+          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 1)</t>
         </is>
       </c>
       <c r="F244" t="n">
-        <v>75</v>
+        <v>53</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Rakai</t>
+          <t>Kitagwenda</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Kammengo</t>
+          <t>Zanzibar</t>
         </is>
       </c>
       <c r="C245" t="n">
@@ -7290,22 +7290,22 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 1)</t>
+          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 2)</t>
         </is>
       </c>
       <c r="F245" t="n">
-        <v>77</v>
+        <v>54</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Rakai</t>
+          <t>Kitagwenda</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Kammengo</t>
+          <t>Zanzibar</t>
         </is>
       </c>
       <c r="C246" t="n">
@@ -7318,22 +7318,22 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 2)</t>
+          <t>CATs / Agriculture Champions</t>
         </is>
       </c>
       <c r="F246" t="n">
-        <v>75</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Rakai</t>
+          <t>Kitagwenda</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Kammengo</t>
+          <t>Zanzibar</t>
         </is>
       </c>
       <c r="C247" t="n">
@@ -7350,18 +7350,18 @@
         </is>
       </c>
       <c r="F247" t="n">
-        <v>75</v>
+        <v>53</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>Rakai</t>
+          <t>Kitagwenda</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Kammengo</t>
+          <t>Zanzibar</t>
         </is>
       </c>
       <c r="C248" t="n">
@@ -7378,18 +7378,18 @@
         </is>
       </c>
       <c r="F248" t="n">
-        <v>80</v>
+        <v>55</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Rakai</t>
+          <t>Kitagwenda</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Kammengo</t>
+          <t>Zanzibar</t>
         </is>
       </c>
       <c r="C249" t="n">
@@ -7402,22 +7402,22 @@
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>VSLA Leadership Training</t>
+          <t>HHT 2 - Financial Literacy and VSLA and and Business Enterprise Selection</t>
         </is>
       </c>
       <c r="F249" t="n">
-        <v>14</v>
+        <v>54</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Rakai</t>
+          <t>Kitagwenda</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Kammengo</t>
+          <t>Zanzibar</t>
         </is>
       </c>
       <c r="C250" t="n">
@@ -7430,22 +7430,22 @@
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>WASH - Training 1</t>
+          <t>Village Champions</t>
         </is>
       </c>
       <c r="F250" t="n">
-        <v>80</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Rakai</t>
+          <t>Kitagwenda</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Kamuli</t>
+          <t>Zanzibar</t>
         </is>
       </c>
       <c r="C251" t="n">
@@ -7458,22 +7458,22 @@
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>Agriculture 1 - Organics Farming &amp; Keyhole gardening</t>
+          <t>WASH - Training 1</t>
         </is>
       </c>
       <c r="F251" t="n">
-        <v>74</v>
+        <v>53</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Rakai</t>
+          <t>Kitagwenda</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Kamuli</t>
+          <t>Zanzibar</t>
         </is>
       </c>
       <c r="C252" t="n">
@@ -7486,11 +7486,11 @@
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 1)</t>
+          <t>WASH Champions Training</t>
         </is>
       </c>
       <c r="F252" t="n">
-        <v>78</v>
+        <v>3</v>
       </c>
     </row>
     <row r="253">
@@ -7501,7 +7501,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Kamuli</t>
+          <t>Kammengo</t>
         </is>
       </c>
       <c r="C253" t="n">
@@ -7514,7 +7514,7 @@
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 2)</t>
+          <t>Agriculture 1 - Organics Farming &amp; Keyhole gardening</t>
         </is>
       </c>
       <c r="F253" t="n">
@@ -7529,7 +7529,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Kamuli</t>
+          <t>Kammengo</t>
         </is>
       </c>
       <c r="C254" t="n">
@@ -7542,7 +7542,7 @@
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>HHT 1 - Day 2 - VSLAs</t>
+          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 1)</t>
         </is>
       </c>
       <c r="F254" t="n">
@@ -7557,7 +7557,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Kamuli</t>
+          <t>Kammengo</t>
         </is>
       </c>
       <c r="C255" t="n">
@@ -7570,11 +7570,11 @@
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>HHT 1 - Mindset and behavioral change</t>
+          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 2)</t>
         </is>
       </c>
       <c r="F255" t="n">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="256">
@@ -7585,7 +7585,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Kamuli</t>
+          <t>Kammengo</t>
         </is>
       </c>
       <c r="C256" t="n">
@@ -7598,11 +7598,11 @@
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>VSLA Leadership Training</t>
+          <t>HHT 1 - Day 2 - VSLAs</t>
         </is>
       </c>
       <c r="F256" t="n">
-        <v>19</v>
+        <v>75</v>
       </c>
     </row>
     <row r="257">
@@ -7613,7 +7613,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Kamuli</t>
+          <t>Kammengo</t>
         </is>
       </c>
       <c r="C257" t="n">
@@ -7626,11 +7626,11 @@
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>WASH - Training 1</t>
+          <t>HHT 1 - Mindset and behavioral change</t>
         </is>
       </c>
       <c r="F257" t="n">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="258">
@@ -7641,7 +7641,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Kanoni_Rakai</t>
+          <t>Kammengo</t>
         </is>
       </c>
       <c r="C258" t="n">
@@ -7654,11 +7654,11 @@
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>Agriculture 1 - Organics Farming &amp; Keyhole gardening</t>
+          <t>VSLA Leadership Training</t>
         </is>
       </c>
       <c r="F258" t="n">
-        <v>150</v>
+        <v>14</v>
       </c>
     </row>
     <row r="259">
@@ -7669,7 +7669,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Kanoni_Rakai</t>
+          <t>Kammengo</t>
         </is>
       </c>
       <c r="C259" t="n">
@@ -7682,11 +7682,11 @@
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 1)</t>
+          <t>WASH - Training 1</t>
         </is>
       </c>
       <c r="F259" t="n">
-        <v>142</v>
+        <v>80</v>
       </c>
     </row>
     <row r="260">
@@ -7697,7 +7697,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Kanoni_Rakai</t>
+          <t>Kamuli</t>
         </is>
       </c>
       <c r="C260" t="n">
@@ -7710,11 +7710,11 @@
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 2)</t>
+          <t>Agriculture 1 - Organics Farming &amp; Keyhole gardening</t>
         </is>
       </c>
       <c r="F260" t="n">
-        <v>133</v>
+        <v>74</v>
       </c>
     </row>
     <row r="261">
@@ -7725,7 +7725,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Kanoni_Rakai</t>
+          <t>Kamuli</t>
         </is>
       </c>
       <c r="C261" t="n">
@@ -7738,11 +7738,11 @@
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>HHT 1 - Day 2 - VSLAs</t>
+          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 1)</t>
         </is>
       </c>
       <c r="F261" t="n">
-        <v>144</v>
+        <v>78</v>
       </c>
     </row>
     <row r="262">
@@ -7753,7 +7753,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Kanoni_Rakai</t>
+          <t>Kamuli</t>
         </is>
       </c>
       <c r="C262" t="n">
@@ -7766,11 +7766,11 @@
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>HHT 1 - Mindset and behavioral change</t>
+          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 2)</t>
         </is>
       </c>
       <c r="F262" t="n">
-        <v>150</v>
+        <v>75</v>
       </c>
     </row>
     <row r="263">
@@ -7781,7 +7781,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Kanoni_Rakai</t>
+          <t>Kamuli</t>
         </is>
       </c>
       <c r="C263" t="n">
@@ -7794,11 +7794,11 @@
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>WASH - Training 1</t>
+          <t>HHT 1 - Day 2 - VSLAs</t>
         </is>
       </c>
       <c r="F263" t="n">
-        <v>146</v>
+        <v>77</v>
       </c>
     </row>
     <row r="264">
@@ -7809,7 +7809,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Kikakata</t>
+          <t>Kamuli</t>
         </is>
       </c>
       <c r="C264" t="n">
@@ -7822,11 +7822,11 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>Agriculture 1 - Organics Farming &amp; Keyhole gardening</t>
+          <t>HHT 1 - Mindset and behavioral change</t>
         </is>
       </c>
       <c r="F264" t="n">
-        <v>91</v>
+        <v>72</v>
       </c>
     </row>
     <row r="265">
@@ -7837,7 +7837,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Kikakata</t>
+          <t>Kamuli</t>
         </is>
       </c>
       <c r="C265" t="n">
@@ -7850,11 +7850,11 @@
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 1)</t>
+          <t>VSLA Leadership Training</t>
         </is>
       </c>
       <c r="F265" t="n">
-        <v>91</v>
+        <v>19</v>
       </c>
     </row>
     <row r="266">
@@ -7865,7 +7865,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Kikakata</t>
+          <t>Kamuli</t>
         </is>
       </c>
       <c r="C266" t="n">
@@ -7878,11 +7878,11 @@
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 2)</t>
+          <t>WASH - Training 1</t>
         </is>
       </c>
       <c r="F266" t="n">
-        <v>93</v>
+        <v>78</v>
       </c>
     </row>
     <row r="267">
@@ -7893,7 +7893,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Kikakata</t>
+          <t>Kanoni_Rakai</t>
         </is>
       </c>
       <c r="C267" t="n">
@@ -7906,11 +7906,11 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>HHT 1 - Day 2 - VSLAs</t>
+          <t>Agriculture 1 - Organics Farming &amp; Keyhole gardening</t>
         </is>
       </c>
       <c r="F267" t="n">
-        <v>95</v>
+        <v>150</v>
       </c>
     </row>
     <row r="268">
@@ -7921,7 +7921,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Kikakata</t>
+          <t>Kanoni_Rakai</t>
         </is>
       </c>
       <c r="C268" t="n">
@@ -7934,11 +7934,11 @@
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>HHT 1 - Mindset and behavioral change</t>
+          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 1)</t>
         </is>
       </c>
       <c r="F268" t="n">
-        <v>94</v>
+        <v>142</v>
       </c>
     </row>
     <row r="269">
@@ -7949,7 +7949,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Kikakata</t>
+          <t>Kanoni_Rakai</t>
         </is>
       </c>
       <c r="C269" t="n">
@@ -7962,11 +7962,11 @@
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>WASH - Training 1</t>
+          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 2)</t>
         </is>
       </c>
       <c r="F269" t="n">
-        <v>92</v>
+        <v>142</v>
       </c>
     </row>
     <row r="270">
@@ -7977,7 +7977,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Kisimbanyiriri</t>
+          <t>Kanoni_Rakai</t>
         </is>
       </c>
       <c r="C270" t="n">
@@ -7990,11 +7990,11 @@
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>Agriculture 1 - Organics Farming &amp; Keyhole gardening</t>
+          <t>HHT 1 - Day 2 - VSLAs</t>
         </is>
       </c>
       <c r="F270" t="n">
-        <v>111</v>
+        <v>144</v>
       </c>
     </row>
     <row r="271">
@@ -8005,7 +8005,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Kisimbanyiriri</t>
+          <t>Kanoni_Rakai</t>
         </is>
       </c>
       <c r="C271" t="n">
@@ -8018,11 +8018,11 @@
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 1)</t>
+          <t>HHT 1 - Mindset and behavioral change</t>
         </is>
       </c>
       <c r="F271" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
     </row>
     <row r="272">
@@ -8033,7 +8033,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Kisimbanyiriri</t>
+          <t>Kanoni_Rakai</t>
         </is>
       </c>
       <c r="C272" t="n">
@@ -8046,11 +8046,11 @@
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 2)</t>
+          <t>WASH - Training 1</t>
         </is>
       </c>
       <c r="F272" t="n">
-        <v>110</v>
+        <v>146</v>
       </c>
     </row>
     <row r="273">
@@ -8061,7 +8061,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Kisimbanyiriri</t>
+          <t>Kikakata</t>
         </is>
       </c>
       <c r="C273" t="n">
@@ -8074,11 +8074,11 @@
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>Agriculture Perennial Crops</t>
+          <t>Agriculture 1 - Organics Farming &amp; Keyhole gardening</t>
         </is>
       </c>
       <c r="F273" t="n">
-        <v>109</v>
+        <v>91</v>
       </c>
     </row>
     <row r="274">
@@ -8089,7 +8089,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Kisimbanyiriri</t>
+          <t>Kikakata</t>
         </is>
       </c>
       <c r="C274" t="n">
@@ -8102,11 +8102,11 @@
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>HHT 1 - Day 2 - VSLAs</t>
+          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 1)</t>
         </is>
       </c>
       <c r="F274" t="n">
-        <v>117</v>
+        <v>91</v>
       </c>
     </row>
     <row r="275">
@@ -8117,7 +8117,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Kisimbanyiriri</t>
+          <t>Kikakata</t>
         </is>
       </c>
       <c r="C275" t="n">
@@ -8130,11 +8130,11 @@
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>HHT 1 - Mindset and behavioral change</t>
+          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 2)</t>
         </is>
       </c>
       <c r="F275" t="n">
-        <v>111</v>
+        <v>93</v>
       </c>
     </row>
     <row r="276">
@@ -8145,7 +8145,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Kisimbanyiriri</t>
+          <t>Kikakata</t>
         </is>
       </c>
       <c r="C276" t="n">
@@ -8158,11 +8158,11 @@
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>VSLA Leadership Training</t>
+          <t>Agriculture Perennial Crops</t>
         </is>
       </c>
       <c r="F276" t="n">
-        <v>14</v>
+        <v>94</v>
       </c>
     </row>
     <row r="277">
@@ -8173,7 +8173,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Kisimbanyiriri</t>
+          <t>Kikakata</t>
         </is>
       </c>
       <c r="C277" t="n">
@@ -8186,11 +8186,11 @@
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>WASH - Training 1</t>
+          <t>HHT 1 - Day 2 - VSLAs</t>
         </is>
       </c>
       <c r="F277" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
     </row>
     <row r="278">
@@ -8201,7 +8201,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Kitonezi</t>
+          <t>Kikakata</t>
         </is>
       </c>
       <c r="C278" t="n">
@@ -8214,11 +8214,11 @@
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>Agriculture 1 - Organics Farming &amp; Keyhole gardening</t>
+          <t>HHT 1 - Mindset and behavioral change</t>
         </is>
       </c>
       <c r="F278" t="n">
-        <v>183</v>
+        <v>94</v>
       </c>
     </row>
     <row r="279">
@@ -8229,7 +8229,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Kitonezi</t>
+          <t>Kikakata</t>
         </is>
       </c>
       <c r="C279" t="n">
@@ -8242,11 +8242,11 @@
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 1)</t>
+          <t>WASH - Training 1</t>
         </is>
       </c>
       <c r="F279" t="n">
-        <v>182</v>
+        <v>92</v>
       </c>
     </row>
     <row r="280">
@@ -8257,7 +8257,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Kitonezi</t>
+          <t>Kisimbanyiriri</t>
         </is>
       </c>
       <c r="C280" t="n">
@@ -8270,11 +8270,11 @@
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 2)</t>
+          <t>Agriculture 1 - Organics Farming &amp; Keyhole gardening</t>
         </is>
       </c>
       <c r="F280" t="n">
-        <v>181</v>
+        <v>111</v>
       </c>
     </row>
     <row r="281">
@@ -8285,7 +8285,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Kitonezi</t>
+          <t>Kisimbanyiriri</t>
         </is>
       </c>
       <c r="C281" t="n">
@@ -8298,11 +8298,11 @@
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>HHT 1 - Day 2 - VSLAs</t>
+          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 1)</t>
         </is>
       </c>
       <c r="F281" t="n">
-        <v>185</v>
+        <v>110</v>
       </c>
     </row>
     <row r="282">
@@ -8313,7 +8313,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Kitonezi</t>
+          <t>Kisimbanyiriri</t>
         </is>
       </c>
       <c r="C282" t="n">
@@ -8326,11 +8326,11 @@
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>HHT 1 - Mindset and behavioral change</t>
+          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 2)</t>
         </is>
       </c>
       <c r="F282" t="n">
-        <v>181</v>
+        <v>110</v>
       </c>
     </row>
     <row r="283">
@@ -8341,7 +8341,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Kitonezi</t>
+          <t>Kisimbanyiriri</t>
         </is>
       </c>
       <c r="C283" t="n">
@@ -8354,11 +8354,11 @@
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>VSLA Leadership Training</t>
+          <t>Agriculture Perennial Crops</t>
         </is>
       </c>
       <c r="F283" t="n">
-        <v>28</v>
+        <v>109</v>
       </c>
     </row>
     <row r="284">
@@ -8369,7 +8369,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Kitonezi</t>
+          <t>Kisimbanyiriri</t>
         </is>
       </c>
       <c r="C284" t="n">
@@ -8382,11 +8382,11 @@
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>WASH - Training 1</t>
+          <t>HHT 1 - Day 2 - VSLAs</t>
         </is>
       </c>
       <c r="F284" t="n">
-        <v>185</v>
+        <v>117</v>
       </c>
     </row>
     <row r="285">
@@ -8397,7 +8397,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>Kiwaguzi_A</t>
+          <t>Kisimbanyiriri</t>
         </is>
       </c>
       <c r="C285" t="n">
@@ -8410,11 +8410,11 @@
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>Agriculture 1 - Organics Farming &amp; Keyhole gardening</t>
+          <t>HHT 1 - Mindset and behavioral change</t>
         </is>
       </c>
       <c r="F285" t="n">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="286">
@@ -8425,7 +8425,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>Kiwaguzi_A</t>
+          <t>Kisimbanyiriri</t>
         </is>
       </c>
       <c r="C286" t="n">
@@ -8438,11 +8438,11 @@
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 1)</t>
+          <t>VSLA Leadership Training</t>
         </is>
       </c>
       <c r="F286" t="n">
-        <v>112</v>
+        <v>14</v>
       </c>
     </row>
     <row r="287">
@@ -8453,7 +8453,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Kiwaguzi_A</t>
+          <t>Kisimbanyiriri</t>
         </is>
       </c>
       <c r="C287" t="n">
@@ -8466,11 +8466,11 @@
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 2)</t>
+          <t>WASH - Training 1</t>
         </is>
       </c>
       <c r="F287" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="288">
@@ -8481,7 +8481,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Kiwaguzi_A</t>
+          <t>Kitonezi</t>
         </is>
       </c>
       <c r="C288" t="n">
@@ -8494,11 +8494,11 @@
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>HHT 1 - Day 2 - VSLAs</t>
+          <t>Agriculture 1 - Organics Farming &amp; Keyhole gardening</t>
         </is>
       </c>
       <c r="F288" t="n">
-        <v>114</v>
+        <v>183</v>
       </c>
     </row>
     <row r="289">
@@ -8509,7 +8509,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Kiwaguzi_A</t>
+          <t>Kitonezi</t>
         </is>
       </c>
       <c r="C289" t="n">
@@ -8522,11 +8522,11 @@
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>HHT 1 - Mindset and behavioral change</t>
+          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 1)</t>
         </is>
       </c>
       <c r="F289" t="n">
-        <v>110</v>
+        <v>182</v>
       </c>
     </row>
     <row r="290">
@@ -8537,7 +8537,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Kiwaguzi_A</t>
+          <t>Kitonezi</t>
         </is>
       </c>
       <c r="C290" t="n">
@@ -8550,11 +8550,11 @@
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>VSLA Leadership Training</t>
+          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 2)</t>
         </is>
       </c>
       <c r="F290" t="n">
-        <v>14</v>
+        <v>181</v>
       </c>
     </row>
     <row r="291">
@@ -8565,7 +8565,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>Kiwaguzi_A</t>
+          <t>Kitonezi</t>
         </is>
       </c>
       <c r="C291" t="n">
@@ -8578,11 +8578,11 @@
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>WASH - Training 1</t>
+          <t>HHT 1 - Day 2 - VSLAs</t>
         </is>
       </c>
       <c r="F291" t="n">
-        <v>115</v>
+        <v>185</v>
       </c>
     </row>
     <row r="292">
@@ -8593,7 +8593,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>Kiwaguzi_B</t>
+          <t>Kitonezi</t>
         </is>
       </c>
       <c r="C292" t="n">
@@ -8606,11 +8606,11 @@
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>Agriculture 1 - Organics Farming &amp; Keyhole gardening</t>
+          <t>HHT 1 - Mindset and behavioral change</t>
         </is>
       </c>
       <c r="F292" t="n">
-        <v>101</v>
+        <v>181</v>
       </c>
     </row>
     <row r="293">
@@ -8621,7 +8621,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Kiwaguzi_B</t>
+          <t>Kitonezi</t>
         </is>
       </c>
       <c r="C293" t="n">
@@ -8634,11 +8634,11 @@
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 1)</t>
+          <t>VSLA Leadership Training</t>
         </is>
       </c>
       <c r="F293" t="n">
-        <v>103</v>
+        <v>28</v>
       </c>
     </row>
     <row r="294">
@@ -8649,7 +8649,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Kiwaguzi_B</t>
+          <t>Kitonezi</t>
         </is>
       </c>
       <c r="C294" t="n">
@@ -8662,11 +8662,11 @@
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 2)</t>
+          <t>WASH - Training 1</t>
         </is>
       </c>
       <c r="F294" t="n">
-        <v>105</v>
+        <v>185</v>
       </c>
     </row>
     <row r="295">
@@ -8677,7 +8677,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Kiwaguzi_B</t>
+          <t>Kiwaguzi_A</t>
         </is>
       </c>
       <c r="C295" t="n">
@@ -8690,11 +8690,11 @@
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>HHT 1 - Day 2 - VSLAs</t>
+          <t>Agriculture 1 - Organics Farming &amp; Keyhole gardening</t>
         </is>
       </c>
       <c r="F295" t="n">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="296">
@@ -8705,7 +8705,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Kiwaguzi_B</t>
+          <t>Kiwaguzi_A</t>
         </is>
       </c>
       <c r="C296" t="n">
@@ -8718,11 +8718,11 @@
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>HHT 1 - Mindset and behavioral change</t>
+          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 1)</t>
         </is>
       </c>
       <c r="F296" t="n">
-        <v>103</v>
+        <v>112</v>
       </c>
     </row>
     <row r="297">
@@ -8733,7 +8733,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Kiwaguzi_B</t>
+          <t>Kiwaguzi_A</t>
         </is>
       </c>
       <c r="C297" t="n">
@@ -8746,11 +8746,11 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>VSLA Leadership Training</t>
+          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 2)</t>
         </is>
       </c>
       <c r="F297" t="n">
-        <v>21</v>
+        <v>109</v>
       </c>
     </row>
     <row r="298">
@@ -8761,7 +8761,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Kiwaguzi_B</t>
+          <t>Kiwaguzi_A</t>
         </is>
       </c>
       <c r="C298" t="n">
@@ -8774,11 +8774,11 @@
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>WASH - Training 1</t>
+          <t>HHT 1 - Day 2 - VSLAs</t>
         </is>
       </c>
       <c r="F298" t="n">
-        <v>102</v>
+        <v>114</v>
       </c>
     </row>
     <row r="299">
@@ -8789,7 +8789,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Kyaluwakula</t>
+          <t>Kiwaguzi_A</t>
         </is>
       </c>
       <c r="C299" t="n">
@@ -8802,11 +8802,11 @@
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>Agriculture 1 - Organics Farming &amp; Keyhole gardening</t>
+          <t>HHT 1 - Mindset and behavioral change</t>
         </is>
       </c>
       <c r="F299" t="n">
-        <v>78</v>
+        <v>110</v>
       </c>
     </row>
     <row r="300">
@@ -8817,7 +8817,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Kyaluwakula</t>
+          <t>Kiwaguzi_A</t>
         </is>
       </c>
       <c r="C300" t="n">
@@ -8830,11 +8830,11 @@
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 1)</t>
+          <t>VSLA Leadership Training</t>
         </is>
       </c>
       <c r="F300" t="n">
-        <v>82</v>
+        <v>14</v>
       </c>
     </row>
     <row r="301">
@@ -8845,7 +8845,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Kyaluwakula</t>
+          <t>Kiwaguzi_A</t>
         </is>
       </c>
       <c r="C301" t="n">
@@ -8858,11 +8858,11 @@
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 2)</t>
+          <t>WASH - Training 1</t>
         </is>
       </c>
       <c r="F301" t="n">
-        <v>77</v>
+        <v>115</v>
       </c>
     </row>
     <row r="302">
@@ -8873,7 +8873,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Kyaluwakula</t>
+          <t>Kiwaguzi_B</t>
         </is>
       </c>
       <c r="C302" t="n">
@@ -8886,11 +8886,11 @@
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>HHT 1 - Day 2 - VSLAs</t>
+          <t>Agriculture 1 - Organics Farming &amp; Keyhole gardening</t>
         </is>
       </c>
       <c r="F302" t="n">
-        <v>77</v>
+        <v>101</v>
       </c>
     </row>
     <row r="303">
@@ -8901,7 +8901,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Kyaluwakula</t>
+          <t>Kiwaguzi_B</t>
         </is>
       </c>
       <c r="C303" t="n">
@@ -8914,11 +8914,11 @@
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>HHT 1 - Mindset and behavioral change</t>
+          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 1)</t>
         </is>
       </c>
       <c r="F303" t="n">
-        <v>79</v>
+        <v>103</v>
       </c>
     </row>
     <row r="304">
@@ -8929,7 +8929,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Kyaluwakula</t>
+          <t>Kiwaguzi_B</t>
         </is>
       </c>
       <c r="C304" t="n">
@@ -8942,11 +8942,11 @@
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>VSLA Leadership Training</t>
+          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 2)</t>
         </is>
       </c>
       <c r="F304" t="n">
-        <v>14</v>
+        <v>105</v>
       </c>
     </row>
     <row r="305">
@@ -8957,7 +8957,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Kyaluwakula</t>
+          <t>Kiwaguzi_B</t>
         </is>
       </c>
       <c r="C305" t="n">
@@ -8970,11 +8970,11 @@
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>WASH - Training 1</t>
+          <t>HHT 1 - Day 2 - VSLAs</t>
         </is>
       </c>
       <c r="F305" t="n">
-        <v>79</v>
+        <v>110</v>
       </c>
     </row>
     <row r="306">
@@ -8985,7 +8985,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Kyamakanaga_A</t>
+          <t>Kiwaguzi_B</t>
         </is>
       </c>
       <c r="C306" t="n">
@@ -8998,11 +8998,11 @@
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>Agriculture 1 - Organics Farming &amp; Keyhole gardening</t>
+          <t>HHT 1 - Mindset and behavioral change</t>
         </is>
       </c>
       <c r="F306" t="n">
-        <v>136</v>
+        <v>103</v>
       </c>
     </row>
     <row r="307">
@@ -9013,7 +9013,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Kyamakanaga_A</t>
+          <t>Kiwaguzi_B</t>
         </is>
       </c>
       <c r="C307" t="n">
@@ -9026,11 +9026,11 @@
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 1)</t>
+          <t>VSLA Leadership Training</t>
         </is>
       </c>
       <c r="F307" t="n">
-        <v>135</v>
+        <v>21</v>
       </c>
     </row>
     <row r="308">
@@ -9041,7 +9041,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Kyamakanaga_A</t>
+          <t>Kiwaguzi_B</t>
         </is>
       </c>
       <c r="C308" t="n">
@@ -9054,11 +9054,11 @@
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 2)</t>
+          <t>WASH - Training 1</t>
         </is>
       </c>
       <c r="F308" t="n">
-        <v>132</v>
+        <v>102</v>
       </c>
     </row>
     <row r="309">
@@ -9069,7 +9069,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Kyamakanaga_A</t>
+          <t>Kyaluwakula</t>
         </is>
       </c>
       <c r="C309" t="n">
@@ -9082,11 +9082,11 @@
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>Agriculture Perennial Crops</t>
+          <t>Agriculture 1 - Organics Farming &amp; Keyhole gardening</t>
         </is>
       </c>
       <c r="F309" t="n">
-        <v>135</v>
+        <v>78</v>
       </c>
     </row>
     <row r="310">
@@ -9097,7 +9097,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Kyamakanaga_A</t>
+          <t>Kyaluwakula</t>
         </is>
       </c>
       <c r="C310" t="n">
@@ -9110,11 +9110,11 @@
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>CATs / Agriculture Champions</t>
+          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 1)</t>
         </is>
       </c>
       <c r="F310" t="n">
-        <v>8</v>
+        <v>82</v>
       </c>
     </row>
     <row r="311">
@@ -9125,7 +9125,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Kyamakanaga_A</t>
+          <t>Kyaluwakula</t>
         </is>
       </c>
       <c r="C311" t="n">
@@ -9138,11 +9138,11 @@
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>HHT 1 - Day 2 - VSLAs</t>
+          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 2)</t>
         </is>
       </c>
       <c r="F311" t="n">
-        <v>134</v>
+        <v>77</v>
       </c>
     </row>
     <row r="312">
@@ -9153,7 +9153,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Kyamakanaga_A</t>
+          <t>Kyaluwakula</t>
         </is>
       </c>
       <c r="C312" t="n">
@@ -9166,11 +9166,11 @@
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>HHT 1 - Mindset and behavioral change</t>
+          <t>HHT 1 - Day 2 - VSLAs</t>
         </is>
       </c>
       <c r="F312" t="n">
-        <v>133</v>
+        <v>77</v>
       </c>
     </row>
     <row r="313">
@@ -9181,7 +9181,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Kyamakanaga_A</t>
+          <t>Kyaluwakula</t>
         </is>
       </c>
       <c r="C313" t="n">
@@ -9194,11 +9194,11 @@
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>VSLA Leadership Training</t>
+          <t>HHT 1 - Mindset and behavioral change</t>
         </is>
       </c>
       <c r="F313" t="n">
-        <v>28</v>
+        <v>79</v>
       </c>
     </row>
     <row r="314">
@@ -9209,7 +9209,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Kyamakanaga_A</t>
+          <t>Kyaluwakula</t>
         </is>
       </c>
       <c r="C314" t="n">
@@ -9222,11 +9222,11 @@
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>WASH - Training 1</t>
+          <t>VSLA Leadership Training</t>
         </is>
       </c>
       <c r="F314" t="n">
-        <v>133</v>
+        <v>14</v>
       </c>
     </row>
     <row r="315">
@@ -9237,7 +9237,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Kyamakanaga_A</t>
+          <t>Kyaluwakula</t>
         </is>
       </c>
       <c r="C315" t="n">
@@ -9250,11 +9250,11 @@
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>WASH Champions Training</t>
+          <t>WASH - Training 1</t>
         </is>
       </c>
       <c r="F315" t="n">
-        <v>8</v>
+        <v>79</v>
       </c>
     </row>
     <row r="316">
@@ -9265,7 +9265,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Kyamakanaga_B</t>
+          <t>Kyamakanaga_A</t>
         </is>
       </c>
       <c r="C316" t="n">
@@ -9282,7 +9282,7 @@
         </is>
       </c>
       <c r="F316" t="n">
-        <v>64</v>
+        <v>136</v>
       </c>
     </row>
     <row r="317">
@@ -9293,7 +9293,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Kyamakanaga_B</t>
+          <t>Kyamakanaga_A</t>
         </is>
       </c>
       <c r="C317" t="n">
@@ -9310,7 +9310,7 @@
         </is>
       </c>
       <c r="F317" t="n">
-        <v>64</v>
+        <v>135</v>
       </c>
     </row>
     <row r="318">
@@ -9321,7 +9321,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Kyamakanaga_B</t>
+          <t>Kyamakanaga_A</t>
         </is>
       </c>
       <c r="C318" t="n">
@@ -9338,7 +9338,7 @@
         </is>
       </c>
       <c r="F318" t="n">
-        <v>61</v>
+        <v>132</v>
       </c>
     </row>
     <row r="319">
@@ -9349,7 +9349,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Kyamakanaga_B</t>
+          <t>Kyamakanaga_A</t>
         </is>
       </c>
       <c r="C319" t="n">
@@ -9366,7 +9366,7 @@
         </is>
       </c>
       <c r="F319" t="n">
-        <v>62</v>
+        <v>135</v>
       </c>
     </row>
     <row r="320">
@@ -9377,7 +9377,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Kyamakanaga_B</t>
+          <t>Kyamakanaga_A</t>
         </is>
       </c>
       <c r="C320" t="n">
@@ -9394,7 +9394,7 @@
         </is>
       </c>
       <c r="F320" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="321">
@@ -9405,7 +9405,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Kyamakanaga_B</t>
+          <t>Kyamakanaga_A</t>
         </is>
       </c>
       <c r="C321" t="n">
@@ -9422,7 +9422,7 @@
         </is>
       </c>
       <c r="F321" t="n">
-        <v>65</v>
+        <v>134</v>
       </c>
     </row>
     <row r="322">
@@ -9433,7 +9433,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Kyamakanaga_B</t>
+          <t>Kyamakanaga_A</t>
         </is>
       </c>
       <c r="C322" t="n">
@@ -9450,7 +9450,7 @@
         </is>
       </c>
       <c r="F322" t="n">
-        <v>63</v>
+        <v>133</v>
       </c>
     </row>
     <row r="323">
@@ -9461,7 +9461,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Kyamakanaga_B</t>
+          <t>Kyamakanaga_A</t>
         </is>
       </c>
       <c r="C323" t="n">
@@ -9474,11 +9474,11 @@
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>VSLA Leadership Training</t>
+          <t>HOR 1</t>
         </is>
       </c>
       <c r="F323" t="n">
-        <v>14</v>
+        <v>133</v>
       </c>
     </row>
     <row r="324">
@@ -9489,7 +9489,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Kyamakanaga_B</t>
+          <t>Kyamakanaga_A</t>
         </is>
       </c>
       <c r="C324" t="n">
@@ -9502,11 +9502,11 @@
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>WASH - Training 1</t>
+          <t>VSLA Leadership Training</t>
         </is>
       </c>
       <c r="F324" t="n">
-        <v>63</v>
+        <v>28</v>
       </c>
     </row>
     <row r="325">
@@ -9517,7 +9517,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Kyamakanaga_B</t>
+          <t>Kyamakanaga_A</t>
         </is>
       </c>
       <c r="C325" t="n">
@@ -9530,11 +9530,11 @@
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>WASH Champions Training</t>
+          <t>WASH - Training 1</t>
         </is>
       </c>
       <c r="F325" t="n">
-        <v>5</v>
+        <v>133</v>
       </c>
     </row>
     <row r="326">
@@ -9545,7 +9545,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Kyengeza_Rakai</t>
+          <t>Kyamakanaga_A</t>
         </is>
       </c>
       <c r="C326" t="n">
@@ -9558,11 +9558,11 @@
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>Agriculture 1 - Organics Farming &amp; Keyhole gardening</t>
+          <t>WASH Champions Training</t>
         </is>
       </c>
       <c r="F326" t="n">
-        <v>222</v>
+        <v>8</v>
       </c>
     </row>
     <row r="327">
@@ -9573,7 +9573,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Kyengeza_Rakai</t>
+          <t>Kyamakanaga_B</t>
         </is>
       </c>
       <c r="C327" t="n">
@@ -9586,11 +9586,11 @@
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 1)</t>
+          <t>Agriculture 1 - Organics Farming &amp; Keyhole gardening</t>
         </is>
       </c>
       <c r="F327" t="n">
-        <v>224</v>
+        <v>64</v>
       </c>
     </row>
     <row r="328">
@@ -9601,7 +9601,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Kyengeza_Rakai</t>
+          <t>Kyamakanaga_B</t>
         </is>
       </c>
       <c r="C328" t="n">
@@ -9614,11 +9614,11 @@
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 2)</t>
+          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 1)</t>
         </is>
       </c>
       <c r="F328" t="n">
-        <v>224</v>
+        <v>64</v>
       </c>
     </row>
     <row r="329">
@@ -9629,7 +9629,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Kyengeza_Rakai</t>
+          <t>Kyamakanaga_B</t>
         </is>
       </c>
       <c r="C329" t="n">
@@ -9642,11 +9642,11 @@
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>HHT 1 - Day 2 - VSLAs</t>
+          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 2)</t>
         </is>
       </c>
       <c r="F329" t="n">
-        <v>225</v>
+        <v>61</v>
       </c>
     </row>
     <row r="330">
@@ -9657,7 +9657,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Kyengeza_Rakai</t>
+          <t>Kyamakanaga_B</t>
         </is>
       </c>
       <c r="C330" t="n">
@@ -9670,11 +9670,11 @@
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>HHT 1 - Mindset and behavioral change</t>
+          <t>Agriculture Perennial Crops</t>
         </is>
       </c>
       <c r="F330" t="n">
-        <v>216</v>
+        <v>62</v>
       </c>
     </row>
     <row r="331">
@@ -9685,7 +9685,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Kyengeza_Rakai</t>
+          <t>Kyamakanaga_B</t>
         </is>
       </c>
       <c r="C331" t="n">
@@ -9698,11 +9698,11 @@
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>VSLA Leadership Training</t>
+          <t>CATs / Agriculture Champions</t>
         </is>
       </c>
       <c r="F331" t="n">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="332">
@@ -9713,7 +9713,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Kyengeza_Rakai</t>
+          <t>Kyamakanaga_B</t>
         </is>
       </c>
       <c r="C332" t="n">
@@ -9726,11 +9726,11 @@
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>WASH - Training 1</t>
+          <t>HHT 1 - Day 2 - VSLAs</t>
         </is>
       </c>
       <c r="F332" t="n">
-        <v>219</v>
+        <v>65</v>
       </c>
     </row>
     <row r="333">
@@ -9741,7 +9741,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Mikunyu</t>
+          <t>Kyamakanaga_B</t>
         </is>
       </c>
       <c r="C333" t="n">
@@ -9754,11 +9754,11 @@
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>Agriculture 1 - Organics Farming &amp; Keyhole gardening</t>
+          <t>HHT 1 - Mindset and behavioral change</t>
         </is>
       </c>
       <c r="F333" t="n">
-        <v>123</v>
+        <v>63</v>
       </c>
     </row>
     <row r="334">
@@ -9769,7 +9769,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Mikunyu</t>
+          <t>Kyamakanaga_B</t>
         </is>
       </c>
       <c r="C334" t="n">
@@ -9782,11 +9782,11 @@
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 1)</t>
+          <t>HOR 1</t>
         </is>
       </c>
       <c r="F334" t="n">
-        <v>127</v>
+        <v>63</v>
       </c>
     </row>
     <row r="335">
@@ -9797,7 +9797,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>Mikunyu</t>
+          <t>Kyamakanaga_B</t>
         </is>
       </c>
       <c r="C335" t="n">
@@ -9810,11 +9810,11 @@
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 2)</t>
+          <t>VSLA Leadership Training</t>
         </is>
       </c>
       <c r="F335" t="n">
-        <v>115</v>
+        <v>14</v>
       </c>
     </row>
     <row r="336">
@@ -9825,7 +9825,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>Mikunyu</t>
+          <t>Kyamakanaga_B</t>
         </is>
       </c>
       <c r="C336" t="n">
@@ -9838,11 +9838,11 @@
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>HHT 1 - Day 2 - VSLAs</t>
+          <t>WASH - Training 1</t>
         </is>
       </c>
       <c r="F336" t="n">
-        <v>121</v>
+        <v>63</v>
       </c>
     </row>
     <row r="337">
@@ -9853,7 +9853,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Mikunyu</t>
+          <t>Kyamakanaga_B</t>
         </is>
       </c>
       <c r="C337" t="n">
@@ -9866,11 +9866,11 @@
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>HHT 1 - Mindset and behavioral change</t>
+          <t>WASH Champions Training</t>
         </is>
       </c>
       <c r="F337" t="n">
-        <v>123</v>
+        <v>5</v>
       </c>
     </row>
     <row r="338">
@@ -9881,7 +9881,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>Mikunyu</t>
+          <t>Kyengeza_Rakai</t>
         </is>
       </c>
       <c r="C338" t="n">
@@ -9894,11 +9894,11 @@
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>VSLA Leadership Training</t>
+          <t>Agriculture 1 - Organics Farming &amp; Keyhole gardening</t>
         </is>
       </c>
       <c r="F338" t="n">
-        <v>14</v>
+        <v>222</v>
       </c>
     </row>
     <row r="339">
@@ -9909,7 +9909,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Mikunyu</t>
+          <t>Kyengeza_Rakai</t>
         </is>
       </c>
       <c r="C339" t="n">
@@ -9922,11 +9922,11 @@
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>WASH - Training 1</t>
+          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 1)</t>
         </is>
       </c>
       <c r="F339" t="n">
-        <v>118</v>
+        <v>224</v>
       </c>
     </row>
     <row r="340">
@@ -9937,7 +9937,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Mpaama</t>
+          <t>Kyengeza_Rakai</t>
         </is>
       </c>
       <c r="C340" t="n">
@@ -9950,11 +9950,11 @@
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>Agriculture 1 - Organics Farming &amp; Keyhole gardening</t>
+          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 2)</t>
         </is>
       </c>
       <c r="F340" t="n">
-        <v>78</v>
+        <v>224</v>
       </c>
     </row>
     <row r="341">
@@ -9965,7 +9965,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Mpaama</t>
+          <t>Kyengeza_Rakai</t>
         </is>
       </c>
       <c r="C341" t="n">
@@ -9978,11 +9978,11 @@
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 1)</t>
+          <t>HHT 1 - Day 2 - VSLAs</t>
         </is>
       </c>
       <c r="F341" t="n">
-        <v>74</v>
+        <v>225</v>
       </c>
     </row>
     <row r="342">
@@ -9993,7 +9993,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Mpaama</t>
+          <t>Kyengeza_Rakai</t>
         </is>
       </c>
       <c r="C342" t="n">
@@ -10006,11 +10006,11 @@
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 2)</t>
+          <t>HHT 1 - Mindset and behavioral change</t>
         </is>
       </c>
       <c r="F342" t="n">
-        <v>76</v>
+        <v>216</v>
       </c>
     </row>
     <row r="343">
@@ -10021,7 +10021,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Mpaama</t>
+          <t>Kyengeza_Rakai</t>
         </is>
       </c>
       <c r="C343" t="n">
@@ -10034,11 +10034,11 @@
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>HHT 1 - Day 2 - VSLAs</t>
+          <t>VSLA Leadership Training</t>
         </is>
       </c>
       <c r="F343" t="n">
-        <v>77</v>
+        <v>28</v>
       </c>
     </row>
     <row r="344">
@@ -10049,7 +10049,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Mpaama</t>
+          <t>Kyengeza_Rakai</t>
         </is>
       </c>
       <c r="C344" t="n">
@@ -10062,11 +10062,11 @@
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>HHT 1 - Mindset and behavioral change</t>
+          <t>WASH - Training 1</t>
         </is>
       </c>
       <c r="F344" t="n">
-        <v>78</v>
+        <v>219</v>
       </c>
     </row>
     <row r="345">
@@ -10077,7 +10077,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Mpaama</t>
+          <t>Mikunyu</t>
         </is>
       </c>
       <c r="C345" t="n">
@@ -10090,11 +10090,11 @@
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>VSLA Leadership Training</t>
+          <t>Agriculture 1 - Organics Farming &amp; Keyhole gardening</t>
         </is>
       </c>
       <c r="F345" t="n">
-        <v>14</v>
+        <v>123</v>
       </c>
     </row>
     <row r="346">
@@ -10105,7 +10105,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Mpaama</t>
+          <t>Mikunyu</t>
         </is>
       </c>
       <c r="C346" t="n">
@@ -10118,11 +10118,11 @@
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>WASH - Training 1</t>
+          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 1)</t>
         </is>
       </c>
       <c r="F346" t="n">
-        <v>74</v>
+        <v>127</v>
       </c>
     </row>
     <row r="347">
@@ -10133,7 +10133,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Nabyala</t>
+          <t>Mikunyu</t>
         </is>
       </c>
       <c r="C347" t="n">
@@ -10146,11 +10146,11 @@
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>Agriculture 1 - Organics Farming &amp; Keyhole gardening</t>
+          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 2)</t>
         </is>
       </c>
       <c r="F347" t="n">
-        <v>64</v>
+        <v>116</v>
       </c>
     </row>
     <row r="348">
@@ -10161,7 +10161,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Nabyala</t>
+          <t>Mikunyu</t>
         </is>
       </c>
       <c r="C348" t="n">
@@ -10174,11 +10174,11 @@
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 1)</t>
+          <t>HHT 1 - Day 2 - VSLAs</t>
         </is>
       </c>
       <c r="F348" t="n">
-        <v>65</v>
+        <v>121</v>
       </c>
     </row>
     <row r="349">
@@ -10189,7 +10189,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Nabyala</t>
+          <t>Mikunyu</t>
         </is>
       </c>
       <c r="C349" t="n">
@@ -10202,11 +10202,11 @@
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 2)</t>
+          <t>HHT 1 - Mindset and behavioral change</t>
         </is>
       </c>
       <c r="F349" t="n">
-        <v>64</v>
+        <v>123</v>
       </c>
     </row>
     <row r="350">
@@ -10217,7 +10217,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>Nabyala</t>
+          <t>Mikunyu</t>
         </is>
       </c>
       <c r="C350" t="n">
@@ -10230,11 +10230,11 @@
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>HHT 1 - Day 2 - VSLAs</t>
+          <t>VSLA Leadership Training</t>
         </is>
       </c>
       <c r="F350" t="n">
-        <v>66</v>
+        <v>14</v>
       </c>
     </row>
     <row r="351">
@@ -10245,7 +10245,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Nabyala</t>
+          <t>Mikunyu</t>
         </is>
       </c>
       <c r="C351" t="n">
@@ -10258,11 +10258,11 @@
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>HHT 1 - Mindset and behavioral change</t>
+          <t>WASH - Training 1</t>
         </is>
       </c>
       <c r="F351" t="n">
-        <v>68</v>
+        <v>118</v>
       </c>
     </row>
     <row r="352">
@@ -10273,7 +10273,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>Nabyala</t>
+          <t>Mpaama</t>
         </is>
       </c>
       <c r="C352" t="n">
@@ -10286,11 +10286,11 @@
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>VSLA Leadership Training</t>
+          <t>Agriculture 1 - Organics Farming &amp; Keyhole gardening</t>
         </is>
       </c>
       <c r="F352" t="n">
-        <v>7</v>
+        <v>78</v>
       </c>
     </row>
     <row r="353">
@@ -10301,7 +10301,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Nabyala</t>
+          <t>Mpaama</t>
         </is>
       </c>
       <c r="C353" t="n">
@@ -10314,11 +10314,11 @@
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>WASH - Training 1</t>
+          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 1)</t>
         </is>
       </c>
       <c r="F353" t="n">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="354">
@@ -10329,7 +10329,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Nakitokolo</t>
+          <t>Mpaama</t>
         </is>
       </c>
       <c r="C354" t="n">
@@ -10342,11 +10342,11 @@
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>Agriculture 1 - Organics Farming &amp; Keyhole gardening</t>
+          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 2)</t>
         </is>
       </c>
       <c r="F354" t="n">
-        <v>106</v>
+        <v>76</v>
       </c>
     </row>
     <row r="355">
@@ -10357,7 +10357,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Nakitokolo</t>
+          <t>Mpaama</t>
         </is>
       </c>
       <c r="C355" t="n">
@@ -10370,11 +10370,11 @@
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 1)</t>
+          <t>Agriculture Perennial Crops</t>
         </is>
       </c>
       <c r="F355" t="n">
-        <v>105</v>
+        <v>78</v>
       </c>
     </row>
     <row r="356">
@@ -10385,7 +10385,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Nakitokolo</t>
+          <t>Mpaama</t>
         </is>
       </c>
       <c r="C356" t="n">
@@ -10398,11 +10398,11 @@
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 2)</t>
+          <t>HHT 1 - Day 2 - VSLAs</t>
         </is>
       </c>
       <c r="F356" t="n">
-        <v>105</v>
+        <v>77</v>
       </c>
     </row>
     <row r="357">
@@ -10413,7 +10413,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Nakitokolo</t>
+          <t>Mpaama</t>
         </is>
       </c>
       <c r="C357" t="n">
@@ -10426,11 +10426,11 @@
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>HHT 1 - Day 2 - VSLAs</t>
+          <t>HHT 1 - Mindset and behavioral change</t>
         </is>
       </c>
       <c r="F357" t="n">
-        <v>105</v>
+        <v>78</v>
       </c>
     </row>
     <row r="358">
@@ -10441,7 +10441,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Nakitokolo</t>
+          <t>Mpaama</t>
         </is>
       </c>
       <c r="C358" t="n">
@@ -10454,11 +10454,11 @@
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>HHT 1 - Mindset and behavioral change</t>
+          <t>VSLA Leadership Training</t>
         </is>
       </c>
       <c r="F358" t="n">
-        <v>109</v>
+        <v>14</v>
       </c>
     </row>
     <row r="359">
@@ -10469,7 +10469,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Nakitokolo</t>
+          <t>Mpaama</t>
         </is>
       </c>
       <c r="C359" t="n">
@@ -10482,11 +10482,11 @@
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>VSLA Leadership Training</t>
+          <t>WASH - Training 1</t>
         </is>
       </c>
       <c r="F359" t="n">
-        <v>14</v>
+        <v>74</v>
       </c>
     </row>
     <row r="360">
@@ -10497,7 +10497,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Nakitokolo</t>
+          <t>Nabyala</t>
         </is>
       </c>
       <c r="C360" t="n">
@@ -10510,11 +10510,11 @@
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>WASH - Training 1</t>
+          <t>Agriculture 1 - Organics Farming &amp; Keyhole gardening</t>
         </is>
       </c>
       <c r="F360" t="n">
-        <v>105</v>
+        <v>64</v>
       </c>
     </row>
     <row r="361">
@@ -10525,7 +10525,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Nnongo_A</t>
+          <t>Nabyala</t>
         </is>
       </c>
       <c r="C361" t="n">
@@ -10538,11 +10538,11 @@
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>Agriculture 1 - Organics Farming &amp; Keyhole gardening</t>
+          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 1)</t>
         </is>
       </c>
       <c r="F361" t="n">
-        <v>168</v>
+        <v>65</v>
       </c>
     </row>
     <row r="362">
@@ -10553,7 +10553,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>Nnongo_A</t>
+          <t>Nabyala</t>
         </is>
       </c>
       <c r="C362" t="n">
@@ -10566,11 +10566,11 @@
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 1)</t>
+          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 2)</t>
         </is>
       </c>
       <c r="F362" t="n">
-        <v>168</v>
+        <v>64</v>
       </c>
     </row>
     <row r="363">
@@ -10581,7 +10581,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Nnongo_A</t>
+          <t>Nabyala</t>
         </is>
       </c>
       <c r="C363" t="n">
@@ -10594,11 +10594,11 @@
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 2)</t>
+          <t>HHT 1 - Day 2 - VSLAs</t>
         </is>
       </c>
       <c r="F363" t="n">
-        <v>167</v>
+        <v>66</v>
       </c>
     </row>
     <row r="364">
@@ -10609,7 +10609,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Nnongo_A</t>
+          <t>Nabyala</t>
         </is>
       </c>
       <c r="C364" t="n">
@@ -10622,11 +10622,11 @@
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>Agriculture Perennial Crops</t>
+          <t>HHT 1 - Mindset and behavioral change</t>
         </is>
       </c>
       <c r="F364" t="n">
-        <v>167</v>
+        <v>68</v>
       </c>
     </row>
     <row r="365">
@@ -10637,7 +10637,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Nnongo_A</t>
+          <t>Nabyala</t>
         </is>
       </c>
       <c r="C365" t="n">
@@ -10650,11 +10650,11 @@
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>CATs / Agriculture Champions</t>
+          <t>VSLA Leadership Training</t>
         </is>
       </c>
       <c r="F365" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="366">
@@ -10665,7 +10665,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Nnongo_A</t>
+          <t>Nabyala</t>
         </is>
       </c>
       <c r="C366" t="n">
@@ -10678,11 +10678,11 @@
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>HHT 1 - Day 2 - VSLAs</t>
+          <t>WASH - Training 1</t>
         </is>
       </c>
       <c r="F366" t="n">
-        <v>167</v>
+        <v>68</v>
       </c>
     </row>
     <row r="367">
@@ -10693,7 +10693,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>Nnongo_A</t>
+          <t>Nakitokolo</t>
         </is>
       </c>
       <c r="C367" t="n">
@@ -10706,11 +10706,11 @@
       </c>
       <c r="E367" t="inlineStr">
         <is>
-          <t>HHT 1 - Mindset and behavioral change</t>
+          <t>Agriculture 1 - Organics Farming &amp; Keyhole gardening</t>
         </is>
       </c>
       <c r="F367" t="n">
-        <v>168</v>
+        <v>106</v>
       </c>
     </row>
     <row r="368">
@@ -10721,7 +10721,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>Nnongo_A</t>
+          <t>Nakitokolo</t>
         </is>
       </c>
       <c r="C368" t="n">
@@ -10734,11 +10734,11 @@
       </c>
       <c r="E368" t="inlineStr">
         <is>
-          <t>VSLA Leadership Training</t>
+          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 1)</t>
         </is>
       </c>
       <c r="F368" t="n">
-        <v>31</v>
+        <v>105</v>
       </c>
     </row>
     <row r="369">
@@ -10749,7 +10749,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>Nnongo_A</t>
+          <t>Nakitokolo</t>
         </is>
       </c>
       <c r="C369" t="n">
@@ -10762,11 +10762,11 @@
       </c>
       <c r="E369" t="inlineStr">
         <is>
-          <t>WASH - Training 1</t>
+          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 2)</t>
         </is>
       </c>
       <c r="F369" t="n">
-        <v>168</v>
+        <v>105</v>
       </c>
     </row>
     <row r="370">
@@ -10777,23 +10777,415 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
+          <t>Nakitokolo</t>
+        </is>
+      </c>
+      <c r="C370" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E370" t="inlineStr">
+        <is>
+          <t>HHT 1 - Day 2 - VSLAs</t>
+        </is>
+      </c>
+      <c r="F370" t="n">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>Rakai</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>Nakitokolo</t>
+        </is>
+      </c>
+      <c r="C371" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E371" t="inlineStr">
+        <is>
+          <t>HHT 1 - Mindset and behavioral change</t>
+        </is>
+      </c>
+      <c r="F371" t="n">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>Rakai</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>Nakitokolo</t>
+        </is>
+      </c>
+      <c r="C372" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E372" t="inlineStr">
+        <is>
+          <t>VSLA Leadership Training</t>
+        </is>
+      </c>
+      <c r="F372" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>Rakai</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>Nakitokolo</t>
+        </is>
+      </c>
+      <c r="C373" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E373" t="inlineStr">
+        <is>
+          <t>WASH - Training 1</t>
+        </is>
+      </c>
+      <c r="F373" t="n">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>Rakai</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
           <t>Nnongo_A</t>
         </is>
       </c>
-      <c r="C370" t="n">
-        <v>2025</v>
-      </c>
-      <c r="D370" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="E370" t="inlineStr">
+      <c r="C374" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E374" t="inlineStr">
+        <is>
+          <t>Agriculture 1 - Organics Farming &amp; Keyhole gardening</t>
+        </is>
+      </c>
+      <c r="F374" t="n">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>Rakai</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>Nnongo_A</t>
+        </is>
+      </c>
+      <c r="C375" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E375" t="inlineStr">
+        <is>
+          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 1)</t>
+        </is>
+      </c>
+      <c r="F375" t="n">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>Rakai</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>Nnongo_A</t>
+        </is>
+      </c>
+      <c r="C376" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E376" t="inlineStr">
+        <is>
+          <t>Agriculture 2 - Preparation &amp; Preplanting (Day 2)</t>
+        </is>
+      </c>
+      <c r="F376" t="n">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>Rakai</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>Nnongo_A</t>
+        </is>
+      </c>
+      <c r="C377" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E377" t="inlineStr">
+        <is>
+          <t>Agriculture Perennial Crops</t>
+        </is>
+      </c>
+      <c r="F377" t="n">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>Rakai</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>Nnongo_A</t>
+        </is>
+      </c>
+      <c r="C378" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E378" t="inlineStr">
+        <is>
+          <t>CATs / Agriculture Champions</t>
+        </is>
+      </c>
+      <c r="F378" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>Rakai</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>Nnongo_A</t>
+        </is>
+      </c>
+      <c r="C379" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E379" t="inlineStr">
+        <is>
+          <t>HHT 1 - Day 2 - VSLAs</t>
+        </is>
+      </c>
+      <c r="F379" t="n">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>Rakai</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>Nnongo_A</t>
+        </is>
+      </c>
+      <c r="C380" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E380" t="inlineStr">
+        <is>
+          <t>HHT 1 - Mindset and behavioral change</t>
+        </is>
+      </c>
+      <c r="F380" t="n">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>Rakai</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>Nnongo_A</t>
+        </is>
+      </c>
+      <c r="C381" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E381" t="inlineStr">
+        <is>
+          <t>HOR 1</t>
+        </is>
+      </c>
+      <c r="F381" t="n">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>Rakai</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>Nnongo_A</t>
+        </is>
+      </c>
+      <c r="C382" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E382" t="inlineStr">
+        <is>
+          <t>VSLA Leadership Training</t>
+        </is>
+      </c>
+      <c r="F382" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>Rakai</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>Nnongo_A</t>
+        </is>
+      </c>
+      <c r="C383" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E383" t="inlineStr">
+        <is>
+          <t>WASH - Training 1</t>
+        </is>
+      </c>
+      <c r="F383" t="n">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>Rakai</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>Nnongo_A</t>
+        </is>
+      </c>
+      <c r="C384" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="E384" t="inlineStr">
         <is>
           <t>WASH Champions Training</t>
         </is>
       </c>
-      <c r="F370" t="n">
+      <c r="F384" t="n">
         <v>9</v>
       </c>
     </row>

--- a/Quality reports shared/training_analysis.xlsx
+++ b/Quality reports shared/training_analysis.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1626" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1830" uniqueCount="66">
   <si>
     <t>district_name</t>
   </si>
@@ -202,16 +202,16 @@
     <t>WASH Champions Training</t>
   </si>
   <si>
-    <t>Coffee Champions - ToT 1</t>
+    <t>HOR 1</t>
   </si>
   <si>
-    <t>VSLA Leadership Training</t>
+    <t>Coffee Champions - ToT 1</t>
   </si>
   <si>
     <t>Agriculture Perennial Crops</t>
   </si>
   <si>
-    <t>HOR 1</t>
+    <t>VSLA Leadership Training</t>
   </si>
 </sst>
 </file>
@@ -569,7 +569,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F406"/>
+  <dimension ref="A1:F457"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -949,10 +949,10 @@
         <v>51</v>
       </c>
       <c r="E19" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -969,10 +969,10 @@
         <v>51</v>
       </c>
       <c r="E20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F20">
-        <v>75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -989,10 +989,10 @@
         <v>51</v>
       </c>
       <c r="E21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F21">
-        <v>4</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1000,7 +1000,7 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C22">
         <v>2025</v>
@@ -1009,10 +1009,10 @@
         <v>51</v>
       </c>
       <c r="E22" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="F22">
-        <v>44</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1029,10 +1029,10 @@
         <v>51</v>
       </c>
       <c r="E23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F23">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1049,10 +1049,10 @@
         <v>51</v>
       </c>
       <c r="E24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F24">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1069,10 +1069,10 @@
         <v>51</v>
       </c>
       <c r="E25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F25">
-        <v>2</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1089,7 +1089,7 @@
         <v>51</v>
       </c>
       <c r="E26" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="F26">
         <v>2</v>
@@ -1109,10 +1109,10 @@
         <v>51</v>
       </c>
       <c r="E27" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="F27">
-        <v>43</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1129,7 +1129,7 @@
         <v>51</v>
       </c>
       <c r="E28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F28">
         <v>43</v>
@@ -1149,7 +1149,7 @@
         <v>51</v>
       </c>
       <c r="E29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F29">
         <v>43</v>
@@ -1169,10 +1169,10 @@
         <v>51</v>
       </c>
       <c r="E30" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1189,10 +1189,10 @@
         <v>51</v>
       </c>
       <c r="E31" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F31">
-        <v>44</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1209,10 +1209,10 @@
         <v>51</v>
       </c>
       <c r="E32" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F32">
-        <v>2</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1220,7 +1220,7 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C33">
         <v>2025</v>
@@ -1229,10 +1229,10 @@
         <v>51</v>
       </c>
       <c r="E33" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="F33">
-        <v>39</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1249,10 +1249,10 @@
         <v>51</v>
       </c>
       <c r="E34" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F34">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1269,7 +1269,7 @@
         <v>51</v>
       </c>
       <c r="E35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F35">
         <v>37</v>
@@ -1289,10 +1289,10 @@
         <v>51</v>
       </c>
       <c r="E36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F36">
-        <v>2</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1309,10 +1309,10 @@
         <v>51</v>
       </c>
       <c r="E37" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="F37">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1329,10 +1329,10 @@
         <v>51</v>
       </c>
       <c r="E38" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="F38">
-        <v>38</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1349,10 +1349,10 @@
         <v>51</v>
       </c>
       <c r="E39" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F39">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1369,10 +1369,10 @@
         <v>51</v>
       </c>
       <c r="E40" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F40">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1389,10 +1389,10 @@
         <v>51</v>
       </c>
       <c r="E41" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F41">
-        <v>1</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1409,10 +1409,10 @@
         <v>51</v>
       </c>
       <c r="E42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F42">
-        <v>38</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1429,10 +1429,10 @@
         <v>51</v>
       </c>
       <c r="E43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F43">
-        <v>2</v>
+        <v>38</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1440,7 +1440,7 @@
         <v>6</v>
       </c>
       <c r="B44" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C44">
         <v>2025</v>
@@ -1449,10 +1449,10 @@
         <v>51</v>
       </c>
       <c r="E44" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="F44">
-        <v>49</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1469,10 +1469,10 @@
         <v>51</v>
       </c>
       <c r="E45" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F45">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1489,7 +1489,7 @@
         <v>51</v>
       </c>
       <c r="E46" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F46">
         <v>50</v>
@@ -1509,10 +1509,10 @@
         <v>51</v>
       </c>
       <c r="E47" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F47">
-        <v>3</v>
+        <v>50</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1529,7 +1529,7 @@
         <v>51</v>
       </c>
       <c r="E48" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="F48">
         <v>3</v>
@@ -1549,10 +1549,10 @@
         <v>51</v>
       </c>
       <c r="E49" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="F49">
-        <v>50</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1569,10 +1569,10 @@
         <v>51</v>
       </c>
       <c r="E50" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F50">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1589,10 +1589,10 @@
         <v>51</v>
       </c>
       <c r="E51" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F51">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1609,10 +1609,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F52">
-        <v>1</v>
+        <v>50</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1629,10 +1629,10 @@
         <v>51</v>
       </c>
       <c r="E53" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F53">
-        <v>51</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1649,10 +1649,10 @@
         <v>51</v>
       </c>
       <c r="E54" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F54">
-        <v>3</v>
+        <v>51</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1660,7 +1660,7 @@
         <v>6</v>
       </c>
       <c r="B55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C55">
         <v>2025</v>
@@ -1669,10 +1669,10 @@
         <v>51</v>
       </c>
       <c r="E55" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="F55">
-        <v>134</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1689,10 +1689,10 @@
         <v>51</v>
       </c>
       <c r="E56" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F56">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1709,10 +1709,10 @@
         <v>51</v>
       </c>
       <c r="E57" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F57">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1729,10 +1729,10 @@
         <v>51</v>
       </c>
       <c r="E58" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F58">
-        <v>15</v>
+        <v>133</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1749,10 +1749,10 @@
         <v>51</v>
       </c>
       <c r="E59" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F59">
-        <v>139</v>
+        <v>15</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1769,10 +1769,10 @@
         <v>51</v>
       </c>
       <c r="E60" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F60">
-        <v>133</v>
+        <v>139</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1789,10 +1789,10 @@
         <v>51</v>
       </c>
       <c r="E61" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F61">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1809,10 +1809,10 @@
         <v>51</v>
       </c>
       <c r="E62" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F62">
-        <v>1</v>
+        <v>129</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1829,10 +1829,10 @@
         <v>51</v>
       </c>
       <c r="E63" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F63">
-        <v>130</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1849,10 +1849,10 @@
         <v>51</v>
       </c>
       <c r="E64" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F64">
-        <v>7</v>
+        <v>130</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1860,7 +1860,7 @@
         <v>6</v>
       </c>
       <c r="B65" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C65">
         <v>2025</v>
@@ -1869,10 +1869,10 @@
         <v>51</v>
       </c>
       <c r="E65" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="F65">
-        <v>90</v>
+        <v>7</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1889,10 +1889,10 @@
         <v>51</v>
       </c>
       <c r="E66" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F66">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1909,10 +1909,10 @@
         <v>51</v>
       </c>
       <c r="E67" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F67">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1929,10 +1929,10 @@
         <v>51</v>
       </c>
       <c r="E68" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F68">
-        <v>5</v>
+        <v>90</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1949,10 +1949,10 @@
         <v>51</v>
       </c>
       <c r="E69" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F69">
-        <v>91</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1969,10 +1969,10 @@
         <v>51</v>
       </c>
       <c r="E70" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F70">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1989,10 +1989,10 @@
         <v>51</v>
       </c>
       <c r="E71" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F71">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2009,10 +2009,10 @@
         <v>51</v>
       </c>
       <c r="E72" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F72">
-        <v>1</v>
+        <v>89</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2029,10 +2029,10 @@
         <v>51</v>
       </c>
       <c r="E73" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F73">
-        <v>90</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2049,10 +2049,10 @@
         <v>51</v>
       </c>
       <c r="E74" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F74">
-        <v>5</v>
+        <v>90</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2060,7 +2060,7 @@
         <v>6</v>
       </c>
       <c r="B75" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C75">
         <v>2025</v>
@@ -2069,10 +2069,10 @@
         <v>51</v>
       </c>
       <c r="E75" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="F75">
-        <v>99</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2089,10 +2089,10 @@
         <v>51</v>
       </c>
       <c r="E76" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F76">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2109,10 +2109,10 @@
         <v>51</v>
       </c>
       <c r="E77" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F77">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2129,10 +2129,10 @@
         <v>51</v>
       </c>
       <c r="E78" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F78">
-        <v>5</v>
+        <v>98</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2149,10 +2149,10 @@
         <v>51</v>
       </c>
       <c r="E79" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F79">
-        <v>97</v>
+        <v>5</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2169,10 +2169,10 @@
         <v>51</v>
       </c>
       <c r="E80" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F80">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2189,7 +2189,7 @@
         <v>51</v>
       </c>
       <c r="E81" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F81">
         <v>99</v>
@@ -2209,10 +2209,10 @@
         <v>51</v>
       </c>
       <c r="E82" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F82">
-        <v>1</v>
+        <v>99</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2229,10 +2229,10 @@
         <v>51</v>
       </c>
       <c r="E83" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F83">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2249,10 +2249,10 @@
         <v>51</v>
       </c>
       <c r="E84" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F84">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2260,7 +2260,7 @@
         <v>6</v>
       </c>
       <c r="B85" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C85">
         <v>2025</v>
@@ -2269,10 +2269,10 @@
         <v>51</v>
       </c>
       <c r="E85" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="F85">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2280,7 +2280,7 @@
         <v>6</v>
       </c>
       <c r="B86" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C86">
         <v>2025</v>
@@ -2289,10 +2289,10 @@
         <v>51</v>
       </c>
       <c r="E86" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="F86">
-        <v>81</v>
+        <v>5</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2309,10 +2309,10 @@
         <v>51</v>
       </c>
       <c r="E87" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F87">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2329,10 +2329,10 @@
         <v>51</v>
       </c>
       <c r="E88" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F88">
-        <v>4</v>
+        <v>81</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2349,10 +2349,10 @@
         <v>51</v>
       </c>
       <c r="E89" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F89">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2369,10 +2369,10 @@
         <v>51</v>
       </c>
       <c r="E90" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F90">
-        <v>81</v>
+        <v>4</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2389,10 +2389,10 @@
         <v>51</v>
       </c>
       <c r="E91" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F91">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2409,10 +2409,10 @@
         <v>51</v>
       </c>
       <c r="E92" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F92">
-        <v>1</v>
+        <v>81</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2429,10 +2429,10 @@
         <v>51</v>
       </c>
       <c r="E93" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F93">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2449,10 +2449,10 @@
         <v>51</v>
       </c>
       <c r="E94" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F94">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2460,7 +2460,7 @@
         <v>6</v>
       </c>
       <c r="B95" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C95">
         <v>2025</v>
@@ -2469,10 +2469,10 @@
         <v>51</v>
       </c>
       <c r="E95" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="F95">
-        <v>168</v>
+        <v>81</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2480,7 +2480,7 @@
         <v>6</v>
       </c>
       <c r="B96" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C96">
         <v>2025</v>
@@ -2489,10 +2489,10 @@
         <v>51</v>
       </c>
       <c r="E96" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="F96">
-        <v>173</v>
+        <v>4</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2509,10 +2509,10 @@
         <v>51</v>
       </c>
       <c r="E97" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F97">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2529,10 +2529,10 @@
         <v>51</v>
       </c>
       <c r="E98" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F98">
-        <v>9</v>
+        <v>173</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2549,10 +2549,10 @@
         <v>51</v>
       </c>
       <c r="E99" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F99">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2569,10 +2569,10 @@
         <v>51</v>
       </c>
       <c r="E100" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F100">
-        <v>171</v>
+        <v>9</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2589,10 +2589,10 @@
         <v>51</v>
       </c>
       <c r="E101" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F101">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2609,10 +2609,10 @@
         <v>51</v>
       </c>
       <c r="E102" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F102">
-        <v>1</v>
+        <v>171</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2629,10 +2629,10 @@
         <v>51</v>
       </c>
       <c r="E103" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F103">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2649,10 +2649,10 @@
         <v>51</v>
       </c>
       <c r="E104" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F104">
-        <v>8</v>
+        <v>170</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2660,7 +2660,7 @@
         <v>6</v>
       </c>
       <c r="B105" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C105">
         <v>2025</v>
@@ -2669,10 +2669,10 @@
         <v>51</v>
       </c>
       <c r="E105" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="F105">
-        <v>57</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2680,7 +2680,7 @@
         <v>6</v>
       </c>
       <c r="B106" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C106">
         <v>2025</v>
@@ -2689,10 +2689,10 @@
         <v>51</v>
       </c>
       <c r="E106" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="F106">
-        <v>58</v>
+        <v>172</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2700,7 +2700,7 @@
         <v>6</v>
       </c>
       <c r="B107" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C107">
         <v>2025</v>
@@ -2709,10 +2709,10 @@
         <v>51</v>
       </c>
       <c r="E107" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F107">
-        <v>53</v>
+        <v>8</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2729,10 +2729,10 @@
         <v>51</v>
       </c>
       <c r="E108" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F108">
-        <v>3</v>
+        <v>57</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2749,10 +2749,10 @@
         <v>51</v>
       </c>
       <c r="E109" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="F109">
-        <v>3</v>
+        <v>58</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2769,7 +2769,7 @@
         <v>51</v>
       </c>
       <c r="E110" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F110">
         <v>57</v>
@@ -2789,10 +2789,10 @@
         <v>51</v>
       </c>
       <c r="E111" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F111">
-        <v>57</v>
+        <v>3</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2809,10 +2809,10 @@
         <v>51</v>
       </c>
       <c r="E112" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F112">
-        <v>56</v>
+        <v>3</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2829,10 +2829,10 @@
         <v>51</v>
       </c>
       <c r="E113" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F113">
-        <v>1</v>
+        <v>57</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2849,7 +2849,7 @@
         <v>51</v>
       </c>
       <c r="E114" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F114">
         <v>57</v>
@@ -2869,10 +2869,10 @@
         <v>51</v>
       </c>
       <c r="E115" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F115">
-        <v>1</v>
+        <v>56</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2880,7 +2880,7 @@
         <v>6</v>
       </c>
       <c r="B116" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C116">
         <v>2025</v>
@@ -2889,10 +2889,10 @@
         <v>51</v>
       </c>
       <c r="E116" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="F116">
-        <v>38</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2900,7 +2900,7 @@
         <v>6</v>
       </c>
       <c r="B117" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C117">
         <v>2025</v>
@@ -2909,10 +2909,10 @@
         <v>51</v>
       </c>
       <c r="E117" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="F117">
-        <v>39</v>
+        <v>57</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2920,7 +2920,7 @@
         <v>6</v>
       </c>
       <c r="B118" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C118">
         <v>2025</v>
@@ -2929,10 +2929,10 @@
         <v>51</v>
       </c>
       <c r="E118" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F118">
-        <v>38</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2949,10 +2949,10 @@
         <v>51</v>
       </c>
       <c r="E119" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F119">
-        <v>2</v>
+        <v>38</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2969,10 +2969,10 @@
         <v>51</v>
       </c>
       <c r="E120" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="F120">
-        <v>2</v>
+        <v>39</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2989,10 +2989,10 @@
         <v>51</v>
       </c>
       <c r="E121" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F121">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3009,10 +3009,10 @@
         <v>51</v>
       </c>
       <c r="E122" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F122">
-        <v>39</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3029,10 +3029,10 @@
         <v>51</v>
       </c>
       <c r="E123" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F123">
-        <v>39</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3049,10 +3049,10 @@
         <v>51</v>
       </c>
       <c r="E124" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F124">
-        <v>1</v>
+        <v>39</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3069,7 +3069,7 @@
         <v>51</v>
       </c>
       <c r="E125" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F125">
         <v>39</v>
@@ -3089,10 +3089,10 @@
         <v>51</v>
       </c>
       <c r="E126" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F126">
-        <v>2</v>
+        <v>39</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3100,7 +3100,7 @@
         <v>6</v>
       </c>
       <c r="B127" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C127">
         <v>2025</v>
@@ -3109,10 +3109,10 @@
         <v>51</v>
       </c>
       <c r="E127" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="F127">
-        <v>95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3120,7 +3120,7 @@
         <v>6</v>
       </c>
       <c r="B128" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C128">
         <v>2025</v>
@@ -3129,10 +3129,10 @@
         <v>51</v>
       </c>
       <c r="E128" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="F128">
-        <v>95</v>
+        <v>39</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3140,7 +3140,7 @@
         <v>6</v>
       </c>
       <c r="B129" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C129">
         <v>2025</v>
@@ -3149,10 +3149,10 @@
         <v>51</v>
       </c>
       <c r="E129" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F129">
-        <v>95</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3169,10 +3169,10 @@
         <v>51</v>
       </c>
       <c r="E130" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F130">
-        <v>11</v>
+        <v>95</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3189,7 +3189,7 @@
         <v>51</v>
       </c>
       <c r="E131" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F131">
         <v>95</v>
@@ -3209,10 +3209,10 @@
         <v>51</v>
       </c>
       <c r="E132" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F132">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3229,10 +3229,10 @@
         <v>51</v>
       </c>
       <c r="E133" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F133">
-        <v>93</v>
+        <v>11</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3249,10 +3249,10 @@
         <v>51</v>
       </c>
       <c r="E134" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F134">
-        <v>1</v>
+        <v>95</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3269,10 +3269,10 @@
         <v>51</v>
       </c>
       <c r="E135" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F135">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3289,10 +3289,10 @@
         <v>51</v>
       </c>
       <c r="E136" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F136">
-        <v>5</v>
+        <v>93</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3300,7 +3300,7 @@
         <v>6</v>
       </c>
       <c r="B137" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C137">
         <v>2025</v>
@@ -3309,10 +3309,10 @@
         <v>51</v>
       </c>
       <c r="E137" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="F137">
-        <v>72</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3320,7 +3320,7 @@
         <v>6</v>
       </c>
       <c r="B138" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C138">
         <v>2025</v>
@@ -3329,10 +3329,10 @@
         <v>51</v>
       </c>
       <c r="E138" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="F138">
-        <v>73</v>
+        <v>95</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3340,7 +3340,7 @@
         <v>6</v>
       </c>
       <c r="B139" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C139">
         <v>2025</v>
@@ -3349,10 +3349,10 @@
         <v>51</v>
       </c>
       <c r="E139" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F139">
-        <v>72</v>
+        <v>5</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3369,10 +3369,10 @@
         <v>51</v>
       </c>
       <c r="E140" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F140">
-        <v>4</v>
+        <v>72</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3389,10 +3389,10 @@
         <v>51</v>
       </c>
       <c r="E141" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F141">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3409,10 +3409,10 @@
         <v>51</v>
       </c>
       <c r="E142" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F142">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3429,10 +3429,10 @@
         <v>51</v>
       </c>
       <c r="E143" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F143">
-        <v>72</v>
+        <v>4</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3449,10 +3449,10 @@
         <v>51</v>
       </c>
       <c r="E144" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F144">
-        <v>1</v>
+        <v>72</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3469,10 +3469,10 @@
         <v>51</v>
       </c>
       <c r="E145" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F145">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3489,10 +3489,10 @@
         <v>51</v>
       </c>
       <c r="E146" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F146">
-        <v>4</v>
+        <v>72</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3500,7 +3500,7 @@
         <v>6</v>
       </c>
       <c r="B147" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C147">
         <v>2025</v>
@@ -3509,10 +3509,10 @@
         <v>51</v>
       </c>
       <c r="E147" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="F147">
-        <v>41</v>
+        <v>73</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3520,7 +3520,7 @@
         <v>6</v>
       </c>
       <c r="B148" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C148">
         <v>2025</v>
@@ -3529,10 +3529,10 @@
         <v>51</v>
       </c>
       <c r="E148" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F148">
-        <v>39</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3540,7 +3540,7 @@
         <v>6</v>
       </c>
       <c r="B149" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C149">
         <v>2025</v>
@@ -3549,10 +3549,10 @@
         <v>51</v>
       </c>
       <c r="E149" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F149">
-        <v>39</v>
+        <v>71</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3560,7 +3560,7 @@
         <v>6</v>
       </c>
       <c r="B150" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C150">
         <v>2025</v>
@@ -3569,10 +3569,10 @@
         <v>51</v>
       </c>
       <c r="E150" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F150">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3589,10 +3589,10 @@
         <v>51</v>
       </c>
       <c r="E151" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F151">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -3609,10 +3609,10 @@
         <v>51</v>
       </c>
       <c r="E152" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F152">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3629,10 +3629,10 @@
         <v>51</v>
       </c>
       <c r="E153" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F153">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3649,7 +3649,7 @@
         <v>51</v>
       </c>
       <c r="E154" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F154">
         <v>1</v>
@@ -3669,7 +3669,7 @@
         <v>51</v>
       </c>
       <c r="E155" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F155">
         <v>39</v>
@@ -3689,10 +3689,10 @@
         <v>51</v>
       </c>
       <c r="E156" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F156">
-        <v>2</v>
+        <v>40</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3700,7 +3700,7 @@
         <v>6</v>
       </c>
       <c r="B157" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C157">
         <v>2025</v>
@@ -3709,10 +3709,10 @@
         <v>51</v>
       </c>
       <c r="E157" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F157">
-        <v>55</v>
+        <v>40</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3720,7 +3720,7 @@
         <v>6</v>
       </c>
       <c r="B158" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C158">
         <v>2025</v>
@@ -3729,10 +3729,10 @@
         <v>51</v>
       </c>
       <c r="E158" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F158">
-        <v>51</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3740,7 +3740,7 @@
         <v>6</v>
       </c>
       <c r="B159" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C159">
         <v>2025</v>
@@ -3749,10 +3749,10 @@
         <v>51</v>
       </c>
       <c r="E159" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F159">
-        <v>50</v>
+        <v>39</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3760,7 +3760,7 @@
         <v>6</v>
       </c>
       <c r="B160" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C160">
         <v>2025</v>
@@ -3769,10 +3769,10 @@
         <v>51</v>
       </c>
       <c r="E160" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F160">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3789,10 +3789,10 @@
         <v>51</v>
       </c>
       <c r="E161" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F161">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3809,10 +3809,10 @@
         <v>51</v>
       </c>
       <c r="E162" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F162">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3829,10 +3829,10 @@
         <v>51</v>
       </c>
       <c r="E163" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F163">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3849,10 +3849,10 @@
         <v>51</v>
       </c>
       <c r="E164" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F164">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -3869,10 +3869,10 @@
         <v>51</v>
       </c>
       <c r="E165" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F165">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -3889,10 +3889,10 @@
         <v>51</v>
       </c>
       <c r="E166" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F166">
-        <v>2</v>
+        <v>52</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -3900,7 +3900,7 @@
         <v>6</v>
       </c>
       <c r="B167" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C167">
         <v>2025</v>
@@ -3909,10 +3909,10 @@
         <v>51</v>
       </c>
       <c r="E167" t="s">
+        <v>58</v>
+      </c>
+      <c r="F167">
         <v>52</v>
-      </c>
-      <c r="F167">
-        <v>59</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -3920,7 +3920,7 @@
         <v>6</v>
       </c>
       <c r="B168" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C168">
         <v>2025</v>
@@ -3929,10 +3929,10 @@
         <v>51</v>
       </c>
       <c r="E168" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F168">
-        <v>61</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -3940,7 +3940,7 @@
         <v>6</v>
       </c>
       <c r="B169" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C169">
         <v>2025</v>
@@ -3949,10 +3949,10 @@
         <v>51</v>
       </c>
       <c r="E169" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F169">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -3960,7 +3960,7 @@
         <v>6</v>
       </c>
       <c r="B170" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C170">
         <v>2025</v>
@@ -3969,10 +3969,10 @@
         <v>51</v>
       </c>
       <c r="E170" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F170">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -3989,10 +3989,10 @@
         <v>51</v>
       </c>
       <c r="E171" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F171">
-        <v>3</v>
+        <v>59</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4009,10 +4009,10 @@
         <v>51</v>
       </c>
       <c r="E172" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F172">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4029,10 +4029,10 @@
         <v>51</v>
       </c>
       <c r="E173" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F173">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4049,10 +4049,10 @@
         <v>51</v>
       </c>
       <c r="E174" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F174">
-        <v>60</v>
+        <v>3</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4069,10 +4069,10 @@
         <v>51</v>
       </c>
       <c r="E175" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F175">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4089,7 +4089,7 @@
         <v>51</v>
       </c>
       <c r="E176" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F176">
         <v>60</v>
@@ -4109,10 +4109,10 @@
         <v>51</v>
       </c>
       <c r="E177" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F177">
-        <v>3</v>
+        <v>56</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4120,7 +4120,7 @@
         <v>6</v>
       </c>
       <c r="B178" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C178">
         <v>2025</v>
@@ -4129,10 +4129,10 @@
         <v>51</v>
       </c>
       <c r="E178" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F178">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4140,7 +4140,7 @@
         <v>6</v>
       </c>
       <c r="B179" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C179">
         <v>2025</v>
@@ -4149,10 +4149,10 @@
         <v>51</v>
       </c>
       <c r="E179" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F179">
-        <v>63</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4160,7 +4160,7 @@
         <v>6</v>
       </c>
       <c r="B180" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C180">
         <v>2025</v>
@@ -4169,10 +4169,10 @@
         <v>51</v>
       </c>
       <c r="E180" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F180">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4180,7 +4180,7 @@
         <v>6</v>
       </c>
       <c r="B181" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C181">
         <v>2025</v>
@@ -4189,7 +4189,7 @@
         <v>51</v>
       </c>
       <c r="E181" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F181">
         <v>3</v>
@@ -4209,7 +4209,7 @@
         <v>51</v>
       </c>
       <c r="E182" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F182">
         <v>63</v>
@@ -4229,7 +4229,7 @@
         <v>51</v>
       </c>
       <c r="E183" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F183">
         <v>63</v>
@@ -4249,7 +4249,7 @@
         <v>51</v>
       </c>
       <c r="E184" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F184">
         <v>61</v>
@@ -4269,10 +4269,10 @@
         <v>51</v>
       </c>
       <c r="E185" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F185">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4289,10 +4289,10 @@
         <v>51</v>
       </c>
       <c r="E186" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F186">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4309,10 +4309,10 @@
         <v>51</v>
       </c>
       <c r="E187" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F187">
-        <v>3</v>
+        <v>63</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4320,7 +4320,7 @@
         <v>6</v>
       </c>
       <c r="B188" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C188">
         <v>2025</v>
@@ -4329,10 +4329,10 @@
         <v>51</v>
       </c>
       <c r="E188" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F188">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4340,7 +4340,7 @@
         <v>6</v>
       </c>
       <c r="B189" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C189">
         <v>2025</v>
@@ -4349,10 +4349,10 @@
         <v>51</v>
       </c>
       <c r="E189" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F189">
-        <v>55</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4360,7 +4360,7 @@
         <v>6</v>
       </c>
       <c r="B190" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C190">
         <v>2025</v>
@@ -4369,10 +4369,10 @@
         <v>51</v>
       </c>
       <c r="E190" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F190">
-        <v>55</v>
+        <v>62</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4380,7 +4380,7 @@
         <v>6</v>
       </c>
       <c r="B191" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C191">
         <v>2025</v>
@@ -4389,10 +4389,10 @@
         <v>51</v>
       </c>
       <c r="E191" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F191">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4409,10 +4409,10 @@
         <v>51</v>
       </c>
       <c r="E192" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F192">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -4429,10 +4429,10 @@
         <v>51</v>
       </c>
       <c r="E193" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F193">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -4449,10 +4449,10 @@
         <v>51</v>
       </c>
       <c r="E194" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F194">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -4469,10 +4469,10 @@
         <v>51</v>
       </c>
       <c r="E195" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F195">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -4489,10 +4489,10 @@
         <v>51</v>
       </c>
       <c r="E196" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F196">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -4509,10 +4509,10 @@
         <v>51</v>
       </c>
       <c r="E197" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F197">
-        <v>3</v>
+        <v>59</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -4520,7 +4520,7 @@
         <v>6</v>
       </c>
       <c r="B198" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C198">
         <v>2025</v>
@@ -4529,10 +4529,10 @@
         <v>51</v>
       </c>
       <c r="E198" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F198">
-        <v>49</v>
+        <v>57</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -4540,7 +4540,7 @@
         <v>6</v>
       </c>
       <c r="B199" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C199">
         <v>2025</v>
@@ -4549,10 +4549,10 @@
         <v>51</v>
       </c>
       <c r="E199" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="F199">
-        <v>49</v>
+        <v>57</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -4560,7 +4560,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C200">
         <v>2025</v>
@@ -4569,10 +4569,10 @@
         <v>51</v>
       </c>
       <c r="E200" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F200">
-        <v>49</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -4580,7 +4580,7 @@
         <v>6</v>
       </c>
       <c r="B201" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C201">
         <v>2025</v>
@@ -4589,10 +4589,10 @@
         <v>51</v>
       </c>
       <c r="E201" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F201">
-        <v>3</v>
+        <v>58</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -4600,7 +4600,7 @@
         <v>6</v>
       </c>
       <c r="B202" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C202">
         <v>2025</v>
@@ -4609,7 +4609,7 @@
         <v>51</v>
       </c>
       <c r="E202" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F202">
         <v>3</v>
@@ -4629,10 +4629,10 @@
         <v>51</v>
       </c>
       <c r="E203" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F203">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -4649,7 +4649,7 @@
         <v>51</v>
       </c>
       <c r="E204" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F204">
         <v>49</v>
@@ -4669,7 +4669,7 @@
         <v>51</v>
       </c>
       <c r="E205" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F205">
         <v>49</v>
@@ -4689,10 +4689,10 @@
         <v>51</v>
       </c>
       <c r="E206" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F206">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -4709,10 +4709,10 @@
         <v>51</v>
       </c>
       <c r="E207" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F207">
-        <v>50</v>
+        <v>3</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -4729,10 +4729,10 @@
         <v>51</v>
       </c>
       <c r="E208" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F208">
-        <v>3</v>
+        <v>48</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -4740,7 +4740,7 @@
         <v>6</v>
       </c>
       <c r="B209" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C209">
         <v>2025</v>
@@ -4749,10 +4749,10 @@
         <v>51</v>
       </c>
       <c r="E209" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F209">
-        <v>61</v>
+        <v>49</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -4760,7 +4760,7 @@
         <v>6</v>
       </c>
       <c r="B210" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C210">
         <v>2025</v>
@@ -4769,10 +4769,10 @@
         <v>51</v>
       </c>
       <c r="E210" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F210">
-        <v>61</v>
+        <v>49</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -4780,7 +4780,7 @@
         <v>6</v>
       </c>
       <c r="B211" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C211">
         <v>2025</v>
@@ -4789,10 +4789,10 @@
         <v>51</v>
       </c>
       <c r="E211" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F211">
-        <v>60</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -4800,7 +4800,7 @@
         <v>6</v>
       </c>
       <c r="B212" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C212">
         <v>2025</v>
@@ -4809,10 +4809,10 @@
         <v>51</v>
       </c>
       <c r="E212" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F212">
-        <v>3</v>
+        <v>50</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -4820,7 +4820,7 @@
         <v>6</v>
       </c>
       <c r="B213" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C213">
         <v>2025</v>
@@ -4829,7 +4829,7 @@
         <v>51</v>
       </c>
       <c r="E213" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F213">
         <v>3</v>
@@ -4849,7 +4849,7 @@
         <v>51</v>
       </c>
       <c r="E214" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F214">
         <v>61</v>
@@ -4869,7 +4869,7 @@
         <v>51</v>
       </c>
       <c r="E215" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F215">
         <v>61</v>
@@ -4889,10 +4889,10 @@
         <v>51</v>
       </c>
       <c r="E216" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F216">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -4909,10 +4909,10 @@
         <v>51</v>
       </c>
       <c r="E217" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F217">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -4929,10 +4929,10 @@
         <v>51</v>
       </c>
       <c r="E218" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F218">
-        <v>61</v>
+        <v>3</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -4949,10 +4949,10 @@
         <v>51</v>
       </c>
       <c r="E219" t="s">
+        <v>56</v>
+      </c>
+      <c r="F219">
         <v>61</v>
-      </c>
-      <c r="F219">
-        <v>3</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -4960,7 +4960,7 @@
         <v>6</v>
       </c>
       <c r="B220" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C220">
         <v>2025</v>
@@ -4969,10 +4969,10 @@
         <v>51</v>
       </c>
       <c r="E220" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F220">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -4980,7 +4980,7 @@
         <v>6</v>
       </c>
       <c r="B221" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C221">
         <v>2025</v>
@@ -4989,10 +4989,10 @@
         <v>51</v>
       </c>
       <c r="E221" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F221">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5000,7 +5000,7 @@
         <v>6</v>
       </c>
       <c r="B222" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C222">
         <v>2025</v>
@@ -5009,10 +5009,10 @@
         <v>51</v>
       </c>
       <c r="E222" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F222">
-        <v>55</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5020,7 +5020,7 @@
         <v>6</v>
       </c>
       <c r="B223" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C223">
         <v>2025</v>
@@ -5029,10 +5029,10 @@
         <v>51</v>
       </c>
       <c r="E223" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F223">
-        <v>7</v>
+        <v>61</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5040,7 +5040,7 @@
         <v>6</v>
       </c>
       <c r="B224" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C224">
         <v>2025</v>
@@ -5049,10 +5049,10 @@
         <v>51</v>
       </c>
       <c r="E224" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F224">
-        <v>56</v>
+        <v>3</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5069,10 +5069,10 @@
         <v>51</v>
       </c>
       <c r="E225" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F225">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5089,10 +5089,10 @@
         <v>51</v>
       </c>
       <c r="E226" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F226">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5109,10 +5109,10 @@
         <v>51</v>
       </c>
       <c r="E227" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F227">
-        <v>1</v>
+        <v>55</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5129,10 +5129,10 @@
         <v>51</v>
       </c>
       <c r="E228" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F228">
-        <v>56</v>
+        <v>7</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5149,10 +5149,10 @@
         <v>51</v>
       </c>
       <c r="E229" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F229">
-        <v>3</v>
+        <v>56</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5160,7 +5160,7 @@
         <v>6</v>
       </c>
       <c r="B230" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C230">
         <v>2025</v>
@@ -5169,10 +5169,10 @@
         <v>51</v>
       </c>
       <c r="E230" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F230">
-        <v>105</v>
+        <v>55</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5180,7 +5180,7 @@
         <v>6</v>
       </c>
       <c r="B231" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C231">
         <v>2025</v>
@@ -5189,10 +5189,10 @@
         <v>51</v>
       </c>
       <c r="E231" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F231">
-        <v>107</v>
+        <v>54</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5200,7 +5200,7 @@
         <v>6</v>
       </c>
       <c r="B232" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C232">
         <v>2025</v>
@@ -5209,10 +5209,10 @@
         <v>51</v>
       </c>
       <c r="E232" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F232">
-        <v>106</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5220,7 +5220,7 @@
         <v>6</v>
       </c>
       <c r="B233" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C233">
         <v>2025</v>
@@ -5229,10 +5229,10 @@
         <v>51</v>
       </c>
       <c r="E233" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F233">
-        <v>1</v>
+        <v>56</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5240,7 +5240,7 @@
         <v>6</v>
       </c>
       <c r="B234" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C234">
         <v>2025</v>
@@ -5249,10 +5249,10 @@
         <v>51</v>
       </c>
       <c r="E234" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F234">
-        <v>107</v>
+        <v>3</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5269,10 +5269,10 @@
         <v>51</v>
       </c>
       <c r="E235" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F235">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5289,10 +5289,10 @@
         <v>51</v>
       </c>
       <c r="E236" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F236">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5309,10 +5309,10 @@
         <v>51</v>
       </c>
       <c r="E237" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F237">
-        <v>1</v>
+        <v>106</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5329,10 +5329,10 @@
         <v>51</v>
       </c>
       <c r="E238" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F238">
-        <v>106</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5349,10 +5349,10 @@
         <v>51</v>
       </c>
       <c r="E239" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F239">
-        <v>5</v>
+        <v>107</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5360,7 +5360,7 @@
         <v>6</v>
       </c>
       <c r="B240" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C240">
         <v>2025</v>
@@ -5369,10 +5369,10 @@
         <v>51</v>
       </c>
       <c r="E240" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F240">
-        <v>68</v>
+        <v>107</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5380,7 +5380,7 @@
         <v>6</v>
       </c>
       <c r="B241" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C241">
         <v>2025</v>
@@ -5389,10 +5389,10 @@
         <v>51</v>
       </c>
       <c r="E241" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F241">
-        <v>69</v>
+        <v>106</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5400,7 +5400,7 @@
         <v>6</v>
       </c>
       <c r="B242" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C242">
         <v>2025</v>
@@ -5409,10 +5409,10 @@
         <v>51</v>
       </c>
       <c r="E242" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F242">
-        <v>69</v>
+        <v>105</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -5420,7 +5420,7 @@
         <v>6</v>
       </c>
       <c r="B243" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C243">
         <v>2025</v>
@@ -5429,10 +5429,10 @@
         <v>51</v>
       </c>
       <c r="E243" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F243">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -5440,7 +5440,7 @@
         <v>6</v>
       </c>
       <c r="B244" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C244">
         <v>2025</v>
@@ -5449,10 +5449,10 @@
         <v>51</v>
       </c>
       <c r="E244" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F244">
-        <v>69</v>
+        <v>106</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -5460,7 +5460,7 @@
         <v>6</v>
       </c>
       <c r="B245" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C245">
         <v>2025</v>
@@ -5469,10 +5469,10 @@
         <v>51</v>
       </c>
       <c r="E245" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F245">
-        <v>68</v>
+        <v>5</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -5489,10 +5489,10 @@
         <v>51</v>
       </c>
       <c r="E246" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F246">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -5509,10 +5509,10 @@
         <v>51</v>
       </c>
       <c r="E247" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F247">
-        <v>1</v>
+        <v>69</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -5529,10 +5529,10 @@
         <v>51</v>
       </c>
       <c r="E248" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F248">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -5549,7 +5549,7 @@
         <v>51</v>
       </c>
       <c r="E249" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F249">
         <v>4</v>
@@ -5560,7 +5560,7 @@
         <v>6</v>
       </c>
       <c r="B250" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C250">
         <v>2025</v>
@@ -5569,10 +5569,10 @@
         <v>51</v>
       </c>
       <c r="E250" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F250">
-        <v>117</v>
+        <v>69</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -5580,7 +5580,7 @@
         <v>6</v>
       </c>
       <c r="B251" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C251">
         <v>2025</v>
@@ -5589,10 +5589,10 @@
         <v>51</v>
       </c>
       <c r="E251" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F251">
-        <v>119</v>
+        <v>68</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -5600,7 +5600,7 @@
         <v>6</v>
       </c>
       <c r="B252" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C252">
         <v>2025</v>
@@ -5609,10 +5609,10 @@
         <v>51</v>
       </c>
       <c r="E252" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F252">
-        <v>119</v>
+        <v>70</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -5620,7 +5620,7 @@
         <v>6</v>
       </c>
       <c r="B253" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C253">
         <v>2025</v>
@@ -5629,10 +5629,10 @@
         <v>51</v>
       </c>
       <c r="E253" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F253">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -5640,7 +5640,7 @@
         <v>6</v>
       </c>
       <c r="B254" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C254">
         <v>2025</v>
@@ -5649,10 +5649,10 @@
         <v>51</v>
       </c>
       <c r="E254" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F254">
-        <v>118</v>
+        <v>67</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -5660,7 +5660,7 @@
         <v>6</v>
       </c>
       <c r="B255" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C255">
         <v>2025</v>
@@ -5669,10 +5669,10 @@
         <v>51</v>
       </c>
       <c r="E255" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F255">
-        <v>118</v>
+        <v>4</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -5689,10 +5689,10 @@
         <v>51</v>
       </c>
       <c r="E256" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F256">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -5709,10 +5709,10 @@
         <v>51</v>
       </c>
       <c r="E257" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F257">
-        <v>1</v>
+        <v>119</v>
       </c>
     </row>
     <row r="258" spans="1:6">
@@ -5729,10 +5729,10 @@
         <v>51</v>
       </c>
       <c r="E258" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F258">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="259" spans="1:6">
@@ -5749,7 +5749,7 @@
         <v>51</v>
       </c>
       <c r="E259" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F259">
         <v>6</v>
@@ -5760,7 +5760,7 @@
         <v>6</v>
       </c>
       <c r="B260" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C260">
         <v>2025</v>
@@ -5769,10 +5769,10 @@
         <v>51</v>
       </c>
       <c r="E260" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F260">
-        <v>56</v>
+        <v>118</v>
       </c>
     </row>
     <row r="261" spans="1:6">
@@ -5780,7 +5780,7 @@
         <v>6</v>
       </c>
       <c r="B261" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C261">
         <v>2025</v>
@@ -5789,10 +5789,10 @@
         <v>51</v>
       </c>
       <c r="E261" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F261">
-        <v>53</v>
+        <v>118</v>
       </c>
     </row>
     <row r="262" spans="1:6">
@@ -5800,7 +5800,7 @@
         <v>6</v>
       </c>
       <c r="B262" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C262">
         <v>2025</v>
@@ -5809,10 +5809,10 @@
         <v>51</v>
       </c>
       <c r="E262" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F262">
-        <v>54</v>
+        <v>119</v>
       </c>
     </row>
     <row r="263" spans="1:6">
@@ -5820,7 +5820,7 @@
         <v>6</v>
       </c>
       <c r="B263" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C263">
         <v>2025</v>
@@ -5829,10 +5829,10 @@
         <v>51</v>
       </c>
       <c r="E263" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="F263">
-        <v>2</v>
+        <v>117</v>
       </c>
     </row>
     <row r="264" spans="1:6">
@@ -5840,7 +5840,7 @@
         <v>6</v>
       </c>
       <c r="B264" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C264">
         <v>2025</v>
@@ -5849,10 +5849,10 @@
         <v>51</v>
       </c>
       <c r="E264" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F264">
-        <v>53</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265" spans="1:6">
@@ -5860,7 +5860,7 @@
         <v>6</v>
       </c>
       <c r="B265" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C265">
         <v>2025</v>
@@ -5869,10 +5869,10 @@
         <v>51</v>
       </c>
       <c r="E265" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F265">
-        <v>55</v>
+        <v>118</v>
       </c>
     </row>
     <row r="266" spans="1:6">
@@ -5880,7 +5880,7 @@
         <v>6</v>
       </c>
       <c r="B266" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C266">
         <v>2025</v>
@@ -5889,10 +5889,10 @@
         <v>51</v>
       </c>
       <c r="E266" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F266">
-        <v>54</v>
+        <v>6</v>
       </c>
     </row>
     <row r="267" spans="1:6">
@@ -5909,10 +5909,10 @@
         <v>51</v>
       </c>
       <c r="E267" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="F267">
-        <v>1</v>
+        <v>56</v>
       </c>
     </row>
     <row r="268" spans="1:6">
@@ -5929,7 +5929,7 @@
         <v>51</v>
       </c>
       <c r="E268" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F268">
         <v>53</v>
@@ -5949,18 +5949,18 @@
         <v>51</v>
       </c>
       <c r="E269" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="F269">
-        <v>3</v>
+        <v>54</v>
       </c>
     </row>
     <row r="270" spans="1:6">
       <c r="A270" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B270" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C270">
         <v>2025</v>
@@ -5969,18 +5969,18 @@
         <v>51</v>
       </c>
       <c r="E270" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F270">
-        <v>75</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:6">
       <c r="A271" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B271" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C271">
         <v>2025</v>
@@ -5989,18 +5989,18 @@
         <v>51</v>
       </c>
       <c r="E271" t="s">
+        <v>56</v>
+      </c>
+      <c r="F271">
         <v>53</v>
-      </c>
-      <c r="F271">
-        <v>77</v>
       </c>
     </row>
     <row r="272" spans="1:6">
       <c r="A272" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B272" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C272">
         <v>2025</v>
@@ -6009,18 +6009,18 @@
         <v>51</v>
       </c>
       <c r="E272" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F272">
-        <v>75</v>
+        <v>55</v>
       </c>
     </row>
     <row r="273" spans="1:6">
       <c r="A273" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B273" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C273">
         <v>2025</v>
@@ -6029,18 +6029,18 @@
         <v>51</v>
       </c>
       <c r="E273" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F273">
-        <v>75</v>
+        <v>54</v>
       </c>
     </row>
     <row r="274" spans="1:6">
       <c r="A274" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B274" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C274">
         <v>2025</v>
@@ -6049,18 +6049,18 @@
         <v>51</v>
       </c>
       <c r="E274" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F274">
-        <v>80</v>
+        <v>53</v>
       </c>
     </row>
     <row r="275" spans="1:6">
       <c r="A275" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B275" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C275">
         <v>2025</v>
@@ -6069,18 +6069,18 @@
         <v>51</v>
       </c>
       <c r="E275" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F275">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276" spans="1:6">
       <c r="A276" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B276" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C276">
         <v>2025</v>
@@ -6092,15 +6092,15 @@
         <v>60</v>
       </c>
       <c r="F276">
-        <v>80</v>
+        <v>53</v>
       </c>
     </row>
     <row r="277" spans="1:6">
       <c r="A277" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B277" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C277">
         <v>2025</v>
@@ -6109,10 +6109,10 @@
         <v>51</v>
       </c>
       <c r="E277" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="F277">
-        <v>74</v>
+        <v>3</v>
       </c>
     </row>
     <row r="278" spans="1:6">
@@ -6120,7 +6120,7 @@
         <v>7</v>
       </c>
       <c r="B278" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C278">
         <v>2025</v>
@@ -6129,10 +6129,10 @@
         <v>51</v>
       </c>
       <c r="E278" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F278">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="279" spans="1:6">
@@ -6140,7 +6140,7 @@
         <v>7</v>
       </c>
       <c r="B279" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C279">
         <v>2025</v>
@@ -6149,10 +6149,10 @@
         <v>51</v>
       </c>
       <c r="E279" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F279">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="280" spans="1:6">
@@ -6160,7 +6160,7 @@
         <v>7</v>
       </c>
       <c r="B280" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C280">
         <v>2025</v>
@@ -6169,10 +6169,10 @@
         <v>51</v>
       </c>
       <c r="E280" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="F280">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="281" spans="1:6">
@@ -6180,7 +6180,7 @@
         <v>7</v>
       </c>
       <c r="B281" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C281">
         <v>2025</v>
@@ -6189,7 +6189,7 @@
         <v>51</v>
       </c>
       <c r="E281" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="F281">
         <v>77</v>
@@ -6200,7 +6200,7 @@
         <v>7</v>
       </c>
       <c r="B282" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C282">
         <v>2025</v>
@@ -6209,10 +6209,10 @@
         <v>51</v>
       </c>
       <c r="E282" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F282">
-        <v>72</v>
+        <v>4</v>
       </c>
     </row>
     <row r="283" spans="1:6">
@@ -6220,7 +6220,7 @@
         <v>7</v>
       </c>
       <c r="B283" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C283">
         <v>2025</v>
@@ -6229,7 +6229,7 @@
         <v>51</v>
       </c>
       <c r="E283" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="F283">
         <v>75</v>
@@ -6240,7 +6240,7 @@
         <v>7</v>
       </c>
       <c r="B284" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C284">
         <v>2025</v>
@@ -6249,10 +6249,10 @@
         <v>51</v>
       </c>
       <c r="E284" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F284">
-        <v>19</v>
+        <v>80</v>
       </c>
     </row>
     <row r="285" spans="1:6">
@@ -6260,7 +6260,7 @@
         <v>7</v>
       </c>
       <c r="B285" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C285">
         <v>2025</v>
@@ -6269,10 +6269,10 @@
         <v>51</v>
       </c>
       <c r="E285" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F285">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="286" spans="1:6">
@@ -6280,7 +6280,7 @@
         <v>7</v>
       </c>
       <c r="B286" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C286">
         <v>2025</v>
@@ -6289,10 +6289,10 @@
         <v>51</v>
       </c>
       <c r="E286" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="F286">
-        <v>150</v>
+        <v>14</v>
       </c>
     </row>
     <row r="287" spans="1:6">
@@ -6300,7 +6300,7 @@
         <v>7</v>
       </c>
       <c r="B287" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C287">
         <v>2025</v>
@@ -6309,10 +6309,10 @@
         <v>51</v>
       </c>
       <c r="E287" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="F287">
-        <v>142</v>
+        <v>80</v>
       </c>
     </row>
     <row r="288" spans="1:6">
@@ -6320,7 +6320,7 @@
         <v>7</v>
       </c>
       <c r="B288" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C288">
         <v>2025</v>
@@ -6329,10 +6329,10 @@
         <v>51</v>
       </c>
       <c r="E288" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F288">
-        <v>142</v>
+        <v>4</v>
       </c>
     </row>
     <row r="289" spans="1:6">
@@ -6340,7 +6340,7 @@
         <v>7</v>
       </c>
       <c r="B289" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C289">
         <v>2025</v>
@@ -6349,10 +6349,10 @@
         <v>51</v>
       </c>
       <c r="E289" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="F289">
-        <v>150</v>
+        <v>74</v>
       </c>
     </row>
     <row r="290" spans="1:6">
@@ -6360,7 +6360,7 @@
         <v>7</v>
       </c>
       <c r="B290" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C290">
         <v>2025</v>
@@ -6369,10 +6369,10 @@
         <v>51</v>
       </c>
       <c r="E290" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F290">
-        <v>144</v>
+        <v>78</v>
       </c>
     </row>
     <row r="291" spans="1:6">
@@ -6380,7 +6380,7 @@
         <v>7</v>
       </c>
       <c r="B291" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C291">
         <v>2025</v>
@@ -6389,10 +6389,10 @@
         <v>51</v>
       </c>
       <c r="E291" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F291">
-        <v>150</v>
+        <v>75</v>
       </c>
     </row>
     <row r="292" spans="1:6">
@@ -6400,7 +6400,7 @@
         <v>7</v>
       </c>
       <c r="B292" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C292">
         <v>2025</v>
@@ -6409,10 +6409,10 @@
         <v>51</v>
       </c>
       <c r="E292" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F292">
-        <v>146</v>
+        <v>80</v>
       </c>
     </row>
     <row r="293" spans="1:6">
@@ -6420,7 +6420,7 @@
         <v>7</v>
       </c>
       <c r="B293" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C293">
         <v>2025</v>
@@ -6429,10 +6429,10 @@
         <v>51</v>
       </c>
       <c r="E293" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F293">
-        <v>91</v>
+        <v>5</v>
       </c>
     </row>
     <row r="294" spans="1:6">
@@ -6440,7 +6440,7 @@
         <v>7</v>
       </c>
       <c r="B294" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C294">
         <v>2025</v>
@@ -6449,10 +6449,10 @@
         <v>51</v>
       </c>
       <c r="E294" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F294">
-        <v>91</v>
+        <v>77</v>
       </c>
     </row>
     <row r="295" spans="1:6">
@@ -6460,7 +6460,7 @@
         <v>7</v>
       </c>
       <c r="B295" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C295">
         <v>2025</v>
@@ -6469,10 +6469,10 @@
         <v>51</v>
       </c>
       <c r="E295" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F295">
-        <v>93</v>
+        <v>72</v>
       </c>
     </row>
     <row r="296" spans="1:6">
@@ -6480,7 +6480,7 @@
         <v>7</v>
       </c>
       <c r="B296" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C296">
         <v>2025</v>
@@ -6489,10 +6489,10 @@
         <v>51</v>
       </c>
       <c r="E296" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F296">
-        <v>94</v>
+        <v>75</v>
       </c>
     </row>
     <row r="297" spans="1:6">
@@ -6500,7 +6500,7 @@
         <v>7</v>
       </c>
       <c r="B297" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C297">
         <v>2025</v>
@@ -6509,10 +6509,10 @@
         <v>51</v>
       </c>
       <c r="E297" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="F297">
-        <v>95</v>
+        <v>19</v>
       </c>
     </row>
     <row r="298" spans="1:6">
@@ -6520,7 +6520,7 @@
         <v>7</v>
       </c>
       <c r="B298" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C298">
         <v>2025</v>
@@ -6529,10 +6529,10 @@
         <v>51</v>
       </c>
       <c r="E298" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F298">
-        <v>94</v>
+        <v>78</v>
       </c>
     </row>
     <row r="299" spans="1:6">
@@ -6540,7 +6540,7 @@
         <v>7</v>
       </c>
       <c r="B299" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C299">
         <v>2025</v>
@@ -6549,10 +6549,10 @@
         <v>51</v>
       </c>
       <c r="E299" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F299">
-        <v>94</v>
+        <v>5</v>
       </c>
     </row>
     <row r="300" spans="1:6">
@@ -6560,7 +6560,7 @@
         <v>7</v>
       </c>
       <c r="B300" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C300">
         <v>2025</v>
@@ -6569,10 +6569,10 @@
         <v>51</v>
       </c>
       <c r="E300" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F300">
-        <v>92</v>
+        <v>150</v>
       </c>
     </row>
     <row r="301" spans="1:6">
@@ -6580,7 +6580,7 @@
         <v>7</v>
       </c>
       <c r="B301" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C301">
         <v>2025</v>
@@ -6589,10 +6589,10 @@
         <v>51</v>
       </c>
       <c r="E301" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F301">
-        <v>111</v>
+        <v>142</v>
       </c>
     </row>
     <row r="302" spans="1:6">
@@ -6600,7 +6600,7 @@
         <v>7</v>
       </c>
       <c r="B302" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C302">
         <v>2025</v>
@@ -6609,10 +6609,10 @@
         <v>51</v>
       </c>
       <c r="E302" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F302">
-        <v>110</v>
+        <v>142</v>
       </c>
     </row>
     <row r="303" spans="1:6">
@@ -6620,7 +6620,7 @@
         <v>7</v>
       </c>
       <c r="B303" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C303">
         <v>2025</v>
@@ -6629,10 +6629,10 @@
         <v>51</v>
       </c>
       <c r="E303" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="F303">
-        <v>110</v>
+        <v>150</v>
       </c>
     </row>
     <row r="304" spans="1:6">
@@ -6640,7 +6640,7 @@
         <v>7</v>
       </c>
       <c r="B304" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C304">
         <v>2025</v>
@@ -6649,10 +6649,10 @@
         <v>51</v>
       </c>
       <c r="E304" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F304">
-        <v>109</v>
+        <v>144</v>
       </c>
     </row>
     <row r="305" spans="1:6">
@@ -6660,7 +6660,7 @@
         <v>7</v>
       </c>
       <c r="B305" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C305">
         <v>2025</v>
@@ -6669,10 +6669,10 @@
         <v>51</v>
       </c>
       <c r="E305" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F305">
-        <v>117</v>
+        <v>150</v>
       </c>
     </row>
     <row r="306" spans="1:6">
@@ -6680,7 +6680,7 @@
         <v>7</v>
       </c>
       <c r="B306" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C306">
         <v>2025</v>
@@ -6689,10 +6689,10 @@
         <v>51</v>
       </c>
       <c r="E306" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F306">
-        <v>111</v>
+        <v>147</v>
       </c>
     </row>
     <row r="307" spans="1:6">
@@ -6700,7 +6700,7 @@
         <v>7</v>
       </c>
       <c r="B307" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C307">
         <v>2025</v>
@@ -6709,10 +6709,10 @@
         <v>51</v>
       </c>
       <c r="E307" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F307">
-        <v>14</v>
+        <v>146</v>
       </c>
     </row>
     <row r="308" spans="1:6">
@@ -6720,7 +6720,7 @@
         <v>7</v>
       </c>
       <c r="B308" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C308">
         <v>2025</v>
@@ -6729,10 +6729,10 @@
         <v>51</v>
       </c>
       <c r="E308" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F308">
-        <v>110</v>
+        <v>91</v>
       </c>
     </row>
     <row r="309" spans="1:6">
@@ -6740,7 +6740,7 @@
         <v>7</v>
       </c>
       <c r="B309" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C309">
         <v>2025</v>
@@ -6749,10 +6749,10 @@
         <v>51</v>
       </c>
       <c r="E309" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F309">
-        <v>183</v>
+        <v>91</v>
       </c>
     </row>
     <row r="310" spans="1:6">
@@ -6760,7 +6760,7 @@
         <v>7</v>
       </c>
       <c r="B310" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C310">
         <v>2025</v>
@@ -6769,10 +6769,10 @@
         <v>51</v>
       </c>
       <c r="E310" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F310">
-        <v>182</v>
+        <v>93</v>
       </c>
     </row>
     <row r="311" spans="1:6">
@@ -6780,7 +6780,7 @@
         <v>7</v>
       </c>
       <c r="B311" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C311">
         <v>2025</v>
@@ -6789,10 +6789,10 @@
         <v>51</v>
       </c>
       <c r="E311" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="F311">
-        <v>181</v>
+        <v>94</v>
       </c>
     </row>
     <row r="312" spans="1:6">
@@ -6800,7 +6800,7 @@
         <v>7</v>
       </c>
       <c r="B312" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C312">
         <v>2025</v>
@@ -6809,10 +6809,10 @@
         <v>51</v>
       </c>
       <c r="E312" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F312">
-        <v>185</v>
+        <v>6</v>
       </c>
     </row>
     <row r="313" spans="1:6">
@@ -6820,7 +6820,7 @@
         <v>7</v>
       </c>
       <c r="B313" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C313">
         <v>2025</v>
@@ -6829,10 +6829,10 @@
         <v>51</v>
       </c>
       <c r="E313" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F313">
-        <v>181</v>
+        <v>95</v>
       </c>
     </row>
     <row r="314" spans="1:6">
@@ -6840,7 +6840,7 @@
         <v>7</v>
       </c>
       <c r="B314" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C314">
         <v>2025</v>
@@ -6849,10 +6849,10 @@
         <v>51</v>
       </c>
       <c r="E314" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F314">
-        <v>28</v>
+        <v>94</v>
       </c>
     </row>
     <row r="315" spans="1:6">
@@ -6860,7 +6860,7 @@
         <v>7</v>
       </c>
       <c r="B315" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C315">
         <v>2025</v>
@@ -6869,10 +6869,10 @@
         <v>51</v>
       </c>
       <c r="E315" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F315">
-        <v>185</v>
+        <v>94</v>
       </c>
     </row>
     <row r="316" spans="1:6">
@@ -6880,7 +6880,7 @@
         <v>7</v>
       </c>
       <c r="B316" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C316">
         <v>2025</v>
@@ -6889,10 +6889,10 @@
         <v>51</v>
       </c>
       <c r="E316" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="F316">
-        <v>116</v>
+        <v>92</v>
       </c>
     </row>
     <row r="317" spans="1:6">
@@ -6900,7 +6900,7 @@
         <v>7</v>
       </c>
       <c r="B317" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C317">
         <v>2025</v>
@@ -6909,10 +6909,10 @@
         <v>51</v>
       </c>
       <c r="E317" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="F317">
-        <v>112</v>
+        <v>5</v>
       </c>
     </row>
     <row r="318" spans="1:6">
@@ -6920,7 +6920,7 @@
         <v>7</v>
       </c>
       <c r="B318" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C318">
         <v>2025</v>
@@ -6929,10 +6929,10 @@
         <v>51</v>
       </c>
       <c r="E318" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F318">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="319" spans="1:6">
@@ -6940,7 +6940,7 @@
         <v>7</v>
       </c>
       <c r="B319" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C319">
         <v>2025</v>
@@ -6949,10 +6949,10 @@
         <v>51</v>
       </c>
       <c r="E319" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F319">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="320" spans="1:6">
@@ -6960,7 +6960,7 @@
         <v>7</v>
       </c>
       <c r="B320" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C320">
         <v>2025</v>
@@ -6969,7 +6969,7 @@
         <v>51</v>
       </c>
       <c r="E320" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F320">
         <v>110</v>
@@ -6980,7 +6980,7 @@
         <v>7</v>
       </c>
       <c r="B321" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C321">
         <v>2025</v>
@@ -6989,10 +6989,10 @@
         <v>51</v>
       </c>
       <c r="E321" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F321">
-        <v>14</v>
+        <v>109</v>
       </c>
     </row>
     <row r="322" spans="1:6">
@@ -7000,7 +7000,7 @@
         <v>7</v>
       </c>
       <c r="B322" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C322">
         <v>2025</v>
@@ -7009,10 +7009,10 @@
         <v>51</v>
       </c>
       <c r="E322" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F322">
-        <v>115</v>
+        <v>6</v>
       </c>
     </row>
     <row r="323" spans="1:6">
@@ -7020,7 +7020,7 @@
         <v>7</v>
       </c>
       <c r="B323" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C323">
         <v>2025</v>
@@ -7029,10 +7029,10 @@
         <v>51</v>
       </c>
       <c r="E323" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F323">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="324" spans="1:6">
@@ -7040,7 +7040,7 @@
         <v>7</v>
       </c>
       <c r="B324" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C324">
         <v>2025</v>
@@ -7049,10 +7049,10 @@
         <v>51</v>
       </c>
       <c r="E324" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F324">
-        <v>103</v>
+        <v>111</v>
       </c>
     </row>
     <row r="325" spans="1:6">
@@ -7060,7 +7060,7 @@
         <v>7</v>
       </c>
       <c r="B325" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C325">
         <v>2025</v>
@@ -7069,10 +7069,10 @@
         <v>51</v>
       </c>
       <c r="E325" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F325">
-        <v>105</v>
+        <v>115</v>
       </c>
     </row>
     <row r="326" spans="1:6">
@@ -7080,7 +7080,7 @@
         <v>7</v>
       </c>
       <c r="B326" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C326">
         <v>2025</v>
@@ -7089,10 +7089,10 @@
         <v>51</v>
       </c>
       <c r="E326" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="F326">
-        <v>110</v>
+        <v>14</v>
       </c>
     </row>
     <row r="327" spans="1:6">
@@ -7100,7 +7100,7 @@
         <v>7</v>
       </c>
       <c r="B327" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C327">
         <v>2025</v>
@@ -7109,10 +7109,10 @@
         <v>51</v>
       </c>
       <c r="E327" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F327">
-        <v>103</v>
+        <v>110</v>
       </c>
     </row>
     <row r="328" spans="1:6">
@@ -7120,7 +7120,7 @@
         <v>7</v>
       </c>
       <c r="B328" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C328">
         <v>2025</v>
@@ -7129,10 +7129,10 @@
         <v>51</v>
       </c>
       <c r="E328" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F328">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="329" spans="1:6">
@@ -7140,7 +7140,7 @@
         <v>7</v>
       </c>
       <c r="B329" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C329">
         <v>2025</v>
@@ -7149,10 +7149,10 @@
         <v>51</v>
       </c>
       <c r="E329" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F329">
-        <v>102</v>
+        <v>183</v>
       </c>
     </row>
     <row r="330" spans="1:6">
@@ -7160,7 +7160,7 @@
         <v>7</v>
       </c>
       <c r="B330" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C330">
         <v>2025</v>
@@ -7169,10 +7169,10 @@
         <v>51</v>
       </c>
       <c r="E330" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F330">
-        <v>78</v>
+        <v>182</v>
       </c>
     </row>
     <row r="331" spans="1:6">
@@ -7180,7 +7180,7 @@
         <v>7</v>
       </c>
       <c r="B331" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C331">
         <v>2025</v>
@@ -7189,10 +7189,10 @@
         <v>51</v>
       </c>
       <c r="E331" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F331">
-        <v>82</v>
+        <v>181</v>
       </c>
     </row>
     <row r="332" spans="1:6">
@@ -7200,7 +7200,7 @@
         <v>7</v>
       </c>
       <c r="B332" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C332">
         <v>2025</v>
@@ -7209,10 +7209,10 @@
         <v>51</v>
       </c>
       <c r="E332" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F332">
-        <v>77</v>
+        <v>10</v>
       </c>
     </row>
     <row r="333" spans="1:6">
@@ -7220,7 +7220,7 @@
         <v>7</v>
       </c>
       <c r="B333" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C333">
         <v>2025</v>
@@ -7232,7 +7232,7 @@
         <v>56</v>
       </c>
       <c r="F333">
-        <v>77</v>
+        <v>185</v>
       </c>
     </row>
     <row r="334" spans="1:6">
@@ -7240,7 +7240,7 @@
         <v>7</v>
       </c>
       <c r="B334" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C334">
         <v>2025</v>
@@ -7252,7 +7252,7 @@
         <v>57</v>
       </c>
       <c r="F334">
-        <v>79</v>
+        <v>181</v>
       </c>
     </row>
     <row r="335" spans="1:6">
@@ -7260,7 +7260,7 @@
         <v>7</v>
       </c>
       <c r="B335" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C335">
         <v>2025</v>
@@ -7269,10 +7269,10 @@
         <v>51</v>
       </c>
       <c r="E335" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F335">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="336" spans="1:6">
@@ -7280,7 +7280,7 @@
         <v>7</v>
       </c>
       <c r="B336" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C336">
         <v>2025</v>
@@ -7292,7 +7292,7 @@
         <v>60</v>
       </c>
       <c r="F336">
-        <v>79</v>
+        <v>185</v>
       </c>
     </row>
     <row r="337" spans="1:6">
@@ -7300,7 +7300,7 @@
         <v>7</v>
       </c>
       <c r="B337" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C337">
         <v>2025</v>
@@ -7309,10 +7309,10 @@
         <v>51</v>
       </c>
       <c r="E337" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="F337">
-        <v>136</v>
+        <v>10</v>
       </c>
     </row>
     <row r="338" spans="1:6">
@@ -7320,7 +7320,7 @@
         <v>7</v>
       </c>
       <c r="B338" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C338">
         <v>2025</v>
@@ -7329,10 +7329,10 @@
         <v>51</v>
       </c>
       <c r="E338" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F338">
-        <v>135</v>
+        <v>116</v>
       </c>
     </row>
     <row r="339" spans="1:6">
@@ -7340,7 +7340,7 @@
         <v>7</v>
       </c>
       <c r="B339" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C339">
         <v>2025</v>
@@ -7349,10 +7349,10 @@
         <v>51</v>
       </c>
       <c r="E339" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F339">
-        <v>132</v>
+        <v>112</v>
       </c>
     </row>
     <row r="340" spans="1:6">
@@ -7360,7 +7360,7 @@
         <v>7</v>
       </c>
       <c r="B340" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C340">
         <v>2025</v>
@@ -7369,10 +7369,10 @@
         <v>51</v>
       </c>
       <c r="E340" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="F340">
-        <v>135</v>
+        <v>109</v>
       </c>
     </row>
     <row r="341" spans="1:6">
@@ -7380,7 +7380,7 @@
         <v>7</v>
       </c>
       <c r="B341" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C341">
         <v>2025</v>
@@ -7389,10 +7389,10 @@
         <v>51</v>
       </c>
       <c r="E341" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="F341">
-        <v>8</v>
+        <v>110</v>
       </c>
     </row>
     <row r="342" spans="1:6">
@@ -7400,7 +7400,7 @@
         <v>7</v>
       </c>
       <c r="B342" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C342">
         <v>2025</v>
@@ -7409,10 +7409,10 @@
         <v>51</v>
       </c>
       <c r="E342" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F342">
-        <v>134</v>
+        <v>6</v>
       </c>
     </row>
     <row r="343" spans="1:6">
@@ -7420,7 +7420,7 @@
         <v>7</v>
       </c>
       <c r="B343" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C343">
         <v>2025</v>
@@ -7429,10 +7429,10 @@
         <v>51</v>
       </c>
       <c r="E343" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F343">
-        <v>133</v>
+        <v>114</v>
       </c>
     </row>
     <row r="344" spans="1:6">
@@ -7440,7 +7440,7 @@
         <v>7</v>
       </c>
       <c r="B344" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C344">
         <v>2025</v>
@@ -7449,10 +7449,10 @@
         <v>51</v>
       </c>
       <c r="E344" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F344">
-        <v>133</v>
+        <v>110</v>
       </c>
     </row>
     <row r="345" spans="1:6">
@@ -7460,7 +7460,7 @@
         <v>7</v>
       </c>
       <c r="B345" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C345">
         <v>2025</v>
@@ -7469,10 +7469,10 @@
         <v>51</v>
       </c>
       <c r="E345" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F345">
-        <v>28</v>
+        <v>105</v>
       </c>
     </row>
     <row r="346" spans="1:6">
@@ -7480,7 +7480,7 @@
         <v>7</v>
       </c>
       <c r="B346" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C346">
         <v>2025</v>
@@ -7489,10 +7489,10 @@
         <v>51</v>
       </c>
       <c r="E346" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F346">
-        <v>133</v>
+        <v>14</v>
       </c>
     </row>
     <row r="347" spans="1:6">
@@ -7500,7 +7500,7 @@
         <v>7</v>
       </c>
       <c r="B347" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C347">
         <v>2025</v>
@@ -7509,10 +7509,10 @@
         <v>51</v>
       </c>
       <c r="E347" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F347">
-        <v>8</v>
+        <v>115</v>
       </c>
     </row>
     <row r="348" spans="1:6">
@@ -7520,7 +7520,7 @@
         <v>7</v>
       </c>
       <c r="B348" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C348">
         <v>2025</v>
@@ -7529,10 +7529,10 @@
         <v>51</v>
       </c>
       <c r="E348" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="F348">
-        <v>64</v>
+        <v>6</v>
       </c>
     </row>
     <row r="349" spans="1:6">
@@ -7540,7 +7540,7 @@
         <v>7</v>
       </c>
       <c r="B349" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C349">
         <v>2025</v>
@@ -7549,10 +7549,10 @@
         <v>51</v>
       </c>
       <c r="E349" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F349">
-        <v>64</v>
+        <v>101</v>
       </c>
     </row>
     <row r="350" spans="1:6">
@@ -7560,7 +7560,7 @@
         <v>7</v>
       </c>
       <c r="B350" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C350">
         <v>2025</v>
@@ -7569,10 +7569,10 @@
         <v>51</v>
       </c>
       <c r="E350" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F350">
-        <v>61</v>
+        <v>103</v>
       </c>
     </row>
     <row r="351" spans="1:6">
@@ -7580,7 +7580,7 @@
         <v>7</v>
       </c>
       <c r="B351" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C351">
         <v>2025</v>
@@ -7589,10 +7589,10 @@
         <v>51</v>
       </c>
       <c r="E351" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="F351">
-        <v>62</v>
+        <v>105</v>
       </c>
     </row>
     <row r="352" spans="1:6">
@@ -7600,7 +7600,7 @@
         <v>7</v>
       </c>
       <c r="B352" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C352">
         <v>2025</v>
@@ -7609,10 +7609,10 @@
         <v>51</v>
       </c>
       <c r="E352" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="F352">
-        <v>5</v>
+        <v>105</v>
       </c>
     </row>
     <row r="353" spans="1:6">
@@ -7620,7 +7620,7 @@
         <v>7</v>
       </c>
       <c r="B353" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C353">
         <v>2025</v>
@@ -7629,10 +7629,10 @@
         <v>51</v>
       </c>
       <c r="E353" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F353">
-        <v>65</v>
+        <v>6</v>
       </c>
     </row>
     <row r="354" spans="1:6">
@@ -7640,7 +7640,7 @@
         <v>7</v>
       </c>
       <c r="B354" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C354">
         <v>2025</v>
@@ -7649,10 +7649,10 @@
         <v>51</v>
       </c>
       <c r="E354" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F354">
-        <v>63</v>
+        <v>110</v>
       </c>
     </row>
     <row r="355" spans="1:6">
@@ -7660,7 +7660,7 @@
         <v>7</v>
       </c>
       <c r="B355" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C355">
         <v>2025</v>
@@ -7669,10 +7669,10 @@
         <v>51</v>
       </c>
       <c r="E355" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F355">
-        <v>63</v>
+        <v>103</v>
       </c>
     </row>
     <row r="356" spans="1:6">
@@ -7680,7 +7680,7 @@
         <v>7</v>
       </c>
       <c r="B356" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C356">
         <v>2025</v>
@@ -7689,10 +7689,10 @@
         <v>51</v>
       </c>
       <c r="E356" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F356">
-        <v>14</v>
+        <v>105</v>
       </c>
     </row>
     <row r="357" spans="1:6">
@@ -7700,7 +7700,7 @@
         <v>7</v>
       </c>
       <c r="B357" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C357">
         <v>2025</v>
@@ -7709,10 +7709,10 @@
         <v>51</v>
       </c>
       <c r="E357" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F357">
-        <v>63</v>
+        <v>21</v>
       </c>
     </row>
     <row r="358" spans="1:6">
@@ -7720,7 +7720,7 @@
         <v>7</v>
       </c>
       <c r="B358" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C358">
         <v>2025</v>
@@ -7729,10 +7729,10 @@
         <v>51</v>
       </c>
       <c r="E358" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F358">
-        <v>5</v>
+        <v>102</v>
       </c>
     </row>
     <row r="359" spans="1:6">
@@ -7740,7 +7740,7 @@
         <v>7</v>
       </c>
       <c r="B359" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C359">
         <v>2025</v>
@@ -7749,10 +7749,10 @@
         <v>51</v>
       </c>
       <c r="E359" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="F359">
-        <v>222</v>
+        <v>5</v>
       </c>
     </row>
     <row r="360" spans="1:6">
@@ -7760,7 +7760,7 @@
         <v>7</v>
       </c>
       <c r="B360" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C360">
         <v>2025</v>
@@ -7769,10 +7769,10 @@
         <v>51</v>
       </c>
       <c r="E360" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F360">
-        <v>224</v>
+        <v>78</v>
       </c>
     </row>
     <row r="361" spans="1:6">
@@ -7780,7 +7780,7 @@
         <v>7</v>
       </c>
       <c r="B361" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C361">
         <v>2025</v>
@@ -7789,10 +7789,10 @@
         <v>51</v>
       </c>
       <c r="E361" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F361">
-        <v>224</v>
+        <v>82</v>
       </c>
     </row>
     <row r="362" spans="1:6">
@@ -7800,7 +7800,7 @@
         <v>7</v>
       </c>
       <c r="B362" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C362">
         <v>2025</v>
@@ -7809,10 +7809,10 @@
         <v>51</v>
       </c>
       <c r="E362" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F362">
-        <v>225</v>
+        <v>77</v>
       </c>
     </row>
     <row r="363" spans="1:6">
@@ -7820,7 +7820,7 @@
         <v>7</v>
       </c>
       <c r="B363" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C363">
         <v>2025</v>
@@ -7829,10 +7829,10 @@
         <v>51</v>
       </c>
       <c r="E363" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="F363">
-        <v>216</v>
+        <v>79</v>
       </c>
     </row>
     <row r="364" spans="1:6">
@@ -7840,7 +7840,7 @@
         <v>7</v>
       </c>
       <c r="B364" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C364">
         <v>2025</v>
@@ -7849,10 +7849,10 @@
         <v>51</v>
       </c>
       <c r="E364" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F364">
-        <v>28</v>
+        <v>4</v>
       </c>
     </row>
     <row r="365" spans="1:6">
@@ -7860,7 +7860,7 @@
         <v>7</v>
       </c>
       <c r="B365" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C365">
         <v>2025</v>
@@ -7869,10 +7869,10 @@
         <v>51</v>
       </c>
       <c r="E365" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F365">
-        <v>219</v>
+        <v>77</v>
       </c>
     </row>
     <row r="366" spans="1:6">
@@ -7880,7 +7880,7 @@
         <v>7</v>
       </c>
       <c r="B366" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C366">
         <v>2025</v>
@@ -7889,10 +7889,10 @@
         <v>51</v>
       </c>
       <c r="E366" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F366">
-        <v>123</v>
+        <v>79</v>
       </c>
     </row>
     <row r="367" spans="1:6">
@@ -7900,7 +7900,7 @@
         <v>7</v>
       </c>
       <c r="B367" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C367">
         <v>2025</v>
@@ -7909,10 +7909,10 @@
         <v>51</v>
       </c>
       <c r="E367" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="F367">
-        <v>127</v>
+        <v>79</v>
       </c>
     </row>
     <row r="368" spans="1:6">
@@ -7920,7 +7920,7 @@
         <v>7</v>
       </c>
       <c r="B368" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C368">
         <v>2025</v>
@@ -7929,10 +7929,10 @@
         <v>51</v>
       </c>
       <c r="E368" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="F368">
-        <v>116</v>
+        <v>14</v>
       </c>
     </row>
     <row r="369" spans="1:6">
@@ -7940,7 +7940,7 @@
         <v>7</v>
       </c>
       <c r="B369" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C369">
         <v>2025</v>
@@ -7949,10 +7949,10 @@
         <v>51</v>
       </c>
       <c r="E369" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F369">
-        <v>121</v>
+        <v>79</v>
       </c>
     </row>
     <row r="370" spans="1:6">
@@ -7960,7 +7960,7 @@
         <v>7</v>
       </c>
       <c r="B370" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C370">
         <v>2025</v>
@@ -7969,10 +7969,10 @@
         <v>51</v>
       </c>
       <c r="E370" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F370">
-        <v>123</v>
+        <v>4</v>
       </c>
     </row>
     <row r="371" spans="1:6">
@@ -7980,7 +7980,7 @@
         <v>7</v>
       </c>
       <c r="B371" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C371">
         <v>2025</v>
@@ -7989,10 +7989,10 @@
         <v>51</v>
       </c>
       <c r="E371" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="F371">
-        <v>14</v>
+        <v>136</v>
       </c>
     </row>
     <row r="372" spans="1:6">
@@ -8000,7 +8000,7 @@
         <v>7</v>
       </c>
       <c r="B372" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C372">
         <v>2025</v>
@@ -8009,10 +8009,10 @@
         <v>51</v>
       </c>
       <c r="E372" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F372">
-        <v>118</v>
+        <v>135</v>
       </c>
     </row>
     <row r="373" spans="1:6">
@@ -8020,7 +8020,7 @@
         <v>7</v>
       </c>
       <c r="B373" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C373">
         <v>2025</v>
@@ -8029,10 +8029,10 @@
         <v>51</v>
       </c>
       <c r="E373" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F373">
-        <v>78</v>
+        <v>132</v>
       </c>
     </row>
     <row r="374" spans="1:6">
@@ -8040,7 +8040,7 @@
         <v>7</v>
       </c>
       <c r="B374" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C374">
         <v>2025</v>
@@ -8049,10 +8049,10 @@
         <v>51</v>
       </c>
       <c r="E374" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="F374">
-        <v>74</v>
+        <v>135</v>
       </c>
     </row>
     <row r="375" spans="1:6">
@@ -8060,7 +8060,7 @@
         <v>7</v>
       </c>
       <c r="B375" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C375">
         <v>2025</v>
@@ -8069,10 +8069,10 @@
         <v>51</v>
       </c>
       <c r="E375" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F375">
-        <v>76</v>
+        <v>8</v>
       </c>
     </row>
     <row r="376" spans="1:6">
@@ -8080,7 +8080,7 @@
         <v>7</v>
       </c>
       <c r="B376" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C376">
         <v>2025</v>
@@ -8089,10 +8089,10 @@
         <v>51</v>
       </c>
       <c r="E376" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F376">
-        <v>78</v>
+        <v>134</v>
       </c>
     </row>
     <row r="377" spans="1:6">
@@ -8100,7 +8100,7 @@
         <v>7</v>
       </c>
       <c r="B377" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C377">
         <v>2025</v>
@@ -8109,10 +8109,10 @@
         <v>51</v>
       </c>
       <c r="E377" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F377">
-        <v>77</v>
+        <v>133</v>
       </c>
     </row>
     <row r="378" spans="1:6">
@@ -8120,7 +8120,7 @@
         <v>7</v>
       </c>
       <c r="B378" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C378">
         <v>2025</v>
@@ -8129,10 +8129,10 @@
         <v>51</v>
       </c>
       <c r="E378" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F378">
-        <v>78</v>
+        <v>133</v>
       </c>
     </row>
     <row r="379" spans="1:6">
@@ -8140,7 +8140,7 @@
         <v>7</v>
       </c>
       <c r="B379" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C379">
         <v>2025</v>
@@ -8152,7 +8152,7 @@
         <v>65</v>
       </c>
       <c r="F379">
-        <v>79</v>
+        <v>28</v>
       </c>
     </row>
     <row r="380" spans="1:6">
@@ -8160,7 +8160,7 @@
         <v>7</v>
       </c>
       <c r="B380" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C380">
         <v>2025</v>
@@ -8169,10 +8169,10 @@
         <v>51</v>
       </c>
       <c r="E380" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F380">
-        <v>14</v>
+        <v>133</v>
       </c>
     </row>
     <row r="381" spans="1:6">
@@ -8180,7 +8180,7 @@
         <v>7</v>
       </c>
       <c r="B381" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C381">
         <v>2025</v>
@@ -8189,10 +8189,10 @@
         <v>51</v>
       </c>
       <c r="E381" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F381">
-        <v>74</v>
+        <v>8</v>
       </c>
     </row>
     <row r="382" spans="1:6">
@@ -8200,7 +8200,7 @@
         <v>7</v>
       </c>
       <c r="B382" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C382">
         <v>2025</v>
@@ -8220,7 +8220,7 @@
         <v>7</v>
       </c>
       <c r="B383" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C383">
         <v>2025</v>
@@ -8232,7 +8232,7 @@
         <v>53</v>
       </c>
       <c r="F383">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="384" spans="1:6">
@@ -8240,7 +8240,7 @@
         <v>7</v>
       </c>
       <c r="B384" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C384">
         <v>2025</v>
@@ -8252,7 +8252,7 @@
         <v>54</v>
       </c>
       <c r="F384">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="385" spans="1:6">
@@ -8260,7 +8260,7 @@
         <v>7</v>
       </c>
       <c r="B385" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C385">
         <v>2025</v>
@@ -8269,10 +8269,10 @@
         <v>51</v>
       </c>
       <c r="E385" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="F385">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="386" spans="1:6">
@@ -8280,7 +8280,7 @@
         <v>7</v>
       </c>
       <c r="B386" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C386">
         <v>2025</v>
@@ -8289,10 +8289,10 @@
         <v>51</v>
       </c>
       <c r="E386" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F386">
-        <v>68</v>
+        <v>5</v>
       </c>
     </row>
     <row r="387" spans="1:6">
@@ -8300,7 +8300,7 @@
         <v>7</v>
       </c>
       <c r="B387" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C387">
         <v>2025</v>
@@ -8309,10 +8309,10 @@
         <v>51</v>
       </c>
       <c r="E387" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="F387">
-        <v>7</v>
+        <v>65</v>
       </c>
     </row>
     <row r="388" spans="1:6">
@@ -8320,7 +8320,7 @@
         <v>7</v>
       </c>
       <c r="B388" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C388">
         <v>2025</v>
@@ -8329,10 +8329,10 @@
         <v>51</v>
       </c>
       <c r="E388" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F388">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="389" spans="1:6">
@@ -8340,7 +8340,7 @@
         <v>7</v>
       </c>
       <c r="B389" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C389">
         <v>2025</v>
@@ -8349,10 +8349,10 @@
         <v>51</v>
       </c>
       <c r="E389" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="F389">
-        <v>106</v>
+        <v>63</v>
       </c>
     </row>
     <row r="390" spans="1:6">
@@ -8360,7 +8360,7 @@
         <v>7</v>
       </c>
       <c r="B390" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C390">
         <v>2025</v>
@@ -8369,10 +8369,10 @@
         <v>51</v>
       </c>
       <c r="E390" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="F390">
-        <v>105</v>
+        <v>14</v>
       </c>
     </row>
     <row r="391" spans="1:6">
@@ -8380,7 +8380,7 @@
         <v>7</v>
       </c>
       <c r="B391" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C391">
         <v>2025</v>
@@ -8389,10 +8389,10 @@
         <v>51</v>
       </c>
       <c r="E391" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F391">
-        <v>105</v>
+        <v>63</v>
       </c>
     </row>
     <row r="392" spans="1:6">
@@ -8400,7 +8400,7 @@
         <v>7</v>
       </c>
       <c r="B392" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C392">
         <v>2025</v>
@@ -8409,10 +8409,10 @@
         <v>51</v>
       </c>
       <c r="E392" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F392">
-        <v>105</v>
+        <v>5</v>
       </c>
     </row>
     <row r="393" spans="1:6">
@@ -8420,7 +8420,7 @@
         <v>7</v>
       </c>
       <c r="B393" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C393">
         <v>2025</v>
@@ -8429,10 +8429,10 @@
         <v>51</v>
       </c>
       <c r="E393" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F393">
-        <v>109</v>
+        <v>222</v>
       </c>
     </row>
     <row r="394" spans="1:6">
@@ -8440,7 +8440,7 @@
         <v>7</v>
       </c>
       <c r="B394" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C394">
         <v>2025</v>
@@ -8449,10 +8449,10 @@
         <v>51</v>
       </c>
       <c r="E394" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="F394">
-        <v>14</v>
+        <v>224</v>
       </c>
     </row>
     <row r="395" spans="1:6">
@@ -8460,7 +8460,7 @@
         <v>7</v>
       </c>
       <c r="B395" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C395">
         <v>2025</v>
@@ -8469,10 +8469,10 @@
         <v>51</v>
       </c>
       <c r="E395" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F395">
-        <v>105</v>
+        <v>224</v>
       </c>
     </row>
     <row r="396" spans="1:6">
@@ -8480,7 +8480,7 @@
         <v>7</v>
       </c>
       <c r="B396" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C396">
         <v>2025</v>
@@ -8489,10 +8489,10 @@
         <v>51</v>
       </c>
       <c r="E396" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="F396">
-        <v>168</v>
+        <v>219</v>
       </c>
     </row>
     <row r="397" spans="1:6">
@@ -8500,7 +8500,7 @@
         <v>7</v>
       </c>
       <c r="B397" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C397">
         <v>2025</v>
@@ -8509,10 +8509,10 @@
         <v>51</v>
       </c>
       <c r="E397" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F397">
-        <v>168</v>
+        <v>12</v>
       </c>
     </row>
     <row r="398" spans="1:6">
@@ -8520,7 +8520,7 @@
         <v>7</v>
       </c>
       <c r="B398" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C398">
         <v>2025</v>
@@ -8529,10 +8529,10 @@
         <v>51</v>
       </c>
       <c r="E398" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F398">
-        <v>167</v>
+        <v>225</v>
       </c>
     </row>
     <row r="399" spans="1:6">
@@ -8540,7 +8540,7 @@
         <v>7</v>
       </c>
       <c r="B399" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C399">
         <v>2025</v>
@@ -8549,10 +8549,10 @@
         <v>51</v>
       </c>
       <c r="E399" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="F399">
-        <v>167</v>
+        <v>216</v>
       </c>
     </row>
     <row r="400" spans="1:6">
@@ -8560,7 +8560,7 @@
         <v>7</v>
       </c>
       <c r="B400" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C400">
         <v>2025</v>
@@ -8569,10 +8569,10 @@
         <v>51</v>
       </c>
       <c r="E400" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="F400">
-        <v>9</v>
+        <v>219</v>
       </c>
     </row>
     <row r="401" spans="1:6">
@@ -8580,7 +8580,7 @@
         <v>7</v>
       </c>
       <c r="B401" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C401">
         <v>2025</v>
@@ -8589,10 +8589,10 @@
         <v>51</v>
       </c>
       <c r="E401" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="F401">
-        <v>167</v>
+        <v>28</v>
       </c>
     </row>
     <row r="402" spans="1:6">
@@ -8600,7 +8600,7 @@
         <v>7</v>
       </c>
       <c r="B402" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C402">
         <v>2025</v>
@@ -8609,10 +8609,10 @@
         <v>51</v>
       </c>
       <c r="E402" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F402">
-        <v>168</v>
+        <v>219</v>
       </c>
     </row>
     <row r="403" spans="1:6">
@@ -8620,7 +8620,7 @@
         <v>7</v>
       </c>
       <c r="B403" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C403">
         <v>2025</v>
@@ -8629,10 +8629,10 @@
         <v>51</v>
       </c>
       <c r="E403" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F403">
-        <v>175</v>
+        <v>12</v>
       </c>
     </row>
     <row r="404" spans="1:6">
@@ -8640,7 +8640,7 @@
         <v>7</v>
       </c>
       <c r="B404" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C404">
         <v>2025</v>
@@ -8649,10 +8649,10 @@
         <v>51</v>
       </c>
       <c r="E404" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="F404">
-        <v>31</v>
+        <v>123</v>
       </c>
     </row>
     <row r="405" spans="1:6">
@@ -8660,7 +8660,7 @@
         <v>7</v>
       </c>
       <c r="B405" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C405">
         <v>2025</v>
@@ -8669,10 +8669,10 @@
         <v>51</v>
       </c>
       <c r="E405" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F405">
-        <v>168</v>
+        <v>127</v>
       </c>
     </row>
     <row r="406" spans="1:6">
@@ -8680,18 +8680,1038 @@
         <v>7</v>
       </c>
       <c r="B406" t="s">
+        <v>46</v>
+      </c>
+      <c r="C406">
+        <v>2025</v>
+      </c>
+      <c r="D406" t="s">
+        <v>51</v>
+      </c>
+      <c r="E406" t="s">
+        <v>54</v>
+      </c>
+      <c r="F406">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="407" spans="1:6">
+      <c r="A407" t="s">
+        <v>7</v>
+      </c>
+      <c r="B407" t="s">
+        <v>46</v>
+      </c>
+      <c r="C407">
+        <v>2025</v>
+      </c>
+      <c r="D407" t="s">
+        <v>51</v>
+      </c>
+      <c r="E407" t="s">
+        <v>64</v>
+      </c>
+      <c r="F407">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="408" spans="1:6">
+      <c r="A408" t="s">
+        <v>7</v>
+      </c>
+      <c r="B408" t="s">
+        <v>46</v>
+      </c>
+      <c r="C408">
+        <v>2025</v>
+      </c>
+      <c r="D408" t="s">
+        <v>51</v>
+      </c>
+      <c r="E408" t="s">
+        <v>55</v>
+      </c>
+      <c r="F408">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="409" spans="1:6">
+      <c r="A409" t="s">
+        <v>7</v>
+      </c>
+      <c r="B409" t="s">
+        <v>46</v>
+      </c>
+      <c r="C409">
+        <v>2025</v>
+      </c>
+      <c r="D409" t="s">
+        <v>51</v>
+      </c>
+      <c r="E409" t="s">
+        <v>56</v>
+      </c>
+      <c r="F409">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="410" spans="1:6">
+      <c r="A410" t="s">
+        <v>7</v>
+      </c>
+      <c r="B410" t="s">
+        <v>46</v>
+      </c>
+      <c r="C410">
+        <v>2025</v>
+      </c>
+      <c r="D410" t="s">
+        <v>51</v>
+      </c>
+      <c r="E410" t="s">
+        <v>57</v>
+      </c>
+      <c r="F410">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="411" spans="1:6">
+      <c r="A411" t="s">
+        <v>7</v>
+      </c>
+      <c r="B411" t="s">
+        <v>46</v>
+      </c>
+      <c r="C411">
+        <v>2025</v>
+      </c>
+      <c r="D411" t="s">
+        <v>51</v>
+      </c>
+      <c r="E411" t="s">
+        <v>62</v>
+      </c>
+      <c r="F411">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="412" spans="1:6">
+      <c r="A412" t="s">
+        <v>7</v>
+      </c>
+      <c r="B412" t="s">
+        <v>46</v>
+      </c>
+      <c r="C412">
+        <v>2025</v>
+      </c>
+      <c r="D412" t="s">
+        <v>51</v>
+      </c>
+      <c r="E412" t="s">
+        <v>65</v>
+      </c>
+      <c r="F412">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="413" spans="1:6">
+      <c r="A413" t="s">
+        <v>7</v>
+      </c>
+      <c r="B413" t="s">
+        <v>46</v>
+      </c>
+      <c r="C413">
+        <v>2025</v>
+      </c>
+      <c r="D413" t="s">
+        <v>51</v>
+      </c>
+      <c r="E413" t="s">
+        <v>60</v>
+      </c>
+      <c r="F413">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="414" spans="1:6">
+      <c r="A414" t="s">
+        <v>7</v>
+      </c>
+      <c r="B414" t="s">
+        <v>46</v>
+      </c>
+      <c r="C414">
+        <v>2025</v>
+      </c>
+      <c r="D414" t="s">
+        <v>51</v>
+      </c>
+      <c r="E414" t="s">
+        <v>61</v>
+      </c>
+      <c r="F414">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="415" spans="1:6">
+      <c r="A415" t="s">
+        <v>7</v>
+      </c>
+      <c r="B415" t="s">
+        <v>47</v>
+      </c>
+      <c r="C415">
+        <v>2025</v>
+      </c>
+      <c r="D415" t="s">
+        <v>51</v>
+      </c>
+      <c r="E415" t="s">
+        <v>52</v>
+      </c>
+      <c r="F415">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="416" spans="1:6">
+      <c r="A416" t="s">
+        <v>7</v>
+      </c>
+      <c r="B416" t="s">
+        <v>47</v>
+      </c>
+      <c r="C416">
+        <v>2025</v>
+      </c>
+      <c r="D416" t="s">
+        <v>51</v>
+      </c>
+      <c r="E416" t="s">
+        <v>53</v>
+      </c>
+      <c r="F416">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="417" spans="1:6">
+      <c r="A417" t="s">
+        <v>7</v>
+      </c>
+      <c r="B417" t="s">
+        <v>47</v>
+      </c>
+      <c r="C417">
+        <v>2025</v>
+      </c>
+      <c r="D417" t="s">
+        <v>51</v>
+      </c>
+      <c r="E417" t="s">
+        <v>54</v>
+      </c>
+      <c r="F417">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="418" spans="1:6">
+      <c r="A418" t="s">
+        <v>7</v>
+      </c>
+      <c r="B418" t="s">
+        <v>47</v>
+      </c>
+      <c r="C418">
+        <v>2025</v>
+      </c>
+      <c r="D418" t="s">
+        <v>51</v>
+      </c>
+      <c r="E418" t="s">
+        <v>64</v>
+      </c>
+      <c r="F418">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="419" spans="1:6">
+      <c r="A419" t="s">
+        <v>7</v>
+      </c>
+      <c r="B419" t="s">
+        <v>47</v>
+      </c>
+      <c r="C419">
+        <v>2025</v>
+      </c>
+      <c r="D419" t="s">
+        <v>51</v>
+      </c>
+      <c r="E419" t="s">
+        <v>55</v>
+      </c>
+      <c r="F419">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="420" spans="1:6">
+      <c r="A420" t="s">
+        <v>7</v>
+      </c>
+      <c r="B420" t="s">
+        <v>47</v>
+      </c>
+      <c r="C420">
+        <v>2025</v>
+      </c>
+      <c r="D420" t="s">
+        <v>51</v>
+      </c>
+      <c r="E420" t="s">
+        <v>56</v>
+      </c>
+      <c r="F420">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="421" spans="1:6">
+      <c r="A421" t="s">
+        <v>7</v>
+      </c>
+      <c r="B421" t="s">
+        <v>47</v>
+      </c>
+      <c r="C421">
+        <v>2025</v>
+      </c>
+      <c r="D421" t="s">
+        <v>51</v>
+      </c>
+      <c r="E421" t="s">
+        <v>57</v>
+      </c>
+      <c r="F421">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="422" spans="1:6">
+      <c r="A422" t="s">
+        <v>7</v>
+      </c>
+      <c r="B422" t="s">
+        <v>47</v>
+      </c>
+      <c r="C422">
+        <v>2025</v>
+      </c>
+      <c r="D422" t="s">
+        <v>51</v>
+      </c>
+      <c r="E422" t="s">
+        <v>62</v>
+      </c>
+      <c r="F422">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="423" spans="1:6">
+      <c r="A423" t="s">
+        <v>7</v>
+      </c>
+      <c r="B423" t="s">
+        <v>47</v>
+      </c>
+      <c r="C423">
+        <v>2025</v>
+      </c>
+      <c r="D423" t="s">
+        <v>51</v>
+      </c>
+      <c r="E423" t="s">
+        <v>65</v>
+      </c>
+      <c r="F423">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="424" spans="1:6">
+      <c r="A424" t="s">
+        <v>7</v>
+      </c>
+      <c r="B424" t="s">
+        <v>47</v>
+      </c>
+      <c r="C424">
+        <v>2025</v>
+      </c>
+      <c r="D424" t="s">
+        <v>51</v>
+      </c>
+      <c r="E424" t="s">
+        <v>60</v>
+      </c>
+      <c r="F424">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="425" spans="1:6">
+      <c r="A425" t="s">
+        <v>7</v>
+      </c>
+      <c r="B425" t="s">
+        <v>47</v>
+      </c>
+      <c r="C425">
+        <v>2025</v>
+      </c>
+      <c r="D425" t="s">
+        <v>51</v>
+      </c>
+      <c r="E425" t="s">
+        <v>61</v>
+      </c>
+      <c r="F425">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="426" spans="1:6">
+      <c r="A426" t="s">
+        <v>7</v>
+      </c>
+      <c r="B426" t="s">
+        <v>48</v>
+      </c>
+      <c r="C426">
+        <v>2025</v>
+      </c>
+      <c r="D426" t="s">
+        <v>51</v>
+      </c>
+      <c r="E426" t="s">
+        <v>52</v>
+      </c>
+      <c r="F426">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="427" spans="1:6">
+      <c r="A427" t="s">
+        <v>7</v>
+      </c>
+      <c r="B427" t="s">
+        <v>48</v>
+      </c>
+      <c r="C427">
+        <v>2025</v>
+      </c>
+      <c r="D427" t="s">
+        <v>51</v>
+      </c>
+      <c r="E427" t="s">
+        <v>53</v>
+      </c>
+      <c r="F427">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="428" spans="1:6">
+      <c r="A428" t="s">
+        <v>7</v>
+      </c>
+      <c r="B428" t="s">
+        <v>48</v>
+      </c>
+      <c r="C428">
+        <v>2025</v>
+      </c>
+      <c r="D428" t="s">
+        <v>51</v>
+      </c>
+      <c r="E428" t="s">
+        <v>54</v>
+      </c>
+      <c r="F428">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="429" spans="1:6">
+      <c r="A429" t="s">
+        <v>7</v>
+      </c>
+      <c r="B429" t="s">
+        <v>48</v>
+      </c>
+      <c r="C429">
+        <v>2025</v>
+      </c>
+      <c r="D429" t="s">
+        <v>51</v>
+      </c>
+      <c r="E429" t="s">
+        <v>64</v>
+      </c>
+      <c r="F429">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="430" spans="1:6">
+      <c r="A430" t="s">
+        <v>7</v>
+      </c>
+      <c r="B430" t="s">
+        <v>48</v>
+      </c>
+      <c r="C430">
+        <v>2025</v>
+      </c>
+      <c r="D430" t="s">
+        <v>51</v>
+      </c>
+      <c r="E430" t="s">
+        <v>55</v>
+      </c>
+      <c r="F430">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="431" spans="1:6">
+      <c r="A431" t="s">
+        <v>7</v>
+      </c>
+      <c r="B431" t="s">
+        <v>48</v>
+      </c>
+      <c r="C431">
+        <v>2025</v>
+      </c>
+      <c r="D431" t="s">
+        <v>51</v>
+      </c>
+      <c r="E431" t="s">
+        <v>56</v>
+      </c>
+      <c r="F431">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="432" spans="1:6">
+      <c r="A432" t="s">
+        <v>7</v>
+      </c>
+      <c r="B432" t="s">
+        <v>48</v>
+      </c>
+      <c r="C432">
+        <v>2025</v>
+      </c>
+      <c r="D432" t="s">
+        <v>51</v>
+      </c>
+      <c r="E432" t="s">
+        <v>57</v>
+      </c>
+      <c r="F432">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="433" spans="1:6">
+      <c r="A433" t="s">
+        <v>7</v>
+      </c>
+      <c r="B433" t="s">
+        <v>48</v>
+      </c>
+      <c r="C433">
+        <v>2025</v>
+      </c>
+      <c r="D433" t="s">
+        <v>51</v>
+      </c>
+      <c r="E433" t="s">
+        <v>62</v>
+      </c>
+      <c r="F433">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="434" spans="1:6">
+      <c r="A434" t="s">
+        <v>7</v>
+      </c>
+      <c r="B434" t="s">
+        <v>48</v>
+      </c>
+      <c r="C434">
+        <v>2025</v>
+      </c>
+      <c r="D434" t="s">
+        <v>51</v>
+      </c>
+      <c r="E434" t="s">
+        <v>65</v>
+      </c>
+      <c r="F434">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="435" spans="1:6">
+      <c r="A435" t="s">
+        <v>7</v>
+      </c>
+      <c r="B435" t="s">
+        <v>48</v>
+      </c>
+      <c r="C435">
+        <v>2025</v>
+      </c>
+      <c r="D435" t="s">
+        <v>51</v>
+      </c>
+      <c r="E435" t="s">
+        <v>60</v>
+      </c>
+      <c r="F435">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="436" spans="1:6">
+      <c r="A436" t="s">
+        <v>7</v>
+      </c>
+      <c r="B436" t="s">
+        <v>48</v>
+      </c>
+      <c r="C436">
+        <v>2025</v>
+      </c>
+      <c r="D436" t="s">
+        <v>51</v>
+      </c>
+      <c r="E436" t="s">
+        <v>61</v>
+      </c>
+      <c r="F436">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="437" spans="1:6">
+      <c r="A437" t="s">
+        <v>7</v>
+      </c>
+      <c r="B437" t="s">
+        <v>49</v>
+      </c>
+      <c r="C437">
+        <v>2025</v>
+      </c>
+      <c r="D437" t="s">
+        <v>51</v>
+      </c>
+      <c r="E437" t="s">
+        <v>52</v>
+      </c>
+      <c r="F437">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="438" spans="1:6">
+      <c r="A438" t="s">
+        <v>7</v>
+      </c>
+      <c r="B438" t="s">
+        <v>49</v>
+      </c>
+      <c r="C438">
+        <v>2025</v>
+      </c>
+      <c r="D438" t="s">
+        <v>51</v>
+      </c>
+      <c r="E438" t="s">
+        <v>53</v>
+      </c>
+      <c r="F438">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="439" spans="1:6">
+      <c r="A439" t="s">
+        <v>7</v>
+      </c>
+      <c r="B439" t="s">
+        <v>49</v>
+      </c>
+      <c r="C439">
+        <v>2025</v>
+      </c>
+      <c r="D439" t="s">
+        <v>51</v>
+      </c>
+      <c r="E439" t="s">
+        <v>54</v>
+      </c>
+      <c r="F439">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="440" spans="1:6">
+      <c r="A440" t="s">
+        <v>7</v>
+      </c>
+      <c r="B440" t="s">
+        <v>49</v>
+      </c>
+      <c r="C440">
+        <v>2025</v>
+      </c>
+      <c r="D440" t="s">
+        <v>51</v>
+      </c>
+      <c r="E440" t="s">
+        <v>55</v>
+      </c>
+      <c r="F440">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="441" spans="1:6">
+      <c r="A441" t="s">
+        <v>7</v>
+      </c>
+      <c r="B441" t="s">
+        <v>49</v>
+      </c>
+      <c r="C441">
+        <v>2025</v>
+      </c>
+      <c r="D441" t="s">
+        <v>51</v>
+      </c>
+      <c r="E441" t="s">
+        <v>56</v>
+      </c>
+      <c r="F441">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="442" spans="1:6">
+      <c r="A442" t="s">
+        <v>7</v>
+      </c>
+      <c r="B442" t="s">
+        <v>49</v>
+      </c>
+      <c r="C442">
+        <v>2025</v>
+      </c>
+      <c r="D442" t="s">
+        <v>51</v>
+      </c>
+      <c r="E442" t="s">
+        <v>57</v>
+      </c>
+      <c r="F442">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="443" spans="1:6">
+      <c r="A443" t="s">
+        <v>7</v>
+      </c>
+      <c r="B443" t="s">
+        <v>49</v>
+      </c>
+      <c r="C443">
+        <v>2025</v>
+      </c>
+      <c r="D443" t="s">
+        <v>51</v>
+      </c>
+      <c r="E443" t="s">
+        <v>62</v>
+      </c>
+      <c r="F443">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="444" spans="1:6">
+      <c r="A444" t="s">
+        <v>7</v>
+      </c>
+      <c r="B444" t="s">
+        <v>49</v>
+      </c>
+      <c r="C444">
+        <v>2025</v>
+      </c>
+      <c r="D444" t="s">
+        <v>51</v>
+      </c>
+      <c r="E444" t="s">
+        <v>65</v>
+      </c>
+      <c r="F444">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="445" spans="1:6">
+      <c r="A445" t="s">
+        <v>7</v>
+      </c>
+      <c r="B445" t="s">
+        <v>49</v>
+      </c>
+      <c r="C445">
+        <v>2025</v>
+      </c>
+      <c r="D445" t="s">
+        <v>51</v>
+      </c>
+      <c r="E445" t="s">
+        <v>60</v>
+      </c>
+      <c r="F445">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="446" spans="1:6">
+      <c r="A446" t="s">
+        <v>7</v>
+      </c>
+      <c r="B446" t="s">
+        <v>49</v>
+      </c>
+      <c r="C446">
+        <v>2025</v>
+      </c>
+      <c r="D446" t="s">
+        <v>51</v>
+      </c>
+      <c r="E446" t="s">
+        <v>61</v>
+      </c>
+      <c r="F446">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="447" spans="1:6">
+      <c r="A447" t="s">
+        <v>7</v>
+      </c>
+      <c r="B447" t="s">
         <v>50</v>
       </c>
-      <c r="C406">
-        <v>2025</v>
-      </c>
-      <c r="D406" t="s">
-        <v>51</v>
-      </c>
-      <c r="E406" t="s">
+      <c r="C447">
+        <v>2025</v>
+      </c>
+      <c r="D447" t="s">
+        <v>51</v>
+      </c>
+      <c r="E447" t="s">
+        <v>52</v>
+      </c>
+      <c r="F447">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="448" spans="1:6">
+      <c r="A448" t="s">
+        <v>7</v>
+      </c>
+      <c r="B448" t="s">
+        <v>50</v>
+      </c>
+      <c r="C448">
+        <v>2025</v>
+      </c>
+      <c r="D448" t="s">
+        <v>51</v>
+      </c>
+      <c r="E448" t="s">
+        <v>53</v>
+      </c>
+      <c r="F448">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="449" spans="1:6">
+      <c r="A449" t="s">
+        <v>7</v>
+      </c>
+      <c r="B449" t="s">
+        <v>50</v>
+      </c>
+      <c r="C449">
+        <v>2025</v>
+      </c>
+      <c r="D449" t="s">
+        <v>51</v>
+      </c>
+      <c r="E449" t="s">
+        <v>54</v>
+      </c>
+      <c r="F449">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="450" spans="1:6">
+      <c r="A450" t="s">
+        <v>7</v>
+      </c>
+      <c r="B450" t="s">
+        <v>50</v>
+      </c>
+      <c r="C450">
+        <v>2025</v>
+      </c>
+      <c r="D450" t="s">
+        <v>51</v>
+      </c>
+      <c r="E450" t="s">
+        <v>64</v>
+      </c>
+      <c r="F450">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="451" spans="1:6">
+      <c r="A451" t="s">
+        <v>7</v>
+      </c>
+      <c r="B451" t="s">
+        <v>50</v>
+      </c>
+      <c r="C451">
+        <v>2025</v>
+      </c>
+      <c r="D451" t="s">
+        <v>51</v>
+      </c>
+      <c r="E451" t="s">
+        <v>55</v>
+      </c>
+      <c r="F451">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="452" spans="1:6">
+      <c r="A452" t="s">
+        <v>7</v>
+      </c>
+      <c r="B452" t="s">
+        <v>50</v>
+      </c>
+      <c r="C452">
+        <v>2025</v>
+      </c>
+      <c r="D452" t="s">
+        <v>51</v>
+      </c>
+      <c r="E452" t="s">
+        <v>56</v>
+      </c>
+      <c r="F452">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="453" spans="1:6">
+      <c r="A453" t="s">
+        <v>7</v>
+      </c>
+      <c r="B453" t="s">
+        <v>50</v>
+      </c>
+      <c r="C453">
+        <v>2025</v>
+      </c>
+      <c r="D453" t="s">
+        <v>51</v>
+      </c>
+      <c r="E453" t="s">
+        <v>57</v>
+      </c>
+      <c r="F453">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="454" spans="1:6">
+      <c r="A454" t="s">
+        <v>7</v>
+      </c>
+      <c r="B454" t="s">
+        <v>50</v>
+      </c>
+      <c r="C454">
+        <v>2025</v>
+      </c>
+      <c r="D454" t="s">
+        <v>51</v>
+      </c>
+      <c r="E454" t="s">
+        <v>62</v>
+      </c>
+      <c r="F454">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="455" spans="1:6">
+      <c r="A455" t="s">
+        <v>7</v>
+      </c>
+      <c r="B455" t="s">
+        <v>50</v>
+      </c>
+      <c r="C455">
+        <v>2025</v>
+      </c>
+      <c r="D455" t="s">
+        <v>51</v>
+      </c>
+      <c r="E455" t="s">
+        <v>65</v>
+      </c>
+      <c r="F455">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="456" spans="1:6">
+      <c r="A456" t="s">
+        <v>7</v>
+      </c>
+      <c r="B456" t="s">
+        <v>50</v>
+      </c>
+      <c r="C456">
+        <v>2025</v>
+      </c>
+      <c r="D456" t="s">
+        <v>51</v>
+      </c>
+      <c r="E456" t="s">
+        <v>60</v>
+      </c>
+      <c r="F456">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="457" spans="1:6">
+      <c r="A457" t="s">
+        <v>7</v>
+      </c>
+      <c r="B457" t="s">
+        <v>50</v>
+      </c>
+      <c r="C457">
+        <v>2025</v>
+      </c>
+      <c r="D457" t="s">
+        <v>51</v>
+      </c>
+      <c r="E457" t="s">
         <v>61</v>
       </c>
-      <c r="F406">
+      <c r="F457">
         <v>9</v>
       </c>
     </row>

--- a/Quality reports shared/training_analysis.xlsx
+++ b/Quality reports shared/training_analysis.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1830" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1854" uniqueCount="66">
   <si>
     <t>district_name</t>
   </si>
@@ -193,6 +193,9 @@
     <t>HHT 2 - Financial Literacy and VSLA and and Business Enterprise Selection</t>
   </si>
   <si>
+    <t>HOR 1</t>
+  </si>
+  <si>
     <t>Village Champions</t>
   </si>
   <si>
@@ -200,9 +203,6 @@
   </si>
   <si>
     <t>WASH Champions Training</t>
-  </si>
-  <si>
-    <t>HOR 1</t>
   </si>
   <si>
     <t>Coffee Champions - ToT 1</t>
@@ -569,7 +569,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F457"/>
+  <dimension ref="A1:F463"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -752,7 +752,7 @@
         <v>59</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -772,7 +772,7 @@
         <v>60</v>
       </c>
       <c r="F10">
-        <v>111</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -792,7 +792,7 @@
         <v>61</v>
       </c>
       <c r="F11">
-        <v>6</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -800,7 +800,7 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12">
         <v>2025</v>
@@ -809,10 +809,10 @@
         <v>51</v>
       </c>
       <c r="E12" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="F12">
-        <v>75</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -829,10 +829,10 @@
         <v>51</v>
       </c>
       <c r="E13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F13">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -849,10 +849,10 @@
         <v>51</v>
       </c>
       <c r="E14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F14">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -869,10 +869,10 @@
         <v>51</v>
       </c>
       <c r="E15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F15">
-        <v>10</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -889,10 +889,10 @@
         <v>51</v>
       </c>
       <c r="E16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F16">
-        <v>75</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -909,7 +909,7 @@
         <v>51</v>
       </c>
       <c r="E17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F17">
         <v>75</v>
@@ -929,10 +929,10 @@
         <v>51</v>
       </c>
       <c r="E18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F18">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -949,10 +949,10 @@
         <v>51</v>
       </c>
       <c r="E19" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F19">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -972,7 +972,7 @@
         <v>59</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -992,7 +992,7 @@
         <v>60</v>
       </c>
       <c r="F21">
-        <v>75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1012,7 +1012,7 @@
         <v>61</v>
       </c>
       <c r="F22">
-        <v>4</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1020,7 +1020,7 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C23">
         <v>2025</v>
@@ -1029,10 +1029,10 @@
         <v>51</v>
       </c>
       <c r="E23" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="F23">
-        <v>44</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1049,10 +1049,10 @@
         <v>51</v>
       </c>
       <c r="E24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F24">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1069,10 +1069,10 @@
         <v>51</v>
       </c>
       <c r="E25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F25">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1089,10 +1089,10 @@
         <v>51</v>
       </c>
       <c r="E26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F26">
-        <v>2</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1109,7 +1109,7 @@
         <v>51</v>
       </c>
       <c r="E27" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F27">
         <v>2</v>
@@ -1129,10 +1129,10 @@
         <v>51</v>
       </c>
       <c r="E28" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="F28">
-        <v>43</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1149,7 +1149,7 @@
         <v>51</v>
       </c>
       <c r="E29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F29">
         <v>43</v>
@@ -1169,7 +1169,7 @@
         <v>51</v>
       </c>
       <c r="E30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F30">
         <v>43</v>
@@ -1189,10 +1189,10 @@
         <v>51</v>
       </c>
       <c r="E31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1212,7 +1212,7 @@
         <v>60</v>
       </c>
       <c r="F32">
-        <v>44</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1232,7 +1232,7 @@
         <v>61</v>
       </c>
       <c r="F33">
-        <v>2</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1240,7 +1240,7 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C34">
         <v>2025</v>
@@ -1249,10 +1249,10 @@
         <v>51</v>
       </c>
       <c r="E34" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="F34">
-        <v>39</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1269,10 +1269,10 @@
         <v>51</v>
       </c>
       <c r="E35" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F35">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1289,7 +1289,7 @@
         <v>51</v>
       </c>
       <c r="E36" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F36">
         <v>37</v>
@@ -1309,10 +1309,10 @@
         <v>51</v>
       </c>
       <c r="E37" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F37">
-        <v>2</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1329,10 +1329,10 @@
         <v>51</v>
       </c>
       <c r="E38" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F38">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1349,10 +1349,10 @@
         <v>51</v>
       </c>
       <c r="E39" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="F39">
-        <v>38</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1369,10 +1369,10 @@
         <v>51</v>
       </c>
       <c r="E40" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F40">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1389,10 +1389,10 @@
         <v>51</v>
       </c>
       <c r="E41" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F41">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1409,10 +1409,10 @@
         <v>51</v>
       </c>
       <c r="E42" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F42">
-        <v>1</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1432,7 +1432,7 @@
         <v>60</v>
       </c>
       <c r="F43">
-        <v>38</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1452,7 +1452,7 @@
         <v>61</v>
       </c>
       <c r="F44">
-        <v>2</v>
+        <v>38</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1460,7 +1460,7 @@
         <v>6</v>
       </c>
       <c r="B45" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C45">
         <v>2025</v>
@@ -1469,10 +1469,10 @@
         <v>51</v>
       </c>
       <c r="E45" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="F45">
-        <v>49</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1489,10 +1489,10 @@
         <v>51</v>
       </c>
       <c r="E46" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F46">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1509,7 +1509,7 @@
         <v>51</v>
       </c>
       <c r="E47" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F47">
         <v>50</v>
@@ -1529,10 +1529,10 @@
         <v>51</v>
       </c>
       <c r="E48" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F48">
-        <v>3</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1549,7 +1549,7 @@
         <v>51</v>
       </c>
       <c r="E49" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F49">
         <v>3</v>
@@ -1569,10 +1569,10 @@
         <v>51</v>
       </c>
       <c r="E50" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="F50">
-        <v>50</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1589,10 +1589,10 @@
         <v>51</v>
       </c>
       <c r="E51" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F51">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1609,10 +1609,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F52">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1629,10 +1629,10 @@
         <v>51</v>
       </c>
       <c r="E53" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F53">
-        <v>1</v>
+        <v>50</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1652,7 +1652,7 @@
         <v>60</v>
       </c>
       <c r="F54">
-        <v>51</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1672,7 +1672,7 @@
         <v>61</v>
       </c>
       <c r="F55">
-        <v>3</v>
+        <v>51</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1680,7 +1680,7 @@
         <v>6</v>
       </c>
       <c r="B56" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C56">
         <v>2025</v>
@@ -1689,10 +1689,10 @@
         <v>51</v>
       </c>
       <c r="E56" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="F56">
-        <v>134</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1709,10 +1709,10 @@
         <v>51</v>
       </c>
       <c r="E57" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F57">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1729,10 +1729,10 @@
         <v>51</v>
       </c>
       <c r="E58" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F58">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1749,10 +1749,10 @@
         <v>51</v>
       </c>
       <c r="E59" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F59">
-        <v>15</v>
+        <v>133</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1769,10 +1769,10 @@
         <v>51</v>
       </c>
       <c r="E60" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F60">
-        <v>139</v>
+        <v>15</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1789,10 +1789,10 @@
         <v>51</v>
       </c>
       <c r="E61" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F61">
-        <v>133</v>
+        <v>139</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1809,10 +1809,10 @@
         <v>51</v>
       </c>
       <c r="E62" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F62">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1829,10 +1829,10 @@
         <v>51</v>
       </c>
       <c r="E63" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F63">
-        <v>1</v>
+        <v>129</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1852,7 +1852,7 @@
         <v>60</v>
       </c>
       <c r="F64">
-        <v>130</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1872,7 +1872,7 @@
         <v>61</v>
       </c>
       <c r="F65">
-        <v>7</v>
+        <v>130</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1880,7 +1880,7 @@
         <v>6</v>
       </c>
       <c r="B66" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C66">
         <v>2025</v>
@@ -1889,10 +1889,10 @@
         <v>51</v>
       </c>
       <c r="E66" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="F66">
-        <v>90</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1909,10 +1909,10 @@
         <v>51</v>
       </c>
       <c r="E67" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F67">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1929,10 +1929,10 @@
         <v>51</v>
       </c>
       <c r="E68" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F68">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1949,10 +1949,10 @@
         <v>51</v>
       </c>
       <c r="E69" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F69">
-        <v>5</v>
+        <v>90</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1969,10 +1969,10 @@
         <v>51</v>
       </c>
       <c r="E70" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F70">
-        <v>91</v>
+        <v>5</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1989,10 +1989,10 @@
         <v>51</v>
       </c>
       <c r="E71" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F71">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2009,10 +2009,10 @@
         <v>51</v>
       </c>
       <c r="E72" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F72">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2029,10 +2029,10 @@
         <v>51</v>
       </c>
       <c r="E73" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F73">
-        <v>1</v>
+        <v>89</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2049,10 +2049,10 @@
         <v>51</v>
       </c>
       <c r="E74" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F74">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2069,10 +2069,10 @@
         <v>51</v>
       </c>
       <c r="E75" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F75">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2080,7 +2080,7 @@
         <v>6</v>
       </c>
       <c r="B76" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C76">
         <v>2025</v>
@@ -2089,10 +2089,10 @@
         <v>51</v>
       </c>
       <c r="E76" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="F76">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2100,7 +2100,7 @@
         <v>6</v>
       </c>
       <c r="B77" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C77">
         <v>2025</v>
@@ -2109,10 +2109,10 @@
         <v>51</v>
       </c>
       <c r="E77" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="F77">
-        <v>97</v>
+        <v>5</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2129,10 +2129,10 @@
         <v>51</v>
       </c>
       <c r="E78" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F78">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2149,10 +2149,10 @@
         <v>51</v>
       </c>
       <c r="E79" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F79">
-        <v>5</v>
+        <v>97</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2169,10 +2169,10 @@
         <v>51</v>
       </c>
       <c r="E80" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F80">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2189,10 +2189,10 @@
         <v>51</v>
       </c>
       <c r="E81" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F81">
-        <v>99</v>
+        <v>5</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2209,10 +2209,10 @@
         <v>51</v>
       </c>
       <c r="E82" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F82">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2229,7 +2229,7 @@
         <v>51</v>
       </c>
       <c r="E83" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F83">
         <v>99</v>
@@ -2249,10 +2249,10 @@
         <v>51</v>
       </c>
       <c r="E84" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F84">
-        <v>1</v>
+        <v>99</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2269,10 +2269,10 @@
         <v>51</v>
       </c>
       <c r="E85" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F85">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2289,10 +2289,10 @@
         <v>51</v>
       </c>
       <c r="E86" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F86">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2300,7 +2300,7 @@
         <v>6</v>
       </c>
       <c r="B87" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C87">
         <v>2025</v>
@@ -2309,10 +2309,10 @@
         <v>51</v>
       </c>
       <c r="E87" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="F87">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2320,7 +2320,7 @@
         <v>6</v>
       </c>
       <c r="B88" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C88">
         <v>2025</v>
@@ -2329,10 +2329,10 @@
         <v>51</v>
       </c>
       <c r="E88" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="F88">
-        <v>81</v>
+        <v>5</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2349,10 +2349,10 @@
         <v>51</v>
       </c>
       <c r="E89" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F89">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2369,10 +2369,10 @@
         <v>51</v>
       </c>
       <c r="E90" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F90">
-        <v>4</v>
+        <v>81</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2389,10 +2389,10 @@
         <v>51</v>
       </c>
       <c r="E91" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F91">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2409,10 +2409,10 @@
         <v>51</v>
       </c>
       <c r="E92" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F92">
-        <v>81</v>
+        <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2429,10 +2429,10 @@
         <v>51</v>
       </c>
       <c r="E93" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F93">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2449,10 +2449,10 @@
         <v>51</v>
       </c>
       <c r="E94" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F94">
-        <v>1</v>
+        <v>81</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2469,10 +2469,10 @@
         <v>51</v>
       </c>
       <c r="E95" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F95">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2489,10 +2489,10 @@
         <v>51</v>
       </c>
       <c r="E96" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F96">
-        <v>4</v>
+        <v>82</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2500,7 +2500,7 @@
         <v>6</v>
       </c>
       <c r="B97" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C97">
         <v>2025</v>
@@ -2509,10 +2509,10 @@
         <v>51</v>
       </c>
       <c r="E97" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="F97">
-        <v>168</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2520,7 +2520,7 @@
         <v>6</v>
       </c>
       <c r="B98" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C98">
         <v>2025</v>
@@ -2529,10 +2529,10 @@
         <v>51</v>
       </c>
       <c r="E98" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="F98">
-        <v>173</v>
+        <v>81</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2540,7 +2540,7 @@
         <v>6</v>
       </c>
       <c r="B99" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C99">
         <v>2025</v>
@@ -2549,10 +2549,10 @@
         <v>51</v>
       </c>
       <c r="E99" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F99">
-        <v>165</v>
+        <v>4</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2569,10 +2569,10 @@
         <v>51</v>
       </c>
       <c r="E100" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F100">
-        <v>9</v>
+        <v>168</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2589,10 +2589,10 @@
         <v>51</v>
       </c>
       <c r="E101" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F101">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2609,10 +2609,10 @@
         <v>51</v>
       </c>
       <c r="E102" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F102">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2629,10 +2629,10 @@
         <v>51</v>
       </c>
       <c r="E103" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F103">
-        <v>171</v>
+        <v>9</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2649,10 +2649,10 @@
         <v>51</v>
       </c>
       <c r="E104" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F104">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2669,10 +2669,10 @@
         <v>51</v>
       </c>
       <c r="E105" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F105">
-        <v>1</v>
+        <v>171</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2689,10 +2689,10 @@
         <v>51</v>
       </c>
       <c r="E106" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F106">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2709,10 +2709,10 @@
         <v>51</v>
       </c>
       <c r="E107" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F107">
-        <v>8</v>
+        <v>170</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2720,7 +2720,7 @@
         <v>6</v>
       </c>
       <c r="B108" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C108">
         <v>2025</v>
@@ -2729,10 +2729,10 @@
         <v>51</v>
       </c>
       <c r="E108" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="F108">
-        <v>57</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2740,7 +2740,7 @@
         <v>6</v>
       </c>
       <c r="B109" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C109">
         <v>2025</v>
@@ -2749,10 +2749,10 @@
         <v>51</v>
       </c>
       <c r="E109" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="F109">
-        <v>58</v>
+        <v>172</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2760,7 +2760,7 @@
         <v>6</v>
       </c>
       <c r="B110" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C110">
         <v>2025</v>
@@ -2769,10 +2769,10 @@
         <v>51</v>
       </c>
       <c r="E110" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F110">
-        <v>57</v>
+        <v>8</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2789,10 +2789,10 @@
         <v>51</v>
       </c>
       <c r="E111" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F111">
-        <v>3</v>
+        <v>57</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2809,10 +2809,10 @@
         <v>51</v>
       </c>
       <c r="E112" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="F112">
-        <v>3</v>
+        <v>58</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2829,7 +2829,7 @@
         <v>51</v>
       </c>
       <c r="E113" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F113">
         <v>57</v>
@@ -2849,10 +2849,10 @@
         <v>51</v>
       </c>
       <c r="E114" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F114">
-        <v>57</v>
+        <v>3</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2869,10 +2869,10 @@
         <v>51</v>
       </c>
       <c r="E115" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F115">
-        <v>56</v>
+        <v>3</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2889,10 +2889,10 @@
         <v>51</v>
       </c>
       <c r="E116" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F116">
-        <v>1</v>
+        <v>57</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2909,7 +2909,7 @@
         <v>51</v>
       </c>
       <c r="E117" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F117">
         <v>57</v>
@@ -2929,10 +2929,10 @@
         <v>51</v>
       </c>
       <c r="E118" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F118">
-        <v>1</v>
+        <v>56</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2940,7 +2940,7 @@
         <v>6</v>
       </c>
       <c r="B119" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C119">
         <v>2025</v>
@@ -2949,10 +2949,10 @@
         <v>51</v>
       </c>
       <c r="E119" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="F119">
-        <v>38</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2960,7 +2960,7 @@
         <v>6</v>
       </c>
       <c r="B120" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C120">
         <v>2025</v>
@@ -2969,10 +2969,10 @@
         <v>51</v>
       </c>
       <c r="E120" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="F120">
-        <v>39</v>
+        <v>57</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2980,7 +2980,7 @@
         <v>6</v>
       </c>
       <c r="B121" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C121">
         <v>2025</v>
@@ -2989,10 +2989,10 @@
         <v>51</v>
       </c>
       <c r="E121" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F121">
-        <v>38</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3009,10 +3009,10 @@
         <v>51</v>
       </c>
       <c r="E122" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F122">
-        <v>2</v>
+        <v>38</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3029,10 +3029,10 @@
         <v>51</v>
       </c>
       <c r="E123" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="F123">
-        <v>2</v>
+        <v>39</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3049,10 +3049,10 @@
         <v>51</v>
       </c>
       <c r="E124" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F124">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3069,10 +3069,10 @@
         <v>51</v>
       </c>
       <c r="E125" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F125">
-        <v>39</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3089,10 +3089,10 @@
         <v>51</v>
       </c>
       <c r="E126" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F126">
-        <v>39</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3109,10 +3109,10 @@
         <v>51</v>
       </c>
       <c r="E127" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F127">
-        <v>1</v>
+        <v>39</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3129,7 +3129,7 @@
         <v>51</v>
       </c>
       <c r="E128" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F128">
         <v>39</v>
@@ -3149,10 +3149,10 @@
         <v>51</v>
       </c>
       <c r="E129" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F129">
-        <v>2</v>
+        <v>39</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3160,7 +3160,7 @@
         <v>6</v>
       </c>
       <c r="B130" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C130">
         <v>2025</v>
@@ -3169,10 +3169,10 @@
         <v>51</v>
       </c>
       <c r="E130" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="F130">
-        <v>95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3180,7 +3180,7 @@
         <v>6</v>
       </c>
       <c r="B131" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C131">
         <v>2025</v>
@@ -3189,10 +3189,10 @@
         <v>51</v>
       </c>
       <c r="E131" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="F131">
-        <v>95</v>
+        <v>39</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3200,7 +3200,7 @@
         <v>6</v>
       </c>
       <c r="B132" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C132">
         <v>2025</v>
@@ -3209,10 +3209,10 @@
         <v>51</v>
       </c>
       <c r="E132" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F132">
-        <v>95</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3229,10 +3229,10 @@
         <v>51</v>
       </c>
       <c r="E133" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F133">
-        <v>11</v>
+        <v>95</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3249,7 +3249,7 @@
         <v>51</v>
       </c>
       <c r="E134" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F134">
         <v>95</v>
@@ -3269,10 +3269,10 @@
         <v>51</v>
       </c>
       <c r="E135" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F135">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3289,10 +3289,10 @@
         <v>51</v>
       </c>
       <c r="E136" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F136">
-        <v>93</v>
+        <v>11</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3309,10 +3309,10 @@
         <v>51</v>
       </c>
       <c r="E137" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F137">
-        <v>1</v>
+        <v>95</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3329,10 +3329,10 @@
         <v>51</v>
       </c>
       <c r="E138" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F138">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3349,10 +3349,10 @@
         <v>51</v>
       </c>
       <c r="E139" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F139">
-        <v>5</v>
+        <v>93</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3360,7 +3360,7 @@
         <v>6</v>
       </c>
       <c r="B140" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C140">
         <v>2025</v>
@@ -3369,10 +3369,10 @@
         <v>51</v>
       </c>
       <c r="E140" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="F140">
-        <v>72</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3380,7 +3380,7 @@
         <v>6</v>
       </c>
       <c r="B141" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C141">
         <v>2025</v>
@@ -3389,10 +3389,10 @@
         <v>51</v>
       </c>
       <c r="E141" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="F141">
-        <v>73</v>
+        <v>95</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3400,7 +3400,7 @@
         <v>6</v>
       </c>
       <c r="B142" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C142">
         <v>2025</v>
@@ -3409,10 +3409,10 @@
         <v>51</v>
       </c>
       <c r="E142" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F142">
-        <v>72</v>
+        <v>5</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3429,10 +3429,10 @@
         <v>51</v>
       </c>
       <c r="E143" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F143">
-        <v>4</v>
+        <v>72</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3449,10 +3449,10 @@
         <v>51</v>
       </c>
       <c r="E144" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F144">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3469,10 +3469,10 @@
         <v>51</v>
       </c>
       <c r="E145" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F145">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3489,10 +3489,10 @@
         <v>51</v>
       </c>
       <c r="E146" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F146">
-        <v>72</v>
+        <v>4</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3509,10 +3509,10 @@
         <v>51</v>
       </c>
       <c r="E147" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F147">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3529,10 +3529,10 @@
         <v>51</v>
       </c>
       <c r="E148" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F148">
-        <v>1</v>
+        <v>73</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3549,10 +3549,10 @@
         <v>51</v>
       </c>
       <c r="E149" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F149">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3569,10 +3569,10 @@
         <v>51</v>
       </c>
       <c r="E150" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F150">
-        <v>4</v>
+        <v>73</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3580,7 +3580,7 @@
         <v>6</v>
       </c>
       <c r="B151" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C151">
         <v>2025</v>
@@ -3589,10 +3589,10 @@
         <v>51</v>
       </c>
       <c r="E151" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="F151">
-        <v>41</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -3600,7 +3600,7 @@
         <v>6</v>
       </c>
       <c r="B152" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C152">
         <v>2025</v>
@@ -3609,10 +3609,10 @@
         <v>51</v>
       </c>
       <c r="E152" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="F152">
-        <v>39</v>
+        <v>71</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3620,7 +3620,7 @@
         <v>6</v>
       </c>
       <c r="B153" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C153">
         <v>2025</v>
@@ -3629,10 +3629,10 @@
         <v>51</v>
       </c>
       <c r="E153" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F153">
-        <v>39</v>
+        <v>4</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3649,10 +3649,10 @@
         <v>51</v>
       </c>
       <c r="E154" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F154">
-        <v>1</v>
+        <v>41</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3669,7 +3669,7 @@
         <v>51</v>
       </c>
       <c r="E155" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F155">
         <v>39</v>
@@ -3689,10 +3689,10 @@
         <v>51</v>
       </c>
       <c r="E156" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F156">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3709,10 +3709,10 @@
         <v>51</v>
       </c>
       <c r="E157" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F157">
-        <v>40</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3729,10 +3729,10 @@
         <v>51</v>
       </c>
       <c r="E158" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F158">
-        <v>1</v>
+        <v>39</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3749,10 +3749,10 @@
         <v>51</v>
       </c>
       <c r="E159" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F159">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3769,10 +3769,10 @@
         <v>51</v>
       </c>
       <c r="E160" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F160">
-        <v>2</v>
+        <v>40</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3780,7 +3780,7 @@
         <v>6</v>
       </c>
       <c r="B161" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C161">
         <v>2025</v>
@@ -3789,10 +3789,10 @@
         <v>51</v>
       </c>
       <c r="E161" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="F161">
-        <v>55</v>
+        <v>39</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3800,7 +3800,7 @@
         <v>6</v>
       </c>
       <c r="B162" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C162">
         <v>2025</v>
@@ -3809,10 +3809,10 @@
         <v>51</v>
       </c>
       <c r="E162" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="F162">
-        <v>51</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3820,7 +3820,7 @@
         <v>6</v>
       </c>
       <c r="B163" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C163">
         <v>2025</v>
@@ -3829,10 +3829,10 @@
         <v>51</v>
       </c>
       <c r="E163" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F163">
-        <v>50</v>
+        <v>39</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3840,7 +3840,7 @@
         <v>6</v>
       </c>
       <c r="B164" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C164">
         <v>2025</v>
@@ -3849,10 +3849,10 @@
         <v>51</v>
       </c>
       <c r="E164" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="F164">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -3869,10 +3869,10 @@
         <v>51</v>
       </c>
       <c r="E165" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F165">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -3889,10 +3889,10 @@
         <v>51</v>
       </c>
       <c r="E166" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F166">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -3909,10 +3909,10 @@
         <v>51</v>
       </c>
       <c r="E167" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F167">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -3929,10 +3929,10 @@
         <v>51</v>
       </c>
       <c r="E168" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F168">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -3949,10 +3949,10 @@
         <v>51</v>
       </c>
       <c r="E169" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F169">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -3969,10 +3969,10 @@
         <v>51</v>
       </c>
       <c r="E170" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F170">
-        <v>2</v>
+        <v>52</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -3980,7 +3980,7 @@
         <v>6</v>
       </c>
       <c r="B171" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C171">
         <v>2025</v>
@@ -3989,10 +3989,10 @@
         <v>51</v>
       </c>
       <c r="E171" t="s">
+        <v>58</v>
+      </c>
+      <c r="F171">
         <v>52</v>
-      </c>
-      <c r="F171">
-        <v>59</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4000,7 +4000,7 @@
         <v>6</v>
       </c>
       <c r="B172" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C172">
         <v>2025</v>
@@ -4009,10 +4009,10 @@
         <v>51</v>
       </c>
       <c r="E172" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="F172">
-        <v>61</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4020,7 +4020,7 @@
         <v>6</v>
       </c>
       <c r="B173" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C173">
         <v>2025</v>
@@ -4029,10 +4029,10 @@
         <v>51</v>
       </c>
       <c r="E173" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F173">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4040,7 +4040,7 @@
         <v>6</v>
       </c>
       <c r="B174" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C174">
         <v>2025</v>
@@ -4049,10 +4049,10 @@
         <v>51</v>
       </c>
       <c r="E174" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="F174">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4069,10 +4069,10 @@
         <v>51</v>
       </c>
       <c r="E175" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="F175">
-        <v>3</v>
+        <v>59</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4089,10 +4089,10 @@
         <v>51</v>
       </c>
       <c r="E176" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F176">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4109,10 +4109,10 @@
         <v>51</v>
       </c>
       <c r="E177" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F177">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4129,10 +4129,10 @@
         <v>51</v>
       </c>
       <c r="E178" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F178">
-        <v>60</v>
+        <v>3</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4149,10 +4149,10 @@
         <v>51</v>
       </c>
       <c r="E179" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F179">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4169,7 +4169,7 @@
         <v>51</v>
       </c>
       <c r="E180" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F180">
         <v>60</v>
@@ -4189,10 +4189,10 @@
         <v>51</v>
       </c>
       <c r="E181" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F181">
-        <v>3</v>
+        <v>56</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4200,7 +4200,7 @@
         <v>6</v>
       </c>
       <c r="B182" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C182">
         <v>2025</v>
@@ -4209,10 +4209,10 @@
         <v>51</v>
       </c>
       <c r="E182" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F182">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4220,7 +4220,7 @@
         <v>6</v>
       </c>
       <c r="B183" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C183">
         <v>2025</v>
@@ -4229,10 +4229,10 @@
         <v>51</v>
       </c>
       <c r="E183" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="F183">
-        <v>63</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4240,7 +4240,7 @@
         <v>6</v>
       </c>
       <c r="B184" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C184">
         <v>2025</v>
@@ -4249,10 +4249,10 @@
         <v>51</v>
       </c>
       <c r="E184" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F184">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4260,7 +4260,7 @@
         <v>6</v>
       </c>
       <c r="B185" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C185">
         <v>2025</v>
@@ -4269,7 +4269,7 @@
         <v>51</v>
       </c>
       <c r="E185" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="F185">
         <v>3</v>
@@ -4289,7 +4289,7 @@
         <v>51</v>
       </c>
       <c r="E186" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F186">
         <v>63</v>
@@ -4309,7 +4309,7 @@
         <v>51</v>
       </c>
       <c r="E187" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F187">
         <v>63</v>
@@ -4329,7 +4329,7 @@
         <v>51</v>
       </c>
       <c r="E188" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F188">
         <v>61</v>
@@ -4349,10 +4349,10 @@
         <v>51</v>
       </c>
       <c r="E189" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F189">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4369,10 +4369,10 @@
         <v>51</v>
       </c>
       <c r="E190" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F190">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4389,10 +4389,10 @@
         <v>51</v>
       </c>
       <c r="E191" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F191">
-        <v>3</v>
+        <v>63</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4400,7 +4400,7 @@
         <v>6</v>
       </c>
       <c r="B192" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C192">
         <v>2025</v>
@@ -4409,10 +4409,10 @@
         <v>51</v>
       </c>
       <c r="E192" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F192">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -4420,7 +4420,7 @@
         <v>6</v>
       </c>
       <c r="B193" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C193">
         <v>2025</v>
@@ -4429,10 +4429,10 @@
         <v>51</v>
       </c>
       <c r="E193" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="F193">
-        <v>55</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -4440,7 +4440,7 @@
         <v>6</v>
       </c>
       <c r="B194" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C194">
         <v>2025</v>
@@ -4449,10 +4449,10 @@
         <v>51</v>
       </c>
       <c r="E194" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F194">
-        <v>55</v>
+        <v>62</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -4460,7 +4460,7 @@
         <v>6</v>
       </c>
       <c r="B195" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C195">
         <v>2025</v>
@@ -4469,10 +4469,10 @@
         <v>51</v>
       </c>
       <c r="E195" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="F195">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -4489,10 +4489,10 @@
         <v>51</v>
       </c>
       <c r="E196" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F196">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -4509,10 +4509,10 @@
         <v>51</v>
       </c>
       <c r="E197" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F197">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -4529,10 +4529,10 @@
         <v>51</v>
       </c>
       <c r="E198" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F198">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -4549,10 +4549,10 @@
         <v>51</v>
       </c>
       <c r="E199" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="F199">
-        <v>57</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -4569,10 +4569,10 @@
         <v>51</v>
       </c>
       <c r="E200" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F200">
-        <v>1</v>
+        <v>56</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -4589,10 +4589,10 @@
         <v>51</v>
       </c>
       <c r="E201" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F201">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -4609,10 +4609,10 @@
         <v>51</v>
       </c>
       <c r="E202" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F202">
-        <v>3</v>
+        <v>57</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -4620,7 +4620,7 @@
         <v>6</v>
       </c>
       <c r="B203" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C203">
         <v>2025</v>
@@ -4629,10 +4629,10 @@
         <v>51</v>
       </c>
       <c r="E203" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="F203">
-        <v>49</v>
+        <v>57</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -4640,7 +4640,7 @@
         <v>6</v>
       </c>
       <c r="B204" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C204">
         <v>2025</v>
@@ -4649,10 +4649,10 @@
         <v>51</v>
       </c>
       <c r="E204" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="F204">
-        <v>49</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -4660,7 +4660,7 @@
         <v>6</v>
       </c>
       <c r="B205" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C205">
         <v>2025</v>
@@ -4669,10 +4669,10 @@
         <v>51</v>
       </c>
       <c r="E205" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F205">
-        <v>49</v>
+        <v>58</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -4680,7 +4680,7 @@
         <v>6</v>
       </c>
       <c r="B206" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C206">
         <v>2025</v>
@@ -4689,7 +4689,7 @@
         <v>51</v>
       </c>
       <c r="E206" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="F206">
         <v>3</v>
@@ -4709,10 +4709,10 @@
         <v>51</v>
       </c>
       <c r="E207" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="F207">
-        <v>3</v>
+        <v>49</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -4729,10 +4729,10 @@
         <v>51</v>
       </c>
       <c r="E208" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F208">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -4749,7 +4749,7 @@
         <v>51</v>
       </c>
       <c r="E209" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F209">
         <v>49</v>
@@ -4769,10 +4769,10 @@
         <v>51</v>
       </c>
       <c r="E210" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F210">
-        <v>49</v>
+        <v>3</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -4789,10 +4789,10 @@
         <v>51</v>
       </c>
       <c r="E211" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F211">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -4809,10 +4809,10 @@
         <v>51</v>
       </c>
       <c r="E212" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F212">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -4829,10 +4829,10 @@
         <v>51</v>
       </c>
       <c r="E213" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F213">
-        <v>3</v>
+        <v>49</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -4840,7 +4840,7 @@
         <v>6</v>
       </c>
       <c r="B214" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C214">
         <v>2025</v>
@@ -4849,10 +4849,10 @@
         <v>51</v>
       </c>
       <c r="E214" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F214">
-        <v>61</v>
+        <v>49</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -4860,7 +4860,7 @@
         <v>6</v>
       </c>
       <c r="B215" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C215">
         <v>2025</v>
@@ -4869,10 +4869,10 @@
         <v>51</v>
       </c>
       <c r="E215" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="F215">
-        <v>61</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -4880,7 +4880,7 @@
         <v>6</v>
       </c>
       <c r="B216" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C216">
         <v>2025</v>
@@ -4889,10 +4889,10 @@
         <v>51</v>
       </c>
       <c r="E216" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F216">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -4900,7 +4900,7 @@
         <v>6</v>
       </c>
       <c r="B217" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C217">
         <v>2025</v>
@@ -4909,7 +4909,7 @@
         <v>51</v>
       </c>
       <c r="E217" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="F217">
         <v>3</v>
@@ -4929,10 +4929,10 @@
         <v>51</v>
       </c>
       <c r="E218" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="F218">
-        <v>3</v>
+        <v>61</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -4949,7 +4949,7 @@
         <v>51</v>
       </c>
       <c r="E219" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F219">
         <v>61</v>
@@ -4969,10 +4969,10 @@
         <v>51</v>
       </c>
       <c r="E220" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F220">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -4989,10 +4989,10 @@
         <v>51</v>
       </c>
       <c r="E221" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F221">
-        <v>59</v>
+        <v>3</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5009,10 +5009,10 @@
         <v>51</v>
       </c>
       <c r="E222" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F222">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5029,7 +5029,7 @@
         <v>51</v>
       </c>
       <c r="E223" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F223">
         <v>61</v>
@@ -5049,10 +5049,10 @@
         <v>51</v>
       </c>
       <c r="E224" t="s">
+        <v>57</v>
+      </c>
+      <c r="F224">
         <v>61</v>
-      </c>
-      <c r="F224">
-        <v>3</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5060,7 +5060,7 @@
         <v>6</v>
       </c>
       <c r="B225" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C225">
         <v>2025</v>
@@ -5069,10 +5069,10 @@
         <v>51</v>
       </c>
       <c r="E225" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F225">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5080,7 +5080,7 @@
         <v>6</v>
       </c>
       <c r="B226" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C226">
         <v>2025</v>
@@ -5089,10 +5089,10 @@
         <v>51</v>
       </c>
       <c r="E226" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="F226">
-        <v>56</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5100,7 +5100,7 @@
         <v>6</v>
       </c>
       <c r="B227" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C227">
         <v>2025</v>
@@ -5109,10 +5109,10 @@
         <v>51</v>
       </c>
       <c r="E227" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F227">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5120,7 +5120,7 @@
         <v>6</v>
       </c>
       <c r="B228" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C228">
         <v>2025</v>
@@ -5129,10 +5129,10 @@
         <v>51</v>
       </c>
       <c r="E228" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="F228">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5149,7 +5149,7 @@
         <v>51</v>
       </c>
       <c r="E229" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F229">
         <v>56</v>
@@ -5169,10 +5169,10 @@
         <v>51</v>
       </c>
       <c r="E230" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F230">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5189,10 +5189,10 @@
         <v>51</v>
       </c>
       <c r="E231" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F231">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5209,10 +5209,10 @@
         <v>51</v>
       </c>
       <c r="E232" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F232">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5229,7 +5229,7 @@
         <v>51</v>
       </c>
       <c r="E233" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F233">
         <v>56</v>
@@ -5249,10 +5249,10 @@
         <v>51</v>
       </c>
       <c r="E234" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F234">
-        <v>3</v>
+        <v>55</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5260,7 +5260,7 @@
         <v>6</v>
       </c>
       <c r="B235" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C235">
         <v>2025</v>
@@ -5269,10 +5269,10 @@
         <v>51</v>
       </c>
       <c r="E235" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F235">
-        <v>105</v>
+        <v>54</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5280,7 +5280,7 @@
         <v>6</v>
       </c>
       <c r="B236" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C236">
         <v>2025</v>
@@ -5289,10 +5289,10 @@
         <v>51</v>
       </c>
       <c r="E236" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F236">
-        <v>107</v>
+        <v>57</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5300,7 +5300,7 @@
         <v>6</v>
       </c>
       <c r="B237" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C237">
         <v>2025</v>
@@ -5309,10 +5309,10 @@
         <v>51</v>
       </c>
       <c r="E237" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F237">
-        <v>106</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5320,7 +5320,7 @@
         <v>6</v>
       </c>
       <c r="B238" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C238">
         <v>2025</v>
@@ -5329,10 +5329,10 @@
         <v>51</v>
       </c>
       <c r="E238" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F238">
-        <v>1</v>
+        <v>56</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5340,7 +5340,7 @@
         <v>6</v>
       </c>
       <c r="B239" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C239">
         <v>2025</v>
@@ -5349,10 +5349,10 @@
         <v>51</v>
       </c>
       <c r="E239" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="F239">
-        <v>107</v>
+        <v>3</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5369,10 +5369,10 @@
         <v>51</v>
       </c>
       <c r="E240" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F240">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5389,10 +5389,10 @@
         <v>51</v>
       </c>
       <c r="E241" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F241">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5409,10 +5409,10 @@
         <v>51</v>
       </c>
       <c r="E242" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F242">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -5429,7 +5429,7 @@
         <v>51</v>
       </c>
       <c r="E243" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F243">
         <v>1</v>
@@ -5449,10 +5449,10 @@
         <v>51</v>
       </c>
       <c r="E244" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F244">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -5469,10 +5469,10 @@
         <v>51</v>
       </c>
       <c r="E245" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F245">
-        <v>5</v>
+        <v>107</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -5480,7 +5480,7 @@
         <v>6</v>
       </c>
       <c r="B246" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C246">
         <v>2025</v>
@@ -5489,10 +5489,10 @@
         <v>51</v>
       </c>
       <c r="E246" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F246">
-        <v>68</v>
+        <v>106</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -5500,7 +5500,7 @@
         <v>6</v>
       </c>
       <c r="B247" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C247">
         <v>2025</v>
@@ -5509,10 +5509,10 @@
         <v>51</v>
       </c>
       <c r="E247" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F247">
-        <v>69</v>
+        <v>105</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -5520,7 +5520,7 @@
         <v>6</v>
       </c>
       <c r="B248" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C248">
         <v>2025</v>
@@ -5529,10 +5529,10 @@
         <v>51</v>
       </c>
       <c r="E248" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F248">
-        <v>69</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -5540,7 +5540,7 @@
         <v>6</v>
       </c>
       <c r="B249" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C249">
         <v>2025</v>
@@ -5549,10 +5549,10 @@
         <v>51</v>
       </c>
       <c r="E249" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F249">
-        <v>4</v>
+        <v>106</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -5560,7 +5560,7 @@
         <v>6</v>
       </c>
       <c r="B250" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C250">
         <v>2025</v>
@@ -5569,10 +5569,10 @@
         <v>51</v>
       </c>
       <c r="E250" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="F250">
-        <v>69</v>
+        <v>5</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -5589,7 +5589,7 @@
         <v>51</v>
       </c>
       <c r="E251" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F251">
         <v>68</v>
@@ -5609,10 +5609,10 @@
         <v>51</v>
       </c>
       <c r="E252" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F252">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -5629,10 +5629,10 @@
         <v>51</v>
       </c>
       <c r="E253" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F253">
-        <v>1</v>
+        <v>69</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -5649,10 +5649,10 @@
         <v>51</v>
       </c>
       <c r="E254" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F254">
-        <v>67</v>
+        <v>4</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -5669,10 +5669,10 @@
         <v>51</v>
       </c>
       <c r="E255" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F255">
-        <v>4</v>
+        <v>69</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -5680,7 +5680,7 @@
         <v>6</v>
       </c>
       <c r="B256" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C256">
         <v>2025</v>
@@ -5689,10 +5689,10 @@
         <v>51</v>
       </c>
       <c r="E256" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F256">
-        <v>117</v>
+        <v>68</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -5700,7 +5700,7 @@
         <v>6</v>
       </c>
       <c r="B257" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C257">
         <v>2025</v>
@@ -5709,10 +5709,10 @@
         <v>51</v>
       </c>
       <c r="E257" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F257">
-        <v>119</v>
+        <v>70</v>
       </c>
     </row>
     <row r="258" spans="1:6">
@@ -5720,7 +5720,7 @@
         <v>6</v>
       </c>
       <c r="B258" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C258">
         <v>2025</v>
@@ -5729,10 +5729,10 @@
         <v>51</v>
       </c>
       <c r="E258" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F258">
-        <v>119</v>
+        <v>68</v>
       </c>
     </row>
     <row r="259" spans="1:6">
@@ -5740,7 +5740,7 @@
         <v>6</v>
       </c>
       <c r="B259" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C259">
         <v>2025</v>
@@ -5749,10 +5749,10 @@
         <v>51</v>
       </c>
       <c r="E259" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F259">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260" spans="1:6">
@@ -5760,7 +5760,7 @@
         <v>6</v>
       </c>
       <c r="B260" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C260">
         <v>2025</v>
@@ -5769,10 +5769,10 @@
         <v>51</v>
       </c>
       <c r="E260" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F260">
-        <v>118</v>
+        <v>67</v>
       </c>
     </row>
     <row r="261" spans="1:6">
@@ -5780,7 +5780,7 @@
         <v>6</v>
       </c>
       <c r="B261" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C261">
         <v>2025</v>
@@ -5789,10 +5789,10 @@
         <v>51</v>
       </c>
       <c r="E261" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F261">
-        <v>118</v>
+        <v>4</v>
       </c>
     </row>
     <row r="262" spans="1:6">
@@ -5809,10 +5809,10 @@
         <v>51</v>
       </c>
       <c r="E262" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F262">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="263" spans="1:6">
@@ -5829,10 +5829,10 @@
         <v>51</v>
       </c>
       <c r="E263" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="F263">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="264" spans="1:6">
@@ -5849,10 +5849,10 @@
         <v>51</v>
       </c>
       <c r="E264" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F264">
-        <v>1</v>
+        <v>119</v>
       </c>
     </row>
     <row r="265" spans="1:6">
@@ -5869,10 +5869,10 @@
         <v>51</v>
       </c>
       <c r="E265" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F265">
-        <v>118</v>
+        <v>6</v>
       </c>
     </row>
     <row r="266" spans="1:6">
@@ -5889,10 +5889,10 @@
         <v>51</v>
       </c>
       <c r="E266" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F266">
-        <v>6</v>
+        <v>118</v>
       </c>
     </row>
     <row r="267" spans="1:6">
@@ -5900,7 +5900,7 @@
         <v>6</v>
       </c>
       <c r="B267" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C267">
         <v>2025</v>
@@ -5909,10 +5909,10 @@
         <v>51</v>
       </c>
       <c r="E267" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F267">
-        <v>56</v>
+        <v>118</v>
       </c>
     </row>
     <row r="268" spans="1:6">
@@ -5920,7 +5920,7 @@
         <v>6</v>
       </c>
       <c r="B268" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C268">
         <v>2025</v>
@@ -5929,10 +5929,10 @@
         <v>51</v>
       </c>
       <c r="E268" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F268">
-        <v>53</v>
+        <v>119</v>
       </c>
     </row>
     <row r="269" spans="1:6">
@@ -5940,7 +5940,7 @@
         <v>6</v>
       </c>
       <c r="B269" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C269">
         <v>2025</v>
@@ -5949,10 +5949,10 @@
         <v>51</v>
       </c>
       <c r="E269" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F269">
-        <v>54</v>
+        <v>117</v>
       </c>
     </row>
     <row r="270" spans="1:6">
@@ -5960,7 +5960,7 @@
         <v>6</v>
       </c>
       <c r="B270" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C270">
         <v>2025</v>
@@ -5969,10 +5969,10 @@
         <v>51</v>
       </c>
       <c r="E270" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F270">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271" spans="1:6">
@@ -5980,7 +5980,7 @@
         <v>6</v>
       </c>
       <c r="B271" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C271">
         <v>2025</v>
@@ -5989,10 +5989,10 @@
         <v>51</v>
       </c>
       <c r="E271" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F271">
-        <v>53</v>
+        <v>118</v>
       </c>
     </row>
     <row r="272" spans="1:6">
@@ -6000,7 +6000,7 @@
         <v>6</v>
       </c>
       <c r="B272" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C272">
         <v>2025</v>
@@ -6009,10 +6009,10 @@
         <v>51</v>
       </c>
       <c r="E272" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F272">
-        <v>55</v>
+        <v>6</v>
       </c>
     </row>
     <row r="273" spans="1:6">
@@ -6029,10 +6029,10 @@
         <v>51</v>
       </c>
       <c r="E273" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F273">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="274" spans="1:6">
@@ -6049,7 +6049,7 @@
         <v>51</v>
       </c>
       <c r="E274" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="F274">
         <v>53</v>
@@ -6069,10 +6069,10 @@
         <v>51</v>
       </c>
       <c r="E275" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F275">
-        <v>1</v>
+        <v>54</v>
       </c>
     </row>
     <row r="276" spans="1:6">
@@ -6089,10 +6089,10 @@
         <v>51</v>
       </c>
       <c r="E276" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F276">
-        <v>53</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:6">
@@ -6109,18 +6109,18 @@
         <v>51</v>
       </c>
       <c r="E277" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F277">
-        <v>3</v>
+        <v>53</v>
       </c>
     </row>
     <row r="278" spans="1:6">
       <c r="A278" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B278" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C278">
         <v>2025</v>
@@ -6129,18 +6129,18 @@
         <v>51</v>
       </c>
       <c r="E278" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F278">
-        <v>75</v>
+        <v>55</v>
       </c>
     </row>
     <row r="279" spans="1:6">
       <c r="A279" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B279" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C279">
         <v>2025</v>
@@ -6149,18 +6149,18 @@
         <v>51</v>
       </c>
       <c r="E279" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F279">
-        <v>77</v>
+        <v>54</v>
       </c>
     </row>
     <row r="280" spans="1:6">
       <c r="A280" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B280" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C280">
         <v>2025</v>
@@ -6169,18 +6169,18 @@
         <v>51</v>
       </c>
       <c r="E280" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F280">
-        <v>75</v>
+        <v>53</v>
       </c>
     </row>
     <row r="281" spans="1:6">
       <c r="A281" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B281" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C281">
         <v>2025</v>
@@ -6189,18 +6189,18 @@
         <v>51</v>
       </c>
       <c r="E281" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F281">
-        <v>77</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282" spans="1:6">
       <c r="A282" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B282" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C282">
         <v>2025</v>
@@ -6209,18 +6209,18 @@
         <v>51</v>
       </c>
       <c r="E282" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F282">
-        <v>4</v>
+        <v>53</v>
       </c>
     </row>
     <row r="283" spans="1:6">
       <c r="A283" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B283" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C283">
         <v>2025</v>
@@ -6229,10 +6229,10 @@
         <v>51</v>
       </c>
       <c r="E283" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="F283">
-        <v>75</v>
+        <v>3</v>
       </c>
     </row>
     <row r="284" spans="1:6">
@@ -6249,10 +6249,10 @@
         <v>51</v>
       </c>
       <c r="E284" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F284">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="285" spans="1:6">
@@ -6269,7 +6269,7 @@
         <v>51</v>
       </c>
       <c r="E285" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="F285">
         <v>77</v>
@@ -6289,10 +6289,10 @@
         <v>51</v>
       </c>
       <c r="E286" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="F286">
-        <v>14</v>
+        <v>75</v>
       </c>
     </row>
     <row r="287" spans="1:6">
@@ -6309,10 +6309,10 @@
         <v>51</v>
       </c>
       <c r="E287" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F287">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="288" spans="1:6">
@@ -6329,7 +6329,7 @@
         <v>51</v>
       </c>
       <c r="E288" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F288">
         <v>4</v>
@@ -6340,7 +6340,7 @@
         <v>7</v>
       </c>
       <c r="B289" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C289">
         <v>2025</v>
@@ -6349,10 +6349,10 @@
         <v>51</v>
       </c>
       <c r="E289" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F289">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="290" spans="1:6">
@@ -6360,7 +6360,7 @@
         <v>7</v>
       </c>
       <c r="B290" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C290">
         <v>2025</v>
@@ -6369,10 +6369,10 @@
         <v>51</v>
       </c>
       <c r="E290" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F290">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="291" spans="1:6">
@@ -6380,7 +6380,7 @@
         <v>7</v>
       </c>
       <c r="B291" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C291">
         <v>2025</v>
@@ -6389,10 +6389,10 @@
         <v>51</v>
       </c>
       <c r="E291" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F291">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="292" spans="1:6">
@@ -6400,7 +6400,7 @@
         <v>7</v>
       </c>
       <c r="B292" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C292">
         <v>2025</v>
@@ -6409,10 +6409,10 @@
         <v>51</v>
       </c>
       <c r="E292" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F292">
-        <v>80</v>
+        <v>14</v>
       </c>
     </row>
     <row r="293" spans="1:6">
@@ -6420,7 +6420,7 @@
         <v>7</v>
       </c>
       <c r="B293" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C293">
         <v>2025</v>
@@ -6429,10 +6429,10 @@
         <v>51</v>
       </c>
       <c r="E293" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F293">
-        <v>5</v>
+        <v>80</v>
       </c>
     </row>
     <row r="294" spans="1:6">
@@ -6440,7 +6440,7 @@
         <v>7</v>
       </c>
       <c r="B294" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C294">
         <v>2025</v>
@@ -6449,10 +6449,10 @@
         <v>51</v>
       </c>
       <c r="E294" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="F294">
-        <v>77</v>
+        <v>4</v>
       </c>
     </row>
     <row r="295" spans="1:6">
@@ -6469,10 +6469,10 @@
         <v>51</v>
       </c>
       <c r="E295" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F295">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="296" spans="1:6">
@@ -6489,10 +6489,10 @@
         <v>51</v>
       </c>
       <c r="E296" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="F296">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="297" spans="1:6">
@@ -6509,10 +6509,10 @@
         <v>51</v>
       </c>
       <c r="E297" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="F297">
-        <v>19</v>
+        <v>75</v>
       </c>
     </row>
     <row r="298" spans="1:6">
@@ -6529,10 +6529,10 @@
         <v>51</v>
       </c>
       <c r="E298" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F298">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="299" spans="1:6">
@@ -6549,7 +6549,7 @@
         <v>51</v>
       </c>
       <c r="E299" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F299">
         <v>5</v>
@@ -6560,7 +6560,7 @@
         <v>7</v>
       </c>
       <c r="B300" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C300">
         <v>2025</v>
@@ -6569,10 +6569,10 @@
         <v>51</v>
       </c>
       <c r="E300" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F300">
-        <v>150</v>
+        <v>77</v>
       </c>
     </row>
     <row r="301" spans="1:6">
@@ -6580,7 +6580,7 @@
         <v>7</v>
       </c>
       <c r="B301" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C301">
         <v>2025</v>
@@ -6589,10 +6589,10 @@
         <v>51</v>
       </c>
       <c r="E301" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F301">
-        <v>142</v>
+        <v>72</v>
       </c>
     </row>
     <row r="302" spans="1:6">
@@ -6600,7 +6600,7 @@
         <v>7</v>
       </c>
       <c r="B302" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C302">
         <v>2025</v>
@@ -6609,10 +6609,10 @@
         <v>51</v>
       </c>
       <c r="E302" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F302">
-        <v>142</v>
+        <v>75</v>
       </c>
     </row>
     <row r="303" spans="1:6">
@@ -6620,7 +6620,7 @@
         <v>7</v>
       </c>
       <c r="B303" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C303">
         <v>2025</v>
@@ -6629,10 +6629,10 @@
         <v>51</v>
       </c>
       <c r="E303" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F303">
-        <v>150</v>
+        <v>19</v>
       </c>
     </row>
     <row r="304" spans="1:6">
@@ -6640,7 +6640,7 @@
         <v>7</v>
       </c>
       <c r="B304" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C304">
         <v>2025</v>
@@ -6649,10 +6649,10 @@
         <v>51</v>
       </c>
       <c r="E304" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F304">
-        <v>144</v>
+        <v>78</v>
       </c>
     </row>
     <row r="305" spans="1:6">
@@ -6660,7 +6660,7 @@
         <v>7</v>
       </c>
       <c r="B305" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C305">
         <v>2025</v>
@@ -6669,10 +6669,10 @@
         <v>51</v>
       </c>
       <c r="E305" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F305">
-        <v>150</v>
+        <v>5</v>
       </c>
     </row>
     <row r="306" spans="1:6">
@@ -6689,10 +6689,10 @@
         <v>51</v>
       </c>
       <c r="E306" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F306">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="307" spans="1:6">
@@ -6709,10 +6709,10 @@
         <v>51</v>
       </c>
       <c r="E307" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F307">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="308" spans="1:6">
@@ -6720,7 +6720,7 @@
         <v>7</v>
       </c>
       <c r="B308" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C308">
         <v>2025</v>
@@ -6729,10 +6729,10 @@
         <v>51</v>
       </c>
       <c r="E308" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F308">
-        <v>91</v>
+        <v>142</v>
       </c>
     </row>
     <row r="309" spans="1:6">
@@ -6740,7 +6740,7 @@
         <v>7</v>
       </c>
       <c r="B309" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C309">
         <v>2025</v>
@@ -6749,10 +6749,10 @@
         <v>51</v>
       </c>
       <c r="E309" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="F309">
-        <v>91</v>
+        <v>150</v>
       </c>
     </row>
     <row r="310" spans="1:6">
@@ -6760,7 +6760,7 @@
         <v>7</v>
       </c>
       <c r="B310" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C310">
         <v>2025</v>
@@ -6769,10 +6769,10 @@
         <v>51</v>
       </c>
       <c r="E310" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F310">
-        <v>93</v>
+        <v>144</v>
       </c>
     </row>
     <row r="311" spans="1:6">
@@ -6780,7 +6780,7 @@
         <v>7</v>
       </c>
       <c r="B311" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C311">
         <v>2025</v>
@@ -6789,10 +6789,10 @@
         <v>51</v>
       </c>
       <c r="E311" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="F311">
-        <v>94</v>
+        <v>150</v>
       </c>
     </row>
     <row r="312" spans="1:6">
@@ -6800,7 +6800,7 @@
         <v>7</v>
       </c>
       <c r="B312" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C312">
         <v>2025</v>
@@ -6809,10 +6809,10 @@
         <v>51</v>
       </c>
       <c r="E312" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F312">
-        <v>6</v>
+        <v>147</v>
       </c>
     </row>
     <row r="313" spans="1:6">
@@ -6820,7 +6820,7 @@
         <v>7</v>
       </c>
       <c r="B313" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C313">
         <v>2025</v>
@@ -6829,10 +6829,10 @@
         <v>51</v>
       </c>
       <c r="E313" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F313">
-        <v>95</v>
+        <v>146</v>
       </c>
     </row>
     <row r="314" spans="1:6">
@@ -6849,10 +6849,10 @@
         <v>51</v>
       </c>
       <c r="E314" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F314">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="315" spans="1:6">
@@ -6869,10 +6869,10 @@
         <v>51</v>
       </c>
       <c r="E315" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="F315">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="316" spans="1:6">
@@ -6889,10 +6889,10 @@
         <v>51</v>
       </c>
       <c r="E316" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F316">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="317" spans="1:6">
@@ -6909,10 +6909,10 @@
         <v>51</v>
       </c>
       <c r="E317" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F317">
-        <v>5</v>
+        <v>94</v>
       </c>
     </row>
     <row r="318" spans="1:6">
@@ -6920,7 +6920,7 @@
         <v>7</v>
       </c>
       <c r="B318" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C318">
         <v>2025</v>
@@ -6929,10 +6929,10 @@
         <v>51</v>
       </c>
       <c r="E318" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F318">
-        <v>111</v>
+        <v>6</v>
       </c>
     </row>
     <row r="319" spans="1:6">
@@ -6940,7 +6940,7 @@
         <v>7</v>
       </c>
       <c r="B319" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C319">
         <v>2025</v>
@@ -6949,10 +6949,10 @@
         <v>51</v>
       </c>
       <c r="E319" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F319">
-        <v>110</v>
+        <v>95</v>
       </c>
     </row>
     <row r="320" spans="1:6">
@@ -6960,7 +6960,7 @@
         <v>7</v>
       </c>
       <c r="B320" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C320">
         <v>2025</v>
@@ -6969,10 +6969,10 @@
         <v>51</v>
       </c>
       <c r="E320" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F320">
-        <v>110</v>
+        <v>94</v>
       </c>
     </row>
     <row r="321" spans="1:6">
@@ -6980,7 +6980,7 @@
         <v>7</v>
       </c>
       <c r="B321" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C321">
         <v>2025</v>
@@ -6989,10 +6989,10 @@
         <v>51</v>
       </c>
       <c r="E321" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F321">
-        <v>109</v>
+        <v>94</v>
       </c>
     </row>
     <row r="322" spans="1:6">
@@ -7000,7 +7000,7 @@
         <v>7</v>
       </c>
       <c r="B322" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C322">
         <v>2025</v>
@@ -7009,10 +7009,10 @@
         <v>51</v>
       </c>
       <c r="E322" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F322">
-        <v>6</v>
+        <v>92</v>
       </c>
     </row>
     <row r="323" spans="1:6">
@@ -7020,7 +7020,7 @@
         <v>7</v>
       </c>
       <c r="B323" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C323">
         <v>2025</v>
@@ -7029,10 +7029,10 @@
         <v>51</v>
       </c>
       <c r="E323" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="F323">
-        <v>117</v>
+        <v>5</v>
       </c>
     </row>
     <row r="324" spans="1:6">
@@ -7049,7 +7049,7 @@
         <v>51</v>
       </c>
       <c r="E324" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F324">
         <v>111</v>
@@ -7069,10 +7069,10 @@
         <v>51</v>
       </c>
       <c r="E325" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="F325">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="326" spans="1:6">
@@ -7089,10 +7089,10 @@
         <v>51</v>
       </c>
       <c r="E326" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="F326">
-        <v>14</v>
+        <v>110</v>
       </c>
     </row>
     <row r="327" spans="1:6">
@@ -7109,10 +7109,10 @@
         <v>51</v>
       </c>
       <c r="E327" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F327">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="328" spans="1:6">
@@ -7129,7 +7129,7 @@
         <v>51</v>
       </c>
       <c r="E328" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F328">
         <v>6</v>
@@ -7140,7 +7140,7 @@
         <v>7</v>
       </c>
       <c r="B329" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C329">
         <v>2025</v>
@@ -7149,10 +7149,10 @@
         <v>51</v>
       </c>
       <c r="E329" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F329">
-        <v>183</v>
+        <v>117</v>
       </c>
     </row>
     <row r="330" spans="1:6">
@@ -7160,7 +7160,7 @@
         <v>7</v>
       </c>
       <c r="B330" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C330">
         <v>2025</v>
@@ -7169,10 +7169,10 @@
         <v>51</v>
       </c>
       <c r="E330" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F330">
-        <v>182</v>
+        <v>111</v>
       </c>
     </row>
     <row r="331" spans="1:6">
@@ -7180,7 +7180,7 @@
         <v>7</v>
       </c>
       <c r="B331" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C331">
         <v>2025</v>
@@ -7189,10 +7189,10 @@
         <v>51</v>
       </c>
       <c r="E331" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F331">
-        <v>181</v>
+        <v>115</v>
       </c>
     </row>
     <row r="332" spans="1:6">
@@ -7200,7 +7200,7 @@
         <v>7</v>
       </c>
       <c r="B332" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C332">
         <v>2025</v>
@@ -7209,10 +7209,10 @@
         <v>51</v>
       </c>
       <c r="E332" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="F332">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="333" spans="1:6">
@@ -7220,7 +7220,7 @@
         <v>7</v>
       </c>
       <c r="B333" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C333">
         <v>2025</v>
@@ -7229,10 +7229,10 @@
         <v>51</v>
       </c>
       <c r="E333" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F333">
-        <v>185</v>
+        <v>110</v>
       </c>
     </row>
     <row r="334" spans="1:6">
@@ -7240,7 +7240,7 @@
         <v>7</v>
       </c>
       <c r="B334" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C334">
         <v>2025</v>
@@ -7249,10 +7249,10 @@
         <v>51</v>
       </c>
       <c r="E334" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F334">
-        <v>181</v>
+        <v>6</v>
       </c>
     </row>
     <row r="335" spans="1:6">
@@ -7269,10 +7269,10 @@
         <v>51</v>
       </c>
       <c r="E335" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="F335">
-        <v>28</v>
+        <v>183</v>
       </c>
     </row>
     <row r="336" spans="1:6">
@@ -7289,10 +7289,10 @@
         <v>51</v>
       </c>
       <c r="E336" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F336">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="337" spans="1:6">
@@ -7309,10 +7309,10 @@
         <v>51</v>
       </c>
       <c r="E337" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="F337">
-        <v>10</v>
+        <v>181</v>
       </c>
     </row>
     <row r="338" spans="1:6">
@@ -7320,7 +7320,7 @@
         <v>7</v>
       </c>
       <c r="B338" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C338">
         <v>2025</v>
@@ -7329,10 +7329,10 @@
         <v>51</v>
       </c>
       <c r="E338" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F338">
-        <v>116</v>
+        <v>10</v>
       </c>
     </row>
     <row r="339" spans="1:6">
@@ -7340,7 +7340,7 @@
         <v>7</v>
       </c>
       <c r="B339" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C339">
         <v>2025</v>
@@ -7349,10 +7349,10 @@
         <v>51</v>
       </c>
       <c r="E339" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F339">
-        <v>112</v>
+        <v>185</v>
       </c>
     </row>
     <row r="340" spans="1:6">
@@ -7360,7 +7360,7 @@
         <v>7</v>
       </c>
       <c r="B340" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C340">
         <v>2025</v>
@@ -7369,10 +7369,10 @@
         <v>51</v>
       </c>
       <c r="E340" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F340">
-        <v>109</v>
+        <v>181</v>
       </c>
     </row>
     <row r="341" spans="1:6">
@@ -7380,7 +7380,7 @@
         <v>7</v>
       </c>
       <c r="B341" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C341">
         <v>2025</v>
@@ -7389,10 +7389,10 @@
         <v>51</v>
       </c>
       <c r="E341" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F341">
-        <v>110</v>
+        <v>28</v>
       </c>
     </row>
     <row r="342" spans="1:6">
@@ -7400,7 +7400,7 @@
         <v>7</v>
       </c>
       <c r="B342" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C342">
         <v>2025</v>
@@ -7409,10 +7409,10 @@
         <v>51</v>
       </c>
       <c r="E342" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F342">
-        <v>6</v>
+        <v>185</v>
       </c>
     </row>
     <row r="343" spans="1:6">
@@ -7420,7 +7420,7 @@
         <v>7</v>
       </c>
       <c r="B343" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C343">
         <v>2025</v>
@@ -7429,10 +7429,10 @@
         <v>51</v>
       </c>
       <c r="E343" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="F343">
-        <v>114</v>
+        <v>10</v>
       </c>
     </row>
     <row r="344" spans="1:6">
@@ -7449,10 +7449,10 @@
         <v>51</v>
       </c>
       <c r="E344" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F344">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="345" spans="1:6">
@@ -7469,10 +7469,10 @@
         <v>51</v>
       </c>
       <c r="E345" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="F345">
-        <v>105</v>
+        <v>112</v>
       </c>
     </row>
     <row r="346" spans="1:6">
@@ -7489,10 +7489,10 @@
         <v>51</v>
       </c>
       <c r="E346" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="F346">
-        <v>14</v>
+        <v>109</v>
       </c>
     </row>
     <row r="347" spans="1:6">
@@ -7509,10 +7509,10 @@
         <v>51</v>
       </c>
       <c r="E347" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F347">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="348" spans="1:6">
@@ -7529,7 +7529,7 @@
         <v>51</v>
       </c>
       <c r="E348" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F348">
         <v>6</v>
@@ -7540,7 +7540,7 @@
         <v>7</v>
       </c>
       <c r="B349" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C349">
         <v>2025</v>
@@ -7549,10 +7549,10 @@
         <v>51</v>
       </c>
       <c r="E349" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F349">
-        <v>101</v>
+        <v>114</v>
       </c>
     </row>
     <row r="350" spans="1:6">
@@ -7560,7 +7560,7 @@
         <v>7</v>
       </c>
       <c r="B350" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C350">
         <v>2025</v>
@@ -7569,10 +7569,10 @@
         <v>51</v>
       </c>
       <c r="E350" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F350">
-        <v>103</v>
+        <v>110</v>
       </c>
     </row>
     <row r="351" spans="1:6">
@@ -7580,7 +7580,7 @@
         <v>7</v>
       </c>
       <c r="B351" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C351">
         <v>2025</v>
@@ -7589,7 +7589,7 @@
         <v>51</v>
       </c>
       <c r="E351" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F351">
         <v>105</v>
@@ -7600,7 +7600,7 @@
         <v>7</v>
       </c>
       <c r="B352" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C352">
         <v>2025</v>
@@ -7609,10 +7609,10 @@
         <v>51</v>
       </c>
       <c r="E352" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F352">
-        <v>105</v>
+        <v>14</v>
       </c>
     </row>
     <row r="353" spans="1:6">
@@ -7620,7 +7620,7 @@
         <v>7</v>
       </c>
       <c r="B353" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C353">
         <v>2025</v>
@@ -7629,10 +7629,10 @@
         <v>51</v>
       </c>
       <c r="E353" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F353">
-        <v>6</v>
+        <v>115</v>
       </c>
     </row>
     <row r="354" spans="1:6">
@@ -7640,7 +7640,7 @@
         <v>7</v>
       </c>
       <c r="B354" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C354">
         <v>2025</v>
@@ -7649,10 +7649,10 @@
         <v>51</v>
       </c>
       <c r="E354" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="F354">
-        <v>110</v>
+        <v>6</v>
       </c>
     </row>
     <row r="355" spans="1:6">
@@ -7669,10 +7669,10 @@
         <v>51</v>
       </c>
       <c r="E355" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F355">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="356" spans="1:6">
@@ -7689,10 +7689,10 @@
         <v>51</v>
       </c>
       <c r="E356" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="F356">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="357" spans="1:6">
@@ -7709,10 +7709,10 @@
         <v>51</v>
       </c>
       <c r="E357" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="F357">
-        <v>21</v>
+        <v>105</v>
       </c>
     </row>
     <row r="358" spans="1:6">
@@ -7729,10 +7729,10 @@
         <v>51</v>
       </c>
       <c r="E358" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F358">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="359" spans="1:6">
@@ -7749,10 +7749,10 @@
         <v>51</v>
       </c>
       <c r="E359" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F359">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="360" spans="1:6">
@@ -7760,7 +7760,7 @@
         <v>7</v>
       </c>
       <c r="B360" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C360">
         <v>2025</v>
@@ -7769,10 +7769,10 @@
         <v>51</v>
       </c>
       <c r="E360" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F360">
-        <v>78</v>
+        <v>110</v>
       </c>
     </row>
     <row r="361" spans="1:6">
@@ -7780,7 +7780,7 @@
         <v>7</v>
       </c>
       <c r="B361" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C361">
         <v>2025</v>
@@ -7789,10 +7789,10 @@
         <v>51</v>
       </c>
       <c r="E361" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F361">
-        <v>82</v>
+        <v>103</v>
       </c>
     </row>
     <row r="362" spans="1:6">
@@ -7800,7 +7800,7 @@
         <v>7</v>
       </c>
       <c r="B362" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C362">
         <v>2025</v>
@@ -7809,10 +7809,10 @@
         <v>51</v>
       </c>
       <c r="E362" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F362">
-        <v>77</v>
+        <v>105</v>
       </c>
     </row>
     <row r="363" spans="1:6">
@@ -7820,7 +7820,7 @@
         <v>7</v>
       </c>
       <c r="B363" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C363">
         <v>2025</v>
@@ -7829,10 +7829,10 @@
         <v>51</v>
       </c>
       <c r="E363" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F363">
-        <v>79</v>
+        <v>21</v>
       </c>
     </row>
     <row r="364" spans="1:6">
@@ -7840,7 +7840,7 @@
         <v>7</v>
       </c>
       <c r="B364" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C364">
         <v>2025</v>
@@ -7849,10 +7849,10 @@
         <v>51</v>
       </c>
       <c r="E364" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F364">
-        <v>4</v>
+        <v>102</v>
       </c>
     </row>
     <row r="365" spans="1:6">
@@ -7860,7 +7860,7 @@
         <v>7</v>
       </c>
       <c r="B365" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C365">
         <v>2025</v>
@@ -7869,10 +7869,10 @@
         <v>51</v>
       </c>
       <c r="E365" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="F365">
-        <v>77</v>
+        <v>5</v>
       </c>
     </row>
     <row r="366" spans="1:6">
@@ -7889,10 +7889,10 @@
         <v>51</v>
       </c>
       <c r="E366" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F366">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="367" spans="1:6">
@@ -7909,10 +7909,10 @@
         <v>51</v>
       </c>
       <c r="E367" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="F367">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="368" spans="1:6">
@@ -7929,10 +7929,10 @@
         <v>51</v>
       </c>
       <c r="E368" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="F368">
-        <v>14</v>
+        <v>77</v>
       </c>
     </row>
     <row r="369" spans="1:6">
@@ -7949,7 +7949,7 @@
         <v>51</v>
       </c>
       <c r="E369" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F369">
         <v>79</v>
@@ -7969,7 +7969,7 @@
         <v>51</v>
       </c>
       <c r="E370" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F370">
         <v>4</v>
@@ -7980,7 +7980,7 @@
         <v>7</v>
       </c>
       <c r="B371" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C371">
         <v>2025</v>
@@ -7989,10 +7989,10 @@
         <v>51</v>
       </c>
       <c r="E371" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F371">
-        <v>136</v>
+        <v>77</v>
       </c>
     </row>
     <row r="372" spans="1:6">
@@ -8000,7 +8000,7 @@
         <v>7</v>
       </c>
       <c r="B372" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C372">
         <v>2025</v>
@@ -8009,10 +8009,10 @@
         <v>51</v>
       </c>
       <c r="E372" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F372">
-        <v>135</v>
+        <v>79</v>
       </c>
     </row>
     <row r="373" spans="1:6">
@@ -8020,7 +8020,7 @@
         <v>7</v>
       </c>
       <c r="B373" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C373">
         <v>2025</v>
@@ -8029,10 +8029,10 @@
         <v>51</v>
       </c>
       <c r="E373" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F373">
-        <v>132</v>
+        <v>79</v>
       </c>
     </row>
     <row r="374" spans="1:6">
@@ -8040,7 +8040,7 @@
         <v>7</v>
       </c>
       <c r="B374" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C374">
         <v>2025</v>
@@ -8049,10 +8049,10 @@
         <v>51</v>
       </c>
       <c r="E374" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F374">
-        <v>135</v>
+        <v>14</v>
       </c>
     </row>
     <row r="375" spans="1:6">
@@ -8060,7 +8060,7 @@
         <v>7</v>
       </c>
       <c r="B375" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C375">
         <v>2025</v>
@@ -8069,10 +8069,10 @@
         <v>51</v>
       </c>
       <c r="E375" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F375">
-        <v>8</v>
+        <v>79</v>
       </c>
     </row>
     <row r="376" spans="1:6">
@@ -8080,7 +8080,7 @@
         <v>7</v>
       </c>
       <c r="B376" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C376">
         <v>2025</v>
@@ -8089,10 +8089,10 @@
         <v>51</v>
       </c>
       <c r="E376" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="F376">
-        <v>134</v>
+        <v>4</v>
       </c>
     </row>
     <row r="377" spans="1:6">
@@ -8109,10 +8109,10 @@
         <v>51</v>
       </c>
       <c r="E377" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F377">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="378" spans="1:6">
@@ -8129,10 +8129,10 @@
         <v>51</v>
       </c>
       <c r="E378" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="F378">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="379" spans="1:6">
@@ -8149,10 +8149,10 @@
         <v>51</v>
       </c>
       <c r="E379" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="F379">
-        <v>28</v>
+        <v>132</v>
       </c>
     </row>
     <row r="380" spans="1:6">
@@ -8169,10 +8169,10 @@
         <v>51</v>
       </c>
       <c r="E380" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F380">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="381" spans="1:6">
@@ -8189,7 +8189,7 @@
         <v>51</v>
       </c>
       <c r="E381" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F381">
         <v>8</v>
@@ -8200,7 +8200,7 @@
         <v>7</v>
       </c>
       <c r="B382" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C382">
         <v>2025</v>
@@ -8209,10 +8209,10 @@
         <v>51</v>
       </c>
       <c r="E382" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F382">
-        <v>64</v>
+        <v>134</v>
       </c>
     </row>
     <row r="383" spans="1:6">
@@ -8220,7 +8220,7 @@
         <v>7</v>
       </c>
       <c r="B383" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C383">
         <v>2025</v>
@@ -8229,10 +8229,10 @@
         <v>51</v>
       </c>
       <c r="E383" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F383">
-        <v>64</v>
+        <v>133</v>
       </c>
     </row>
     <row r="384" spans="1:6">
@@ -8240,7 +8240,7 @@
         <v>7</v>
       </c>
       <c r="B384" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C384">
         <v>2025</v>
@@ -8249,10 +8249,10 @@
         <v>51</v>
       </c>
       <c r="E384" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F384">
-        <v>61</v>
+        <v>133</v>
       </c>
     </row>
     <row r="385" spans="1:6">
@@ -8260,7 +8260,7 @@
         <v>7</v>
       </c>
       <c r="B385" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C385">
         <v>2025</v>
@@ -8269,10 +8269,10 @@
         <v>51</v>
       </c>
       <c r="E385" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F385">
-        <v>60</v>
+        <v>28</v>
       </c>
     </row>
     <row r="386" spans="1:6">
@@ -8280,7 +8280,7 @@
         <v>7</v>
       </c>
       <c r="B386" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C386">
         <v>2025</v>
@@ -8289,10 +8289,10 @@
         <v>51</v>
       </c>
       <c r="E386" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F386">
-        <v>5</v>
+        <v>133</v>
       </c>
     </row>
     <row r="387" spans="1:6">
@@ -8300,7 +8300,7 @@
         <v>7</v>
       </c>
       <c r="B387" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C387">
         <v>2025</v>
@@ -8309,10 +8309,10 @@
         <v>51</v>
       </c>
       <c r="E387" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="F387">
-        <v>65</v>
+        <v>8</v>
       </c>
     </row>
     <row r="388" spans="1:6">
@@ -8329,10 +8329,10 @@
         <v>51</v>
       </c>
       <c r="E388" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F388">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="389" spans="1:6">
@@ -8349,10 +8349,10 @@
         <v>51</v>
       </c>
       <c r="E389" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="F389">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="390" spans="1:6">
@@ -8369,10 +8369,10 @@
         <v>51</v>
       </c>
       <c r="E390" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="F390">
-        <v>14</v>
+        <v>61</v>
       </c>
     </row>
     <row r="391" spans="1:6">
@@ -8389,10 +8389,10 @@
         <v>51</v>
       </c>
       <c r="E391" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F391">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="392" spans="1:6">
@@ -8409,7 +8409,7 @@
         <v>51</v>
       </c>
       <c r="E392" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F392">
         <v>5</v>
@@ -8420,7 +8420,7 @@
         <v>7</v>
       </c>
       <c r="B393" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C393">
         <v>2025</v>
@@ -8429,10 +8429,10 @@
         <v>51</v>
       </c>
       <c r="E393" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F393">
-        <v>222</v>
+        <v>65</v>
       </c>
     </row>
     <row r="394" spans="1:6">
@@ -8440,7 +8440,7 @@
         <v>7</v>
       </c>
       <c r="B394" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C394">
         <v>2025</v>
@@ -8449,10 +8449,10 @@
         <v>51</v>
       </c>
       <c r="E394" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F394">
-        <v>224</v>
+        <v>63</v>
       </c>
     </row>
     <row r="395" spans="1:6">
@@ -8460,7 +8460,7 @@
         <v>7</v>
       </c>
       <c r="B395" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C395">
         <v>2025</v>
@@ -8469,10 +8469,10 @@
         <v>51</v>
       </c>
       <c r="E395" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F395">
-        <v>224</v>
+        <v>63</v>
       </c>
     </row>
     <row r="396" spans="1:6">
@@ -8480,7 +8480,7 @@
         <v>7</v>
       </c>
       <c r="B396" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C396">
         <v>2025</v>
@@ -8489,10 +8489,10 @@
         <v>51</v>
       </c>
       <c r="E396" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F396">
-        <v>219</v>
+        <v>14</v>
       </c>
     </row>
     <row r="397" spans="1:6">
@@ -8500,7 +8500,7 @@
         <v>7</v>
       </c>
       <c r="B397" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C397">
         <v>2025</v>
@@ -8509,10 +8509,10 @@
         <v>51</v>
       </c>
       <c r="E397" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F397">
-        <v>12</v>
+        <v>63</v>
       </c>
     </row>
     <row r="398" spans="1:6">
@@ -8520,7 +8520,7 @@
         <v>7</v>
       </c>
       <c r="B398" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C398">
         <v>2025</v>
@@ -8529,10 +8529,10 @@
         <v>51</v>
       </c>
       <c r="E398" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="F398">
-        <v>225</v>
+        <v>5</v>
       </c>
     </row>
     <row r="399" spans="1:6">
@@ -8549,10 +8549,10 @@
         <v>51</v>
       </c>
       <c r="E399" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F399">
-        <v>216</v>
+        <v>222</v>
       </c>
     </row>
     <row r="400" spans="1:6">
@@ -8569,10 +8569,10 @@
         <v>51</v>
       </c>
       <c r="E400" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="F400">
-        <v>219</v>
+        <v>224</v>
       </c>
     </row>
     <row r="401" spans="1:6">
@@ -8589,10 +8589,10 @@
         <v>51</v>
       </c>
       <c r="E401" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="F401">
-        <v>28</v>
+        <v>224</v>
       </c>
     </row>
     <row r="402" spans="1:6">
@@ -8609,7 +8609,7 @@
         <v>51</v>
       </c>
       <c r="E402" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F402">
         <v>219</v>
@@ -8629,7 +8629,7 @@
         <v>51</v>
       </c>
       <c r="E403" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F403">
         <v>12</v>
@@ -8640,7 +8640,7 @@
         <v>7</v>
       </c>
       <c r="B404" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C404">
         <v>2025</v>
@@ -8649,10 +8649,10 @@
         <v>51</v>
       </c>
       <c r="E404" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F404">
-        <v>123</v>
+        <v>225</v>
       </c>
     </row>
     <row r="405" spans="1:6">
@@ -8660,7 +8660,7 @@
         <v>7</v>
       </c>
       <c r="B405" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C405">
         <v>2025</v>
@@ -8669,10 +8669,10 @@
         <v>51</v>
       </c>
       <c r="E405" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F405">
-        <v>127</v>
+        <v>216</v>
       </c>
     </row>
     <row r="406" spans="1:6">
@@ -8680,7 +8680,7 @@
         <v>7</v>
       </c>
       <c r="B406" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C406">
         <v>2025</v>
@@ -8689,10 +8689,10 @@
         <v>51</v>
       </c>
       <c r="E406" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F406">
-        <v>116</v>
+        <v>219</v>
       </c>
     </row>
     <row r="407" spans="1:6">
@@ -8700,7 +8700,7 @@
         <v>7</v>
       </c>
       <c r="B407" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C407">
         <v>2025</v>
@@ -8709,10 +8709,10 @@
         <v>51</v>
       </c>
       <c r="E407" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F407">
-        <v>121</v>
+        <v>28</v>
       </c>
     </row>
     <row r="408" spans="1:6">
@@ -8720,7 +8720,7 @@
         <v>7</v>
       </c>
       <c r="B408" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C408">
         <v>2025</v>
@@ -8729,10 +8729,10 @@
         <v>51</v>
       </c>
       <c r="E408" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F408">
-        <v>6</v>
+        <v>219</v>
       </c>
     </row>
     <row r="409" spans="1:6">
@@ -8740,7 +8740,7 @@
         <v>7</v>
       </c>
       <c r="B409" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C409">
         <v>2025</v>
@@ -8749,10 +8749,10 @@
         <v>51</v>
       </c>
       <c r="E409" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="F409">
-        <v>121</v>
+        <v>12</v>
       </c>
     </row>
     <row r="410" spans="1:6">
@@ -8769,7 +8769,7 @@
         <v>51</v>
       </c>
       <c r="E410" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F410">
         <v>123</v>
@@ -8789,10 +8789,10 @@
         <v>51</v>
       </c>
       <c r="E411" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="F411">
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
     <row r="412" spans="1:6">
@@ -8809,10 +8809,10 @@
         <v>51</v>
       </c>
       <c r="E412" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="F412">
-        <v>14</v>
+        <v>116</v>
       </c>
     </row>
     <row r="413" spans="1:6">
@@ -8829,10 +8829,10 @@
         <v>51</v>
       </c>
       <c r="E413" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F413">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="414" spans="1:6">
@@ -8849,7 +8849,7 @@
         <v>51</v>
       </c>
       <c r="E414" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F414">
         <v>6</v>
@@ -8860,7 +8860,7 @@
         <v>7</v>
       </c>
       <c r="B415" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C415">
         <v>2025</v>
@@ -8869,10 +8869,10 @@
         <v>51</v>
       </c>
       <c r="E415" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F415">
-        <v>78</v>
+        <v>121</v>
       </c>
     </row>
     <row r="416" spans="1:6">
@@ -8880,7 +8880,7 @@
         <v>7</v>
       </c>
       <c r="B416" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C416">
         <v>2025</v>
@@ -8889,10 +8889,10 @@
         <v>51</v>
       </c>
       <c r="E416" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F416">
-        <v>74</v>
+        <v>123</v>
       </c>
     </row>
     <row r="417" spans="1:6">
@@ -8900,7 +8900,7 @@
         <v>7</v>
       </c>
       <c r="B417" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C417">
         <v>2025</v>
@@ -8909,10 +8909,10 @@
         <v>51</v>
       </c>
       <c r="E417" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F417">
-        <v>76</v>
+        <v>121</v>
       </c>
     </row>
     <row r="418" spans="1:6">
@@ -8920,7 +8920,7 @@
         <v>7</v>
       </c>
       <c r="B418" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C418">
         <v>2025</v>
@@ -8929,10 +8929,10 @@
         <v>51</v>
       </c>
       <c r="E418" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F418">
-        <v>78</v>
+        <v>14</v>
       </c>
     </row>
     <row r="419" spans="1:6">
@@ -8940,7 +8940,7 @@
         <v>7</v>
       </c>
       <c r="B419" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C419">
         <v>2025</v>
@@ -8949,10 +8949,10 @@
         <v>51</v>
       </c>
       <c r="E419" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F419">
-        <v>5</v>
+        <v>118</v>
       </c>
     </row>
     <row r="420" spans="1:6">
@@ -8960,7 +8960,7 @@
         <v>7</v>
       </c>
       <c r="B420" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C420">
         <v>2025</v>
@@ -8969,10 +8969,10 @@
         <v>51</v>
       </c>
       <c r="E420" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="F420">
-        <v>77</v>
+        <v>6</v>
       </c>
     </row>
     <row r="421" spans="1:6">
@@ -8989,7 +8989,7 @@
         <v>51</v>
       </c>
       <c r="E421" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F421">
         <v>78</v>
@@ -9009,10 +9009,10 @@
         <v>51</v>
       </c>
       <c r="E422" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="F422">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="423" spans="1:6">
@@ -9029,10 +9029,10 @@
         <v>51</v>
       </c>
       <c r="E423" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="F423">
-        <v>14</v>
+        <v>76</v>
       </c>
     </row>
     <row r="424" spans="1:6">
@@ -9049,10 +9049,10 @@
         <v>51</v>
       </c>
       <c r="E424" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F424">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="425" spans="1:6">
@@ -9069,7 +9069,7 @@
         <v>51</v>
       </c>
       <c r="E425" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F425">
         <v>5</v>
@@ -9080,7 +9080,7 @@
         <v>7</v>
       </c>
       <c r="B426" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C426">
         <v>2025</v>
@@ -9089,10 +9089,10 @@
         <v>51</v>
       </c>
       <c r="E426" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F426">
-        <v>64</v>
+        <v>77</v>
       </c>
     </row>
     <row r="427" spans="1:6">
@@ -9100,7 +9100,7 @@
         <v>7</v>
       </c>
       <c r="B427" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C427">
         <v>2025</v>
@@ -9109,10 +9109,10 @@
         <v>51</v>
       </c>
       <c r="E427" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F427">
-        <v>65</v>
+        <v>78</v>
       </c>
     </row>
     <row r="428" spans="1:6">
@@ -9120,7 +9120,7 @@
         <v>7</v>
       </c>
       <c r="B428" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C428">
         <v>2025</v>
@@ -9129,10 +9129,10 @@
         <v>51</v>
       </c>
       <c r="E428" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F428">
-        <v>64</v>
+        <v>79</v>
       </c>
     </row>
     <row r="429" spans="1:6">
@@ -9140,7 +9140,7 @@
         <v>7</v>
       </c>
       <c r="B429" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C429">
         <v>2025</v>
@@ -9149,10 +9149,10 @@
         <v>51</v>
       </c>
       <c r="E429" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F429">
-        <v>65</v>
+        <v>14</v>
       </c>
     </row>
     <row r="430" spans="1:6">
@@ -9160,7 +9160,7 @@
         <v>7</v>
       </c>
       <c r="B430" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C430">
         <v>2025</v>
@@ -9169,10 +9169,10 @@
         <v>51</v>
       </c>
       <c r="E430" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F430">
-        <v>3</v>
+        <v>74</v>
       </c>
     </row>
     <row r="431" spans="1:6">
@@ -9180,7 +9180,7 @@
         <v>7</v>
       </c>
       <c r="B431" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C431">
         <v>2025</v>
@@ -9189,10 +9189,10 @@
         <v>51</v>
       </c>
       <c r="E431" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="F431">
-        <v>66</v>
+        <v>5</v>
       </c>
     </row>
     <row r="432" spans="1:6">
@@ -9209,10 +9209,10 @@
         <v>51</v>
       </c>
       <c r="E432" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F432">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="433" spans="1:6">
@@ -9229,7 +9229,7 @@
         <v>51</v>
       </c>
       <c r="E433" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="F433">
         <v>65</v>
@@ -9249,10 +9249,10 @@
         <v>51</v>
       </c>
       <c r="E434" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="F434">
-        <v>7</v>
+        <v>64</v>
       </c>
     </row>
     <row r="435" spans="1:6">
@@ -9269,10 +9269,10 @@
         <v>51</v>
       </c>
       <c r="E435" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F435">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="436" spans="1:6">
@@ -9289,7 +9289,7 @@
         <v>51</v>
       </c>
       <c r="E436" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F436">
         <v>3</v>
@@ -9300,7 +9300,7 @@
         <v>7</v>
       </c>
       <c r="B437" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C437">
         <v>2025</v>
@@ -9309,10 +9309,10 @@
         <v>51</v>
       </c>
       <c r="E437" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F437">
-        <v>106</v>
+        <v>66</v>
       </c>
     </row>
     <row r="438" spans="1:6">
@@ -9320,7 +9320,7 @@
         <v>7</v>
       </c>
       <c r="B438" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C438">
         <v>2025</v>
@@ -9329,10 +9329,10 @@
         <v>51</v>
       </c>
       <c r="E438" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F438">
-        <v>105</v>
+        <v>68</v>
       </c>
     </row>
     <row r="439" spans="1:6">
@@ -9340,7 +9340,7 @@
         <v>7</v>
       </c>
       <c r="B439" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C439">
         <v>2025</v>
@@ -9349,10 +9349,10 @@
         <v>51</v>
       </c>
       <c r="E439" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F439">
-        <v>105</v>
+        <v>65</v>
       </c>
     </row>
     <row r="440" spans="1:6">
@@ -9360,7 +9360,7 @@
         <v>7</v>
       </c>
       <c r="B440" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C440">
         <v>2025</v>
@@ -9369,10 +9369,10 @@
         <v>51</v>
       </c>
       <c r="E440" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="F440">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="441" spans="1:6">
@@ -9380,7 +9380,7 @@
         <v>7</v>
       </c>
       <c r="B441" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C441">
         <v>2025</v>
@@ -9389,10 +9389,10 @@
         <v>51</v>
       </c>
       <c r="E441" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F441">
-        <v>105</v>
+        <v>68</v>
       </c>
     </row>
     <row r="442" spans="1:6">
@@ -9400,7 +9400,7 @@
         <v>7</v>
       </c>
       <c r="B442" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C442">
         <v>2025</v>
@@ -9409,10 +9409,10 @@
         <v>51</v>
       </c>
       <c r="E442" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F442">
-        <v>109</v>
+        <v>3</v>
       </c>
     </row>
     <row r="443" spans="1:6">
@@ -9429,7 +9429,7 @@
         <v>51</v>
       </c>
       <c r="E443" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F443">
         <v>106</v>
@@ -9449,10 +9449,10 @@
         <v>51</v>
       </c>
       <c r="E444" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="F444">
-        <v>14</v>
+        <v>105</v>
       </c>
     </row>
     <row r="445" spans="1:6">
@@ -9469,7 +9469,7 @@
         <v>51</v>
       </c>
       <c r="E445" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F445">
         <v>105</v>
@@ -9489,7 +9489,7 @@
         <v>51</v>
       </c>
       <c r="E446" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F446">
         <v>6</v>
@@ -9500,7 +9500,7 @@
         <v>7</v>
       </c>
       <c r="B447" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C447">
         <v>2025</v>
@@ -9509,10 +9509,10 @@
         <v>51</v>
       </c>
       <c r="E447" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F447">
-        <v>168</v>
+        <v>105</v>
       </c>
     </row>
     <row r="448" spans="1:6">
@@ -9520,7 +9520,7 @@
         <v>7</v>
       </c>
       <c r="B448" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C448">
         <v>2025</v>
@@ -9529,10 +9529,10 @@
         <v>51</v>
       </c>
       <c r="E448" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F448">
-        <v>168</v>
+        <v>109</v>
       </c>
     </row>
     <row r="449" spans="1:6">
@@ -9540,7 +9540,7 @@
         <v>7</v>
       </c>
       <c r="B449" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C449">
         <v>2025</v>
@@ -9549,10 +9549,10 @@
         <v>51</v>
       </c>
       <c r="E449" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F449">
-        <v>167</v>
+        <v>106</v>
       </c>
     </row>
     <row r="450" spans="1:6">
@@ -9560,7 +9560,7 @@
         <v>7</v>
       </c>
       <c r="B450" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C450">
         <v>2025</v>
@@ -9569,10 +9569,10 @@
         <v>51</v>
       </c>
       <c r="E450" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F450">
-        <v>167</v>
+        <v>14</v>
       </c>
     </row>
     <row r="451" spans="1:6">
@@ -9580,7 +9580,7 @@
         <v>7</v>
       </c>
       <c r="B451" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C451">
         <v>2025</v>
@@ -9589,10 +9589,10 @@
         <v>51</v>
       </c>
       <c r="E451" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F451">
-        <v>9</v>
+        <v>105</v>
       </c>
     </row>
     <row r="452" spans="1:6">
@@ -9600,7 +9600,7 @@
         <v>7</v>
       </c>
       <c r="B452" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C452">
         <v>2025</v>
@@ -9609,10 +9609,10 @@
         <v>51</v>
       </c>
       <c r="E452" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="F452">
-        <v>167</v>
+        <v>6</v>
       </c>
     </row>
     <row r="453" spans="1:6">
@@ -9629,7 +9629,7 @@
         <v>51</v>
       </c>
       <c r="E453" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F453">
         <v>168</v>
@@ -9649,10 +9649,10 @@
         <v>51</v>
       </c>
       <c r="E454" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="F454">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="455" spans="1:6">
@@ -9669,10 +9669,10 @@
         <v>51</v>
       </c>
       <c r="E455" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="F455">
-        <v>31</v>
+        <v>167</v>
       </c>
     </row>
     <row r="456" spans="1:6">
@@ -9689,10 +9689,10 @@
         <v>51</v>
       </c>
       <c r="E456" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F456">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="457" spans="1:6">
@@ -9709,9 +9709,129 @@
         <v>51</v>
       </c>
       <c r="E457" t="s">
+        <v>55</v>
+      </c>
+      <c r="F457">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="458" spans="1:6">
+      <c r="A458" t="s">
+        <v>7</v>
+      </c>
+      <c r="B458" t="s">
+        <v>50</v>
+      </c>
+      <c r="C458">
+        <v>2025</v>
+      </c>
+      <c r="D458" t="s">
+        <v>51</v>
+      </c>
+      <c r="E458" t="s">
+        <v>56</v>
+      </c>
+      <c r="F458">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="459" spans="1:6">
+      <c r="A459" t="s">
+        <v>7</v>
+      </c>
+      <c r="B459" t="s">
+        <v>50</v>
+      </c>
+      <c r="C459">
+        <v>2025</v>
+      </c>
+      <c r="D459" t="s">
+        <v>51</v>
+      </c>
+      <c r="E459" t="s">
+        <v>57</v>
+      </c>
+      <c r="F459">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="460" spans="1:6">
+      <c r="A460" t="s">
+        <v>7</v>
+      </c>
+      <c r="B460" t="s">
+        <v>50</v>
+      </c>
+      <c r="C460">
+        <v>2025</v>
+      </c>
+      <c r="D460" t="s">
+        <v>51</v>
+      </c>
+      <c r="E460" t="s">
+        <v>59</v>
+      </c>
+      <c r="F460">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="461" spans="1:6">
+      <c r="A461" t="s">
+        <v>7</v>
+      </c>
+      <c r="B461" t="s">
+        <v>50</v>
+      </c>
+      <c r="C461">
+        <v>2025</v>
+      </c>
+      <c r="D461" t="s">
+        <v>51</v>
+      </c>
+      <c r="E461" t="s">
+        <v>65</v>
+      </c>
+      <c r="F461">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="462" spans="1:6">
+      <c r="A462" t="s">
+        <v>7</v>
+      </c>
+      <c r="B462" t="s">
+        <v>50</v>
+      </c>
+      <c r="C462">
+        <v>2025</v>
+      </c>
+      <c r="D462" t="s">
+        <v>51</v>
+      </c>
+      <c r="E462" t="s">
         <v>61</v>
       </c>
-      <c r="F457">
+      <c r="F462">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="463" spans="1:6">
+      <c r="A463" t="s">
+        <v>7</v>
+      </c>
+      <c r="B463" t="s">
+        <v>50</v>
+      </c>
+      <c r="C463">
+        <v>2025</v>
+      </c>
+      <c r="D463" t="s">
+        <v>51</v>
+      </c>
+      <c r="E463" t="s">
+        <v>62</v>
+      </c>
+      <c r="F463">
         <v>9</v>
       </c>
     </row>

--- a/Quality reports shared/training_analysis.xlsx
+++ b/Quality reports shared/training_analysis.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1854" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2058" uniqueCount="66">
   <si>
     <t>district_name</t>
   </si>
@@ -569,7 +569,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F463"/>
+  <dimension ref="A1:F514"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1209,10 +1209,10 @@
         <v>51</v>
       </c>
       <c r="E32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1229,10 +1229,10 @@
         <v>51</v>
       </c>
       <c r="E33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F33">
-        <v>44</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1249,10 +1249,10 @@
         <v>51</v>
       </c>
       <c r="E34" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F34">
-        <v>2</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1260,7 +1260,7 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C35">
         <v>2025</v>
@@ -1269,10 +1269,10 @@
         <v>51</v>
       </c>
       <c r="E35" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="F35">
-        <v>39</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1289,10 +1289,10 @@
         <v>51</v>
       </c>
       <c r="E36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F36">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1309,7 +1309,7 @@
         <v>51</v>
       </c>
       <c r="E37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F37">
         <v>37</v>
@@ -1329,10 +1329,10 @@
         <v>51</v>
       </c>
       <c r="E38" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F38">
-        <v>2</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1349,10 +1349,10 @@
         <v>51</v>
       </c>
       <c r="E39" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F39">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1369,10 +1369,10 @@
         <v>51</v>
       </c>
       <c r="E40" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="F40">
-        <v>38</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1389,10 +1389,10 @@
         <v>51</v>
       </c>
       <c r="E41" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F41">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1409,10 +1409,10 @@
         <v>51</v>
       </c>
       <c r="E42" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F42">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1429,10 +1429,10 @@
         <v>51</v>
       </c>
       <c r="E43" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F43">
-        <v>1</v>
+        <v>38</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1449,7 +1449,7 @@
         <v>51</v>
       </c>
       <c r="E44" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F44">
         <v>38</v>
@@ -1469,10 +1469,10 @@
         <v>51</v>
       </c>
       <c r="E45" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F45">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1480,7 +1480,7 @@
         <v>6</v>
       </c>
       <c r="B46" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C46">
         <v>2025</v>
@@ -1489,10 +1489,10 @@
         <v>51</v>
       </c>
       <c r="E46" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="F46">
-        <v>49</v>
+        <v>38</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1500,7 +1500,7 @@
         <v>6</v>
       </c>
       <c r="B47" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C47">
         <v>2025</v>
@@ -1509,10 +1509,10 @@
         <v>51</v>
       </c>
       <c r="E47" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="F47">
-        <v>50</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1529,10 +1529,10 @@
         <v>51</v>
       </c>
       <c r="E48" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F48">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1549,10 +1549,10 @@
         <v>51</v>
       </c>
       <c r="E49" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F49">
-        <v>3</v>
+        <v>50</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1569,10 +1569,10 @@
         <v>51</v>
       </c>
       <c r="E50" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="F50">
-        <v>3</v>
+        <v>50</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1589,10 +1589,10 @@
         <v>51</v>
       </c>
       <c r="E51" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F51">
-        <v>50</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1609,10 +1609,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="F52">
-        <v>48</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1629,7 +1629,7 @@
         <v>51</v>
       </c>
       <c r="E53" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F53">
         <v>50</v>
@@ -1649,10 +1649,10 @@
         <v>51</v>
       </c>
       <c r="E54" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F54">
-        <v>1</v>
+        <v>48</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1669,10 +1669,10 @@
         <v>51</v>
       </c>
       <c r="E55" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F55">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1689,10 +1689,10 @@
         <v>51</v>
       </c>
       <c r="E56" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F56">
-        <v>3</v>
+        <v>50</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1700,7 +1700,7 @@
         <v>6</v>
       </c>
       <c r="B57" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C57">
         <v>2025</v>
@@ -1709,10 +1709,10 @@
         <v>51</v>
       </c>
       <c r="E57" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="F57">
-        <v>134</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1720,7 +1720,7 @@
         <v>6</v>
       </c>
       <c r="B58" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C58">
         <v>2025</v>
@@ -1729,10 +1729,10 @@
         <v>51</v>
       </c>
       <c r="E58" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="F58">
-        <v>130</v>
+        <v>51</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1740,7 +1740,7 @@
         <v>6</v>
       </c>
       <c r="B59" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C59">
         <v>2025</v>
@@ -1749,10 +1749,10 @@
         <v>51</v>
       </c>
       <c r="E59" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F59">
-        <v>133</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1769,10 +1769,10 @@
         <v>51</v>
       </c>
       <c r="E60" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F60">
-        <v>15</v>
+        <v>134</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1789,10 +1789,10 @@
         <v>51</v>
       </c>
       <c r="E61" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F61">
-        <v>139</v>
+        <v>130</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1809,7 +1809,7 @@
         <v>51</v>
       </c>
       <c r="E62" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F62">
         <v>133</v>
@@ -1829,10 +1829,10 @@
         <v>51</v>
       </c>
       <c r="E63" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F63">
-        <v>129</v>
+        <v>15</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1849,10 +1849,10 @@
         <v>51</v>
       </c>
       <c r="E64" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F64">
-        <v>1</v>
+        <v>139</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1869,10 +1869,10 @@
         <v>51</v>
       </c>
       <c r="E65" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F65">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1889,10 +1889,10 @@
         <v>51</v>
       </c>
       <c r="E66" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F66">
-        <v>7</v>
+        <v>129</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1900,7 +1900,7 @@
         <v>6</v>
       </c>
       <c r="B67" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C67">
         <v>2025</v>
@@ -1909,10 +1909,10 @@
         <v>51</v>
       </c>
       <c r="E67" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="F67">
-        <v>90</v>
+        <v>133</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1920,7 +1920,7 @@
         <v>6</v>
       </c>
       <c r="B68" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C68">
         <v>2025</v>
@@ -1929,10 +1929,10 @@
         <v>51</v>
       </c>
       <c r="E68" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="F68">
-        <v>91</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1940,7 +1940,7 @@
         <v>6</v>
       </c>
       <c r="B69" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C69">
         <v>2025</v>
@@ -1949,10 +1949,10 @@
         <v>51</v>
       </c>
       <c r="E69" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F69">
-        <v>90</v>
+        <v>130</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1960,7 +1960,7 @@
         <v>6</v>
       </c>
       <c r="B70" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C70">
         <v>2025</v>
@@ -1969,10 +1969,10 @@
         <v>51</v>
       </c>
       <c r="E70" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="F70">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1989,10 +1989,10 @@
         <v>51</v>
       </c>
       <c r="E71" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F71">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2009,10 +2009,10 @@
         <v>51</v>
       </c>
       <c r="E72" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F72">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2029,10 +2029,10 @@
         <v>51</v>
       </c>
       <c r="E73" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F73">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2049,10 +2049,10 @@
         <v>51</v>
       </c>
       <c r="E74" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F74">
-        <v>91</v>
+        <v>5</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2069,10 +2069,10 @@
         <v>51</v>
       </c>
       <c r="E75" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F75">
-        <v>1</v>
+        <v>91</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2089,7 +2089,7 @@
         <v>51</v>
       </c>
       <c r="E76" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F76">
         <v>90</v>
@@ -2109,10 +2109,10 @@
         <v>51</v>
       </c>
       <c r="E77" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F77">
-        <v>5</v>
+        <v>89</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2120,7 +2120,7 @@
         <v>6</v>
       </c>
       <c r="B78" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C78">
         <v>2025</v>
@@ -2129,10 +2129,10 @@
         <v>51</v>
       </c>
       <c r="E78" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="F78">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2140,7 +2140,7 @@
         <v>6</v>
       </c>
       <c r="B79" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C79">
         <v>2025</v>
@@ -2149,10 +2149,10 @@
         <v>51</v>
       </c>
       <c r="E79" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="F79">
-        <v>97</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2160,7 +2160,7 @@
         <v>6</v>
       </c>
       <c r="B80" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C80">
         <v>2025</v>
@@ -2169,10 +2169,10 @@
         <v>51</v>
       </c>
       <c r="E80" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F80">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2180,7 +2180,7 @@
         <v>6</v>
       </c>
       <c r="B81" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C81">
         <v>2025</v>
@@ -2189,7 +2189,7 @@
         <v>51</v>
       </c>
       <c r="E81" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="F81">
         <v>5</v>
@@ -2209,10 +2209,10 @@
         <v>51</v>
       </c>
       <c r="E82" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F82">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2229,10 +2229,10 @@
         <v>51</v>
       </c>
       <c r="E83" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F83">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2249,10 +2249,10 @@
         <v>51</v>
       </c>
       <c r="E84" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F84">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2269,10 +2269,10 @@
         <v>51</v>
       </c>
       <c r="E85" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F85">
-        <v>99</v>
+        <v>5</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2289,10 +2289,10 @@
         <v>51</v>
       </c>
       <c r="E86" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F86">
-        <v>1</v>
+        <v>97</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2309,10 +2309,10 @@
         <v>51</v>
       </c>
       <c r="E87" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F87">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2329,10 +2329,10 @@
         <v>51</v>
       </c>
       <c r="E88" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F88">
-        <v>5</v>
+        <v>99</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2340,7 +2340,7 @@
         <v>6</v>
       </c>
       <c r="B89" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C89">
         <v>2025</v>
@@ -2349,10 +2349,10 @@
         <v>51</v>
       </c>
       <c r="E89" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="F89">
-        <v>80</v>
+        <v>99</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2360,7 +2360,7 @@
         <v>6</v>
       </c>
       <c r="B90" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C90">
         <v>2025</v>
@@ -2369,10 +2369,10 @@
         <v>51</v>
       </c>
       <c r="E90" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="F90">
-        <v>81</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2380,7 +2380,7 @@
         <v>6</v>
       </c>
       <c r="B91" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C91">
         <v>2025</v>
@@ -2389,10 +2389,10 @@
         <v>51</v>
       </c>
       <c r="E91" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F91">
-        <v>82</v>
+        <v>100</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2400,7 +2400,7 @@
         <v>6</v>
       </c>
       <c r="B92" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C92">
         <v>2025</v>
@@ -2409,10 +2409,10 @@
         <v>51</v>
       </c>
       <c r="E92" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="F92">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2429,10 +2429,10 @@
         <v>51</v>
       </c>
       <c r="E93" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F93">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2449,7 +2449,7 @@
         <v>51</v>
       </c>
       <c r="E94" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F94">
         <v>81</v>
@@ -2469,10 +2469,10 @@
         <v>51</v>
       </c>
       <c r="E95" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F95">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2489,10 +2489,10 @@
         <v>51</v>
       </c>
       <c r="E96" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F96">
-        <v>82</v>
+        <v>4</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2509,10 +2509,10 @@
         <v>51</v>
       </c>
       <c r="E97" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F97">
-        <v>1</v>
+        <v>84</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2529,7 +2529,7 @@
         <v>51</v>
       </c>
       <c r="E98" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F98">
         <v>81</v>
@@ -2549,10 +2549,10 @@
         <v>51</v>
       </c>
       <c r="E99" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F99">
-        <v>4</v>
+        <v>80</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2560,7 +2560,7 @@
         <v>6</v>
       </c>
       <c r="B100" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C100">
         <v>2025</v>
@@ -2569,10 +2569,10 @@
         <v>51</v>
       </c>
       <c r="E100" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="F100">
-        <v>168</v>
+        <v>82</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2580,7 +2580,7 @@
         <v>6</v>
       </c>
       <c r="B101" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C101">
         <v>2025</v>
@@ -2589,10 +2589,10 @@
         <v>51</v>
       </c>
       <c r="E101" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="F101">
-        <v>173</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2600,7 +2600,7 @@
         <v>6</v>
       </c>
       <c r="B102" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C102">
         <v>2025</v>
@@ -2609,10 +2609,10 @@
         <v>51</v>
       </c>
       <c r="E102" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F102">
-        <v>165</v>
+        <v>81</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2620,7 +2620,7 @@
         <v>6</v>
       </c>
       <c r="B103" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C103">
         <v>2025</v>
@@ -2629,10 +2629,10 @@
         <v>51</v>
       </c>
       <c r="E103" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="F103">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2649,10 +2649,10 @@
         <v>51</v>
       </c>
       <c r="E104" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F104">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2669,10 +2669,10 @@
         <v>51</v>
       </c>
       <c r="E105" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F105">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2689,10 +2689,10 @@
         <v>51</v>
       </c>
       <c r="E106" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F106">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2709,10 +2709,10 @@
         <v>51</v>
       </c>
       <c r="E107" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F107">
-        <v>170</v>
+        <v>9</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2729,10 +2729,10 @@
         <v>51</v>
       </c>
       <c r="E108" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F108">
-        <v>1</v>
+        <v>169</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2749,10 +2749,10 @@
         <v>51</v>
       </c>
       <c r="E109" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F109">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2769,10 +2769,10 @@
         <v>51</v>
       </c>
       <c r="E110" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F110">
-        <v>8</v>
+        <v>171</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2780,7 +2780,7 @@
         <v>6</v>
       </c>
       <c r="B111" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C111">
         <v>2025</v>
@@ -2789,10 +2789,10 @@
         <v>51</v>
       </c>
       <c r="E111" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="F111">
-        <v>57</v>
+        <v>170</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2800,7 +2800,7 @@
         <v>6</v>
       </c>
       <c r="B112" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C112">
         <v>2025</v>
@@ -2809,10 +2809,10 @@
         <v>51</v>
       </c>
       <c r="E112" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="F112">
-        <v>58</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2820,7 +2820,7 @@
         <v>6</v>
       </c>
       <c r="B113" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C113">
         <v>2025</v>
@@ -2829,10 +2829,10 @@
         <v>51</v>
       </c>
       <c r="E113" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F113">
-        <v>57</v>
+        <v>172</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2840,7 +2840,7 @@
         <v>6</v>
       </c>
       <c r="B114" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C114">
         <v>2025</v>
@@ -2849,10 +2849,10 @@
         <v>51</v>
       </c>
       <c r="E114" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="F114">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2869,10 +2869,10 @@
         <v>51</v>
       </c>
       <c r="E115" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="F115">
-        <v>3</v>
+        <v>57</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2889,10 +2889,10 @@
         <v>51</v>
       </c>
       <c r="E116" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F116">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2909,7 +2909,7 @@
         <v>51</v>
       </c>
       <c r="E117" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F117">
         <v>57</v>
@@ -2929,10 +2929,10 @@
         <v>51</v>
       </c>
       <c r="E118" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F118">
-        <v>56</v>
+        <v>3</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2949,10 +2949,10 @@
         <v>51</v>
       </c>
       <c r="E119" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F119">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2969,7 +2969,7 @@
         <v>51</v>
       </c>
       <c r="E120" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F120">
         <v>57</v>
@@ -2989,10 +2989,10 @@
         <v>51</v>
       </c>
       <c r="E121" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F121">
-        <v>1</v>
+        <v>57</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3000,7 +3000,7 @@
         <v>6</v>
       </c>
       <c r="B122" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C122">
         <v>2025</v>
@@ -3009,10 +3009,10 @@
         <v>51</v>
       </c>
       <c r="E122" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F122">
-        <v>38</v>
+        <v>56</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3020,7 +3020,7 @@
         <v>6</v>
       </c>
       <c r="B123" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C123">
         <v>2025</v>
@@ -3029,10 +3029,10 @@
         <v>51</v>
       </c>
       <c r="E123" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F123">
-        <v>39</v>
+        <v>57</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3040,7 +3040,7 @@
         <v>6</v>
       </c>
       <c r="B124" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C124">
         <v>2025</v>
@@ -3049,10 +3049,10 @@
         <v>51</v>
       </c>
       <c r="E124" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F124">
-        <v>38</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3060,7 +3060,7 @@
         <v>6</v>
       </c>
       <c r="B125" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C125">
         <v>2025</v>
@@ -3069,10 +3069,10 @@
         <v>51</v>
       </c>
       <c r="E125" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F125">
-        <v>2</v>
+        <v>57</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3080,7 +3080,7 @@
         <v>6</v>
       </c>
       <c r="B126" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C126">
         <v>2025</v>
@@ -3089,10 +3089,10 @@
         <v>51</v>
       </c>
       <c r="E126" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F126">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3109,10 +3109,10 @@
         <v>51</v>
       </c>
       <c r="E127" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F127">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3129,7 +3129,7 @@
         <v>51</v>
       </c>
       <c r="E128" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F128">
         <v>39</v>
@@ -3149,10 +3149,10 @@
         <v>51</v>
       </c>
       <c r="E129" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F129">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3169,10 +3169,10 @@
         <v>51</v>
       </c>
       <c r="E130" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F130">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3189,10 +3189,10 @@
         <v>51</v>
       </c>
       <c r="E131" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F131">
-        <v>39</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3209,10 +3209,10 @@
         <v>51</v>
       </c>
       <c r="E132" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F132">
-        <v>2</v>
+        <v>39</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3220,7 +3220,7 @@
         <v>6</v>
       </c>
       <c r="B133" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C133">
         <v>2025</v>
@@ -3229,10 +3229,10 @@
         <v>51</v>
       </c>
       <c r="E133" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F133">
-        <v>95</v>
+        <v>39</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3240,7 +3240,7 @@
         <v>6</v>
       </c>
       <c r="B134" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C134">
         <v>2025</v>
@@ -3249,10 +3249,10 @@
         <v>51</v>
       </c>
       <c r="E134" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F134">
-        <v>95</v>
+        <v>39</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3260,7 +3260,7 @@
         <v>6</v>
       </c>
       <c r="B135" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C135">
         <v>2025</v>
@@ -3269,10 +3269,10 @@
         <v>51</v>
       </c>
       <c r="E135" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F135">
-        <v>95</v>
+        <v>37</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3280,7 +3280,7 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C136">
         <v>2025</v>
@@ -3289,10 +3289,10 @@
         <v>51</v>
       </c>
       <c r="E136" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F136">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3300,7 +3300,7 @@
         <v>6</v>
       </c>
       <c r="B137" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C137">
         <v>2025</v>
@@ -3309,10 +3309,10 @@
         <v>51</v>
       </c>
       <c r="E137" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F137">
-        <v>95</v>
+        <v>39</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3320,7 +3320,7 @@
         <v>6</v>
       </c>
       <c r="B138" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C138">
         <v>2025</v>
@@ -3329,10 +3329,10 @@
         <v>51</v>
       </c>
       <c r="E138" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F138">
-        <v>89</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3349,10 +3349,10 @@
         <v>51</v>
       </c>
       <c r="E139" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F139">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3369,10 +3369,10 @@
         <v>51</v>
       </c>
       <c r="E140" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F140">
-        <v>1</v>
+        <v>95</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3389,7 +3389,7 @@
         <v>51</v>
       </c>
       <c r="E141" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="F141">
         <v>95</v>
@@ -3409,10 +3409,10 @@
         <v>51</v>
       </c>
       <c r="E142" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="F142">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3420,7 +3420,7 @@
         <v>6</v>
       </c>
       <c r="B143" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C143">
         <v>2025</v>
@@ -3429,10 +3429,10 @@
         <v>51</v>
       </c>
       <c r="E143" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F143">
-        <v>72</v>
+        <v>95</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3440,7 +3440,7 @@
         <v>6</v>
       </c>
       <c r="B144" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C144">
         <v>2025</v>
@@ -3449,10 +3449,10 @@
         <v>51</v>
       </c>
       <c r="E144" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F144">
-        <v>73</v>
+        <v>89</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3460,7 +3460,7 @@
         <v>6</v>
       </c>
       <c r="B145" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C145">
         <v>2025</v>
@@ -3469,10 +3469,10 @@
         <v>51</v>
       </c>
       <c r="E145" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F145">
-        <v>72</v>
+        <v>93</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3480,7 +3480,7 @@
         <v>6</v>
       </c>
       <c r="B146" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C146">
         <v>2025</v>
@@ -3489,10 +3489,10 @@
         <v>51</v>
       </c>
       <c r="E146" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F146">
-        <v>4</v>
+        <v>95</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3500,7 +3500,7 @@
         <v>6</v>
       </c>
       <c r="B147" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C147">
         <v>2025</v>
@@ -3509,10 +3509,10 @@
         <v>51</v>
       </c>
       <c r="E147" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F147">
-        <v>72</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3520,7 +3520,7 @@
         <v>6</v>
       </c>
       <c r="B148" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C148">
         <v>2025</v>
@@ -3529,10 +3529,10 @@
         <v>51</v>
       </c>
       <c r="E148" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F148">
-        <v>73</v>
+        <v>95</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3540,7 +3540,7 @@
         <v>6</v>
       </c>
       <c r="B149" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C149">
         <v>2025</v>
@@ -3549,10 +3549,10 @@
         <v>51</v>
       </c>
       <c r="E149" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F149">
-        <v>72</v>
+        <v>5</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3569,10 +3569,10 @@
         <v>51</v>
       </c>
       <c r="E150" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="F150">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3589,10 +3589,10 @@
         <v>51</v>
       </c>
       <c r="E151" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F151">
-        <v>1</v>
+        <v>73</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -3609,10 +3609,10 @@
         <v>51</v>
       </c>
       <c r="E152" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="F152">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3629,7 +3629,7 @@
         <v>51</v>
       </c>
       <c r="E153" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="F153">
         <v>4</v>
@@ -3640,7 +3640,7 @@
         <v>6</v>
       </c>
       <c r="B154" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C154">
         <v>2025</v>
@@ -3649,10 +3649,10 @@
         <v>51</v>
       </c>
       <c r="E154" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F154">
-        <v>41</v>
+        <v>72</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3660,7 +3660,7 @@
         <v>6</v>
       </c>
       <c r="B155" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C155">
         <v>2025</v>
@@ -3669,10 +3669,10 @@
         <v>51</v>
       </c>
       <c r="E155" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F155">
-        <v>39</v>
+        <v>73</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3680,7 +3680,7 @@
         <v>6</v>
       </c>
       <c r="B156" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C156">
         <v>2025</v>
@@ -3689,10 +3689,10 @@
         <v>51</v>
       </c>
       <c r="E156" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F156">
-        <v>39</v>
+        <v>72</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3700,7 +3700,7 @@
         <v>6</v>
       </c>
       <c r="B157" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C157">
         <v>2025</v>
@@ -3709,10 +3709,10 @@
         <v>51</v>
       </c>
       <c r="E157" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F157">
-        <v>1</v>
+        <v>73</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3720,7 +3720,7 @@
         <v>6</v>
       </c>
       <c r="B158" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C158">
         <v>2025</v>
@@ -3729,10 +3729,10 @@
         <v>51</v>
       </c>
       <c r="E158" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F158">
-        <v>39</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3740,7 +3740,7 @@
         <v>6</v>
       </c>
       <c r="B159" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C159">
         <v>2025</v>
@@ -3749,10 +3749,10 @@
         <v>51</v>
       </c>
       <c r="E159" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F159">
-        <v>40</v>
+        <v>71</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3760,7 +3760,7 @@
         <v>6</v>
       </c>
       <c r="B160" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C160">
         <v>2025</v>
@@ -3769,10 +3769,10 @@
         <v>51</v>
       </c>
       <c r="E160" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F160">
-        <v>40</v>
+        <v>4</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3789,10 +3789,10 @@
         <v>51</v>
       </c>
       <c r="E161" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="F161">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3809,10 +3809,10 @@
         <v>51</v>
       </c>
       <c r="E162" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F162">
-        <v>1</v>
+        <v>39</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3829,7 +3829,7 @@
         <v>51</v>
       </c>
       <c r="E163" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="F163">
         <v>39</v>
@@ -3849,10 +3849,10 @@
         <v>51</v>
       </c>
       <c r="E164" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="F164">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -3860,7 +3860,7 @@
         <v>6</v>
       </c>
       <c r="B165" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C165">
         <v>2025</v>
@@ -3869,10 +3869,10 @@
         <v>51</v>
       </c>
       <c r="E165" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F165">
-        <v>55</v>
+        <v>39</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -3880,7 +3880,7 @@
         <v>6</v>
       </c>
       <c r="B166" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C166">
         <v>2025</v>
@@ -3889,10 +3889,10 @@
         <v>51</v>
       </c>
       <c r="E166" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F166">
-        <v>51</v>
+        <v>40</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -3900,7 +3900,7 @@
         <v>6</v>
       </c>
       <c r="B167" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C167">
         <v>2025</v>
@@ -3909,10 +3909,10 @@
         <v>51</v>
       </c>
       <c r="E167" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F167">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -3920,7 +3920,7 @@
         <v>6</v>
       </c>
       <c r="B168" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C168">
         <v>2025</v>
@@ -3929,10 +3929,10 @@
         <v>51</v>
       </c>
       <c r="E168" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F168">
-        <v>3</v>
+        <v>39</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -3940,7 +3940,7 @@
         <v>6</v>
       </c>
       <c r="B169" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C169">
         <v>2025</v>
@@ -3949,10 +3949,10 @@
         <v>51</v>
       </c>
       <c r="E169" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F169">
-        <v>51</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -3960,7 +3960,7 @@
         <v>6</v>
       </c>
       <c r="B170" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C170">
         <v>2025</v>
@@ -3969,10 +3969,10 @@
         <v>51</v>
       </c>
       <c r="E170" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F170">
-        <v>52</v>
+        <v>39</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -3980,7 +3980,7 @@
         <v>6</v>
       </c>
       <c r="B171" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C171">
         <v>2025</v>
@@ -3989,10 +3989,10 @@
         <v>51</v>
       </c>
       <c r="E171" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F171">
-        <v>52</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4009,10 +4009,10 @@
         <v>51</v>
       </c>
       <c r="E172" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F172">
-        <v>1</v>
+        <v>55</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4029,10 +4029,10 @@
         <v>51</v>
       </c>
       <c r="E173" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F173">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4049,10 +4049,10 @@
         <v>51</v>
       </c>
       <c r="E174" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F174">
-        <v>2</v>
+        <v>50</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4060,7 +4060,7 @@
         <v>6</v>
       </c>
       <c r="B175" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C175">
         <v>2025</v>
@@ -4069,10 +4069,10 @@
         <v>51</v>
       </c>
       <c r="E175" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F175">
-        <v>59</v>
+        <v>3</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4080,7 +4080,7 @@
         <v>6</v>
       </c>
       <c r="B176" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C176">
         <v>2025</v>
@@ -4089,10 +4089,10 @@
         <v>51</v>
       </c>
       <c r="E176" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F176">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4100,7 +4100,7 @@
         <v>6</v>
       </c>
       <c r="B177" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C177">
         <v>2025</v>
@@ -4109,10 +4109,10 @@
         <v>51</v>
       </c>
       <c r="E177" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F177">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4120,7 +4120,7 @@
         <v>6</v>
       </c>
       <c r="B178" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C178">
         <v>2025</v>
@@ -4129,10 +4129,10 @@
         <v>51</v>
       </c>
       <c r="E178" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F178">
-        <v>3</v>
+        <v>52</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4140,7 +4140,7 @@
         <v>6</v>
       </c>
       <c r="B179" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C179">
         <v>2025</v>
@@ -4149,10 +4149,10 @@
         <v>51</v>
       </c>
       <c r="E179" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F179">
-        <v>3</v>
+        <v>52</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4160,7 +4160,7 @@
         <v>6</v>
       </c>
       <c r="B180" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C180">
         <v>2025</v>
@@ -4169,10 +4169,10 @@
         <v>51</v>
       </c>
       <c r="E180" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F180">
-        <v>60</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4180,7 +4180,7 @@
         <v>6</v>
       </c>
       <c r="B181" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C181">
         <v>2025</v>
@@ -4189,10 +4189,10 @@
         <v>51</v>
       </c>
       <c r="E181" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F181">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4200,7 +4200,7 @@
         <v>6</v>
       </c>
       <c r="B182" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C182">
         <v>2025</v>
@@ -4209,10 +4209,10 @@
         <v>51</v>
       </c>
       <c r="E182" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F182">
-        <v>60</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4229,10 +4229,10 @@
         <v>51</v>
       </c>
       <c r="E183" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F183">
-        <v>1</v>
+        <v>59</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4249,10 +4249,10 @@
         <v>51</v>
       </c>
       <c r="E184" t="s">
+        <v>53</v>
+      </c>
+      <c r="F184">
         <v>61</v>
-      </c>
-      <c r="F184">
-        <v>60</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4269,10 +4269,10 @@
         <v>51</v>
       </c>
       <c r="E185" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F185">
-        <v>3</v>
+        <v>59</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4280,7 +4280,7 @@
         <v>6</v>
       </c>
       <c r="B186" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C186">
         <v>2025</v>
@@ -4289,10 +4289,10 @@
         <v>51</v>
       </c>
       <c r="E186" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F186">
-        <v>63</v>
+        <v>3</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4300,7 +4300,7 @@
         <v>6</v>
       </c>
       <c r="B187" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C187">
         <v>2025</v>
@@ -4309,10 +4309,10 @@
         <v>51</v>
       </c>
       <c r="E187" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="F187">
-        <v>63</v>
+        <v>3</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4320,7 +4320,7 @@
         <v>6</v>
       </c>
       <c r="B188" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C188">
         <v>2025</v>
@@ -4329,10 +4329,10 @@
         <v>51</v>
       </c>
       <c r="E188" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F188">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4340,7 +4340,7 @@
         <v>6</v>
       </c>
       <c r="B189" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C189">
         <v>2025</v>
@@ -4349,10 +4349,10 @@
         <v>51</v>
       </c>
       <c r="E189" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F189">
-        <v>3</v>
+        <v>56</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4360,7 +4360,7 @@
         <v>6</v>
       </c>
       <c r="B190" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C190">
         <v>2025</v>
@@ -4369,10 +4369,10 @@
         <v>51</v>
       </c>
       <c r="E190" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F190">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4380,7 +4380,7 @@
         <v>6</v>
       </c>
       <c r="B191" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C191">
         <v>2025</v>
@@ -4389,10 +4389,10 @@
         <v>51</v>
       </c>
       <c r="E191" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F191">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4400,7 +4400,7 @@
         <v>6</v>
       </c>
       <c r="B192" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C192">
         <v>2025</v>
@@ -4409,10 +4409,10 @@
         <v>51</v>
       </c>
       <c r="E192" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F192">
-        <v>61</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -4420,7 +4420,7 @@
         <v>6</v>
       </c>
       <c r="B193" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C193">
         <v>2025</v>
@@ -4429,10 +4429,10 @@
         <v>51</v>
       </c>
       <c r="E193" t="s">
+        <v>61</v>
+      </c>
+      <c r="F193">
         <v>60</v>
-      </c>
-      <c r="F193">
-        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -4440,7 +4440,7 @@
         <v>6</v>
       </c>
       <c r="B194" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C194">
         <v>2025</v>
@@ -4449,10 +4449,10 @@
         <v>51</v>
       </c>
       <c r="E194" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F194">
-        <v>62</v>
+        <v>3</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -4469,10 +4469,10 @@
         <v>51</v>
       </c>
       <c r="E195" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F195">
-        <v>3</v>
+        <v>63</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -4480,7 +4480,7 @@
         <v>6</v>
       </c>
       <c r="B196" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C196">
         <v>2025</v>
@@ -4489,10 +4489,10 @@
         <v>51</v>
       </c>
       <c r="E196" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F196">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -4500,7 +4500,7 @@
         <v>6</v>
       </c>
       <c r="B197" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C197">
         <v>2025</v>
@@ -4509,10 +4509,10 @@
         <v>51</v>
       </c>
       <c r="E197" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F197">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -4520,7 +4520,7 @@
         <v>6</v>
       </c>
       <c r="B198" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C198">
         <v>2025</v>
@@ -4529,10 +4529,10 @@
         <v>51</v>
       </c>
       <c r="E198" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F198">
-        <v>55</v>
+        <v>3</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -4540,7 +4540,7 @@
         <v>6</v>
       </c>
       <c r="B199" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C199">
         <v>2025</v>
@@ -4549,10 +4549,10 @@
         <v>51</v>
       </c>
       <c r="E199" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F199">
-        <v>2</v>
+        <v>63</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -4560,7 +4560,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C200">
         <v>2025</v>
@@ -4569,10 +4569,10 @@
         <v>51</v>
       </c>
       <c r="E200" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F200">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -4580,7 +4580,7 @@
         <v>6</v>
       </c>
       <c r="B201" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C201">
         <v>2025</v>
@@ -4589,10 +4589,10 @@
         <v>51</v>
       </c>
       <c r="E201" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F201">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -4600,7 +4600,7 @@
         <v>6</v>
       </c>
       <c r="B202" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C202">
         <v>2025</v>
@@ -4609,10 +4609,10 @@
         <v>51</v>
       </c>
       <c r="E202" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F202">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -4620,7 +4620,7 @@
         <v>6</v>
       </c>
       <c r="B203" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C203">
         <v>2025</v>
@@ -4629,10 +4629,10 @@
         <v>51</v>
       </c>
       <c r="E203" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F203">
-        <v>57</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -4640,7 +4640,7 @@
         <v>6</v>
       </c>
       <c r="B204" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C204">
         <v>2025</v>
@@ -4649,10 +4649,10 @@
         <v>51</v>
       </c>
       <c r="E204" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F204">
-        <v>1</v>
+        <v>62</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -4660,7 +4660,7 @@
         <v>6</v>
       </c>
       <c r="B205" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C205">
         <v>2025</v>
@@ -4669,10 +4669,10 @@
         <v>51</v>
       </c>
       <c r="E205" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F205">
-        <v>58</v>
+        <v>3</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -4689,10 +4689,10 @@
         <v>51</v>
       </c>
       <c r="E206" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F206">
-        <v>3</v>
+        <v>59</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -4700,7 +4700,7 @@
         <v>6</v>
       </c>
       <c r="B207" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C207">
         <v>2025</v>
@@ -4709,10 +4709,10 @@
         <v>51</v>
       </c>
       <c r="E207" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F207">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -4720,7 +4720,7 @@
         <v>6</v>
       </c>
       <c r="B208" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C208">
         <v>2025</v>
@@ -4729,10 +4729,10 @@
         <v>51</v>
       </c>
       <c r="E208" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F208">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -4740,7 +4740,7 @@
         <v>6</v>
       </c>
       <c r="B209" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C209">
         <v>2025</v>
@@ -4749,10 +4749,10 @@
         <v>51</v>
       </c>
       <c r="E209" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F209">
-        <v>49</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -4760,7 +4760,7 @@
         <v>6</v>
       </c>
       <c r="B210" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C210">
         <v>2025</v>
@@ -4769,10 +4769,10 @@
         <v>51</v>
       </c>
       <c r="E210" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F210">
-        <v>3</v>
+        <v>56</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -4780,7 +4780,7 @@
         <v>6</v>
       </c>
       <c r="B211" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C211">
         <v>2025</v>
@@ -4789,10 +4789,10 @@
         <v>51</v>
       </c>
       <c r="E211" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F211">
-        <v>3</v>
+        <v>59</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -4800,7 +4800,7 @@
         <v>6</v>
       </c>
       <c r="B212" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C212">
         <v>2025</v>
@@ -4809,10 +4809,10 @@
         <v>51</v>
       </c>
       <c r="E212" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F212">
-        <v>48</v>
+        <v>57</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -4820,7 +4820,7 @@
         <v>6</v>
       </c>
       <c r="B213" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C213">
         <v>2025</v>
@@ -4829,10 +4829,10 @@
         <v>51</v>
       </c>
       <c r="E213" t="s">
+        <v>59</v>
+      </c>
+      <c r="F213">
         <v>57</v>
-      </c>
-      <c r="F213">
-        <v>49</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -4840,7 +4840,7 @@
         <v>6</v>
       </c>
       <c r="B214" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C214">
         <v>2025</v>
@@ -4849,10 +4849,10 @@
         <v>51</v>
       </c>
       <c r="E214" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F214">
-        <v>49</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -4860,7 +4860,7 @@
         <v>6</v>
       </c>
       <c r="B215" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C215">
         <v>2025</v>
@@ -4869,10 +4869,10 @@
         <v>51</v>
       </c>
       <c r="E215" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F215">
-        <v>1</v>
+        <v>58</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -4880,7 +4880,7 @@
         <v>6</v>
       </c>
       <c r="B216" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C216">
         <v>2025</v>
@@ -4889,10 +4889,10 @@
         <v>51</v>
       </c>
       <c r="E216" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F216">
-        <v>50</v>
+        <v>3</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -4909,10 +4909,10 @@
         <v>51</v>
       </c>
       <c r="E217" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F217">
-        <v>3</v>
+        <v>49</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -4920,7 +4920,7 @@
         <v>6</v>
       </c>
       <c r="B218" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C218">
         <v>2025</v>
@@ -4929,10 +4929,10 @@
         <v>51</v>
       </c>
       <c r="E218" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F218">
-        <v>61</v>
+        <v>49</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -4940,7 +4940,7 @@
         <v>6</v>
       </c>
       <c r="B219" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C219">
         <v>2025</v>
@@ -4949,10 +4949,10 @@
         <v>51</v>
       </c>
       <c r="E219" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F219">
-        <v>61</v>
+        <v>49</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -4960,7 +4960,7 @@
         <v>6</v>
       </c>
       <c r="B220" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C220">
         <v>2025</v>
@@ -4969,10 +4969,10 @@
         <v>51</v>
       </c>
       <c r="E220" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F220">
-        <v>60</v>
+        <v>3</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -4980,7 +4980,7 @@
         <v>6</v>
       </c>
       <c r="B221" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C221">
         <v>2025</v>
@@ -4989,7 +4989,7 @@
         <v>51</v>
       </c>
       <c r="E221" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="F221">
         <v>3</v>
@@ -5000,7 +5000,7 @@
         <v>6</v>
       </c>
       <c r="B222" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C222">
         <v>2025</v>
@@ -5009,10 +5009,10 @@
         <v>51</v>
       </c>
       <c r="E222" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="F222">
-        <v>3</v>
+        <v>48</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5020,7 +5020,7 @@
         <v>6</v>
       </c>
       <c r="B223" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C223">
         <v>2025</v>
@@ -5029,10 +5029,10 @@
         <v>51</v>
       </c>
       <c r="E223" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F223">
-        <v>61</v>
+        <v>49</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5040,7 +5040,7 @@
         <v>6</v>
       </c>
       <c r="B224" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C224">
         <v>2025</v>
@@ -5049,10 +5049,10 @@
         <v>51</v>
       </c>
       <c r="E224" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F224">
-        <v>61</v>
+        <v>49</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5060,7 +5060,7 @@
         <v>6</v>
       </c>
       <c r="B225" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C225">
         <v>2025</v>
@@ -5069,10 +5069,10 @@
         <v>51</v>
       </c>
       <c r="E225" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F225">
-        <v>59</v>
+        <v>49</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5080,7 +5080,7 @@
         <v>6</v>
       </c>
       <c r="B226" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C226">
         <v>2025</v>
@@ -5100,7 +5100,7 @@
         <v>6</v>
       </c>
       <c r="B227" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C227">
         <v>2025</v>
@@ -5112,7 +5112,7 @@
         <v>61</v>
       </c>
       <c r="F227">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5120,7 +5120,7 @@
         <v>6</v>
       </c>
       <c r="B228" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C228">
         <v>2025</v>
@@ -5140,7 +5140,7 @@
         <v>6</v>
       </c>
       <c r="B229" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C229">
         <v>2025</v>
@@ -5152,7 +5152,7 @@
         <v>52</v>
       </c>
       <c r="F229">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5160,7 +5160,7 @@
         <v>6</v>
       </c>
       <c r="B230" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C230">
         <v>2025</v>
@@ -5172,7 +5172,7 @@
         <v>53</v>
       </c>
       <c r="F230">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5180,7 +5180,7 @@
         <v>6</v>
       </c>
       <c r="B231" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C231">
         <v>2025</v>
@@ -5192,7 +5192,7 @@
         <v>54</v>
       </c>
       <c r="F231">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5200,7 +5200,7 @@
         <v>6</v>
       </c>
       <c r="B232" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C232">
         <v>2025</v>
@@ -5212,7 +5212,7 @@
         <v>55</v>
       </c>
       <c r="F232">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5220,7 +5220,7 @@
         <v>6</v>
       </c>
       <c r="B233" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C233">
         <v>2025</v>
@@ -5229,10 +5229,10 @@
         <v>51</v>
       </c>
       <c r="E233" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="F233">
-        <v>56</v>
+        <v>3</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5240,7 +5240,7 @@
         <v>6</v>
       </c>
       <c r="B234" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C234">
         <v>2025</v>
@@ -5249,10 +5249,10 @@
         <v>51</v>
       </c>
       <c r="E234" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F234">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5260,7 +5260,7 @@
         <v>6</v>
       </c>
       <c r="B235" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C235">
         <v>2025</v>
@@ -5269,10 +5269,10 @@
         <v>51</v>
       </c>
       <c r="E235" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F235">
-        <v>54</v>
+        <v>61</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5280,7 +5280,7 @@
         <v>6</v>
       </c>
       <c r="B236" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C236">
         <v>2025</v>
@@ -5289,10 +5289,10 @@
         <v>51</v>
       </c>
       <c r="E236" t="s">
+        <v>58</v>
+      </c>
+      <c r="F236">
         <v>59</v>
-      </c>
-      <c r="F236">
-        <v>57</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5300,7 +5300,7 @@
         <v>6</v>
       </c>
       <c r="B237" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C237">
         <v>2025</v>
@@ -5309,10 +5309,10 @@
         <v>51</v>
       </c>
       <c r="E237" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F237">
-        <v>1</v>
+        <v>62</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5320,7 +5320,7 @@
         <v>6</v>
       </c>
       <c r="B238" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C238">
         <v>2025</v>
@@ -5329,10 +5329,10 @@
         <v>51</v>
       </c>
       <c r="E238" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F238">
-        <v>56</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5340,7 +5340,7 @@
         <v>6</v>
       </c>
       <c r="B239" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C239">
         <v>2025</v>
@@ -5349,10 +5349,10 @@
         <v>51</v>
       </c>
       <c r="E239" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F239">
-        <v>3</v>
+        <v>61</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5360,7 +5360,7 @@
         <v>6</v>
       </c>
       <c r="B240" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C240">
         <v>2025</v>
@@ -5369,10 +5369,10 @@
         <v>51</v>
       </c>
       <c r="E240" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="F240">
-        <v>105</v>
+        <v>3</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5380,7 +5380,7 @@
         <v>6</v>
       </c>
       <c r="B241" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C241">
         <v>2025</v>
@@ -5389,10 +5389,10 @@
         <v>51</v>
       </c>
       <c r="E241" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F241">
-        <v>107</v>
+        <v>56</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5400,7 +5400,7 @@
         <v>6</v>
       </c>
       <c r="B242" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C242">
         <v>2025</v>
@@ -5409,10 +5409,10 @@
         <v>51</v>
       </c>
       <c r="E242" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F242">
-        <v>106</v>
+        <v>56</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -5420,7 +5420,7 @@
         <v>6</v>
       </c>
       <c r="B243" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C243">
         <v>2025</v>
@@ -5429,10 +5429,10 @@
         <v>51</v>
       </c>
       <c r="E243" t="s">
+        <v>54</v>
+      </c>
+      <c r="F243">
         <v>55</v>
-      </c>
-      <c r="F243">
-        <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -5440,7 +5440,7 @@
         <v>6</v>
       </c>
       <c r="B244" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C244">
         <v>2025</v>
@@ -5449,10 +5449,10 @@
         <v>51</v>
       </c>
       <c r="E244" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F244">
-        <v>107</v>
+        <v>7</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -5460,7 +5460,7 @@
         <v>6</v>
       </c>
       <c r="B245" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C245">
         <v>2025</v>
@@ -5469,10 +5469,10 @@
         <v>51</v>
       </c>
       <c r="E245" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F245">
-        <v>107</v>
+        <v>56</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -5480,7 +5480,7 @@
         <v>6</v>
       </c>
       <c r="B246" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C246">
         <v>2025</v>
@@ -5489,10 +5489,10 @@
         <v>51</v>
       </c>
       <c r="E246" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F246">
-        <v>106</v>
+        <v>55</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -5500,7 +5500,7 @@
         <v>6</v>
       </c>
       <c r="B247" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C247">
         <v>2025</v>
@@ -5509,10 +5509,10 @@
         <v>51</v>
       </c>
       <c r="E247" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F247">
-        <v>105</v>
+        <v>54</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -5520,7 +5520,7 @@
         <v>6</v>
       </c>
       <c r="B248" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C248">
         <v>2025</v>
@@ -5529,10 +5529,10 @@
         <v>51</v>
       </c>
       <c r="E248" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F248">
-        <v>1</v>
+        <v>57</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -5540,7 +5540,7 @@
         <v>6</v>
       </c>
       <c r="B249" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C249">
         <v>2025</v>
@@ -5549,10 +5549,10 @@
         <v>51</v>
       </c>
       <c r="E249" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F249">
-        <v>106</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -5560,7 +5560,7 @@
         <v>6</v>
       </c>
       <c r="B250" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C250">
         <v>2025</v>
@@ -5569,10 +5569,10 @@
         <v>51</v>
       </c>
       <c r="E250" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F250">
-        <v>5</v>
+        <v>56</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -5580,7 +5580,7 @@
         <v>6</v>
       </c>
       <c r="B251" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C251">
         <v>2025</v>
@@ -5589,10 +5589,10 @@
         <v>51</v>
       </c>
       <c r="E251" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="F251">
-        <v>68</v>
+        <v>3</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -5600,7 +5600,7 @@
         <v>6</v>
       </c>
       <c r="B252" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C252">
         <v>2025</v>
@@ -5609,10 +5609,10 @@
         <v>51</v>
       </c>
       <c r="E252" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F252">
-        <v>69</v>
+        <v>105</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -5620,7 +5620,7 @@
         <v>6</v>
       </c>
       <c r="B253" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C253">
         <v>2025</v>
@@ -5629,10 +5629,10 @@
         <v>51</v>
       </c>
       <c r="E253" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F253">
-        <v>69</v>
+        <v>107</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -5640,7 +5640,7 @@
         <v>6</v>
       </c>
       <c r="B254" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C254">
         <v>2025</v>
@@ -5649,10 +5649,10 @@
         <v>51</v>
       </c>
       <c r="E254" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F254">
-        <v>4</v>
+        <v>106</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -5660,7 +5660,7 @@
         <v>6</v>
       </c>
       <c r="B255" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C255">
         <v>2025</v>
@@ -5669,10 +5669,10 @@
         <v>51</v>
       </c>
       <c r="E255" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F255">
-        <v>69</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -5680,7 +5680,7 @@
         <v>6</v>
       </c>
       <c r="B256" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C256">
         <v>2025</v>
@@ -5689,10 +5689,10 @@
         <v>51</v>
       </c>
       <c r="E256" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F256">
-        <v>68</v>
+        <v>107</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -5700,7 +5700,7 @@
         <v>6</v>
       </c>
       <c r="B257" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C257">
         <v>2025</v>
@@ -5709,10 +5709,10 @@
         <v>51</v>
       </c>
       <c r="E257" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F257">
-        <v>70</v>
+        <v>107</v>
       </c>
     </row>
     <row r="258" spans="1:6">
@@ -5720,7 +5720,7 @@
         <v>6</v>
       </c>
       <c r="B258" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C258">
         <v>2025</v>
@@ -5729,10 +5729,10 @@
         <v>51</v>
       </c>
       <c r="E258" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F258">
-        <v>68</v>
+        <v>106</v>
       </c>
     </row>
     <row r="259" spans="1:6">
@@ -5740,7 +5740,7 @@
         <v>6</v>
       </c>
       <c r="B259" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C259">
         <v>2025</v>
@@ -5749,10 +5749,10 @@
         <v>51</v>
       </c>
       <c r="E259" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F259">
-        <v>1</v>
+        <v>105</v>
       </c>
     </row>
     <row r="260" spans="1:6">
@@ -5760,7 +5760,7 @@
         <v>6</v>
       </c>
       <c r="B260" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C260">
         <v>2025</v>
@@ -5769,10 +5769,10 @@
         <v>51</v>
       </c>
       <c r="E260" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F260">
-        <v>67</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261" spans="1:6">
@@ -5780,7 +5780,7 @@
         <v>6</v>
       </c>
       <c r="B261" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C261">
         <v>2025</v>
@@ -5789,10 +5789,10 @@
         <v>51</v>
       </c>
       <c r="E261" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F261">
-        <v>4</v>
+        <v>106</v>
       </c>
     </row>
     <row r="262" spans="1:6">
@@ -5800,7 +5800,7 @@
         <v>6</v>
       </c>
       <c r="B262" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C262">
         <v>2025</v>
@@ -5809,10 +5809,10 @@
         <v>51</v>
       </c>
       <c r="E262" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="F262">
-        <v>117</v>
+        <v>5</v>
       </c>
     </row>
     <row r="263" spans="1:6">
@@ -5820,7 +5820,7 @@
         <v>6</v>
       </c>
       <c r="B263" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C263">
         <v>2025</v>
@@ -5829,10 +5829,10 @@
         <v>51</v>
       </c>
       <c r="E263" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F263">
-        <v>119</v>
+        <v>68</v>
       </c>
     </row>
     <row r="264" spans="1:6">
@@ -5840,7 +5840,7 @@
         <v>6</v>
       </c>
       <c r="B264" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C264">
         <v>2025</v>
@@ -5849,10 +5849,10 @@
         <v>51</v>
       </c>
       <c r="E264" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F264">
-        <v>119</v>
+        <v>69</v>
       </c>
     </row>
     <row r="265" spans="1:6">
@@ -5860,7 +5860,7 @@
         <v>6</v>
       </c>
       <c r="B265" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C265">
         <v>2025</v>
@@ -5869,10 +5869,10 @@
         <v>51</v>
       </c>
       <c r="E265" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F265">
-        <v>6</v>
+        <v>69</v>
       </c>
     </row>
     <row r="266" spans="1:6">
@@ -5880,7 +5880,7 @@
         <v>6</v>
       </c>
       <c r="B266" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C266">
         <v>2025</v>
@@ -5889,10 +5889,10 @@
         <v>51</v>
       </c>
       <c r="E266" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F266">
-        <v>118</v>
+        <v>4</v>
       </c>
     </row>
     <row r="267" spans="1:6">
@@ -5900,7 +5900,7 @@
         <v>6</v>
       </c>
       <c r="B267" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C267">
         <v>2025</v>
@@ -5909,10 +5909,10 @@
         <v>51</v>
       </c>
       <c r="E267" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F267">
-        <v>118</v>
+        <v>69</v>
       </c>
     </row>
     <row r="268" spans="1:6">
@@ -5920,7 +5920,7 @@
         <v>6</v>
       </c>
       <c r="B268" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C268">
         <v>2025</v>
@@ -5929,10 +5929,10 @@
         <v>51</v>
       </c>
       <c r="E268" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F268">
-        <v>119</v>
+        <v>68</v>
       </c>
     </row>
     <row r="269" spans="1:6">
@@ -5940,7 +5940,7 @@
         <v>6</v>
       </c>
       <c r="B269" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C269">
         <v>2025</v>
@@ -5949,10 +5949,10 @@
         <v>51</v>
       </c>
       <c r="E269" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F269">
-        <v>117</v>
+        <v>70</v>
       </c>
     </row>
     <row r="270" spans="1:6">
@@ -5960,7 +5960,7 @@
         <v>6</v>
       </c>
       <c r="B270" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C270">
         <v>2025</v>
@@ -5969,10 +5969,10 @@
         <v>51</v>
       </c>
       <c r="E270" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F270">
-        <v>1</v>
+        <v>68</v>
       </c>
     </row>
     <row r="271" spans="1:6">
@@ -5980,7 +5980,7 @@
         <v>6</v>
       </c>
       <c r="B271" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C271">
         <v>2025</v>
@@ -5989,10 +5989,10 @@
         <v>51</v>
       </c>
       <c r="E271" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F271">
-        <v>118</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272" spans="1:6">
@@ -6000,7 +6000,7 @@
         <v>6</v>
       </c>
       <c r="B272" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C272">
         <v>2025</v>
@@ -6009,10 +6009,10 @@
         <v>51</v>
       </c>
       <c r="E272" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F272">
-        <v>6</v>
+        <v>67</v>
       </c>
     </row>
     <row r="273" spans="1:6">
@@ -6020,7 +6020,7 @@
         <v>6</v>
       </c>
       <c r="B273" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C273">
         <v>2025</v>
@@ -6029,10 +6029,10 @@
         <v>51</v>
       </c>
       <c r="E273" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="F273">
-        <v>56</v>
+        <v>4</v>
       </c>
     </row>
     <row r="274" spans="1:6">
@@ -6040,7 +6040,7 @@
         <v>6</v>
       </c>
       <c r="B274" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C274">
         <v>2025</v>
@@ -6049,10 +6049,10 @@
         <v>51</v>
       </c>
       <c r="E274" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F274">
-        <v>53</v>
+        <v>117</v>
       </c>
     </row>
     <row r="275" spans="1:6">
@@ -6060,7 +6060,7 @@
         <v>6</v>
       </c>
       <c r="B275" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C275">
         <v>2025</v>
@@ -6069,10 +6069,10 @@
         <v>51</v>
       </c>
       <c r="E275" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F275">
-        <v>54</v>
+        <v>119</v>
       </c>
     </row>
     <row r="276" spans="1:6">
@@ -6080,7 +6080,7 @@
         <v>6</v>
       </c>
       <c r="B276" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C276">
         <v>2025</v>
@@ -6089,10 +6089,10 @@
         <v>51</v>
       </c>
       <c r="E276" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F276">
-        <v>2</v>
+        <v>119</v>
       </c>
     </row>
     <row r="277" spans="1:6">
@@ -6100,7 +6100,7 @@
         <v>6</v>
       </c>
       <c r="B277" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C277">
         <v>2025</v>
@@ -6109,10 +6109,10 @@
         <v>51</v>
       </c>
       <c r="E277" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F277">
-        <v>53</v>
+        <v>6</v>
       </c>
     </row>
     <row r="278" spans="1:6">
@@ -6120,7 +6120,7 @@
         <v>6</v>
       </c>
       <c r="B278" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C278">
         <v>2025</v>
@@ -6129,10 +6129,10 @@
         <v>51</v>
       </c>
       <c r="E278" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F278">
-        <v>55</v>
+        <v>118</v>
       </c>
     </row>
     <row r="279" spans="1:6">
@@ -6140,7 +6140,7 @@
         <v>6</v>
       </c>
       <c r="B279" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C279">
         <v>2025</v>
@@ -6149,10 +6149,10 @@
         <v>51</v>
       </c>
       <c r="E279" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F279">
-        <v>54</v>
+        <v>118</v>
       </c>
     </row>
     <row r="280" spans="1:6">
@@ -6160,7 +6160,7 @@
         <v>6</v>
       </c>
       <c r="B280" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C280">
         <v>2025</v>
@@ -6169,10 +6169,10 @@
         <v>51</v>
       </c>
       <c r="E280" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F280">
-        <v>53</v>
+        <v>119</v>
       </c>
     </row>
     <row r="281" spans="1:6">
@@ -6180,7 +6180,7 @@
         <v>6</v>
       </c>
       <c r="B281" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C281">
         <v>2025</v>
@@ -6189,10 +6189,10 @@
         <v>51</v>
       </c>
       <c r="E281" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F281">
-        <v>1</v>
+        <v>117</v>
       </c>
     </row>
     <row r="282" spans="1:6">
@@ -6200,7 +6200,7 @@
         <v>6</v>
       </c>
       <c r="B282" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C282">
         <v>2025</v>
@@ -6209,10 +6209,10 @@
         <v>51</v>
       </c>
       <c r="E282" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F282">
-        <v>53</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283" spans="1:6">
@@ -6220,7 +6220,7 @@
         <v>6</v>
       </c>
       <c r="B283" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C283">
         <v>2025</v>
@@ -6229,18 +6229,18 @@
         <v>51</v>
       </c>
       <c r="E283" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F283">
-        <v>3</v>
+        <v>118</v>
       </c>
     </row>
     <row r="284" spans="1:6">
       <c r="A284" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B284" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C284">
         <v>2025</v>
@@ -6249,18 +6249,18 @@
         <v>51</v>
       </c>
       <c r="E284" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="F284">
-        <v>75</v>
+        <v>6</v>
       </c>
     </row>
     <row r="285" spans="1:6">
       <c r="A285" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B285" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C285">
         <v>2025</v>
@@ -6269,18 +6269,18 @@
         <v>51</v>
       </c>
       <c r="E285" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F285">
-        <v>77</v>
+        <v>56</v>
       </c>
     </row>
     <row r="286" spans="1:6">
       <c r="A286" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B286" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C286">
         <v>2025</v>
@@ -6289,18 +6289,18 @@
         <v>51</v>
       </c>
       <c r="E286" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F286">
-        <v>75</v>
+        <v>53</v>
       </c>
     </row>
     <row r="287" spans="1:6">
       <c r="A287" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B287" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C287">
         <v>2025</v>
@@ -6309,18 +6309,18 @@
         <v>51</v>
       </c>
       <c r="E287" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="F287">
-        <v>77</v>
+        <v>54</v>
       </c>
     </row>
     <row r="288" spans="1:6">
       <c r="A288" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B288" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C288">
         <v>2025</v>
@@ -6332,15 +6332,15 @@
         <v>55</v>
       </c>
       <c r="F288">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:6">
       <c r="A289" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B289" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C289">
         <v>2025</v>
@@ -6352,15 +6352,15 @@
         <v>56</v>
       </c>
       <c r="F289">
-        <v>75</v>
+        <v>53</v>
       </c>
     </row>
     <row r="290" spans="1:6">
       <c r="A290" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B290" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C290">
         <v>2025</v>
@@ -6372,15 +6372,15 @@
         <v>57</v>
       </c>
       <c r="F290">
-        <v>80</v>
+        <v>55</v>
       </c>
     </row>
     <row r="291" spans="1:6">
       <c r="A291" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B291" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C291">
         <v>2025</v>
@@ -6389,18 +6389,18 @@
         <v>51</v>
       </c>
       <c r="E291" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F291">
-        <v>77</v>
+        <v>54</v>
       </c>
     </row>
     <row r="292" spans="1:6">
       <c r="A292" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B292" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C292">
         <v>2025</v>
@@ -6409,18 +6409,18 @@
         <v>51</v>
       </c>
       <c r="E292" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F292">
-        <v>14</v>
+        <v>53</v>
       </c>
     </row>
     <row r="293" spans="1:6">
       <c r="A293" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B293" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C293">
         <v>2025</v>
@@ -6429,18 +6429,18 @@
         <v>51</v>
       </c>
       <c r="E293" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F293">
-        <v>80</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294" spans="1:6">
       <c r="A294" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B294" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C294">
         <v>2025</v>
@@ -6449,18 +6449,18 @@
         <v>51</v>
       </c>
       <c r="E294" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F294">
-        <v>4</v>
+        <v>53</v>
       </c>
     </row>
     <row r="295" spans="1:6">
       <c r="A295" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B295" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C295">
         <v>2025</v>
@@ -6469,10 +6469,10 @@
         <v>51</v>
       </c>
       <c r="E295" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="F295">
-        <v>74</v>
+        <v>3</v>
       </c>
     </row>
     <row r="296" spans="1:6">
@@ -6480,7 +6480,7 @@
         <v>7</v>
       </c>
       <c r="B296" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C296">
         <v>2025</v>
@@ -6489,10 +6489,10 @@
         <v>51</v>
       </c>
       <c r="E296" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F296">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="297" spans="1:6">
@@ -6500,7 +6500,7 @@
         <v>7</v>
       </c>
       <c r="B297" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C297">
         <v>2025</v>
@@ -6509,10 +6509,10 @@
         <v>51</v>
       </c>
       <c r="E297" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F297">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="298" spans="1:6">
@@ -6520,7 +6520,7 @@
         <v>7</v>
       </c>
       <c r="B298" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C298">
         <v>2025</v>
@@ -6529,10 +6529,10 @@
         <v>51</v>
       </c>
       <c r="E298" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="F298">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="299" spans="1:6">
@@ -6540,7 +6540,7 @@
         <v>7</v>
       </c>
       <c r="B299" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C299">
         <v>2025</v>
@@ -6549,10 +6549,10 @@
         <v>51</v>
       </c>
       <c r="E299" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="F299">
-        <v>5</v>
+        <v>77</v>
       </c>
     </row>
     <row r="300" spans="1:6">
@@ -6560,7 +6560,7 @@
         <v>7</v>
       </c>
       <c r="B300" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C300">
         <v>2025</v>
@@ -6569,10 +6569,10 @@
         <v>51</v>
       </c>
       <c r="E300" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F300">
-        <v>77</v>
+        <v>4</v>
       </c>
     </row>
     <row r="301" spans="1:6">
@@ -6580,7 +6580,7 @@
         <v>7</v>
       </c>
       <c r="B301" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C301">
         <v>2025</v>
@@ -6589,10 +6589,10 @@
         <v>51</v>
       </c>
       <c r="E301" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="F301">
-        <v>72</v>
+        <v>4</v>
       </c>
     </row>
     <row r="302" spans="1:6">
@@ -6600,7 +6600,7 @@
         <v>7</v>
       </c>
       <c r="B302" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C302">
         <v>2025</v>
@@ -6609,7 +6609,7 @@
         <v>51</v>
       </c>
       <c r="E302" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F302">
         <v>75</v>
@@ -6620,7 +6620,7 @@
         <v>7</v>
       </c>
       <c r="B303" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C303">
         <v>2025</v>
@@ -6629,10 +6629,10 @@
         <v>51</v>
       </c>
       <c r="E303" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F303">
-        <v>19</v>
+        <v>80</v>
       </c>
     </row>
     <row r="304" spans="1:6">
@@ -6640,7 +6640,7 @@
         <v>7</v>
       </c>
       <c r="B304" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C304">
         <v>2025</v>
@@ -6649,10 +6649,10 @@
         <v>51</v>
       </c>
       <c r="E304" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F304">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="305" spans="1:6">
@@ -6660,7 +6660,7 @@
         <v>7</v>
       </c>
       <c r="B305" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C305">
         <v>2025</v>
@@ -6669,10 +6669,10 @@
         <v>51</v>
       </c>
       <c r="E305" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F305">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="306" spans="1:6">
@@ -6680,7 +6680,7 @@
         <v>7</v>
       </c>
       <c r="B306" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C306">
         <v>2025</v>
@@ -6689,10 +6689,10 @@
         <v>51</v>
       </c>
       <c r="E306" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="F306">
-        <v>150</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307" spans="1:6">
@@ -6700,7 +6700,7 @@
         <v>7</v>
       </c>
       <c r="B307" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C307">
         <v>2025</v>
@@ -6709,10 +6709,10 @@
         <v>51</v>
       </c>
       <c r="E307" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="F307">
-        <v>142</v>
+        <v>80</v>
       </c>
     </row>
     <row r="308" spans="1:6">
@@ -6720,7 +6720,7 @@
         <v>7</v>
       </c>
       <c r="B308" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C308">
         <v>2025</v>
@@ -6729,10 +6729,10 @@
         <v>51</v>
       </c>
       <c r="E308" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F308">
-        <v>142</v>
+        <v>4</v>
       </c>
     </row>
     <row r="309" spans="1:6">
@@ -6740,7 +6740,7 @@
         <v>7</v>
       </c>
       <c r="B309" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C309">
         <v>2025</v>
@@ -6749,10 +6749,10 @@
         <v>51</v>
       </c>
       <c r="E309" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="F309">
-        <v>150</v>
+        <v>74</v>
       </c>
     </row>
     <row r="310" spans="1:6">
@@ -6760,7 +6760,7 @@
         <v>7</v>
       </c>
       <c r="B310" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C310">
         <v>2025</v>
@@ -6769,10 +6769,10 @@
         <v>51</v>
       </c>
       <c r="E310" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F310">
-        <v>144</v>
+        <v>78</v>
       </c>
     </row>
     <row r="311" spans="1:6">
@@ -6780,7 +6780,7 @@
         <v>7</v>
       </c>
       <c r="B311" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C311">
         <v>2025</v>
@@ -6789,10 +6789,10 @@
         <v>51</v>
       </c>
       <c r="E311" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F311">
-        <v>150</v>
+        <v>75</v>
       </c>
     </row>
     <row r="312" spans="1:6">
@@ -6800,7 +6800,7 @@
         <v>7</v>
       </c>
       <c r="B312" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C312">
         <v>2025</v>
@@ -6809,10 +6809,10 @@
         <v>51</v>
       </c>
       <c r="E312" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F312">
-        <v>147</v>
+        <v>80</v>
       </c>
     </row>
     <row r="313" spans="1:6">
@@ -6820,7 +6820,7 @@
         <v>7</v>
       </c>
       <c r="B313" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C313">
         <v>2025</v>
@@ -6829,10 +6829,10 @@
         <v>51</v>
       </c>
       <c r="E313" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F313">
-        <v>146</v>
+        <v>5</v>
       </c>
     </row>
     <row r="314" spans="1:6">
@@ -6840,7 +6840,7 @@
         <v>7</v>
       </c>
       <c r="B314" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C314">
         <v>2025</v>
@@ -6849,10 +6849,10 @@
         <v>51</v>
       </c>
       <c r="E314" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="F314">
-        <v>91</v>
+        <v>4</v>
       </c>
     </row>
     <row r="315" spans="1:6">
@@ -6860,7 +6860,7 @@
         <v>7</v>
       </c>
       <c r="B315" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C315">
         <v>2025</v>
@@ -6869,10 +6869,10 @@
         <v>51</v>
       </c>
       <c r="E315" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F315">
-        <v>91</v>
+        <v>77</v>
       </c>
     </row>
     <row r="316" spans="1:6">
@@ -6880,7 +6880,7 @@
         <v>7</v>
       </c>
       <c r="B316" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C316">
         <v>2025</v>
@@ -6889,10 +6889,10 @@
         <v>51</v>
       </c>
       <c r="E316" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F316">
-        <v>93</v>
+        <v>72</v>
       </c>
     </row>
     <row r="317" spans="1:6">
@@ -6900,7 +6900,7 @@
         <v>7</v>
       </c>
       <c r="B317" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C317">
         <v>2025</v>
@@ -6909,10 +6909,10 @@
         <v>51</v>
       </c>
       <c r="E317" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F317">
-        <v>94</v>
+        <v>75</v>
       </c>
     </row>
     <row r="318" spans="1:6">
@@ -6920,7 +6920,7 @@
         <v>7</v>
       </c>
       <c r="B318" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C318">
         <v>2025</v>
@@ -6929,10 +6929,10 @@
         <v>51</v>
       </c>
       <c r="E318" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="F318">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="319" spans="1:6">
@@ -6940,7 +6940,7 @@
         <v>7</v>
       </c>
       <c r="B319" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C319">
         <v>2025</v>
@@ -6949,10 +6949,10 @@
         <v>51</v>
       </c>
       <c r="E319" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F319">
-        <v>95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320" spans="1:6">
@@ -6960,7 +6960,7 @@
         <v>7</v>
       </c>
       <c r="B320" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C320">
         <v>2025</v>
@@ -6969,10 +6969,10 @@
         <v>51</v>
       </c>
       <c r="E320" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F320">
-        <v>94</v>
+        <v>78</v>
       </c>
     </row>
     <row r="321" spans="1:6">
@@ -6980,7 +6980,7 @@
         <v>7</v>
       </c>
       <c r="B321" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C321">
         <v>2025</v>
@@ -6989,10 +6989,10 @@
         <v>51</v>
       </c>
       <c r="E321" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F321">
-        <v>94</v>
+        <v>5</v>
       </c>
     </row>
     <row r="322" spans="1:6">
@@ -7000,7 +7000,7 @@
         <v>7</v>
       </c>
       <c r="B322" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C322">
         <v>2025</v>
@@ -7009,10 +7009,10 @@
         <v>51</v>
       </c>
       <c r="E322" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="F322">
-        <v>92</v>
+        <v>150</v>
       </c>
     </row>
     <row r="323" spans="1:6">
@@ -7020,7 +7020,7 @@
         <v>7</v>
       </c>
       <c r="B323" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C323">
         <v>2025</v>
@@ -7029,10 +7029,10 @@
         <v>51</v>
       </c>
       <c r="E323" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="F323">
-        <v>5</v>
+        <v>142</v>
       </c>
     </row>
     <row r="324" spans="1:6">
@@ -7040,7 +7040,7 @@
         <v>7</v>
       </c>
       <c r="B324" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C324">
         <v>2025</v>
@@ -7049,10 +7049,10 @@
         <v>51</v>
       </c>
       <c r="E324" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F324">
-        <v>111</v>
+        <v>142</v>
       </c>
     </row>
     <row r="325" spans="1:6">
@@ -7060,7 +7060,7 @@
         <v>7</v>
       </c>
       <c r="B325" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C325">
         <v>2025</v>
@@ -7069,10 +7069,10 @@
         <v>51</v>
       </c>
       <c r="E325" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="F325">
-        <v>110</v>
+        <v>150</v>
       </c>
     </row>
     <row r="326" spans="1:6">
@@ -7080,7 +7080,7 @@
         <v>7</v>
       </c>
       <c r="B326" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C326">
         <v>2025</v>
@@ -7089,10 +7089,10 @@
         <v>51</v>
       </c>
       <c r="E326" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F326">
-        <v>110</v>
+        <v>8</v>
       </c>
     </row>
     <row r="327" spans="1:6">
@@ -7100,7 +7100,7 @@
         <v>7</v>
       </c>
       <c r="B327" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C327">
         <v>2025</v>
@@ -7109,10 +7109,10 @@
         <v>51</v>
       </c>
       <c r="E327" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F327">
-        <v>109</v>
+        <v>8</v>
       </c>
     </row>
     <row r="328" spans="1:6">
@@ -7120,7 +7120,7 @@
         <v>7</v>
       </c>
       <c r="B328" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C328">
         <v>2025</v>
@@ -7129,10 +7129,10 @@
         <v>51</v>
       </c>
       <c r="E328" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F328">
-        <v>6</v>
+        <v>144</v>
       </c>
     </row>
     <row r="329" spans="1:6">
@@ -7140,7 +7140,7 @@
         <v>7</v>
       </c>
       <c r="B329" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C329">
         <v>2025</v>
@@ -7149,10 +7149,10 @@
         <v>51</v>
       </c>
       <c r="E329" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F329">
-        <v>117</v>
+        <v>150</v>
       </c>
     </row>
     <row r="330" spans="1:6">
@@ -7160,7 +7160,7 @@
         <v>7</v>
       </c>
       <c r="B330" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C330">
         <v>2025</v>
@@ -7169,10 +7169,10 @@
         <v>51</v>
       </c>
       <c r="E330" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F330">
-        <v>111</v>
+        <v>147</v>
       </c>
     </row>
     <row r="331" spans="1:6">
@@ -7180,7 +7180,7 @@
         <v>7</v>
       </c>
       <c r="B331" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C331">
         <v>2025</v>
@@ -7189,10 +7189,10 @@
         <v>51</v>
       </c>
       <c r="E331" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F331">
-        <v>115</v>
+        <v>1</v>
       </c>
     </row>
     <row r="332" spans="1:6">
@@ -7200,7 +7200,7 @@
         <v>7</v>
       </c>
       <c r="B332" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C332">
         <v>2025</v>
@@ -7209,10 +7209,10 @@
         <v>51</v>
       </c>
       <c r="E332" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F332">
-        <v>14</v>
+        <v>146</v>
       </c>
     </row>
     <row r="333" spans="1:6">
@@ -7220,7 +7220,7 @@
         <v>7</v>
       </c>
       <c r="B333" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C333">
         <v>2025</v>
@@ -7229,10 +7229,10 @@
         <v>51</v>
       </c>
       <c r="E333" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F333">
-        <v>110</v>
+        <v>8</v>
       </c>
     </row>
     <row r="334" spans="1:6">
@@ -7240,7 +7240,7 @@
         <v>7</v>
       </c>
       <c r="B334" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C334">
         <v>2025</v>
@@ -7249,10 +7249,10 @@
         <v>51</v>
       </c>
       <c r="E334" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F334">
-        <v>6</v>
+        <v>91</v>
       </c>
     </row>
     <row r="335" spans="1:6">
@@ -7260,7 +7260,7 @@
         <v>7</v>
       </c>
       <c r="B335" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C335">
         <v>2025</v>
@@ -7269,10 +7269,10 @@
         <v>51</v>
       </c>
       <c r="E335" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F335">
-        <v>183</v>
+        <v>91</v>
       </c>
     </row>
     <row r="336" spans="1:6">
@@ -7280,7 +7280,7 @@
         <v>7</v>
       </c>
       <c r="B336" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C336">
         <v>2025</v>
@@ -7289,10 +7289,10 @@
         <v>51</v>
       </c>
       <c r="E336" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F336">
-        <v>182</v>
+        <v>93</v>
       </c>
     </row>
     <row r="337" spans="1:6">
@@ -7300,7 +7300,7 @@
         <v>7</v>
       </c>
       <c r="B337" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C337">
         <v>2025</v>
@@ -7309,10 +7309,10 @@
         <v>51</v>
       </c>
       <c r="E337" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="F337">
-        <v>181</v>
+        <v>94</v>
       </c>
     </row>
     <row r="338" spans="1:6">
@@ -7320,7 +7320,7 @@
         <v>7</v>
       </c>
       <c r="B338" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C338">
         <v>2025</v>
@@ -7332,7 +7332,7 @@
         <v>55</v>
       </c>
       <c r="F338">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="339" spans="1:6">
@@ -7340,7 +7340,7 @@
         <v>7</v>
       </c>
       <c r="B339" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C339">
         <v>2025</v>
@@ -7349,10 +7349,10 @@
         <v>51</v>
       </c>
       <c r="E339" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="F339">
-        <v>185</v>
+        <v>5</v>
       </c>
     </row>
     <row r="340" spans="1:6">
@@ -7360,7 +7360,7 @@
         <v>7</v>
       </c>
       <c r="B340" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C340">
         <v>2025</v>
@@ -7369,10 +7369,10 @@
         <v>51</v>
       </c>
       <c r="E340" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F340">
-        <v>181</v>
+        <v>95</v>
       </c>
     </row>
     <row r="341" spans="1:6">
@@ -7380,7 +7380,7 @@
         <v>7</v>
       </c>
       <c r="B341" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C341">
         <v>2025</v>
@@ -7389,10 +7389,10 @@
         <v>51</v>
       </c>
       <c r="E341" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F341">
-        <v>28</v>
+        <v>94</v>
       </c>
     </row>
     <row r="342" spans="1:6">
@@ -7400,7 +7400,7 @@
         <v>7</v>
       </c>
       <c r="B342" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C342">
         <v>2025</v>
@@ -7409,10 +7409,10 @@
         <v>51</v>
       </c>
       <c r="E342" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F342">
-        <v>185</v>
+        <v>94</v>
       </c>
     </row>
     <row r="343" spans="1:6">
@@ -7420,7 +7420,7 @@
         <v>7</v>
       </c>
       <c r="B343" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C343">
         <v>2025</v>
@@ -7429,10 +7429,10 @@
         <v>51</v>
       </c>
       <c r="E343" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F343">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344" spans="1:6">
@@ -7440,7 +7440,7 @@
         <v>7</v>
       </c>
       <c r="B344" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C344">
         <v>2025</v>
@@ -7449,10 +7449,10 @@
         <v>51</v>
       </c>
       <c r="E344" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="F344">
-        <v>116</v>
+        <v>92</v>
       </c>
     </row>
     <row r="345" spans="1:6">
@@ -7460,7 +7460,7 @@
         <v>7</v>
       </c>
       <c r="B345" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C345">
         <v>2025</v>
@@ -7469,10 +7469,10 @@
         <v>51</v>
       </c>
       <c r="E345" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="F345">
-        <v>112</v>
+        <v>5</v>
       </c>
     </row>
     <row r="346" spans="1:6">
@@ -7480,7 +7480,7 @@
         <v>7</v>
       </c>
       <c r="B346" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C346">
         <v>2025</v>
@@ -7489,10 +7489,10 @@
         <v>51</v>
       </c>
       <c r="E346" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F346">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="347" spans="1:6">
@@ -7500,7 +7500,7 @@
         <v>7</v>
       </c>
       <c r="B347" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C347">
         <v>2025</v>
@@ -7509,7 +7509,7 @@
         <v>51</v>
       </c>
       <c r="E347" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="F347">
         <v>110</v>
@@ -7520,7 +7520,7 @@
         <v>7</v>
       </c>
       <c r="B348" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C348">
         <v>2025</v>
@@ -7529,10 +7529,10 @@
         <v>51</v>
       </c>
       <c r="E348" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F348">
-        <v>6</v>
+        <v>110</v>
       </c>
     </row>
     <row r="349" spans="1:6">
@@ -7540,7 +7540,7 @@
         <v>7</v>
       </c>
       <c r="B349" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C349">
         <v>2025</v>
@@ -7549,10 +7549,10 @@
         <v>51</v>
       </c>
       <c r="E349" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="F349">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="350" spans="1:6">
@@ -7560,7 +7560,7 @@
         <v>7</v>
       </c>
       <c r="B350" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C350">
         <v>2025</v>
@@ -7569,10 +7569,10 @@
         <v>51</v>
       </c>
       <c r="E350" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F350">
-        <v>110</v>
+        <v>6</v>
       </c>
     </row>
     <row r="351" spans="1:6">
@@ -7580,7 +7580,7 @@
         <v>7</v>
       </c>
       <c r="B351" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C351">
         <v>2025</v>
@@ -7589,10 +7589,10 @@
         <v>51</v>
       </c>
       <c r="E351" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F351">
-        <v>105</v>
+        <v>6</v>
       </c>
     </row>
     <row r="352" spans="1:6">
@@ -7600,7 +7600,7 @@
         <v>7</v>
       </c>
       <c r="B352" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C352">
         <v>2025</v>
@@ -7609,10 +7609,10 @@
         <v>51</v>
       </c>
       <c r="E352" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="F352">
-        <v>14</v>
+        <v>117</v>
       </c>
     </row>
     <row r="353" spans="1:6">
@@ -7620,7 +7620,7 @@
         <v>7</v>
       </c>
       <c r="B353" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C353">
         <v>2025</v>
@@ -7629,10 +7629,10 @@
         <v>51</v>
       </c>
       <c r="E353" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F353">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="354" spans="1:6">
@@ -7640,7 +7640,7 @@
         <v>7</v>
       </c>
       <c r="B354" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C354">
         <v>2025</v>
@@ -7649,10 +7649,10 @@
         <v>51</v>
       </c>
       <c r="E354" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F354">
-        <v>6</v>
+        <v>115</v>
       </c>
     </row>
     <row r="355" spans="1:6">
@@ -7660,7 +7660,7 @@
         <v>7</v>
       </c>
       <c r="B355" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C355">
         <v>2025</v>
@@ -7669,10 +7669,10 @@
         <v>51</v>
       </c>
       <c r="E355" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="F355">
-        <v>101</v>
+        <v>14</v>
       </c>
     </row>
     <row r="356" spans="1:6">
@@ -7680,7 +7680,7 @@
         <v>7</v>
       </c>
       <c r="B356" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C356">
         <v>2025</v>
@@ -7689,10 +7689,10 @@
         <v>51</v>
       </c>
       <c r="E356" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="F356">
-        <v>103</v>
+        <v>1</v>
       </c>
     </row>
     <row r="357" spans="1:6">
@@ -7700,7 +7700,7 @@
         <v>7</v>
       </c>
       <c r="B357" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C357">
         <v>2025</v>
@@ -7709,10 +7709,10 @@
         <v>51</v>
       </c>
       <c r="E357" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F357">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="358" spans="1:6">
@@ -7720,7 +7720,7 @@
         <v>7</v>
       </c>
       <c r="B358" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C358">
         <v>2025</v>
@@ -7729,10 +7729,10 @@
         <v>51</v>
       </c>
       <c r="E358" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F358">
-        <v>105</v>
+        <v>6</v>
       </c>
     </row>
     <row r="359" spans="1:6">
@@ -7740,7 +7740,7 @@
         <v>7</v>
       </c>
       <c r="B359" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C359">
         <v>2025</v>
@@ -7749,10 +7749,10 @@
         <v>51</v>
       </c>
       <c r="E359" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F359">
-        <v>6</v>
+        <v>183</v>
       </c>
     </row>
     <row r="360" spans="1:6">
@@ -7760,7 +7760,7 @@
         <v>7</v>
       </c>
       <c r="B360" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C360">
         <v>2025</v>
@@ -7769,10 +7769,10 @@
         <v>51</v>
       </c>
       <c r="E360" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F360">
-        <v>110</v>
+        <v>182</v>
       </c>
     </row>
     <row r="361" spans="1:6">
@@ -7780,7 +7780,7 @@
         <v>7</v>
       </c>
       <c r="B361" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C361">
         <v>2025</v>
@@ -7789,10 +7789,10 @@
         <v>51</v>
       </c>
       <c r="E361" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F361">
-        <v>103</v>
+        <v>181</v>
       </c>
     </row>
     <row r="362" spans="1:6">
@@ -7800,7 +7800,7 @@
         <v>7</v>
       </c>
       <c r="B362" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C362">
         <v>2025</v>
@@ -7809,10 +7809,10 @@
         <v>51</v>
       </c>
       <c r="E362" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F362">
-        <v>105</v>
+        <v>181</v>
       </c>
     </row>
     <row r="363" spans="1:6">
@@ -7820,7 +7820,7 @@
         <v>7</v>
       </c>
       <c r="B363" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C363">
         <v>2025</v>
@@ -7829,10 +7829,10 @@
         <v>51</v>
       </c>
       <c r="E363" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="F363">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="364" spans="1:6">
@@ -7840,7 +7840,7 @@
         <v>7</v>
       </c>
       <c r="B364" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C364">
         <v>2025</v>
@@ -7849,10 +7849,10 @@
         <v>51</v>
       </c>
       <c r="E364" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F364">
-        <v>102</v>
+        <v>10</v>
       </c>
     </row>
     <row r="365" spans="1:6">
@@ -7860,7 +7860,7 @@
         <v>7</v>
       </c>
       <c r="B365" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C365">
         <v>2025</v>
@@ -7869,10 +7869,10 @@
         <v>51</v>
       </c>
       <c r="E365" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F365">
-        <v>5</v>
+        <v>185</v>
       </c>
     </row>
     <row r="366" spans="1:6">
@@ -7880,7 +7880,7 @@
         <v>7</v>
       </c>
       <c r="B366" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C366">
         <v>2025</v>
@@ -7889,10 +7889,10 @@
         <v>51</v>
       </c>
       <c r="E366" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F366">
-        <v>78</v>
+        <v>181</v>
       </c>
     </row>
     <row r="367" spans="1:6">
@@ -7900,7 +7900,7 @@
         <v>7</v>
       </c>
       <c r="B367" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C367">
         <v>2025</v>
@@ -7909,10 +7909,10 @@
         <v>51</v>
       </c>
       <c r="E367" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F367">
-        <v>82</v>
+        <v>181</v>
       </c>
     </row>
     <row r="368" spans="1:6">
@@ -7920,7 +7920,7 @@
         <v>7</v>
       </c>
       <c r="B368" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C368">
         <v>2025</v>
@@ -7929,10 +7929,10 @@
         <v>51</v>
       </c>
       <c r="E368" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="F368">
-        <v>77</v>
+        <v>28</v>
       </c>
     </row>
     <row r="369" spans="1:6">
@@ -7940,7 +7940,7 @@
         <v>7</v>
       </c>
       <c r="B369" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C369">
         <v>2025</v>
@@ -7949,10 +7949,10 @@
         <v>51</v>
       </c>
       <c r="E369" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F369">
-        <v>79</v>
+        <v>1</v>
       </c>
     </row>
     <row r="370" spans="1:6">
@@ -7960,7 +7960,7 @@
         <v>7</v>
       </c>
       <c r="B370" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C370">
         <v>2025</v>
@@ -7969,10 +7969,10 @@
         <v>51</v>
       </c>
       <c r="E370" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F370">
-        <v>4</v>
+        <v>185</v>
       </c>
     </row>
     <row r="371" spans="1:6">
@@ -7980,7 +7980,7 @@
         <v>7</v>
       </c>
       <c r="B371" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C371">
         <v>2025</v>
@@ -7989,10 +7989,10 @@
         <v>51</v>
       </c>
       <c r="E371" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="F371">
-        <v>77</v>
+        <v>10</v>
       </c>
     </row>
     <row r="372" spans="1:6">
@@ -8000,7 +8000,7 @@
         <v>7</v>
       </c>
       <c r="B372" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C372">
         <v>2025</v>
@@ -8009,10 +8009,10 @@
         <v>51</v>
       </c>
       <c r="E372" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F372">
-        <v>79</v>
+        <v>116</v>
       </c>
     </row>
     <row r="373" spans="1:6">
@@ -8020,7 +8020,7 @@
         <v>7</v>
       </c>
       <c r="B373" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C373">
         <v>2025</v>
@@ -8029,10 +8029,10 @@
         <v>51</v>
       </c>
       <c r="E373" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F373">
-        <v>79</v>
+        <v>112</v>
       </c>
     </row>
     <row r="374" spans="1:6">
@@ -8040,7 +8040,7 @@
         <v>7</v>
       </c>
       <c r="B374" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C374">
         <v>2025</v>
@@ -8049,10 +8049,10 @@
         <v>51</v>
       </c>
       <c r="E374" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="F374">
-        <v>14</v>
+        <v>109</v>
       </c>
     </row>
     <row r="375" spans="1:6">
@@ -8060,7 +8060,7 @@
         <v>7</v>
       </c>
       <c r="B375" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C375">
         <v>2025</v>
@@ -8069,10 +8069,10 @@
         <v>51</v>
       </c>
       <c r="E375" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F375">
-        <v>79</v>
+        <v>110</v>
       </c>
     </row>
     <row r="376" spans="1:6">
@@ -8080,7 +8080,7 @@
         <v>7</v>
       </c>
       <c r="B376" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C376">
         <v>2025</v>
@@ -8089,10 +8089,10 @@
         <v>51</v>
       </c>
       <c r="E376" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="F376">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="377" spans="1:6">
@@ -8100,7 +8100,7 @@
         <v>7</v>
       </c>
       <c r="B377" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C377">
         <v>2025</v>
@@ -8109,10 +8109,10 @@
         <v>51</v>
       </c>
       <c r="E377" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="F377">
-        <v>136</v>
+        <v>6</v>
       </c>
     </row>
     <row r="378" spans="1:6">
@@ -8120,7 +8120,7 @@
         <v>7</v>
       </c>
       <c r="B378" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C378">
         <v>2025</v>
@@ -8129,10 +8129,10 @@
         <v>51</v>
       </c>
       <c r="E378" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F378">
-        <v>135</v>
+        <v>114</v>
       </c>
     </row>
     <row r="379" spans="1:6">
@@ -8140,7 +8140,7 @@
         <v>7</v>
       </c>
       <c r="B379" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C379">
         <v>2025</v>
@@ -8149,10 +8149,10 @@
         <v>51</v>
       </c>
       <c r="E379" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F379">
-        <v>132</v>
+        <v>110</v>
       </c>
     </row>
     <row r="380" spans="1:6">
@@ -8160,7 +8160,7 @@
         <v>7</v>
       </c>
       <c r="B380" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C380">
         <v>2025</v>
@@ -8169,10 +8169,10 @@
         <v>51</v>
       </c>
       <c r="E380" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F380">
-        <v>135</v>
+        <v>105</v>
       </c>
     </row>
     <row r="381" spans="1:6">
@@ -8180,7 +8180,7 @@
         <v>7</v>
       </c>
       <c r="B381" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C381">
         <v>2025</v>
@@ -8189,10 +8189,10 @@
         <v>51</v>
       </c>
       <c r="E381" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="F381">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="382" spans="1:6">
@@ -8200,7 +8200,7 @@
         <v>7</v>
       </c>
       <c r="B382" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C382">
         <v>2025</v>
@@ -8209,10 +8209,10 @@
         <v>51</v>
       </c>
       <c r="E382" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F382">
-        <v>134</v>
+        <v>1</v>
       </c>
     </row>
     <row r="383" spans="1:6">
@@ -8220,7 +8220,7 @@
         <v>7</v>
       </c>
       <c r="B383" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C383">
         <v>2025</v>
@@ -8229,10 +8229,10 @@
         <v>51</v>
       </c>
       <c r="E383" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F383">
-        <v>133</v>
+        <v>115</v>
       </c>
     </row>
     <row r="384" spans="1:6">
@@ -8240,7 +8240,7 @@
         <v>7</v>
       </c>
       <c r="B384" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C384">
         <v>2025</v>
@@ -8249,10 +8249,10 @@
         <v>51</v>
       </c>
       <c r="E384" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F384">
-        <v>133</v>
+        <v>6</v>
       </c>
     </row>
     <row r="385" spans="1:6">
@@ -8260,7 +8260,7 @@
         <v>7</v>
       </c>
       <c r="B385" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C385">
         <v>2025</v>
@@ -8269,10 +8269,10 @@
         <v>51</v>
       </c>
       <c r="E385" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="F385">
-        <v>28</v>
+        <v>101</v>
       </c>
     </row>
     <row r="386" spans="1:6">
@@ -8280,7 +8280,7 @@
         <v>7</v>
       </c>
       <c r="B386" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C386">
         <v>2025</v>
@@ -8289,10 +8289,10 @@
         <v>51</v>
       </c>
       <c r="E386" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F386">
-        <v>133</v>
+        <v>103</v>
       </c>
     </row>
     <row r="387" spans="1:6">
@@ -8300,7 +8300,7 @@
         <v>7</v>
       </c>
       <c r="B387" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C387">
         <v>2025</v>
@@ -8309,10 +8309,10 @@
         <v>51</v>
       </c>
       <c r="E387" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F387">
-        <v>8</v>
+        <v>105</v>
       </c>
     </row>
     <row r="388" spans="1:6">
@@ -8320,7 +8320,7 @@
         <v>7</v>
       </c>
       <c r="B388" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C388">
         <v>2025</v>
@@ -8329,10 +8329,10 @@
         <v>51</v>
       </c>
       <c r="E388" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="F388">
-        <v>64</v>
+        <v>105</v>
       </c>
     </row>
     <row r="389" spans="1:6">
@@ -8340,7 +8340,7 @@
         <v>7</v>
       </c>
       <c r="B389" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C389">
         <v>2025</v>
@@ -8349,10 +8349,10 @@
         <v>51</v>
       </c>
       <c r="E389" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F389">
-        <v>64</v>
+        <v>6</v>
       </c>
     </row>
     <row r="390" spans="1:6">
@@ -8360,7 +8360,7 @@
         <v>7</v>
       </c>
       <c r="B390" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C390">
         <v>2025</v>
@@ -8369,10 +8369,10 @@
         <v>51</v>
       </c>
       <c r="E390" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="F390">
-        <v>61</v>
+        <v>6</v>
       </c>
     </row>
     <row r="391" spans="1:6">
@@ -8380,7 +8380,7 @@
         <v>7</v>
       </c>
       <c r="B391" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C391">
         <v>2025</v>
@@ -8389,10 +8389,10 @@
         <v>51</v>
       </c>
       <c r="E391" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F391">
-        <v>62</v>
+        <v>110</v>
       </c>
     </row>
     <row r="392" spans="1:6">
@@ -8400,7 +8400,7 @@
         <v>7</v>
       </c>
       <c r="B392" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C392">
         <v>2025</v>
@@ -8409,10 +8409,10 @@
         <v>51</v>
       </c>
       <c r="E392" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F392">
-        <v>5</v>
+        <v>103</v>
       </c>
     </row>
     <row r="393" spans="1:6">
@@ -8420,7 +8420,7 @@
         <v>7</v>
       </c>
       <c r="B393" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C393">
         <v>2025</v>
@@ -8429,10 +8429,10 @@
         <v>51</v>
       </c>
       <c r="E393" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F393">
-        <v>65</v>
+        <v>105</v>
       </c>
     </row>
     <row r="394" spans="1:6">
@@ -8440,7 +8440,7 @@
         <v>7</v>
       </c>
       <c r="B394" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C394">
         <v>2025</v>
@@ -8449,10 +8449,10 @@
         <v>51</v>
       </c>
       <c r="E394" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="F394">
-        <v>63</v>
+        <v>21</v>
       </c>
     </row>
     <row r="395" spans="1:6">
@@ -8460,7 +8460,7 @@
         <v>7</v>
       </c>
       <c r="B395" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C395">
         <v>2025</v>
@@ -8469,10 +8469,10 @@
         <v>51</v>
       </c>
       <c r="E395" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F395">
-        <v>63</v>
+        <v>1</v>
       </c>
     </row>
     <row r="396" spans="1:6">
@@ -8480,7 +8480,7 @@
         <v>7</v>
       </c>
       <c r="B396" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C396">
         <v>2025</v>
@@ -8489,10 +8489,10 @@
         <v>51</v>
       </c>
       <c r="E396" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F396">
-        <v>14</v>
+        <v>102</v>
       </c>
     </row>
     <row r="397" spans="1:6">
@@ -8500,7 +8500,7 @@
         <v>7</v>
       </c>
       <c r="B397" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C397">
         <v>2025</v>
@@ -8509,10 +8509,10 @@
         <v>51</v>
       </c>
       <c r="E397" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F397">
-        <v>63</v>
+        <v>5</v>
       </c>
     </row>
     <row r="398" spans="1:6">
@@ -8520,7 +8520,7 @@
         <v>7</v>
       </c>
       <c r="B398" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C398">
         <v>2025</v>
@@ -8529,10 +8529,10 @@
         <v>51</v>
       </c>
       <c r="E398" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F398">
-        <v>5</v>
+        <v>78</v>
       </c>
     </row>
     <row r="399" spans="1:6">
@@ -8540,7 +8540,7 @@
         <v>7</v>
       </c>
       <c r="B399" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C399">
         <v>2025</v>
@@ -8549,10 +8549,10 @@
         <v>51</v>
       </c>
       <c r="E399" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F399">
-        <v>222</v>
+        <v>82</v>
       </c>
     </row>
     <row r="400" spans="1:6">
@@ -8560,7 +8560,7 @@
         <v>7</v>
       </c>
       <c r="B400" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C400">
         <v>2025</v>
@@ -8569,10 +8569,10 @@
         <v>51</v>
       </c>
       <c r="E400" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F400">
-        <v>224</v>
+        <v>77</v>
       </c>
     </row>
     <row r="401" spans="1:6">
@@ -8580,7 +8580,7 @@
         <v>7</v>
       </c>
       <c r="B401" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C401">
         <v>2025</v>
@@ -8589,10 +8589,10 @@
         <v>51</v>
       </c>
       <c r="E401" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="F401">
-        <v>224</v>
+        <v>79</v>
       </c>
     </row>
     <row r="402" spans="1:6">
@@ -8600,7 +8600,7 @@
         <v>7</v>
       </c>
       <c r="B402" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C402">
         <v>2025</v>
@@ -8609,10 +8609,10 @@
         <v>51</v>
       </c>
       <c r="E402" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="F402">
-        <v>219</v>
+        <v>4</v>
       </c>
     </row>
     <row r="403" spans="1:6">
@@ -8620,7 +8620,7 @@
         <v>7</v>
       </c>
       <c r="B403" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C403">
         <v>2025</v>
@@ -8629,10 +8629,10 @@
         <v>51</v>
       </c>
       <c r="E403" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="F403">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="404" spans="1:6">
@@ -8640,7 +8640,7 @@
         <v>7</v>
       </c>
       <c r="B404" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C404">
         <v>2025</v>
@@ -8652,7 +8652,7 @@
         <v>56</v>
       </c>
       <c r="F404">
-        <v>225</v>
+        <v>77</v>
       </c>
     </row>
     <row r="405" spans="1:6">
@@ -8660,7 +8660,7 @@
         <v>7</v>
       </c>
       <c r="B405" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C405">
         <v>2025</v>
@@ -8672,7 +8672,7 @@
         <v>57</v>
       </c>
       <c r="F405">
-        <v>216</v>
+        <v>79</v>
       </c>
     </row>
     <row r="406" spans="1:6">
@@ -8680,7 +8680,7 @@
         <v>7</v>
       </c>
       <c r="B406" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C406">
         <v>2025</v>
@@ -8692,7 +8692,7 @@
         <v>59</v>
       </c>
       <c r="F406">
-        <v>219</v>
+        <v>79</v>
       </c>
     </row>
     <row r="407" spans="1:6">
@@ -8700,7 +8700,7 @@
         <v>7</v>
       </c>
       <c r="B407" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C407">
         <v>2025</v>
@@ -8712,7 +8712,7 @@
         <v>65</v>
       </c>
       <c r="F407">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="408" spans="1:6">
@@ -8720,7 +8720,7 @@
         <v>7</v>
       </c>
       <c r="B408" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C408">
         <v>2025</v>
@@ -8729,10 +8729,10 @@
         <v>51</v>
       </c>
       <c r="E408" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F408">
-        <v>219</v>
+        <v>1</v>
       </c>
     </row>
     <row r="409" spans="1:6">
@@ -8740,7 +8740,7 @@
         <v>7</v>
       </c>
       <c r="B409" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C409">
         <v>2025</v>
@@ -8749,10 +8749,10 @@
         <v>51</v>
       </c>
       <c r="E409" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F409">
-        <v>12</v>
+        <v>79</v>
       </c>
     </row>
     <row r="410" spans="1:6">
@@ -8760,7 +8760,7 @@
         <v>7</v>
       </c>
       <c r="B410" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C410">
         <v>2025</v>
@@ -8769,10 +8769,10 @@
         <v>51</v>
       </c>
       <c r="E410" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="F410">
-        <v>123</v>
+        <v>4</v>
       </c>
     </row>
     <row r="411" spans="1:6">
@@ -8780,7 +8780,7 @@
         <v>7</v>
       </c>
       <c r="B411" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C411">
         <v>2025</v>
@@ -8789,10 +8789,10 @@
         <v>51</v>
       </c>
       <c r="E411" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F411">
-        <v>127</v>
+        <v>136</v>
       </c>
     </row>
     <row r="412" spans="1:6">
@@ -8800,7 +8800,7 @@
         <v>7</v>
       </c>
       <c r="B412" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C412">
         <v>2025</v>
@@ -8809,10 +8809,10 @@
         <v>51</v>
       </c>
       <c r="E412" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F412">
-        <v>116</v>
+        <v>135</v>
       </c>
     </row>
     <row r="413" spans="1:6">
@@ -8820,7 +8820,7 @@
         <v>7</v>
       </c>
       <c r="B413" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C413">
         <v>2025</v>
@@ -8829,10 +8829,10 @@
         <v>51</v>
       </c>
       <c r="E413" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="F413">
-        <v>121</v>
+        <v>132</v>
       </c>
     </row>
     <row r="414" spans="1:6">
@@ -8840,7 +8840,7 @@
         <v>7</v>
       </c>
       <c r="B414" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C414">
         <v>2025</v>
@@ -8849,10 +8849,10 @@
         <v>51</v>
       </c>
       <c r="E414" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="F414">
-        <v>6</v>
+        <v>135</v>
       </c>
     </row>
     <row r="415" spans="1:6">
@@ -8860,7 +8860,7 @@
         <v>7</v>
       </c>
       <c r="B415" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C415">
         <v>2025</v>
@@ -8869,10 +8869,10 @@
         <v>51</v>
       </c>
       <c r="E415" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F415">
-        <v>121</v>
+        <v>8</v>
       </c>
     </row>
     <row r="416" spans="1:6">
@@ -8880,7 +8880,7 @@
         <v>7</v>
       </c>
       <c r="B416" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C416">
         <v>2025</v>
@@ -8889,10 +8889,10 @@
         <v>51</v>
       </c>
       <c r="E416" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="F416">
-        <v>123</v>
+        <v>7</v>
       </c>
     </row>
     <row r="417" spans="1:6">
@@ -8900,7 +8900,7 @@
         <v>7</v>
       </c>
       <c r="B417" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C417">
         <v>2025</v>
@@ -8909,10 +8909,10 @@
         <v>51</v>
       </c>
       <c r="E417" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F417">
-        <v>121</v>
+        <v>134</v>
       </c>
     </row>
     <row r="418" spans="1:6">
@@ -8920,7 +8920,7 @@
         <v>7</v>
       </c>
       <c r="B418" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C418">
         <v>2025</v>
@@ -8929,10 +8929,10 @@
         <v>51</v>
       </c>
       <c r="E418" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F418">
-        <v>14</v>
+        <v>133</v>
       </c>
     </row>
     <row r="419" spans="1:6">
@@ -8940,7 +8940,7 @@
         <v>7</v>
       </c>
       <c r="B419" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C419">
         <v>2025</v>
@@ -8949,10 +8949,10 @@
         <v>51</v>
       </c>
       <c r="E419" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F419">
-        <v>118</v>
+        <v>133</v>
       </c>
     </row>
     <row r="420" spans="1:6">
@@ -8960,7 +8960,7 @@
         <v>7</v>
       </c>
       <c r="B420" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C420">
         <v>2025</v>
@@ -8969,10 +8969,10 @@
         <v>51</v>
       </c>
       <c r="E420" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F420">
-        <v>6</v>
+        <v>28</v>
       </c>
     </row>
     <row r="421" spans="1:6">
@@ -8980,7 +8980,7 @@
         <v>7</v>
       </c>
       <c r="B421" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C421">
         <v>2025</v>
@@ -8989,10 +8989,10 @@
         <v>51</v>
       </c>
       <c r="E421" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="F421">
-        <v>78</v>
+        <v>1</v>
       </c>
     </row>
     <row r="422" spans="1:6">
@@ -9000,7 +9000,7 @@
         <v>7</v>
       </c>
       <c r="B422" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C422">
         <v>2025</v>
@@ -9009,10 +9009,10 @@
         <v>51</v>
       </c>
       <c r="E422" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="F422">
-        <v>74</v>
+        <v>133</v>
       </c>
     </row>
     <row r="423" spans="1:6">
@@ -9020,7 +9020,7 @@
         <v>7</v>
       </c>
       <c r="B423" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C423">
         <v>2025</v>
@@ -9029,10 +9029,10 @@
         <v>51</v>
       </c>
       <c r="E423" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F423">
-        <v>76</v>
+        <v>8</v>
       </c>
     </row>
     <row r="424" spans="1:6">
@@ -9040,7 +9040,7 @@
         <v>7</v>
       </c>
       <c r="B424" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C424">
         <v>2025</v>
@@ -9049,10 +9049,10 @@
         <v>51</v>
       </c>
       <c r="E424" t="s">
+        <v>52</v>
+      </c>
+      <c r="F424">
         <v>64</v>
-      </c>
-      <c r="F424">
-        <v>78</v>
       </c>
     </row>
     <row r="425" spans="1:6">
@@ -9060,7 +9060,7 @@
         <v>7</v>
       </c>
       <c r="B425" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C425">
         <v>2025</v>
@@ -9069,10 +9069,10 @@
         <v>51</v>
       </c>
       <c r="E425" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F425">
-        <v>5</v>
+        <v>64</v>
       </c>
     </row>
     <row r="426" spans="1:6">
@@ -9080,7 +9080,7 @@
         <v>7</v>
       </c>
       <c r="B426" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C426">
         <v>2025</v>
@@ -9089,10 +9089,10 @@
         <v>51</v>
       </c>
       <c r="E426" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F426">
-        <v>77</v>
+        <v>61</v>
       </c>
     </row>
     <row r="427" spans="1:6">
@@ -9100,7 +9100,7 @@
         <v>7</v>
       </c>
       <c r="B427" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C427">
         <v>2025</v>
@@ -9109,10 +9109,10 @@
         <v>51</v>
       </c>
       <c r="E427" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="F427">
-        <v>78</v>
+        <v>62</v>
       </c>
     </row>
     <row r="428" spans="1:6">
@@ -9120,7 +9120,7 @@
         <v>7</v>
       </c>
       <c r="B428" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C428">
         <v>2025</v>
@@ -9129,10 +9129,10 @@
         <v>51</v>
       </c>
       <c r="E428" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F428">
-        <v>79</v>
+        <v>5</v>
       </c>
     </row>
     <row r="429" spans="1:6">
@@ -9140,7 +9140,7 @@
         <v>7</v>
       </c>
       <c r="B429" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C429">
         <v>2025</v>
@@ -9149,10 +9149,10 @@
         <v>51</v>
       </c>
       <c r="E429" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F429">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="430" spans="1:6">
@@ -9160,7 +9160,7 @@
         <v>7</v>
       </c>
       <c r="B430" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C430">
         <v>2025</v>
@@ -9169,10 +9169,10 @@
         <v>51</v>
       </c>
       <c r="E430" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F430">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="431" spans="1:6">
@@ -9180,7 +9180,7 @@
         <v>7</v>
       </c>
       <c r="B431" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C431">
         <v>2025</v>
@@ -9189,10 +9189,10 @@
         <v>51</v>
       </c>
       <c r="E431" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F431">
-        <v>5</v>
+        <v>63</v>
       </c>
     </row>
     <row r="432" spans="1:6">
@@ -9200,7 +9200,7 @@
         <v>7</v>
       </c>
       <c r="B432" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C432">
         <v>2025</v>
@@ -9209,10 +9209,10 @@
         <v>51</v>
       </c>
       <c r="E432" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="F432">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="433" spans="1:6">
@@ -9220,7 +9220,7 @@
         <v>7</v>
       </c>
       <c r="B433" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C433">
         <v>2025</v>
@@ -9229,10 +9229,10 @@
         <v>51</v>
       </c>
       <c r="E433" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="F433">
-        <v>65</v>
+        <v>14</v>
       </c>
     </row>
     <row r="434" spans="1:6">
@@ -9240,7 +9240,7 @@
         <v>7</v>
       </c>
       <c r="B434" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C434">
         <v>2025</v>
@@ -9249,10 +9249,10 @@
         <v>51</v>
       </c>
       <c r="E434" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F434">
-        <v>64</v>
+        <v>1</v>
       </c>
     </row>
     <row r="435" spans="1:6">
@@ -9260,7 +9260,7 @@
         <v>7</v>
       </c>
       <c r="B435" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C435">
         <v>2025</v>
@@ -9269,10 +9269,10 @@
         <v>51</v>
       </c>
       <c r="E435" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F435">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="436" spans="1:6">
@@ -9280,7 +9280,7 @@
         <v>7</v>
       </c>
       <c r="B436" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C436">
         <v>2025</v>
@@ -9289,10 +9289,10 @@
         <v>51</v>
       </c>
       <c r="E436" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="F436">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="437" spans="1:6">
@@ -9300,7 +9300,7 @@
         <v>7</v>
       </c>
       <c r="B437" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C437">
         <v>2025</v>
@@ -9309,10 +9309,10 @@
         <v>51</v>
       </c>
       <c r="E437" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F437">
-        <v>66</v>
+        <v>222</v>
       </c>
     </row>
     <row r="438" spans="1:6">
@@ -9320,7 +9320,7 @@
         <v>7</v>
       </c>
       <c r="B438" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C438">
         <v>2025</v>
@@ -9329,10 +9329,10 @@
         <v>51</v>
       </c>
       <c r="E438" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F438">
-        <v>68</v>
+        <v>224</v>
       </c>
     </row>
     <row r="439" spans="1:6">
@@ -9340,7 +9340,7 @@
         <v>7</v>
       </c>
       <c r="B439" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C439">
         <v>2025</v>
@@ -9349,10 +9349,10 @@
         <v>51</v>
       </c>
       <c r="E439" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F439">
-        <v>65</v>
+        <v>224</v>
       </c>
     </row>
     <row r="440" spans="1:6">
@@ -9360,7 +9360,7 @@
         <v>7</v>
       </c>
       <c r="B440" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C440">
         <v>2025</v>
@@ -9369,10 +9369,10 @@
         <v>51</v>
       </c>
       <c r="E440" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F440">
-        <v>7</v>
+        <v>219</v>
       </c>
     </row>
     <row r="441" spans="1:6">
@@ -9380,7 +9380,7 @@
         <v>7</v>
       </c>
       <c r="B441" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C441">
         <v>2025</v>
@@ -9389,10 +9389,10 @@
         <v>51</v>
       </c>
       <c r="E441" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F441">
-        <v>68</v>
+        <v>12</v>
       </c>
     </row>
     <row r="442" spans="1:6">
@@ -9400,7 +9400,7 @@
         <v>7</v>
       </c>
       <c r="B442" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C442">
         <v>2025</v>
@@ -9409,10 +9409,10 @@
         <v>51</v>
       </c>
       <c r="E442" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F442">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="443" spans="1:6">
@@ -9420,7 +9420,7 @@
         <v>7</v>
       </c>
       <c r="B443" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C443">
         <v>2025</v>
@@ -9429,10 +9429,10 @@
         <v>51</v>
       </c>
       <c r="E443" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F443">
-        <v>106</v>
+        <v>219</v>
       </c>
     </row>
     <row r="444" spans="1:6">
@@ -9440,7 +9440,7 @@
         <v>7</v>
       </c>
       <c r="B444" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C444">
         <v>2025</v>
@@ -9449,10 +9449,10 @@
         <v>51</v>
       </c>
       <c r="E444" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F444">
-        <v>105</v>
+        <v>216</v>
       </c>
     </row>
     <row r="445" spans="1:6">
@@ -9460,7 +9460,7 @@
         <v>7</v>
       </c>
       <c r="B445" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C445">
         <v>2025</v>
@@ -9469,10 +9469,10 @@
         <v>51</v>
       </c>
       <c r="E445" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F445">
-        <v>105</v>
+        <v>219</v>
       </c>
     </row>
     <row r="446" spans="1:6">
@@ -9480,7 +9480,7 @@
         <v>7</v>
       </c>
       <c r="B446" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C446">
         <v>2025</v>
@@ -9489,10 +9489,10 @@
         <v>51</v>
       </c>
       <c r="E446" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="F446">
-        <v>6</v>
+        <v>28</v>
       </c>
     </row>
     <row r="447" spans="1:6">
@@ -9500,7 +9500,7 @@
         <v>7</v>
       </c>
       <c r="B447" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C447">
         <v>2025</v>
@@ -9509,10 +9509,10 @@
         <v>51</v>
       </c>
       <c r="E447" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F447">
-        <v>105</v>
+        <v>1</v>
       </c>
     </row>
     <row r="448" spans="1:6">
@@ -9520,7 +9520,7 @@
         <v>7</v>
       </c>
       <c r="B448" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C448">
         <v>2025</v>
@@ -9529,10 +9529,10 @@
         <v>51</v>
       </c>
       <c r="E448" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F448">
-        <v>109</v>
+        <v>219</v>
       </c>
     </row>
     <row r="449" spans="1:6">
@@ -9540,7 +9540,7 @@
         <v>7</v>
       </c>
       <c r="B449" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C449">
         <v>2025</v>
@@ -9549,10 +9549,10 @@
         <v>51</v>
       </c>
       <c r="E449" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F449">
-        <v>106</v>
+        <v>12</v>
       </c>
     </row>
     <row r="450" spans="1:6">
@@ -9560,7 +9560,7 @@
         <v>7</v>
       </c>
       <c r="B450" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C450">
         <v>2025</v>
@@ -9569,10 +9569,10 @@
         <v>51</v>
       </c>
       <c r="E450" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="F450">
-        <v>14</v>
+        <v>123</v>
       </c>
     </row>
     <row r="451" spans="1:6">
@@ -9580,7 +9580,7 @@
         <v>7</v>
       </c>
       <c r="B451" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C451">
         <v>2025</v>
@@ -9589,10 +9589,10 @@
         <v>51</v>
       </c>
       <c r="E451" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F451">
-        <v>105</v>
+        <v>127</v>
       </c>
     </row>
     <row r="452" spans="1:6">
@@ -9600,7 +9600,7 @@
         <v>7</v>
       </c>
       <c r="B452" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C452">
         <v>2025</v>
@@ -9609,10 +9609,10 @@
         <v>51</v>
       </c>
       <c r="E452" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F452">
-        <v>6</v>
+        <v>116</v>
       </c>
     </row>
     <row r="453" spans="1:6">
@@ -9620,7 +9620,7 @@
         <v>7</v>
       </c>
       <c r="B453" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C453">
         <v>2025</v>
@@ -9629,10 +9629,10 @@
         <v>51</v>
       </c>
       <c r="E453" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="F453">
-        <v>168</v>
+        <v>121</v>
       </c>
     </row>
     <row r="454" spans="1:6">
@@ -9640,7 +9640,7 @@
         <v>7</v>
       </c>
       <c r="B454" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C454">
         <v>2025</v>
@@ -9649,10 +9649,10 @@
         <v>51</v>
       </c>
       <c r="E454" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F454">
-        <v>168</v>
+        <v>6</v>
       </c>
     </row>
     <row r="455" spans="1:6">
@@ -9660,7 +9660,7 @@
         <v>7</v>
       </c>
       <c r="B455" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C455">
         <v>2025</v>
@@ -9669,10 +9669,10 @@
         <v>51</v>
       </c>
       <c r="E455" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="F455">
-        <v>167</v>
+        <v>6</v>
       </c>
     </row>
     <row r="456" spans="1:6">
@@ -9680,7 +9680,7 @@
         <v>7</v>
       </c>
       <c r="B456" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C456">
         <v>2025</v>
@@ -9689,10 +9689,10 @@
         <v>51</v>
       </c>
       <c r="E456" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F456">
-        <v>167</v>
+        <v>121</v>
       </c>
     </row>
     <row r="457" spans="1:6">
@@ -9700,7 +9700,7 @@
         <v>7</v>
       </c>
       <c r="B457" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C457">
         <v>2025</v>
@@ -9709,10 +9709,10 @@
         <v>51</v>
       </c>
       <c r="E457" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F457">
-        <v>9</v>
+        <v>123</v>
       </c>
     </row>
     <row r="458" spans="1:6">
@@ -9720,7 +9720,7 @@
         <v>7</v>
       </c>
       <c r="B458" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C458">
         <v>2025</v>
@@ -9729,10 +9729,10 @@
         <v>51</v>
       </c>
       <c r="E458" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F458">
-        <v>167</v>
+        <v>121</v>
       </c>
     </row>
     <row r="459" spans="1:6">
@@ -9740,7 +9740,7 @@
         <v>7</v>
       </c>
       <c r="B459" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C459">
         <v>2025</v>
@@ -9749,10 +9749,10 @@
         <v>51</v>
       </c>
       <c r="E459" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="F459">
-        <v>168</v>
+        <v>14</v>
       </c>
     </row>
     <row r="460" spans="1:6">
@@ -9760,7 +9760,7 @@
         <v>7</v>
       </c>
       <c r="B460" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C460">
         <v>2025</v>
@@ -9769,10 +9769,10 @@
         <v>51</v>
       </c>
       <c r="E460" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F460">
-        <v>175</v>
+        <v>1</v>
       </c>
     </row>
     <row r="461" spans="1:6">
@@ -9780,7 +9780,7 @@
         <v>7</v>
       </c>
       <c r="B461" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C461">
         <v>2025</v>
@@ -9789,10 +9789,10 @@
         <v>51</v>
       </c>
       <c r="E461" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F461">
-        <v>31</v>
+        <v>118</v>
       </c>
     </row>
     <row r="462" spans="1:6">
@@ -9800,7 +9800,7 @@
         <v>7</v>
       </c>
       <c r="B462" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C462">
         <v>2025</v>
@@ -9809,10 +9809,10 @@
         <v>51</v>
       </c>
       <c r="E462" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F462">
-        <v>168</v>
+        <v>6</v>
       </c>
     </row>
     <row r="463" spans="1:6">
@@ -9820,18 +9820,1038 @@
         <v>7</v>
       </c>
       <c r="B463" t="s">
+        <v>47</v>
+      </c>
+      <c r="C463">
+        <v>2025</v>
+      </c>
+      <c r="D463" t="s">
+        <v>51</v>
+      </c>
+      <c r="E463" t="s">
+        <v>52</v>
+      </c>
+      <c r="F463">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="464" spans="1:6">
+      <c r="A464" t="s">
+        <v>7</v>
+      </c>
+      <c r="B464" t="s">
+        <v>47</v>
+      </c>
+      <c r="C464">
+        <v>2025</v>
+      </c>
+      <c r="D464" t="s">
+        <v>51</v>
+      </c>
+      <c r="E464" t="s">
+        <v>53</v>
+      </c>
+      <c r="F464">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="465" spans="1:6">
+      <c r="A465" t="s">
+        <v>7</v>
+      </c>
+      <c r="B465" t="s">
+        <v>47</v>
+      </c>
+      <c r="C465">
+        <v>2025</v>
+      </c>
+      <c r="D465" t="s">
+        <v>51</v>
+      </c>
+      <c r="E465" t="s">
+        <v>54</v>
+      </c>
+      <c r="F465">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="466" spans="1:6">
+      <c r="A466" t="s">
+        <v>7</v>
+      </c>
+      <c r="B466" t="s">
+        <v>47</v>
+      </c>
+      <c r="C466">
+        <v>2025</v>
+      </c>
+      <c r="D466" t="s">
+        <v>51</v>
+      </c>
+      <c r="E466" t="s">
+        <v>64</v>
+      </c>
+      <c r="F466">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="467" spans="1:6">
+      <c r="A467" t="s">
+        <v>7</v>
+      </c>
+      <c r="B467" t="s">
+        <v>47</v>
+      </c>
+      <c r="C467">
+        <v>2025</v>
+      </c>
+      <c r="D467" t="s">
+        <v>51</v>
+      </c>
+      <c r="E467" t="s">
+        <v>55</v>
+      </c>
+      <c r="F467">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="468" spans="1:6">
+      <c r="A468" t="s">
+        <v>7</v>
+      </c>
+      <c r="B468" t="s">
+        <v>47</v>
+      </c>
+      <c r="C468">
+        <v>2025</v>
+      </c>
+      <c r="D468" t="s">
+        <v>51</v>
+      </c>
+      <c r="E468" t="s">
+        <v>63</v>
+      </c>
+      <c r="F468">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="469" spans="1:6">
+      <c r="A469" t="s">
+        <v>7</v>
+      </c>
+      <c r="B469" t="s">
+        <v>47</v>
+      </c>
+      <c r="C469">
+        <v>2025</v>
+      </c>
+      <c r="D469" t="s">
+        <v>51</v>
+      </c>
+      <c r="E469" t="s">
+        <v>56</v>
+      </c>
+      <c r="F469">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="470" spans="1:6">
+      <c r="A470" t="s">
+        <v>7</v>
+      </c>
+      <c r="B470" t="s">
+        <v>47</v>
+      </c>
+      <c r="C470">
+        <v>2025</v>
+      </c>
+      <c r="D470" t="s">
+        <v>51</v>
+      </c>
+      <c r="E470" t="s">
+        <v>57</v>
+      </c>
+      <c r="F470">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="471" spans="1:6">
+      <c r="A471" t="s">
+        <v>7</v>
+      </c>
+      <c r="B471" t="s">
+        <v>47</v>
+      </c>
+      <c r="C471">
+        <v>2025</v>
+      </c>
+      <c r="D471" t="s">
+        <v>51</v>
+      </c>
+      <c r="E471" t="s">
+        <v>59</v>
+      </c>
+      <c r="F471">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="472" spans="1:6">
+      <c r="A472" t="s">
+        <v>7</v>
+      </c>
+      <c r="B472" t="s">
+        <v>47</v>
+      </c>
+      <c r="C472">
+        <v>2025</v>
+      </c>
+      <c r="D472" t="s">
+        <v>51</v>
+      </c>
+      <c r="E472" t="s">
+        <v>65</v>
+      </c>
+      <c r="F472">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="473" spans="1:6">
+      <c r="A473" t="s">
+        <v>7</v>
+      </c>
+      <c r="B473" t="s">
+        <v>47</v>
+      </c>
+      <c r="C473">
+        <v>2025</v>
+      </c>
+      <c r="D473" t="s">
+        <v>51</v>
+      </c>
+      <c r="E473" t="s">
+        <v>60</v>
+      </c>
+      <c r="F473">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="474" spans="1:6">
+      <c r="A474" t="s">
+        <v>7</v>
+      </c>
+      <c r="B474" t="s">
+        <v>47</v>
+      </c>
+      <c r="C474">
+        <v>2025</v>
+      </c>
+      <c r="D474" t="s">
+        <v>51</v>
+      </c>
+      <c r="E474" t="s">
+        <v>61</v>
+      </c>
+      <c r="F474">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="475" spans="1:6">
+      <c r="A475" t="s">
+        <v>7</v>
+      </c>
+      <c r="B475" t="s">
+        <v>47</v>
+      </c>
+      <c r="C475">
+        <v>2025</v>
+      </c>
+      <c r="D475" t="s">
+        <v>51</v>
+      </c>
+      <c r="E475" t="s">
+        <v>62</v>
+      </c>
+      <c r="F475">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="476" spans="1:6">
+      <c r="A476" t="s">
+        <v>7</v>
+      </c>
+      <c r="B476" t="s">
+        <v>48</v>
+      </c>
+      <c r="C476">
+        <v>2025</v>
+      </c>
+      <c r="D476" t="s">
+        <v>51</v>
+      </c>
+      <c r="E476" t="s">
+        <v>52</v>
+      </c>
+      <c r="F476">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="477" spans="1:6">
+      <c r="A477" t="s">
+        <v>7</v>
+      </c>
+      <c r="B477" t="s">
+        <v>48</v>
+      </c>
+      <c r="C477">
+        <v>2025</v>
+      </c>
+      <c r="D477" t="s">
+        <v>51</v>
+      </c>
+      <c r="E477" t="s">
+        <v>53</v>
+      </c>
+      <c r="F477">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="478" spans="1:6">
+      <c r="A478" t="s">
+        <v>7</v>
+      </c>
+      <c r="B478" t="s">
+        <v>48</v>
+      </c>
+      <c r="C478">
+        <v>2025</v>
+      </c>
+      <c r="D478" t="s">
+        <v>51</v>
+      </c>
+      <c r="E478" t="s">
+        <v>54</v>
+      </c>
+      <c r="F478">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="479" spans="1:6">
+      <c r="A479" t="s">
+        <v>7</v>
+      </c>
+      <c r="B479" t="s">
+        <v>48</v>
+      </c>
+      <c r="C479">
+        <v>2025</v>
+      </c>
+      <c r="D479" t="s">
+        <v>51</v>
+      </c>
+      <c r="E479" t="s">
+        <v>64</v>
+      </c>
+      <c r="F479">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="480" spans="1:6">
+      <c r="A480" t="s">
+        <v>7</v>
+      </c>
+      <c r="B480" t="s">
+        <v>48</v>
+      </c>
+      <c r="C480">
+        <v>2025</v>
+      </c>
+      <c r="D480" t="s">
+        <v>51</v>
+      </c>
+      <c r="E480" t="s">
+        <v>55</v>
+      </c>
+      <c r="F480">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="481" spans="1:6">
+      <c r="A481" t="s">
+        <v>7</v>
+      </c>
+      <c r="B481" t="s">
+        <v>48</v>
+      </c>
+      <c r="C481">
+        <v>2025</v>
+      </c>
+      <c r="D481" t="s">
+        <v>51</v>
+      </c>
+      <c r="E481" t="s">
+        <v>63</v>
+      </c>
+      <c r="F481">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="482" spans="1:6">
+      <c r="A482" t="s">
+        <v>7</v>
+      </c>
+      <c r="B482" t="s">
+        <v>48</v>
+      </c>
+      <c r="C482">
+        <v>2025</v>
+      </c>
+      <c r="D482" t="s">
+        <v>51</v>
+      </c>
+      <c r="E482" t="s">
+        <v>56</v>
+      </c>
+      <c r="F482">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="483" spans="1:6">
+      <c r="A483" t="s">
+        <v>7</v>
+      </c>
+      <c r="B483" t="s">
+        <v>48</v>
+      </c>
+      <c r="C483">
+        <v>2025</v>
+      </c>
+      <c r="D483" t="s">
+        <v>51</v>
+      </c>
+      <c r="E483" t="s">
+        <v>57</v>
+      </c>
+      <c r="F483">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="484" spans="1:6">
+      <c r="A484" t="s">
+        <v>7</v>
+      </c>
+      <c r="B484" t="s">
+        <v>48</v>
+      </c>
+      <c r="C484">
+        <v>2025</v>
+      </c>
+      <c r="D484" t="s">
+        <v>51</v>
+      </c>
+      <c r="E484" t="s">
+        <v>59</v>
+      </c>
+      <c r="F484">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="485" spans="1:6">
+      <c r="A485" t="s">
+        <v>7</v>
+      </c>
+      <c r="B485" t="s">
+        <v>48</v>
+      </c>
+      <c r="C485">
+        <v>2025</v>
+      </c>
+      <c r="D485" t="s">
+        <v>51</v>
+      </c>
+      <c r="E485" t="s">
+        <v>65</v>
+      </c>
+      <c r="F485">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="486" spans="1:6">
+      <c r="A486" t="s">
+        <v>7</v>
+      </c>
+      <c r="B486" t="s">
+        <v>48</v>
+      </c>
+      <c r="C486">
+        <v>2025</v>
+      </c>
+      <c r="D486" t="s">
+        <v>51</v>
+      </c>
+      <c r="E486" t="s">
+        <v>60</v>
+      </c>
+      <c r="F486">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="487" spans="1:6">
+      <c r="A487" t="s">
+        <v>7</v>
+      </c>
+      <c r="B487" t="s">
+        <v>48</v>
+      </c>
+      <c r="C487">
+        <v>2025</v>
+      </c>
+      <c r="D487" t="s">
+        <v>51</v>
+      </c>
+      <c r="E487" t="s">
+        <v>61</v>
+      </c>
+      <c r="F487">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="488" spans="1:6">
+      <c r="A488" t="s">
+        <v>7</v>
+      </c>
+      <c r="B488" t="s">
+        <v>48</v>
+      </c>
+      <c r="C488">
+        <v>2025</v>
+      </c>
+      <c r="D488" t="s">
+        <v>51</v>
+      </c>
+      <c r="E488" t="s">
+        <v>62</v>
+      </c>
+      <c r="F488">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="489" spans="1:6">
+      <c r="A489" t="s">
+        <v>7</v>
+      </c>
+      <c r="B489" t="s">
+        <v>49</v>
+      </c>
+      <c r="C489">
+        <v>2025</v>
+      </c>
+      <c r="D489" t="s">
+        <v>51</v>
+      </c>
+      <c r="E489" t="s">
+        <v>52</v>
+      </c>
+      <c r="F489">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="490" spans="1:6">
+      <c r="A490" t="s">
+        <v>7</v>
+      </c>
+      <c r="B490" t="s">
+        <v>49</v>
+      </c>
+      <c r="C490">
+        <v>2025</v>
+      </c>
+      <c r="D490" t="s">
+        <v>51</v>
+      </c>
+      <c r="E490" t="s">
+        <v>53</v>
+      </c>
+      <c r="F490">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="491" spans="1:6">
+      <c r="A491" t="s">
+        <v>7</v>
+      </c>
+      <c r="B491" t="s">
+        <v>49</v>
+      </c>
+      <c r="C491">
+        <v>2025</v>
+      </c>
+      <c r="D491" t="s">
+        <v>51</v>
+      </c>
+      <c r="E491" t="s">
+        <v>54</v>
+      </c>
+      <c r="F491">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="492" spans="1:6">
+      <c r="A492" t="s">
+        <v>7</v>
+      </c>
+      <c r="B492" t="s">
+        <v>49</v>
+      </c>
+      <c r="C492">
+        <v>2025</v>
+      </c>
+      <c r="D492" t="s">
+        <v>51</v>
+      </c>
+      <c r="E492" t="s">
+        <v>64</v>
+      </c>
+      <c r="F492">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="493" spans="1:6">
+      <c r="A493" t="s">
+        <v>7</v>
+      </c>
+      <c r="B493" t="s">
+        <v>49</v>
+      </c>
+      <c r="C493">
+        <v>2025</v>
+      </c>
+      <c r="D493" t="s">
+        <v>51</v>
+      </c>
+      <c r="E493" t="s">
+        <v>55</v>
+      </c>
+      <c r="F493">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="494" spans="1:6">
+      <c r="A494" t="s">
+        <v>7</v>
+      </c>
+      <c r="B494" t="s">
+        <v>49</v>
+      </c>
+      <c r="C494">
+        <v>2025</v>
+      </c>
+      <c r="D494" t="s">
+        <v>51</v>
+      </c>
+      <c r="E494" t="s">
+        <v>63</v>
+      </c>
+      <c r="F494">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="495" spans="1:6">
+      <c r="A495" t="s">
+        <v>7</v>
+      </c>
+      <c r="B495" t="s">
+        <v>49</v>
+      </c>
+      <c r="C495">
+        <v>2025</v>
+      </c>
+      <c r="D495" t="s">
+        <v>51</v>
+      </c>
+      <c r="E495" t="s">
+        <v>56</v>
+      </c>
+      <c r="F495">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="496" spans="1:6">
+      <c r="A496" t="s">
+        <v>7</v>
+      </c>
+      <c r="B496" t="s">
+        <v>49</v>
+      </c>
+      <c r="C496">
+        <v>2025</v>
+      </c>
+      <c r="D496" t="s">
+        <v>51</v>
+      </c>
+      <c r="E496" t="s">
+        <v>57</v>
+      </c>
+      <c r="F496">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="497" spans="1:6">
+      <c r="A497" t="s">
+        <v>7</v>
+      </c>
+      <c r="B497" t="s">
+        <v>49</v>
+      </c>
+      <c r="C497">
+        <v>2025</v>
+      </c>
+      <c r="D497" t="s">
+        <v>51</v>
+      </c>
+      <c r="E497" t="s">
+        <v>59</v>
+      </c>
+      <c r="F497">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="498" spans="1:6">
+      <c r="A498" t="s">
+        <v>7</v>
+      </c>
+      <c r="B498" t="s">
+        <v>49</v>
+      </c>
+      <c r="C498">
+        <v>2025</v>
+      </c>
+      <c r="D498" t="s">
+        <v>51</v>
+      </c>
+      <c r="E498" t="s">
+        <v>65</v>
+      </c>
+      <c r="F498">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="499" spans="1:6">
+      <c r="A499" t="s">
+        <v>7</v>
+      </c>
+      <c r="B499" t="s">
+        <v>49</v>
+      </c>
+      <c r="C499">
+        <v>2025</v>
+      </c>
+      <c r="D499" t="s">
+        <v>51</v>
+      </c>
+      <c r="E499" t="s">
+        <v>60</v>
+      </c>
+      <c r="F499">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="500" spans="1:6">
+      <c r="A500" t="s">
+        <v>7</v>
+      </c>
+      <c r="B500" t="s">
+        <v>49</v>
+      </c>
+      <c r="C500">
+        <v>2025</v>
+      </c>
+      <c r="D500" t="s">
+        <v>51</v>
+      </c>
+      <c r="E500" t="s">
+        <v>61</v>
+      </c>
+      <c r="F500">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="501" spans="1:6">
+      <c r="A501" t="s">
+        <v>7</v>
+      </c>
+      <c r="B501" t="s">
+        <v>49</v>
+      </c>
+      <c r="C501">
+        <v>2025</v>
+      </c>
+      <c r="D501" t="s">
+        <v>51</v>
+      </c>
+      <c r="E501" t="s">
+        <v>62</v>
+      </c>
+      <c r="F501">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="502" spans="1:6">
+      <c r="A502" t="s">
+        <v>7</v>
+      </c>
+      <c r="B502" t="s">
         <v>50</v>
       </c>
-      <c r="C463">
-        <v>2025</v>
-      </c>
-      <c r="D463" t="s">
-        <v>51</v>
-      </c>
-      <c r="E463" t="s">
+      <c r="C502">
+        <v>2025</v>
+      </c>
+      <c r="D502" t="s">
+        <v>51</v>
+      </c>
+      <c r="E502" t="s">
+        <v>52</v>
+      </c>
+      <c r="F502">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="503" spans="1:6">
+      <c r="A503" t="s">
+        <v>7</v>
+      </c>
+      <c r="B503" t="s">
+        <v>50</v>
+      </c>
+      <c r="C503">
+        <v>2025</v>
+      </c>
+      <c r="D503" t="s">
+        <v>51</v>
+      </c>
+      <c r="E503" t="s">
+        <v>53</v>
+      </c>
+      <c r="F503">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="504" spans="1:6">
+      <c r="A504" t="s">
+        <v>7</v>
+      </c>
+      <c r="B504" t="s">
+        <v>50</v>
+      </c>
+      <c r="C504">
+        <v>2025</v>
+      </c>
+      <c r="D504" t="s">
+        <v>51</v>
+      </c>
+      <c r="E504" t="s">
+        <v>54</v>
+      </c>
+      <c r="F504">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="505" spans="1:6">
+      <c r="A505" t="s">
+        <v>7</v>
+      </c>
+      <c r="B505" t="s">
+        <v>50</v>
+      </c>
+      <c r="C505">
+        <v>2025</v>
+      </c>
+      <c r="D505" t="s">
+        <v>51</v>
+      </c>
+      <c r="E505" t="s">
+        <v>64</v>
+      </c>
+      <c r="F505">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="506" spans="1:6">
+      <c r="A506" t="s">
+        <v>7</v>
+      </c>
+      <c r="B506" t="s">
+        <v>50</v>
+      </c>
+      <c r="C506">
+        <v>2025</v>
+      </c>
+      <c r="D506" t="s">
+        <v>51</v>
+      </c>
+      <c r="E506" t="s">
+        <v>55</v>
+      </c>
+      <c r="F506">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="507" spans="1:6">
+      <c r="A507" t="s">
+        <v>7</v>
+      </c>
+      <c r="B507" t="s">
+        <v>50</v>
+      </c>
+      <c r="C507">
+        <v>2025</v>
+      </c>
+      <c r="D507" t="s">
+        <v>51</v>
+      </c>
+      <c r="E507" t="s">
+        <v>63</v>
+      </c>
+      <c r="F507">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="508" spans="1:6">
+      <c r="A508" t="s">
+        <v>7</v>
+      </c>
+      <c r="B508" t="s">
+        <v>50</v>
+      </c>
+      <c r="C508">
+        <v>2025</v>
+      </c>
+      <c r="D508" t="s">
+        <v>51</v>
+      </c>
+      <c r="E508" t="s">
+        <v>56</v>
+      </c>
+      <c r="F508">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="509" spans="1:6">
+      <c r="A509" t="s">
+        <v>7</v>
+      </c>
+      <c r="B509" t="s">
+        <v>50</v>
+      </c>
+      <c r="C509">
+        <v>2025</v>
+      </c>
+      <c r="D509" t="s">
+        <v>51</v>
+      </c>
+      <c r="E509" t="s">
+        <v>57</v>
+      </c>
+      <c r="F509">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="510" spans="1:6">
+      <c r="A510" t="s">
+        <v>7</v>
+      </c>
+      <c r="B510" t="s">
+        <v>50</v>
+      </c>
+      <c r="C510">
+        <v>2025</v>
+      </c>
+      <c r="D510" t="s">
+        <v>51</v>
+      </c>
+      <c r="E510" t="s">
+        <v>59</v>
+      </c>
+      <c r="F510">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="511" spans="1:6">
+      <c r="A511" t="s">
+        <v>7</v>
+      </c>
+      <c r="B511" t="s">
+        <v>50</v>
+      </c>
+      <c r="C511">
+        <v>2025</v>
+      </c>
+      <c r="D511" t="s">
+        <v>51</v>
+      </c>
+      <c r="E511" t="s">
+        <v>65</v>
+      </c>
+      <c r="F511">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="512" spans="1:6">
+      <c r="A512" t="s">
+        <v>7</v>
+      </c>
+      <c r="B512" t="s">
+        <v>50</v>
+      </c>
+      <c r="C512">
+        <v>2025</v>
+      </c>
+      <c r="D512" t="s">
+        <v>51</v>
+      </c>
+      <c r="E512" t="s">
+        <v>60</v>
+      </c>
+      <c r="F512">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="513" spans="1:6">
+      <c r="A513" t="s">
+        <v>7</v>
+      </c>
+      <c r="B513" t="s">
+        <v>50</v>
+      </c>
+      <c r="C513">
+        <v>2025</v>
+      </c>
+      <c r="D513" t="s">
+        <v>51</v>
+      </c>
+      <c r="E513" t="s">
+        <v>61</v>
+      </c>
+      <c r="F513">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="514" spans="1:6">
+      <c r="A514" t="s">
+        <v>7</v>
+      </c>
+      <c r="B514" t="s">
+        <v>50</v>
+      </c>
+      <c r="C514">
+        <v>2025</v>
+      </c>
+      <c r="D514" t="s">
+        <v>51</v>
+      </c>
+      <c r="E514" t="s">
         <v>62</v>
       </c>
-      <c r="F463">
+      <c r="F514">
         <v>9</v>
       </c>
     </row>
